--- a/Template KOORDINAT.xlsx
+++ b/Template KOORDINAT.xlsx
@@ -4775,7 +4775,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>X-Desain</t>
   </si>
@@ -4908,6 +4908,36 @@
   </si>
   <si>
     <t>ktk_palu</t>
+  </si>
+  <si>
+    <t>w_ktk_palu</t>
+  </si>
+  <si>
+    <t>ktk_ggng_palu</t>
+  </si>
+  <si>
+    <t>w_ktk_ggng_palu</t>
+  </si>
+  <si>
+    <t>ktk_ggng_gergaji</t>
+  </si>
+  <si>
+    <t>w_ktk_ggng_gergaji</t>
+  </si>
+  <si>
+    <t>ktk_lbng_gergaji</t>
+  </si>
+  <si>
+    <t>w_ktk_lbng_gergaji</t>
+  </si>
+  <si>
+    <t>sgt_gergaji</t>
+  </si>
+  <si>
+    <t>w_sgt_gergaji</t>
+  </si>
+  <si>
+    <t>ktk_ats_furnace</t>
   </si>
 </sst>
 </file>
@@ -5217,7 +5247,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5443,6 +5473,10 @@
     <xf fontId="3" fillId="6" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="3" fillId="7" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5462,8 +5496,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="poltek" id="{F1376528-1584-63BE-68BE-CAE866B119F8}"/>
-  <person displayName="Neny" id="{37135395-D979-87A6-6563-22224E7F837E}"/>
+  <person displayName="poltek" id="{3FB90659-BB62-1D56-9C03-D6D748EDC255}"/>
+  <person displayName="Neny" id="{CBF40502-6F10-8A56-5BE4-6C2863344525}"/>
 </personList>
 </file>
 
@@ -5961,516 +5995,516 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F11" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{002500E1-00B8-415B-B628-00BC00C1008B}" done="0">
+  <threadedComment ref="F11" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{002500E1-00B8-415B-B628-00BC00C1008B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F101" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00E800CE-007E-426B-B7E5-007C0091000C}" done="0">
+  <threadedComment ref="F101" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E800CE-007E-426B-B7E5-007C0091000C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F102" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00E000F6-00AF-4CED-A227-008A00F2001C}" done="0">
+  <threadedComment ref="F102" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E000F6-00AF-4CED-A227-008A00F2001C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F103" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{003D0069-00A4-4EB2-9FF8-00C900CF008C}" done="0">
+  <threadedComment ref="F103" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{003D0069-00A4-4EB2-9FF8-00C900CF008C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F104" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00E900E6-0010-43DD-BD1C-002F00250065}" done="0">
+  <threadedComment ref="F104" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E900E6-0010-43DD-BD1C-002F00250065}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F105" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00FE00F5-001D-42E1-AB80-004F006300A1}" done="0">
+  <threadedComment ref="F105" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00FE00F5-001D-42E1-AB80-004F006300A1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F12" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00BB00DD-0073-4E2E-8E5F-007C007F0010}" done="0">
+  <threadedComment ref="F12" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00BB00DD-0073-4E2E-8E5F-007C007F0010}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F13" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00B00031-00C9-4E4A-A3B5-006000A60042}" done="0">
+  <threadedComment ref="F13" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00B00031-00C9-4E4A-A3B5-006000A60042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F14" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{001200B5-0057-4871-9B75-0071006000EE}" done="0">
+  <threadedComment ref="F14" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{001200B5-0057-4871-9B75-0071006000EE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F15" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0032009A-0014-4A22-A6AB-001F000500BA}" done="0">
+  <threadedComment ref="F15" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0032009A-0014-4A22-A6AB-001F000500BA}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F16" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00CC007D-000D-4589-9961-003000160093}" done="0">
+  <threadedComment ref="F16" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00CC007D-000D-4589-9961-003000160093}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F17" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{009400AE-00F2-4CA6-B8A9-00C000DD00B4}" done="0">
+  <threadedComment ref="F17" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009400AE-00F2-4CA6-B8A9-00C000DD00B4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F18" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{003100D6-0016-4C77-B58E-0060001F0052}" done="0">
+  <threadedComment ref="F18" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{003100D6-0016-4C77-B58E-0060001F0052}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F19" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{009D0070-0067-450A-847F-00CD00F5001B}" done="0">
+  <threadedComment ref="F19" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009D0070-0067-450A-847F-00CD00F5001B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F20" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{006100D3-00DC-44AD-B91D-005F00A0007E}" done="0">
+  <threadedComment ref="F20" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{006100D3-00DC-44AD-B91D-005F00A0007E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F21" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00D800F4-000E-4F86-A2C7-0060009400B9}" done="0">
+  <threadedComment ref="F21" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D800F4-000E-4F86-A2C7-0060009400B9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F22" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{008500D6-0072-416A-8A43-009C0054002E}" done="0">
+  <threadedComment ref="F22" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{008500D6-0072-416A-8A43-009C0054002E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F23" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0089000F-0033-470B-91DC-00C300A40067}" done="0">
+  <threadedComment ref="F23" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0089000F-0033-470B-91DC-00C300A40067}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F24" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{000400E2-0064-464B-8D0F-0091006E00D3}" done="0">
+  <threadedComment ref="F24" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{000400E2-0064-464B-8D0F-0091006E00D3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F25" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{007E0057-0058-4C50-ABEF-0064004200F8}" done="0">
+  <threadedComment ref="F25" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{007E0057-0058-4C50-ABEF-0064004200F8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F26" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00CC009C-00FA-4C65-A1BB-002300F300AC}" done="0">
+  <threadedComment ref="F26" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00CC009C-00FA-4C65-A1BB-002300F300AC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F27" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00650033-004D-4692-A5AE-003E005F009E}" done="0">
+  <threadedComment ref="F27" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00650033-004D-4692-A5AE-003E005F009E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F28" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0021000B-00C8-4428-929E-00E600C400BB}" done="0">
+  <threadedComment ref="F28" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0021000B-00C8-4428-929E-00E600C400BB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F29" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{007300D9-00F6-41C7-A088-009F006F000A}" done="0">
+  <threadedComment ref="F29" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{007300D9-00F6-41C7-A088-009F006F000A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F30" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0094001B-0027-40F6-BD3E-008A00FC00E9}" done="0">
+  <threadedComment ref="F30" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0094001B-0027-40F6-BD3E-008A00FC00E9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="E4" personId="{37135395-D979-87A6-6563-22224E7F837E}" id="{0061007E-0071-4BA6-9081-003E00590086}" done="0">
+  <threadedComment ref="E4" personId="{CBF40502-6F10-8A56-5BE4-6C2863344525}" id="{0061007E-0071-4BA6-9081-003E00590086}" done="0">
     <text xml:space="preserve">isi dengan jumlah piksel yang Anda inginkan untuk tiap milimeter
 </text>
   </threadedComment>
-  <threadedComment ref="F4" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0036007E-0073-472C-A977-006800640035}" done="0">
+  <threadedComment ref="F4" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0036007E-0073-472C-A977-006800640035}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F31" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00FE001C-006A-4714-A502-0091001E00E2}" done="0">
+  <threadedComment ref="F31" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00FE001C-006A-4714-A502-0091001E00E2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F32" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{005400F1-0067-41CE-AAFA-004C00A70066}" done="0">
+  <threadedComment ref="F32" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005400F1-0067-41CE-AAFA-004C00A70066}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F33" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00D500C8-00EC-4DA0-B06B-006D002F00C0}" done="0">
+  <threadedComment ref="F33" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D500C8-00EC-4DA0-B06B-006D002F00C0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F34" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{008500B3-00B1-44A3-BB57-003300300050}" done="0">
+  <threadedComment ref="F34" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{008500B3-00B1-44A3-BB57-003300300050}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F35" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{001500E2-004A-47AE-BD1F-002E004400CF}" done="0">
+  <threadedComment ref="F35" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{001500E2-004A-47AE-BD1F-002E004400CF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F36" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00560014-0063-4696-B651-0072002E00F1}" done="0">
+  <threadedComment ref="F36" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00560014-0063-4696-B651-0072002E00F1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F37" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00BE0009-0085-4D6D-8376-00BD00810093}" done="0">
+  <threadedComment ref="F37" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00BE0009-0085-4D6D-8376-00BD00810093}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F38" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00BD00DD-00EE-44ED-85E2-003B003C00B5}" done="0">
+  <threadedComment ref="F38" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00BD00DD-00EE-44ED-85E2-003B003C00B5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F39" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{004700F6-0083-4255-BBDD-00A1000B0033}" done="0">
+  <threadedComment ref="F39" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{004700F6-0083-4255-BBDD-00A1000B0033}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F40" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{005F009E-001A-40CC-8D4D-0006006800B1}" done="0">
+  <threadedComment ref="F40" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005F009E-001A-40CC-8D4D-0006006800B1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F5" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{009500C7-009B-4EE0-AEF2-0092005B009C}" done="0">
+  <threadedComment ref="F5" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009500C7-009B-4EE0-AEF2-0092005B009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F41" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00240082-00CA-42F1-9880-00ED000200D7}" done="0">
+  <threadedComment ref="F41" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00240082-00CA-42F1-9880-00ED000200D7}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F42" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00570071-00FC-4DA6-A267-0005002300D5}" done="0">
+  <threadedComment ref="F42" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00570071-00FC-4DA6-A267-0005002300D5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F43" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{002E008F-003D-4C92-B908-009F00780064}" done="0">
+  <threadedComment ref="F43" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{002E008F-003D-4C92-B908-009F00780064}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F44" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0095000D-00FF-46BD-930B-003800220098}" done="0">
+  <threadedComment ref="F44" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0095000D-00FF-46BD-930B-003800220098}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F45" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00990017-00DC-48C4-82D3-005A00FA0002}" done="0">
+  <threadedComment ref="F45" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00990017-00DC-48C4-82D3-005A00FA0002}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F46" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{007D00FC-0035-4218-96B1-00C3001C00FF}" done="0">
+  <threadedComment ref="F46" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{007D00FC-0035-4218-96B1-00C3001C00FF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F47" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0070006E-003D-42D8-9D0E-00AD009B00AD}" done="0">
+  <threadedComment ref="F47" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0070006E-003D-42D8-9D0E-00AD009B00AD}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F48" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00A700B1-00F5-44A5-9B3A-00E800A6005F}" done="0">
+  <threadedComment ref="F48" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00A700B1-00F5-44A5-9B3A-00E800A6005F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F49" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00E6004C-00B1-4CE7-A393-009A000B00EF}" done="0">
+  <threadedComment ref="F49" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E6004C-00B1-4CE7-A393-009A000B00EF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F50" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00F20063-0088-4645-82C4-008B001000CE}" done="0">
+  <threadedComment ref="F50" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00F20063-0088-4645-82C4-008B001000CE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F6" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00AD006C-009F-414E-A478-003100110023}" done="0">
+  <threadedComment ref="F6" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00AD006C-009F-414E-A478-003100110023}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F51" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{003A0092-007B-434A-8AE6-00C900550045}" done="0">
+  <threadedComment ref="F51" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{003A0092-007B-434A-8AE6-00C900550045}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F52" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00AC0054-003A-40DE-9700-00ED002D0086}" done="0">
+  <threadedComment ref="F52" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00AC0054-003A-40DE-9700-00ED002D0086}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F53" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{008B0081-00F6-4868-B8C9-009300E0004A}" done="0">
+  <threadedComment ref="F53" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{008B0081-00F6-4868-B8C9-009300E0004A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F54" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00970002-00F4-4452-BF03-008700B20007}" done="0">
+  <threadedComment ref="F54" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00970002-00F4-4452-BF03-008700B20007}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F55" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00CD00CD-0015-4B47-9901-008200CC0049}" done="0">
+  <threadedComment ref="F55" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00CD00CD-0015-4B47-9901-008200CC0049}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F56" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{003F00CD-0090-45F5-BEFB-003B00BB0042}" done="0">
+  <threadedComment ref="F56" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{003F00CD-0090-45F5-BEFB-003B00BB0042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F57" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{005E0063-004F-4D56-9B30-00CE00600070}" done="0">
+  <threadedComment ref="F57" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005E0063-004F-4D56-9B30-00CE00600070}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F58" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{002800EB-00B6-44DF-BEDF-00B300EB0001}" done="0">
+  <threadedComment ref="F58" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{002800EB-00B6-44DF-BEDF-00B300EB0001}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F59" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00C40096-0089-4182-B76B-00BB006D0082}" done="0">
+  <threadedComment ref="F59" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00C40096-0089-4182-B76B-00BB006D0082}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F60" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00D20078-00B2-4562-AD8B-00E500D20044}" done="0">
+  <threadedComment ref="F60" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D20078-00B2-4562-AD8B-00E500D20044}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F7" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{009600C6-000D-4695-AD6A-00AA00460012}" done="0">
+  <threadedComment ref="F7" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009600C6-000D-4695-AD6A-00AA00460012}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F61" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00B200FF-00D5-4A30-9BF7-00EA007A00F8}" done="0">
+  <threadedComment ref="F61" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00B200FF-00D5-4A30-9BF7-00EA007A00F8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F62" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00880089-0011-4F44-8646-007B00BB0042}" done="0">
+  <threadedComment ref="F62" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00880089-0011-4F44-8646-007B00BB0042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F63" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00320017-0039-4020-A31A-00C1006E00E3}" done="0">
+  <threadedComment ref="F63" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00320017-0039-4020-A31A-00C1006E00E3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F64" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00C700AA-0061-48CF-AC77-009B00C1007F}" done="0">
+  <threadedComment ref="F64" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00C700AA-0061-48CF-AC77-009B00C1007F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F65" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00AC00BD-009E-4F69-9DA5-009F009400DB}" done="0">
+  <threadedComment ref="F65" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00AC00BD-009E-4F69-9DA5-009F009400DB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F66" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{002D0025-00FA-484A-B277-007100380059}" done="0">
+  <threadedComment ref="F66" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{002D0025-00FA-484A-B277-007100380059}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F67" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{009E00BC-008A-421F-8CD1-007300E60069}" done="0">
+  <threadedComment ref="F67" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009E00BC-008A-421F-8CD1-007300E60069}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F68" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{009400E2-005D-42B8-AEAC-00B20057004C}" done="0">
+  <threadedComment ref="F68" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009400E2-005D-42B8-AEAC-00B20057004C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F69" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00790007-005D-4620-A635-009F008100F1}" done="0">
+  <threadedComment ref="F69" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00790007-005D-4620-A635-009F008100F1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F70" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00DB000D-003C-4972-A55A-001700780095}" done="0">
+  <threadedComment ref="F70" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00DB000D-003C-4972-A55A-001700780095}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F8" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{005600E1-0021-450A-A907-006500800023}" done="0">
+  <threadedComment ref="F8" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005600E1-0021-450A-A907-006500800023}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F71" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00E200C4-0054-45F0-869E-007100930078}" done="0">
+  <threadedComment ref="F71" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E200C4-0054-45F0-869E-007100930078}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F72" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0056006F-0044-41C1-9237-003D006400D5}" done="0">
+  <threadedComment ref="F72" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0056006F-0044-41C1-9237-003D006400D5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F73" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00E5000A-0043-45C2-AB43-0036008600BC}" done="0">
+  <threadedComment ref="F73" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E5000A-0043-45C2-AB43-0036008600BC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F74" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00080024-0009-4C90-9AA6-0028006F00C3}" done="0">
+  <threadedComment ref="F74" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00080024-0009-4C90-9AA6-0028006F00C3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F75" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00BF006F-00FD-40E9-BF62-00380095009C}" done="0">
+  <threadedComment ref="F75" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00BF006F-00FD-40E9-BF62-00380095009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F76" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00AC0078-0023-42F0-896E-00B400AC0061}" done="0">
+  <threadedComment ref="F76" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00AC0078-0023-42F0-896E-00B400AC0061}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F77" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00B40051-00E4-4EF1-AC80-00DA00AE00A9}" done="0">
+  <threadedComment ref="F77" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00B40051-00E4-4EF1-AC80-00DA00AE00A9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F78" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{001F00EB-00A6-4182-93A2-008200790053}" done="0">
+  <threadedComment ref="F78" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{001F00EB-00A6-4182-93A2-008200790053}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F79" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{008200E4-001B-4421-88B8-00AC0024003B}" done="0">
+  <threadedComment ref="F79" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{008200E4-001B-4421-88B8-00AC0024003B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F80" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00650063-001C-47BC-8F07-00A4009800C7}" done="0">
+  <threadedComment ref="F80" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00650063-001C-47BC-8F07-00A4009800C7}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F9" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00750071-0023-4422-9A66-00D1003D00CB}" done="0">
+  <threadedComment ref="F9" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00750071-0023-4422-9A66-00D1003D00CB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F81" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00D4003E-0044-4199-9D3C-005900F3009C}" done="0">
+  <threadedComment ref="F81" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D4003E-0044-4199-9D3C-005900F3009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F82" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00CC000B-00DD-4305-8A0B-00F900EA0068}" done="0">
+  <threadedComment ref="F82" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00CC000B-00DD-4305-8A0B-00F900EA0068}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F83" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00970097-00E6-43CC-8851-008300AF0076}" done="0">
+  <threadedComment ref="F83" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00970097-00E6-43CC-8851-008300AF0076}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F84" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{002800BB-00C4-478C-BCF0-005300690023}" done="0">
+  <threadedComment ref="F84" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{002800BB-00C4-478C-BCF0-005300690023}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F85" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00C10025-0085-4258-BBAF-0047001400B7}" done="0">
+  <threadedComment ref="F85" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00C10025-0085-4258-BBAF-0047001400B7}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F86" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00720040-0056-4BFC-BE0B-004A001E006F}" done="0">
+  <threadedComment ref="F86" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00720040-0056-4BFC-BE0B-004A001E006F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F87" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00CD0068-003B-48A9-B257-00A400C30005}" done="0">
+  <threadedComment ref="F87" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00CD0068-003B-48A9-B257-00A400C30005}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F88" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00380059-00CD-4680-903F-001200BC00A4}" done="0">
+  <threadedComment ref="F88" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00380059-00CD-4680-903F-001200BC00A4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F89" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{009500FB-00AD-4626-8417-008800A000E1}" done="0">
+  <threadedComment ref="F89" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009500FB-00AD-4626-8417-008800A000E1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F90" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00A1003A-004A-469B-ACBF-000A004500CC}" done="0">
+  <threadedComment ref="F90" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00A1003A-004A-469B-ACBF-000A004500CC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F10" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00BE0084-00DB-4A19-AD4C-007200DE000E}" done="0">
+  <threadedComment ref="F10" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00BE0084-00DB-4A19-AD4C-007200DE000E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F91" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0046004F-0047-4C64-87E5-00EE00970097}" done="0">
+  <threadedComment ref="F91" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0046004F-0047-4C64-87E5-00EE00970097}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F92" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{005100A3-007B-4685-8AC8-008000D800E8}" done="0">
+  <threadedComment ref="F92" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005100A3-007B-4685-8AC8-008000D800E8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F93" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{000600FD-0053-45F8-A391-001900AD00C0}" done="0">
+  <threadedComment ref="F93" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{000600FD-0053-45F8-A391-001900AD00C0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F94" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00E10009-0042-404A-9F0C-00BD006F0031}" done="0">
+  <threadedComment ref="F94" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E10009-0042-404A-9F0C-00BD006F0031}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F95" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00270083-0048-4D3F-9E3F-00F900F700D9}" done="0">
+  <threadedComment ref="F95" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00270083-0048-4D3F-9E3F-00F900F700D9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F96" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{003F00F7-00D8-427E-9913-003500030020}" done="0">
+  <threadedComment ref="F96" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{003F00F7-00D8-427E-9913-003500030020}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F97" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00960084-0098-4664-BC96-009B00110086}" done="0">
+  <threadedComment ref="F97" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00960084-0098-4664-BC96-009B00110086}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F98" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{005C0033-00EA-4983-B8DA-00E100410007}" done="0">
+  <threadedComment ref="F98" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005C0033-00EA-4983-B8DA-00E100410007}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F99" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00950047-001D-4E75-8932-009A002C00E1}" done="0">
+  <threadedComment ref="F99" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00950047-001D-4E75-8932-009A002C00E1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F100" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00DB00DE-0033-4655-BFAD-003B007C0021}" done="0">
+  <threadedComment ref="F100" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00DB00DE-0033-4655-BFAD-003B007C0021}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
@@ -6480,516 +6514,516 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F11" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0019003E-00DD-4011-9D56-005900790044}" done="0">
+  <threadedComment ref="F11" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0019003E-00DD-4011-9D56-005900790044}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F101" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00EB00FE-009E-4709-904D-006B001F001E}" done="0">
+  <threadedComment ref="F101" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00EB00FE-009E-4709-904D-006B001F001E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F102" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00D700D5-0053-4DB6-9621-000B009800CB}" done="0">
+  <threadedComment ref="F102" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D700D5-0053-4DB6-9621-000B009800CB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F103" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{008800FF-0055-4844-ACC2-0076001100CF}" done="0">
+  <threadedComment ref="F103" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{008800FF-0055-4844-ACC2-0076001100CF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F104" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{005400F9-006F-4035-AAB7-0030005800CE}" done="0">
+  <threadedComment ref="F104" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005400F9-006F-4035-AAB7-0030005800CE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F105" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00CD0083-00F4-4E02-AC89-00F60064008E}" done="0">
+  <threadedComment ref="F105" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00CD0083-00F4-4E02-AC89-00F60064008E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F12" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00B1001A-00E3-40E1-9E1D-000D008E008D}" done="0">
+  <threadedComment ref="F12" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00B1001A-00E3-40E1-9E1D-000D008E008D}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F13" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00B400C0-00D5-40E5-8A1A-00D5009000F4}" done="0">
+  <threadedComment ref="F13" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00B400C0-00D5-40E5-8A1A-00D5009000F4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F14" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00EE00B7-008D-485F-AA06-009400F0002D}" done="0">
+  <threadedComment ref="F14" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00EE00B7-008D-485F-AA06-009400F0002D}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F15" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{002E00C1-0009-4AA1-A21E-008600AD00F1}" done="0">
+  <threadedComment ref="F15" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{002E00C1-0009-4AA1-A21E-008600AD00F1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F16" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00A5002A-008B-4DB1-9909-007100CE0097}" done="0">
+  <threadedComment ref="F16" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00A5002A-008B-4DB1-9909-007100CE0097}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F17" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{000200B5-009D-4FD4-8618-00DD00FF001C}" done="0">
+  <threadedComment ref="F17" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{000200B5-009D-4FD4-8618-00DD00FF001C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F18" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00C700DB-001C-43D6-B0B8-00650049008E}" done="0">
+  <threadedComment ref="F18" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00C700DB-001C-43D6-B0B8-00650049008E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F19" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00020099-007C-4D6A-AB89-00BB006100C9}" done="0">
+  <threadedComment ref="F19" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00020099-007C-4D6A-AB89-00BB006100C9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F20" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00B200A1-00A5-4B96-8E58-007B000A004A}" done="0">
+  <threadedComment ref="F20" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00B200A1-00A5-4B96-8E58-007B000A004A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F21" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00AA007B-0069-441C-B70A-00B3007F00A4}" done="0">
+  <threadedComment ref="F21" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00AA007B-0069-441C-B70A-00B3007F00A4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F22" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00C50050-0073-40FC-9B5F-009800E000B2}" done="0">
+  <threadedComment ref="F22" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00C50050-0073-40FC-9B5F-009800E000B2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F23" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00D20041-00C8-4C87-93B6-002F000B00D5}" done="0">
+  <threadedComment ref="F23" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D20041-00C8-4C87-93B6-002F000B00D5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F24" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0006001B-006F-4061-88D4-00CE00BC00D3}" done="0">
+  <threadedComment ref="F24" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0006001B-006F-4061-88D4-00CE00BC00D3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F25" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00EA00B5-00FA-4937-A378-007F00CE00EE}" done="0">
+  <threadedComment ref="F25" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00EA00B5-00FA-4937-A378-007F00CE00EE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F26" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0096009B-00C3-4BC1-BF79-0073004D00DA}" done="0">
+  <threadedComment ref="F26" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0096009B-00C3-4BC1-BF79-0073004D00DA}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F27" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00660028-0017-4593-8105-00D500CA00CF}" done="0">
+  <threadedComment ref="F27" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00660028-0017-4593-8105-00D500CA00CF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F28" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0054003B-00EA-4C66-B79C-00CF00F600D3}" done="0">
+  <threadedComment ref="F28" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0054003B-00EA-4C66-B79C-00CF00F600D3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F29" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{008E00DA-0015-49B4-A1FF-005F00BA00B8}" done="0">
+  <threadedComment ref="F29" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{008E00DA-0015-49B4-A1FF-005F00BA00B8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F30" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00DF00B9-00FF-4510-8F78-0064004D0062}" done="0">
+  <threadedComment ref="F30" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00DF00B9-00FF-4510-8F78-0064004D0062}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="E4" personId="{37135395-D979-87A6-6563-22224E7F837E}" id="{007900C2-005E-48A6-8CBD-0036008F00C9}" done="0">
+  <threadedComment ref="E4" personId="{CBF40502-6F10-8A56-5BE4-6C2863344525}" id="{007900C2-005E-48A6-8CBD-0036008F00C9}" done="0">
     <text xml:space="preserve">isi dengan jumlah piksel yang Anda inginkan untuk tiap milimeter
 </text>
   </threadedComment>
-  <threadedComment ref="F4" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0034000F-00E9-4A7B-BC67-00AE00910055}" done="0">
+  <threadedComment ref="F4" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0034000F-00E9-4A7B-BC67-00AE00910055}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F31" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00E600E5-00FE-4E84-9545-0024006F00A3}" done="0">
+  <threadedComment ref="F31" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E600E5-00FE-4E84-9545-0024006F00A3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F32" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0012003B-00C3-4448-86A4-000A0049004B}" done="0">
+  <threadedComment ref="F32" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0012003B-00C3-4448-86A4-000A0049004B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F33" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00240072-0031-4FCF-8345-006E00710052}" done="0">
+  <threadedComment ref="F33" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00240072-0031-4FCF-8345-006E00710052}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F34" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00AD0072-00EF-4B0A-904A-00DF002000C2}" done="0">
+  <threadedComment ref="F34" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00AD0072-00EF-4B0A-904A-00DF002000C2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F35" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00DF00C8-00EA-4D94-8C52-00050096005E}" done="0">
+  <threadedComment ref="F35" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00DF00C8-00EA-4D94-8C52-00050096005E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F36" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00E8008E-0075-4E96-BD3B-003A00D20034}" done="0">
+  <threadedComment ref="F36" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E8008E-0075-4E96-BD3B-003A00D20034}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F37" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00F000DA-0053-4C2E-B776-00E100FD00E6}" done="0">
+  <threadedComment ref="F37" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00F000DA-0053-4C2E-B776-00E100FD00E6}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F38" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0007002B-00A0-47A9-A420-002E00BA0073}" done="0">
+  <threadedComment ref="F38" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0007002B-00A0-47A9-A420-002E00BA0073}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F39" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{004E00A9-00B1-451A-A379-00E900300036}" done="0">
+  <threadedComment ref="F39" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{004E00A9-00B1-451A-A379-00E900300036}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F40" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00400002-0059-4D59-A276-00CB00E40084}" done="0">
+  <threadedComment ref="F40" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00400002-0059-4D59-A276-00CB00E40084}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F5" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00AA0075-00D0-4936-8B93-00F600E30056}" done="0">
+  <threadedComment ref="F5" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00AA0075-00D0-4936-8B93-00F600E30056}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F41" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{007A003A-0052-4D44-BE5F-002700A3008A}" done="0">
+  <threadedComment ref="F41" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{007A003A-0052-4D44-BE5F-002700A3008A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F42" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{005900EB-00EE-41D5-BBC7-004500230082}" done="0">
+  <threadedComment ref="F42" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005900EB-00EE-41D5-BBC7-004500230082}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F43" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0066006C-0075-4910-9BBE-007300B600D2}" done="0">
+  <threadedComment ref="F43" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0066006C-0075-4910-9BBE-007300B600D2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F44" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00BD0039-0060-4A32-A1FA-00EB00620059}" done="0">
+  <threadedComment ref="F44" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00BD0039-0060-4A32-A1FA-00EB00620059}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F45" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{003600C2-002B-4BB3-94AF-00F000610003}" done="0">
+  <threadedComment ref="F45" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{003600C2-002B-4BB3-94AF-00F000610003}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F46" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00C8007C-00BE-4CF5-A05E-00D30007004E}" done="0">
+  <threadedComment ref="F46" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00C8007C-00BE-4CF5-A05E-00D30007004E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F47" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00BE00EB-0060-4465-86B7-00F400EF0075}" done="0">
+  <threadedComment ref="F47" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00BE00EB-0060-4465-86B7-00F400EF0075}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F48" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{003A00B1-0087-4036-9277-004D00D600C2}" done="0">
+  <threadedComment ref="F48" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{003A00B1-0087-4036-9277-004D00D600C2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F49" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{001B00D1-0043-47CD-B36D-008100A200E8}" done="0">
+  <threadedComment ref="F49" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{001B00D1-0043-47CD-B36D-008100A200E8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F50" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00D80008-00BB-4263-8E96-003F00A4004A}" done="0">
+  <threadedComment ref="F50" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D80008-00BB-4263-8E96-003F00A4004A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F6" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{001E00CE-0048-475C-8F03-005D00FC00AB}" done="0">
+  <threadedComment ref="F6" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{001E00CE-0048-475C-8F03-005D00FC00AB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F51" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{008A008F-00C4-42A2-9BB4-0012001B001F}" done="0">
+  <threadedComment ref="F51" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{008A008F-00C4-42A2-9BB4-0012001B001F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F52" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{009F004E-00F7-4254-A488-002600110066}" done="0">
+  <threadedComment ref="F52" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009F004E-00F7-4254-A488-002600110066}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F53" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00F400D7-00E7-4B49-837A-00DF008D009C}" done="0">
+  <threadedComment ref="F53" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00F400D7-00E7-4B49-837A-00DF008D009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F54" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{009B005D-00D2-427C-969A-0004003400E3}" done="0">
+  <threadedComment ref="F54" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009B005D-00D2-427C-969A-0004003400E3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F55" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0099001A-0080-4833-A44C-00F1006F00ED}" done="0">
+  <threadedComment ref="F55" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0099001A-0080-4833-A44C-00F1006F00ED}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F56" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00D40085-001B-4138-9210-00CC00400091}" done="0">
+  <threadedComment ref="F56" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D40085-001B-4138-9210-00CC00400091}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F57" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{002E00E5-00AA-4A4B-885A-00D3006400A8}" done="0">
+  <threadedComment ref="F57" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{002E00E5-00AA-4A4B-885A-00D3006400A8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F58" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00A900F6-00CA-4FBB-A637-006D00E900DE}" done="0">
+  <threadedComment ref="F58" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00A900F6-00CA-4FBB-A637-006D00E900DE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F59" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00F90006-0053-4D67-A51B-003900E70039}" done="0">
+  <threadedComment ref="F59" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00F90006-0053-4D67-A51B-003900E70039}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F60" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{009600A0-0064-49EE-9A88-00DF00D30094}" done="0">
+  <threadedComment ref="F60" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009600A0-0064-49EE-9A88-00DF00D30094}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F7" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00FB0041-006D-481D-B14B-0088007300C8}" done="0">
+  <threadedComment ref="F7" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00FB0041-006D-481D-B14B-0088007300C8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F61" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00B100BB-004B-4978-8955-005500AE0057}" done="0">
+  <threadedComment ref="F61" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00B100BB-004B-4978-8955-005500AE0057}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F62" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00DC0093-0025-4048-A61E-001E00F40032}" done="0">
+  <threadedComment ref="F62" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00DC0093-0025-4048-A61E-001E00F40032}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F63" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{009E007C-0048-45D6-A57A-00A8007200F8}" done="0">
+  <threadedComment ref="F63" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009E007C-0048-45D6-A57A-00A8007200F8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F64" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00C900D3-00F2-4872-AAF9-00B1000400BB}" done="0">
+  <threadedComment ref="F64" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00C900D3-00F2-4872-AAF9-00B1000400BB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F65" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00A600C9-0097-4674-BC98-00DB002800A0}" done="0">
+  <threadedComment ref="F65" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00A600C9-0097-4674-BC98-00DB002800A0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F66" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{000500AF-00D3-450D-A721-004000E8008B}" done="0">
+  <threadedComment ref="F66" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{000500AF-00D3-450D-A721-004000E8008B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F67" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{005A00B9-0067-4B9F-8A50-00EB00570045}" done="0">
+  <threadedComment ref="F67" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005A00B9-0067-4B9F-8A50-00EB00570045}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F68" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00FC00A7-0005-495C-9302-0032006A006C}" done="0">
+  <threadedComment ref="F68" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00FC00A7-0005-495C-9302-0032006A006C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F69" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00A50048-00DE-4A19-8C0A-00140082002E}" done="0">
+  <threadedComment ref="F69" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00A50048-00DE-4A19-8C0A-00140082002E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F70" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00A200D8-0028-455C-8EBD-0078008900C6}" done="0">
+  <threadedComment ref="F70" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00A200D8-0028-455C-8EBD-0078008900C6}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F8" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00960079-0077-4F2A-82A2-00BD00C3007F}" done="0">
+  <threadedComment ref="F8" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00960079-0077-4F2A-82A2-00BD00C3007F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F71" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00DF003A-001B-4DB1-9E42-007400AC00E1}" done="0">
+  <threadedComment ref="F71" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00DF003A-001B-4DB1-9E42-007400AC00E1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F72" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00F3005C-00CA-4F2D-B387-0081004F009E}" done="0">
+  <threadedComment ref="F72" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00F3005C-00CA-4F2D-B387-0081004F009E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F73" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{007C0051-009E-4FFD-B2F5-00C600D50053}" done="0">
+  <threadedComment ref="F73" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{007C0051-009E-4FFD-B2F5-00C600D50053}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F74" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00670022-0015-4186-BA4E-009B000F0061}" done="0">
+  <threadedComment ref="F74" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00670022-0015-4186-BA4E-009B000F0061}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F75" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00500052-00E0-4AB2-9BBE-00A5009600C1}" done="0">
+  <threadedComment ref="F75" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00500052-00E0-4AB2-9BBE-00A5009600C1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F76" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00F0004F-0064-499D-801C-000700D3002F}" done="0">
+  <threadedComment ref="F76" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00F0004F-0064-499D-801C-000700D3002F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F77" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{001400B2-00F1-4DB3-9DE7-00A000150039}" done="0">
+  <threadedComment ref="F77" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{001400B2-00F1-4DB3-9DE7-00A000150039}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F78" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{002400EE-00C1-4E63-80AA-009F004E0000}" done="0">
+  <threadedComment ref="F78" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{002400EE-00C1-4E63-80AA-009F004E0000}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F79" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00A2005A-00E8-4C73-BE0C-009600930058}" done="0">
+  <threadedComment ref="F79" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00A2005A-00E8-4C73-BE0C-009600930058}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F80" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00FE004A-004D-4DC5-9616-00FE006100BC}" done="0">
+  <threadedComment ref="F80" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00FE004A-004D-4DC5-9616-00FE006100BC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F9" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00DC0029-00E7-42DB-B9C1-003400EA0062}" done="0">
+  <threadedComment ref="F9" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00DC0029-00E7-42DB-B9C1-003400EA0062}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F81" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00E200BC-0050-488A-B834-006200C90035}" done="0">
+  <threadedComment ref="F81" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E200BC-0050-488A-B834-006200C90035}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F82" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00F700FA-0046-463B-90CC-00EC005200E4}" done="0">
+  <threadedComment ref="F82" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00F700FA-0046-463B-90CC-00EC005200E4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F83" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00A8006C-009A-4446-8DF2-005000F800A8}" done="0">
+  <threadedComment ref="F83" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00A8006C-009A-4446-8DF2-005000F800A8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F84" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00BC003C-00E7-4887-9335-00BE00A00084}" done="0">
+  <threadedComment ref="F84" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00BC003C-00E7-4887-9335-00BE00A00084}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F85" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00D3001D-0010-45EF-BB8A-0054009E00B0}" done="0">
+  <threadedComment ref="F85" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D3001D-0010-45EF-BB8A-0054009E00B0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F86" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00F80095-0024-4050-BFE8-002A000A0063}" done="0">
+  <threadedComment ref="F86" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00F80095-0024-4050-BFE8-002A000A0063}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F87" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0004000B-00D2-4380-8028-006600E5001D}" done="0">
+  <threadedComment ref="F87" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0004000B-00D2-4380-8028-006600E5001D}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F88" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{006100B6-00A0-44B1-954A-006400C90072}" done="0">
+  <threadedComment ref="F88" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{006100B6-00A0-44B1-954A-006400C90072}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F89" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{007E0001-00BA-4A1B-BFEA-009C000B003F}" done="0">
+  <threadedComment ref="F89" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{007E0001-00BA-4A1B-BFEA-009C000B003F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F90" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{006D000D-00B1-4850-80B6-001C002B00C4}" done="0">
+  <threadedComment ref="F90" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{006D000D-00B1-4850-80B6-001C002B00C4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F10" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00B7001B-00DB-4B45-809D-00D000730097}" done="0">
+  <threadedComment ref="F10" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00B7001B-00DB-4B45-809D-00D000730097}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F91" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{005F00B7-0068-4E20-B708-00B1008000A5}" done="0">
+  <threadedComment ref="F91" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005F00B7-0068-4E20-B708-00B1008000A5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F92" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00D2000D-008E-4F0E-889B-008D00540073}" done="0">
+  <threadedComment ref="F92" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D2000D-008E-4F0E-889B-008D00540073}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F93" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00720077-00F3-41DB-80E4-00E6002900BA}" done="0">
+  <threadedComment ref="F93" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00720077-00F3-41DB-80E4-00E6002900BA}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F94" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00C70063-00A4-4E22-8B1D-008900470066}" done="0">
+  <threadedComment ref="F94" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00C70063-00A4-4E22-8B1D-008900470066}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F95" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00EF00A4-00D5-4A7C-AA4A-001D00140024}" done="0">
+  <threadedComment ref="F95" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00EF00A4-00D5-4A7C-AA4A-001D00140024}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F96" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{007A0009-008B-48C0-98F5-007E00320029}" done="0">
+  <threadedComment ref="F96" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{007A0009-008B-48C0-98F5-007E00320029}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F97" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{00490001-00FB-48E3-A81C-008400EF00B4}" done="0">
+  <threadedComment ref="F97" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00490001-00FB-48E3-A81C-008400EF00B4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F98" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{0053002C-0058-412F-A5E0-00F5008A0042}" done="0">
+  <threadedComment ref="F98" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0053002C-0058-412F-A5E0-00F5008A0042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F99" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{004800D8-003D-401F-B7E7-0098004A006C}" done="0">
+  <threadedComment ref="F99" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{004800D8-003D-401F-B7E7-0098004A006C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F100" personId="{F1376528-1584-63BE-68BE-CAE866B119F8}" id="{009600AA-0088-47E1-85DE-007F0056006F}" done="0">
+  <threadedComment ref="F100" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009600AA-0088-47E1-85DE-007F0056006F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
@@ -18258,7 +18292,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{004A003E-0051-40E5-B189-00E4007300BB}">
+          <x14:cfRule type="expression" priority="3" id="{00DD006E-0049-4BDB-B16A-00FA0061000C}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -18275,7 +18309,7 @@
           <xm:sqref>J4:J105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{000A00CC-003B-4F7E-BD25-0022009C0088}">
+          <x14:cfRule type="expression" priority="2" id="{007700D0-0090-482A-ACF7-005D00DA00ED}">
             <xm:f>$F4=2</xm:f>
             <x14:dxf>
               <font>
@@ -18292,7 +18326,7 @@
           <xm:sqref>K4:M105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{000D0017-0038-49AD-B036-006100720030}">
+          <x14:cfRule type="expression" priority="1" id="{005100FD-0006-4E53-89D7-00C100700037}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -18312,25 +18346,25 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
-        <x14:dataValidation xr:uid="{008700EE-0056-4BCC-87C7-0083008D0063}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0026002D-0079-4D1A-96E7-007A00B9001F}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>AF4:AR105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00AC00F9-0053-4224-9B95-001500D300C9}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005E0093-0037-4B71-834A-00C9002700DA}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>768</xm:f>
           </x14:formula1>
           <xm:sqref>B4 D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00860078-009A-4C56-8BF0-00CD001B00EF}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B700B2-002D-4F80-8E62-005C00F00011}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1024</xm:f>
           </x14:formula1>
           <xm:sqref>A4 C4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007500C7-00E5-4111-A48C-00CE00D9000C}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00990042-002F-4B7A-B1C2-00320073009D}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -18339,19 +18373,19 @@
           </x14:formula2>
           <xm:sqref>F4:F105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006A00C7-0021-45A1-BD86-0032004A0073}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00100029-00E5-4F35-8595-00B800BC00E9}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND(F4=2,J4&gt;0)</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001F00C4-0012-4F30-8DF7-001900DC00F4}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003B00DB-0059-4F29-AC8E-00C600F2000C}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND($F4=1,K4&gt;=0,K4&lt;256)</xm:f>
           </x14:formula1>
           <xm:sqref>K4:M105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00380009-0005-402B-8D53-008D0091002D}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00020080-0029-4665-BB8B-007600380049}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
@@ -21376,22 +21410,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I26" s="42"/>
+      <c r="I26" s="42" t="s">
+        <v>44</v>
+      </c>
       <c r="J26" s="43"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="45" t="str">
+      <c r="K26" s="38">
+        <v>222</v>
+      </c>
+      <c r="L26" s="38">
+        <v>218</v>
+      </c>
+      <c r="M26" s="43">
+        <v>196</v>
+      </c>
+      <c r="N26" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="O26" s="45" t="str">
+        <v>0.87058823529411766</v>
+      </c>
+      <c r="O26" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="P26" s="46" t="str">
+        <v>0.85490196078431369</v>
+      </c>
+      <c r="P26" s="46">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0.7686274509803922</v>
       </c>
       <c r="Q26" s="47"/>
       <c r="R26" s="48"/>
@@ -21465,7 +21507,7 @@
       </c>
       <c r="AS26" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_ktk_palu = {0.9,0.9,0.8};</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
@@ -21474,7 +21516,9 @@
       <c r="C27" s="58"/>
       <c r="D27" s="58"/>
       <c r="E27" s="58"/>
-      <c r="F27" s="49"/>
+      <c r="F27" s="49">
+        <v>2</v>
+      </c>
       <c r="G27" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -21483,8 +21527,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
+      <c r="I27" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="43">
+        <v>4</v>
+      </c>
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
       <c r="M27" s="43"/>
@@ -21500,51 +21548,67 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="43"/>
+      <c r="Q27" s="47">
+        <v>64</v>
+      </c>
+      <c r="R27" s="48">
+        <v>10</v>
+      </c>
+      <c r="S27" s="49">
+        <v>67</v>
+      </c>
+      <c r="T27" s="43">
+        <v>10</v>
+      </c>
+      <c r="U27" s="50">
+        <v>67</v>
+      </c>
+      <c r="V27" s="48">
+        <v>20</v>
+      </c>
+      <c r="W27" s="49">
+        <v>64</v>
+      </c>
+      <c r="X27" s="43">
+        <v>20</v>
+      </c>
       <c r="Y27" s="50"/>
       <c r="Z27" s="48"/>
       <c r="AA27" s="49"/>
       <c r="AB27" s="43"/>
       <c r="AC27" s="50"/>
       <c r="AD27" s="51"/>
-      <c r="AE27" s="52" t="str">
+      <c r="AE27" s="52">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AF27" s="53" t="str">
+        <v>256</v>
+      </c>
+      <c r="AF27" s="53">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AG27" s="54" t="str">
+        <v>40</v>
+      </c>
+      <c r="AG27" s="54">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AH27" s="55" t="str">
+        <v>268</v>
+      </c>
+      <c r="AH27" s="55">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AI27" s="52" t="str">
+        <v>40</v>
+      </c>
+      <c r="AI27" s="52">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AJ27" s="53" t="str">
+        <v>268</v>
+      </c>
+      <c r="AJ27" s="53">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AK27" s="54" t="str">
+        <v>80</v>
+      </c>
+      <c r="AK27" s="54">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AL27" s="55" t="str">
+        <v>256</v>
+      </c>
+      <c r="AL27" s="55">
         <f t="shared" si="43"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="AM27" s="52" t="str">
         <f t="shared" si="43"/>
@@ -21572,7 +21636,7 @@
       </c>
       <c r="AS27" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  ktk_ggng_palu [4] = {{256.,40.},{268.,40.},{268.,80.},{256.,80.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
@@ -21581,7 +21645,9 @@
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
       <c r="E28" s="58"/>
-      <c r="F28" s="49"/>
+      <c r="F28" s="49">
+        <v>1</v>
+      </c>
       <c r="G28" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -21590,22 +21656,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I28" s="42"/>
+      <c r="I28" s="42" t="s">
+        <v>46</v>
+      </c>
       <c r="J28" s="43"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="45" t="str">
+      <c r="K28" s="38">
+        <v>86</v>
+      </c>
+      <c r="L28" s="38">
+        <v>87</v>
+      </c>
+      <c r="M28" s="43">
+        <v>10</v>
+      </c>
+      <c r="N28" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="O28" s="45" t="str">
+        <v>0.33725490196078434</v>
+      </c>
+      <c r="O28" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="P28" s="46" t="str">
+        <v>0.3411764705882353</v>
+      </c>
+      <c r="P28" s="46">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0.039215686274509803</v>
       </c>
       <c r="Q28" s="47"/>
       <c r="R28" s="48"/>
@@ -21679,7 +21753,7 @@
       </c>
       <c r="AS28" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_ktk_ggng_palu = {0.30000000000000004,0.30000000000000004,0};</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
@@ -21688,7 +21762,9 @@
       <c r="C29" s="58"/>
       <c r="D29" s="58"/>
       <c r="E29" s="58"/>
-      <c r="F29" s="49"/>
+      <c r="F29" s="49">
+        <v>2</v>
+      </c>
       <c r="G29" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -21697,8 +21773,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I29" s="42"/>
-      <c r="J29" s="43"/>
+      <c r="I29" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="43">
+        <v>4</v>
+      </c>
       <c r="K29" s="38"/>
       <c r="L29" s="38"/>
       <c r="M29" s="43"/>
@@ -21714,51 +21794,67 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="43"/>
+      <c r="Q29" s="47">
+        <v>77.5</v>
+      </c>
+      <c r="R29" s="48">
+        <v>15</v>
+      </c>
+      <c r="S29" s="49">
+        <v>82.5</v>
+      </c>
+      <c r="T29" s="43">
+        <v>15</v>
+      </c>
+      <c r="U29" s="50">
+        <v>82.5</v>
+      </c>
+      <c r="V29" s="48">
+        <v>20</v>
+      </c>
+      <c r="W29" s="49">
+        <v>77.5</v>
+      </c>
+      <c r="X29" s="43">
+        <v>20</v>
+      </c>
       <c r="Y29" s="50"/>
       <c r="Z29" s="48"/>
       <c r="AA29" s="49"/>
       <c r="AB29" s="43"/>
       <c r="AC29" s="50"/>
       <c r="AD29" s="51"/>
-      <c r="AE29" s="52" t="str">
+      <c r="AE29" s="52">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AF29" s="53" t="str">
+        <v>310</v>
+      </c>
+      <c r="AF29" s="53">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AG29" s="54" t="str">
+        <v>60</v>
+      </c>
+      <c r="AG29" s="54">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AH29" s="55" t="str">
+        <v>330</v>
+      </c>
+      <c r="AH29" s="55">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AI29" s="52" t="str">
+        <v>60</v>
+      </c>
+      <c r="AI29" s="52">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AJ29" s="53" t="str">
+        <v>330</v>
+      </c>
+      <c r="AJ29" s="53">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AK29" s="54" t="str">
+        <v>80</v>
+      </c>
+      <c r="AK29" s="54">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AL29" s="55" t="str">
+        <v>310</v>
+      </c>
+      <c r="AL29" s="55">
         <f t="shared" si="43"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="AM29" s="52" t="str">
         <f t="shared" si="43"/>
@@ -21786,7 +21882,7 @@
       </c>
       <c r="AS29" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  ktk_ggng_gergaji [4] = {{310.,60.},{330.,60.},{330.,80.},{310.,80.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
@@ -21795,7 +21891,9 @@
       <c r="C30" s="58"/>
       <c r="D30" s="58"/>
       <c r="E30" s="58"/>
-      <c r="F30" s="49"/>
+      <c r="F30" s="49">
+        <v>1</v>
+      </c>
       <c r="G30" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -21804,22 +21902,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="45" t="str">
+      <c r="I30" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="38">
+        <v>86</v>
+      </c>
+      <c r="L30" s="38">
+        <v>87</v>
+      </c>
+      <c r="M30" s="43">
+        <v>10</v>
+      </c>
+      <c r="N30" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="O30" s="45" t="str">
+        <v>0.33725490196078434</v>
+      </c>
+      <c r="O30" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="P30" s="46" t="str">
+        <v>0.3411764705882353</v>
+      </c>
+      <c r="P30" s="46">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0.039215686274509803</v>
       </c>
       <c r="Q30" s="47"/>
       <c r="R30" s="48"/>
@@ -21892,8 +21998,8 @@
         <v/>
       </c>
       <c r="AS30" s="57" t="str">
-        <f t="shared" si="45"/>
-        <v/>
+        <f>IF(F30=1,IF(OR(K30="",L30="",M30=""),"",CONCATENATE(G30," ",I31," = {",ROUND(N30,1),",",ROUND(O30,1),",",ROUND(P30,1),"};")),IF(F30=2,CONCATENATE(H30,"  ",I31," [",J31,"] = {{",AE30,".,",AF30,".},{",AG30,".,",AH30,".},{",AI30,".,",AJ30,".},{",AK30,".,",AL30,".},{",AM30,".,",AN30,".},{",AO30,".,",AP30,".},{",AQ30,".,",AR30,".}};"),""))</f>
+        <v xml:space="preserve">Color_t ktk_lbng_gergaji = {0.30000000000000004,0.30000000000000004,0};</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
@@ -21902,7 +22008,9 @@
       <c r="C31" s="58"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
-      <c r="F31" s="49"/>
+      <c r="F31" s="49">
+        <v>2</v>
+      </c>
       <c r="G31" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -21911,8 +22019,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I31" s="42"/>
-      <c r="J31" s="43"/>
+      <c r="I31" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="43">
+        <v>4</v>
+      </c>
       <c r="K31" s="38"/>
       <c r="L31" s="38"/>
       <c r="M31" s="43"/>
@@ -21928,51 +22040,67 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="43"/>
+      <c r="Q31" s="60">
+        <v>79</v>
+      </c>
+      <c r="R31" s="48">
+        <v>16</v>
+      </c>
+      <c r="S31" s="49">
+        <v>82</v>
+      </c>
+      <c r="T31" s="43">
+        <v>16</v>
+      </c>
+      <c r="U31" s="50">
+        <v>82</v>
+      </c>
+      <c r="V31" s="48">
+        <v>19</v>
+      </c>
+      <c r="W31" s="49">
+        <v>79</v>
+      </c>
+      <c r="X31" s="43">
+        <v>19</v>
+      </c>
       <c r="Y31" s="50"/>
       <c r="Z31" s="48"/>
       <c r="AA31" s="49"/>
       <c r="AB31" s="43"/>
       <c r="AC31" s="50"/>
       <c r="AD31" s="51"/>
-      <c r="AE31" s="52" t="str">
+      <c r="AE31" s="52">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AF31" s="53" t="str">
+        <v>316</v>
+      </c>
+      <c r="AF31" s="53">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AG31" s="54" t="str">
+        <v>64</v>
+      </c>
+      <c r="AG31" s="54">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AH31" s="55" t="str">
+        <v>328</v>
+      </c>
+      <c r="AH31" s="55">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AI31" s="52" t="str">
+        <v>64</v>
+      </c>
+      <c r="AI31" s="52">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AJ31" s="53" t="str">
+        <v>328</v>
+      </c>
+      <c r="AJ31" s="53">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AK31" s="54" t="str">
+        <v>76</v>
+      </c>
+      <c r="AK31" s="54">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AL31" s="55" t="str">
+        <v>316</v>
+      </c>
+      <c r="AL31" s="55">
         <f t="shared" si="43"/>
-        <v/>
+        <v>76</v>
       </c>
       <c r="AM31" s="52" t="str">
         <f t="shared" si="43"/>
@@ -21998,9 +22126,9 @@
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="AS31" s="57" t="str">
-        <f t="shared" si="45"/>
-        <v/>
+      <c r="AS31" s="57" t="e">
+        <f>IF(F31=1,IF(OR(K31="",L31="",M31=""),"",CONCATENATE(G31," ",#REF!," = {",ROUND(N31,1),",",ROUND(O31,1),",",ROUND(P31,1),"};")),IF(F31=2,CONCATENATE(H31,"  ",#REF!," [",#REF!,"] = {{",AE31,".,",AF31,".},{",AG31,".,",AH31,".},{",AI31,".,",AJ31,".},{",AK31,".,",AL31,".},{",AM31,".,",AN31,".},{",AO31,".,",AP31,".},{",AQ31,".,",AR31,".}};"),""))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
@@ -22009,7 +22137,9 @@
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
       <c r="E32" s="58"/>
-      <c r="F32" s="49"/>
+      <c r="F32" s="49">
+        <v>1</v>
+      </c>
       <c r="G32" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -22018,22 +22148,32 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I32" s="42"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="45" t="str">
+      <c r="I32" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="43">
+        <v>3</v>
+      </c>
+      <c r="K32" s="38">
+        <v>204</v>
+      </c>
+      <c r="L32" s="38">
+        <v>135</v>
+      </c>
+      <c r="M32" s="43">
+        <v>6</v>
+      </c>
+      <c r="N32" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="O32" s="45" t="str">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="O32" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="P32" s="46" t="str">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="P32" s="46">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0.023529411764705882</v>
       </c>
       <c r="Q32" s="47"/>
       <c r="R32" s="48"/>
@@ -22107,7 +22247,7 @@
       </c>
       <c r="AS32" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_ktk_lbng_gergaji = {0.8,0.5,0};</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
@@ -22116,7 +22256,9 @@
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>
       <c r="E33" s="58"/>
-      <c r="F33" s="49"/>
+      <c r="F33" s="49">
+        <v>2</v>
+      </c>
       <c r="G33" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -22125,8 +22267,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I33" s="42"/>
-      <c r="J33" s="43"/>
+      <c r="I33" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" s="43">
+        <v>3</v>
+      </c>
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
       <c r="M33" s="43"/>
@@ -22142,12 +22288,24 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="48"/>
+      <c r="Q33" s="60">
+        <v>77.5</v>
+      </c>
+      <c r="R33" s="48">
+        <v>15</v>
+      </c>
+      <c r="S33" s="49">
+        <v>82.5</v>
+      </c>
+      <c r="T33" s="49">
+        <v>15</v>
+      </c>
+      <c r="U33" s="49">
+        <v>82.5</v>
+      </c>
+      <c r="V33" s="48">
+        <v>5</v>
+      </c>
       <c r="W33" s="49"/>
       <c r="X33" s="43"/>
       <c r="Y33" s="50"/>
@@ -22156,29 +22314,29 @@
       <c r="AB33" s="43"/>
       <c r="AC33" s="50"/>
       <c r="AD33" s="51"/>
-      <c r="AE33" s="52" t="str">
+      <c r="AE33" s="52">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AF33" s="53" t="str">
+        <v>310</v>
+      </c>
+      <c r="AF33" s="53">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AG33" s="54" t="str">
+        <v>60</v>
+      </c>
+      <c r="AG33" s="54">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AH33" s="55" t="str">
+        <v>330</v>
+      </c>
+      <c r="AH33" s="55">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AI33" s="52" t="str">
+        <v>60</v>
+      </c>
+      <c r="AI33" s="52">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AJ33" s="53" t="str">
+        <v>330</v>
+      </c>
+      <c r="AJ33" s="53">
         <f t="shared" si="43"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="AK33" s="54" t="str">
         <f t="shared" si="43"/>
@@ -22214,7 +22372,7 @@
       </c>
       <c r="AS33" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  sgt_gergaji [3] = {{310.,60.},{330.,60.},{330.,20.},{.,.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
@@ -22223,7 +22381,9 @@
       <c r="C34" s="58"/>
       <c r="D34" s="58"/>
       <c r="E34" s="58"/>
-      <c r="F34" s="49"/>
+      <c r="F34" s="49">
+        <v>1</v>
+      </c>
       <c r="G34" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -22232,22 +22392,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I34" s="42"/>
+      <c r="I34" s="42" t="s">
+        <v>52</v>
+      </c>
       <c r="J34" s="43"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="45" t="str">
+      <c r="K34" s="38">
+        <v>222</v>
+      </c>
+      <c r="L34" s="38">
+        <v>218</v>
+      </c>
+      <c r="M34" s="43">
+        <v>196</v>
+      </c>
+      <c r="N34" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="O34" s="45" t="str">
+        <v>0.87058823529411766</v>
+      </c>
+      <c r="O34" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="P34" s="46" t="str">
+        <v>0.85490196078431369</v>
+      </c>
+      <c r="P34" s="46">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0.7686274509803922</v>
       </c>
       <c r="Q34" s="47"/>
       <c r="R34" s="48"/>
@@ -22321,7 +22489,7 @@
       </c>
       <c r="AS34" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_sgt_gergaji = {0.9,0.9,0.8};</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
@@ -22330,7 +22498,9 @@
       <c r="C35" s="58"/>
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
-      <c r="F35" s="49"/>
+      <c r="F35" s="49">
+        <v>2</v>
+      </c>
       <c r="G35" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -22339,8 +22509,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
+      <c r="I35" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="J35" s="43">
+        <v>4</v>
+      </c>
       <c r="K35" s="38"/>
       <c r="L35" s="38"/>
       <c r="M35" s="43"/>
@@ -22356,51 +22530,67 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="43"/>
+      <c r="Q35" s="47">
+        <v>90</v>
+      </c>
+      <c r="R35" s="48">
+        <v>12.5</v>
+      </c>
+      <c r="S35" s="49">
+        <v>115</v>
+      </c>
+      <c r="T35" s="43">
+        <v>12.5</v>
+      </c>
+      <c r="U35" s="50">
+        <v>115</v>
+      </c>
+      <c r="V35" s="48">
+        <v>25</v>
+      </c>
+      <c r="W35" s="49">
+        <v>90</v>
+      </c>
+      <c r="X35" s="43">
+        <v>25</v>
+      </c>
       <c r="Y35" s="50"/>
       <c r="Z35" s="48"/>
       <c r="AA35" s="49"/>
       <c r="AB35" s="43"/>
       <c r="AC35" s="50"/>
       <c r="AD35" s="51"/>
-      <c r="AE35" s="52" t="str">
+      <c r="AE35" s="52">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AF35" s="53" t="str">
+        <v>360</v>
+      </c>
+      <c r="AF35" s="53">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AG35" s="54" t="str">
+        <v>50</v>
+      </c>
+      <c r="AG35" s="54">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AH35" s="55" t="str">
+        <v>460</v>
+      </c>
+      <c r="AH35" s="55">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AI35" s="52" t="str">
+        <v>50</v>
+      </c>
+      <c r="AI35" s="52">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AJ35" s="53" t="str">
+        <v>460</v>
+      </c>
+      <c r="AJ35" s="53">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AK35" s="54" t="str">
+        <v>100</v>
+      </c>
+      <c r="AK35" s="54">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AL35" s="55" t="str">
+        <v>360</v>
+      </c>
+      <c r="AL35" s="55">
         <f t="shared" si="43"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AM35" s="52" t="str">
         <f t="shared" si="43"/>
@@ -22428,7 +22618,7 @@
       </c>
       <c r="AS35" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  ktk_ats_furnace [4] = {{360.,50.},{460.,50.},{460.,100.},{360.,100.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
@@ -29954,11 +30144,16 @@
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AQ2:AR2"/>
   </mergeCells>
-  <dataValidations count="4" disablePrompts="0">
-    <dataValidation sqref="N4:P105 I4:I13 I20 I22 I24:I105" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+  <dataValidations count="9" disablePrompts="0">
+    <dataValidation sqref="N4:P105 I4:I13 I20 I22 I24:I25 I28:I29 I31 I33 I35:I105" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I14:I19" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I21" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I23" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I26" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I27" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I30" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I32" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I34" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
   </dataValidations>
   <printOptions headings="0" gridLines="0" horizontalCentered="1"/>
   <pageMargins left="0.19685039370078738" right="0.19685039370078738" top="0.39370078740157477" bottom="0.39370078740157477" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -29969,7 +30164,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{00300065-00B9-48BD-9F2E-00F200D700DE}">
+          <x14:cfRule type="expression" priority="3" id="{00CB00AF-0035-4CE2-ACD1-00F300B3009C}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -29983,10 +30178,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J4:J105</xm:sqref>
+          <xm:sqref>J4:J29 J31:J105 J31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{00AC000F-0036-41B8-8E45-006F00970003}">
+          <x14:cfRule type="expression" priority="2" id="{00590037-00F8-484C-BBBF-00CE006700F1}">
             <xm:f>$F4=2</xm:f>
             <x14:dxf>
               <font>
@@ -30003,7 +30198,7 @@
           <xm:sqref>K4:M105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00670062-0088-4A3A-85E9-00C400280013}">
+          <x14:cfRule type="expression" priority="1" id="{009F004F-00B2-4C56-8751-00D600FD00EA}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30019,29 +30214,97 @@
           </x14:cfRule>
           <xm:sqref>Q4:AD105</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{008B0051-00E8-41EE-8479-006800C500EA}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>Q31:X31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{006C0049-0051-4F7A-82F9-00A10045009B}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>Q33:T33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00FA005E-00CA-4810-A1E3-0093001800B8}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00D000BC-005D-49E6-A1DD-000E003400C7}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U33</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00D3007D-00F3-42F4-B597-00EA00EF001A}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11" disablePrompts="0">
+        <x14:dataValidation xr:uid="{00A8009C-0071-450C-894D-001F00240023}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q4:AD105</xm:sqref>
+          <xm:sqref>Q4:AD30 Y31:AD31 Q32:AD32 V33:AD33 Q34:AD105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002C00B8-0028-4D28-9E98-00C3006F00CB}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0047009C-006F-408F-B8B9-0026003E00B6}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND($F4=1,K4&gt;=0,K4&lt;256)</xm:f>
           </x14:formula1>
           <xm:sqref>K4:M8 K10:M10 K12:M20 K22:M105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00710024-00DF-465E-A41E-00D0002700BF}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C00092-00AA-46F9-B0E7-004C002F0087}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND(F4=2,J4&gt;0)</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J105</xm:sqref>
+          <xm:sqref>J4:J29 J31 J32:J105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008B00A8-0016-4071-8DF7-00B400E90007}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00210096-0099-48FE-A12C-00DD00A000DF}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -30050,25 +30313,25 @@
           </x14:formula2>
           <xm:sqref>F4:F13 F20:F105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005100CD-004E-4A86-8B60-00D100920006}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00DC0072-00CF-4826-B065-003200B500BD}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1024</xm:f>
           </x14:formula1>
           <xm:sqref>A4 C4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00780012-0091-4BB8-A617-00D9009000BE}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008F00E3-00A9-4307-B307-000D0098000D}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>768</xm:f>
           </x14:formula1>
           <xm:sqref>B4 D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CA0087-0014-4FC2-A8F3-00F000E300B8}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B90093-00B8-40DA-8DD7-0026003000D9}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>AF4:AR105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005800FA-00B4-4652-9CFD-000B003B00FD}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C70078-0015-4F0A-9BCA-007F00700059}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -30077,6 +30340,24 @@
           </x14:formula2>
           <xm:sqref>F14:F19</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation xr:uid="{008600CD-0003-4D79-AE9D-009100AA00CA}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F5=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q31:X31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{005D0032-0006-4584-9B81-002200DA009B}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F8=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q33:T33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{006A00CA-00C2-4611-B697-002F00580036}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F8=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>U33</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>

--- a/Template KOORDINAT.xlsx
+++ b/Template KOORDINAT.xlsx
@@ -4775,7 +4775,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>X-Desain</t>
   </si>
@@ -4938,6 +4938,120 @@
   </si>
   <si>
     <t>ktk_ats_furnace</t>
+  </si>
+  <si>
+    <t>w_ktk_ats_furnace</t>
+  </si>
+  <si>
+    <t>ktk_bwh_furnace</t>
+  </si>
+  <si>
+    <t>w_ktk_bwh_furnace</t>
+  </si>
+  <si>
+    <t>stglkr1_furnace</t>
+  </si>
+  <si>
+    <t>w_stglkr1_furnace</t>
+  </si>
+  <si>
+    <t>stglkr2_furnace</t>
+  </si>
+  <si>
+    <t>w_stglkr2_furnace</t>
+  </si>
+  <si>
+    <t>ktk_bwh_chest</t>
+  </si>
+  <si>
+    <t>w_ktk_bwh_chest</t>
+  </si>
+  <si>
+    <t>ktk_atas_chest</t>
+  </si>
+  <si>
+    <t>w_ktk_atas_chest</t>
+  </si>
+  <si>
+    <t>ktk_kunci_chest</t>
+  </si>
+  <si>
+    <t>w_ktk_kunci_chest</t>
+  </si>
+  <si>
+    <t>w_ktk_bwh_chest2</t>
+  </si>
+  <si>
+    <t>ktk_atas_chest2</t>
+  </si>
+  <si>
+    <t>w_ktk_atas_chest2</t>
+  </si>
+  <si>
+    <t>ktk_kunci_chest2</t>
+  </si>
+  <si>
+    <t>w_ktk_kunci_chest2</t>
+  </si>
+  <si>
+    <t>ktk_jendela</t>
+  </si>
+  <si>
+    <t>w_ktk_jendela</t>
+  </si>
+  <si>
+    <t>gris_jendela1</t>
+  </si>
+  <si>
+    <t>gris_jendela2</t>
+  </si>
+  <si>
+    <t>gris_jendela3</t>
+  </si>
+  <si>
+    <t>gris_jendela4</t>
+  </si>
+  <si>
+    <t>ktk_kasur_mrh</t>
+  </si>
+  <si>
+    <t>w_ktk_kasur_mrh</t>
+  </si>
+  <si>
+    <t>ktk_kasur_putih</t>
+  </si>
+  <si>
+    <t>w_ktk_kasur_putih</t>
+  </si>
+  <si>
+    <t>ktk_bntl_putih</t>
+  </si>
+  <si>
+    <t>w_ktk_bntl_putih</t>
+  </si>
+  <si>
+    <t>ktk_kki_kasur1</t>
+  </si>
+  <si>
+    <t>w_ktk_kki_kasur1</t>
+  </si>
+  <si>
+    <t>ktk_kki_kasur2</t>
+  </si>
+  <si>
+    <t>w_ktk_kki_kasur2</t>
+  </si>
+  <si>
+    <t>ktk_kki_kasur3</t>
+  </si>
+  <si>
+    <t>w_ktk_kki_kasur3</t>
+  </si>
+  <si>
+    <t>ktk_kki_kasur4</t>
+  </si>
+  <si>
+    <t>w_ktk_kki_kasur4</t>
   </si>
 </sst>
 </file>
@@ -5247,7 +5361,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5477,6 +5591,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf fontId="3" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5496,8 +5620,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="poltek" id="{3FB90659-BB62-1D56-9C03-D6D748EDC255}"/>
-  <person displayName="Neny" id="{CBF40502-6F10-8A56-5BE4-6C2863344525}"/>
+  <person displayName="poltek" id="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}"/>
+  <person displayName="Neny" id="{9C138838-7C3A-442B-AC2C-640F2A8A35C3}"/>
 </personList>
 </file>
 
@@ -5995,516 +6119,516 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F11" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{002500E1-00B8-415B-B628-00BC00C1008B}" done="0">
+  <threadedComment ref="F11" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{002500E1-00B8-415B-B628-00BC00C1008B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F101" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E800CE-007E-426B-B7E5-007C0091000C}" done="0">
+  <threadedComment ref="F101" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E800CE-007E-426B-B7E5-007C0091000C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F102" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E000F6-00AF-4CED-A227-008A00F2001C}" done="0">
+  <threadedComment ref="F102" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E000F6-00AF-4CED-A227-008A00F2001C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F103" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{003D0069-00A4-4EB2-9FF8-00C900CF008C}" done="0">
+  <threadedComment ref="F103" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{003D0069-00A4-4EB2-9FF8-00C900CF008C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F104" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E900E6-0010-43DD-BD1C-002F00250065}" done="0">
+  <threadedComment ref="F104" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E900E6-0010-43DD-BD1C-002F00250065}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F105" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00FE00F5-001D-42E1-AB80-004F006300A1}" done="0">
+  <threadedComment ref="F105" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00FE00F5-001D-42E1-AB80-004F006300A1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F12" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00BB00DD-0073-4E2E-8E5F-007C007F0010}" done="0">
+  <threadedComment ref="F12" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00BB00DD-0073-4E2E-8E5F-007C007F0010}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F13" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00B00031-00C9-4E4A-A3B5-006000A60042}" done="0">
+  <threadedComment ref="F13" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00B00031-00C9-4E4A-A3B5-006000A60042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F14" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{001200B5-0057-4871-9B75-0071006000EE}" done="0">
+  <threadedComment ref="F14" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{001200B5-0057-4871-9B75-0071006000EE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F15" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0032009A-0014-4A22-A6AB-001F000500BA}" done="0">
+  <threadedComment ref="F15" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0032009A-0014-4A22-A6AB-001F000500BA}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F16" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00CC007D-000D-4589-9961-003000160093}" done="0">
+  <threadedComment ref="F16" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00CC007D-000D-4589-9961-003000160093}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F17" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009400AE-00F2-4CA6-B8A9-00C000DD00B4}" done="0">
+  <threadedComment ref="F17" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009400AE-00F2-4CA6-B8A9-00C000DD00B4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F18" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{003100D6-0016-4C77-B58E-0060001F0052}" done="0">
+  <threadedComment ref="F18" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{003100D6-0016-4C77-B58E-0060001F0052}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F19" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009D0070-0067-450A-847F-00CD00F5001B}" done="0">
+  <threadedComment ref="F19" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009D0070-0067-450A-847F-00CD00F5001B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F20" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{006100D3-00DC-44AD-B91D-005F00A0007E}" done="0">
+  <threadedComment ref="F20" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{006100D3-00DC-44AD-B91D-005F00A0007E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F21" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D800F4-000E-4F86-A2C7-0060009400B9}" done="0">
+  <threadedComment ref="F21" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D800F4-000E-4F86-A2C7-0060009400B9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F22" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{008500D6-0072-416A-8A43-009C0054002E}" done="0">
+  <threadedComment ref="F22" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{008500D6-0072-416A-8A43-009C0054002E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F23" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0089000F-0033-470B-91DC-00C300A40067}" done="0">
+  <threadedComment ref="F23" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0089000F-0033-470B-91DC-00C300A40067}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F24" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{000400E2-0064-464B-8D0F-0091006E00D3}" done="0">
+  <threadedComment ref="F24" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{000400E2-0064-464B-8D0F-0091006E00D3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F25" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{007E0057-0058-4C50-ABEF-0064004200F8}" done="0">
+  <threadedComment ref="F25" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{007E0057-0058-4C50-ABEF-0064004200F8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F26" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00CC009C-00FA-4C65-A1BB-002300F300AC}" done="0">
+  <threadedComment ref="F26" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00CC009C-00FA-4C65-A1BB-002300F300AC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F27" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00650033-004D-4692-A5AE-003E005F009E}" done="0">
+  <threadedComment ref="F27" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00650033-004D-4692-A5AE-003E005F009E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F28" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0021000B-00C8-4428-929E-00E600C400BB}" done="0">
+  <threadedComment ref="F28" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0021000B-00C8-4428-929E-00E600C400BB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F29" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{007300D9-00F6-41C7-A088-009F006F000A}" done="0">
+  <threadedComment ref="F29" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{007300D9-00F6-41C7-A088-009F006F000A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F30" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0094001B-0027-40F6-BD3E-008A00FC00E9}" done="0">
+  <threadedComment ref="F30" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0094001B-0027-40F6-BD3E-008A00FC00E9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="E4" personId="{CBF40502-6F10-8A56-5BE4-6C2863344525}" id="{0061007E-0071-4BA6-9081-003E00590086}" done="0">
+  <threadedComment ref="E4" personId="{9C138838-7C3A-442B-AC2C-640F2A8A35C3}" id="{0061007E-0071-4BA6-9081-003E00590086}" done="0">
     <text xml:space="preserve">isi dengan jumlah piksel yang Anda inginkan untuk tiap milimeter
 </text>
   </threadedComment>
-  <threadedComment ref="F4" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0036007E-0073-472C-A977-006800640035}" done="0">
+  <threadedComment ref="F4" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0036007E-0073-472C-A977-006800640035}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F31" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00FE001C-006A-4714-A502-0091001E00E2}" done="0">
+  <threadedComment ref="F31" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00FE001C-006A-4714-A502-0091001E00E2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F32" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005400F1-0067-41CE-AAFA-004C00A70066}" done="0">
+  <threadedComment ref="F32" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005400F1-0067-41CE-AAFA-004C00A70066}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F33" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D500C8-00EC-4DA0-B06B-006D002F00C0}" done="0">
+  <threadedComment ref="F33" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D500C8-00EC-4DA0-B06B-006D002F00C0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F34" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{008500B3-00B1-44A3-BB57-003300300050}" done="0">
+  <threadedComment ref="F34" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{008500B3-00B1-44A3-BB57-003300300050}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F35" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{001500E2-004A-47AE-BD1F-002E004400CF}" done="0">
+  <threadedComment ref="F35" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{001500E2-004A-47AE-BD1F-002E004400CF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F36" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00560014-0063-4696-B651-0072002E00F1}" done="0">
+  <threadedComment ref="F36" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00560014-0063-4696-B651-0072002E00F1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F37" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00BE0009-0085-4D6D-8376-00BD00810093}" done="0">
+  <threadedComment ref="F37" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00BE0009-0085-4D6D-8376-00BD00810093}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F38" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00BD00DD-00EE-44ED-85E2-003B003C00B5}" done="0">
+  <threadedComment ref="F38" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00BD00DD-00EE-44ED-85E2-003B003C00B5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F39" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{004700F6-0083-4255-BBDD-00A1000B0033}" done="0">
+  <threadedComment ref="F39" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{004700F6-0083-4255-BBDD-00A1000B0033}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F40" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005F009E-001A-40CC-8D4D-0006006800B1}" done="0">
+  <threadedComment ref="F40" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005F009E-001A-40CC-8D4D-0006006800B1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F5" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009500C7-009B-4EE0-AEF2-0092005B009C}" done="0">
+  <threadedComment ref="F5" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009500C7-009B-4EE0-AEF2-0092005B009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F41" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00240082-00CA-42F1-9880-00ED000200D7}" done="0">
+  <threadedComment ref="F41" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00240082-00CA-42F1-9880-00ED000200D7}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F42" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00570071-00FC-4DA6-A267-0005002300D5}" done="0">
+  <threadedComment ref="F42" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00570071-00FC-4DA6-A267-0005002300D5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F43" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{002E008F-003D-4C92-B908-009F00780064}" done="0">
+  <threadedComment ref="F43" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{002E008F-003D-4C92-B908-009F00780064}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F44" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0095000D-00FF-46BD-930B-003800220098}" done="0">
+  <threadedComment ref="F44" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0095000D-00FF-46BD-930B-003800220098}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F45" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00990017-00DC-48C4-82D3-005A00FA0002}" done="0">
+  <threadedComment ref="F45" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00990017-00DC-48C4-82D3-005A00FA0002}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F46" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{007D00FC-0035-4218-96B1-00C3001C00FF}" done="0">
+  <threadedComment ref="F46" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{007D00FC-0035-4218-96B1-00C3001C00FF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F47" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0070006E-003D-42D8-9D0E-00AD009B00AD}" done="0">
+  <threadedComment ref="F47" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0070006E-003D-42D8-9D0E-00AD009B00AD}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F48" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00A700B1-00F5-44A5-9B3A-00E800A6005F}" done="0">
+  <threadedComment ref="F48" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00A700B1-00F5-44A5-9B3A-00E800A6005F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F49" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E6004C-00B1-4CE7-A393-009A000B00EF}" done="0">
+  <threadedComment ref="F49" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E6004C-00B1-4CE7-A393-009A000B00EF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F50" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00F20063-0088-4645-82C4-008B001000CE}" done="0">
+  <threadedComment ref="F50" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00F20063-0088-4645-82C4-008B001000CE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F6" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00AD006C-009F-414E-A478-003100110023}" done="0">
+  <threadedComment ref="F6" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00AD006C-009F-414E-A478-003100110023}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F51" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{003A0092-007B-434A-8AE6-00C900550045}" done="0">
+  <threadedComment ref="F51" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{003A0092-007B-434A-8AE6-00C900550045}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F52" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00AC0054-003A-40DE-9700-00ED002D0086}" done="0">
+  <threadedComment ref="F52" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00AC0054-003A-40DE-9700-00ED002D0086}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F53" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{008B0081-00F6-4868-B8C9-009300E0004A}" done="0">
+  <threadedComment ref="F53" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{008B0081-00F6-4868-B8C9-009300E0004A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F54" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00970002-00F4-4452-BF03-008700B20007}" done="0">
+  <threadedComment ref="F54" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00970002-00F4-4452-BF03-008700B20007}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F55" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00CD00CD-0015-4B47-9901-008200CC0049}" done="0">
+  <threadedComment ref="F55" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00CD00CD-0015-4B47-9901-008200CC0049}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F56" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{003F00CD-0090-45F5-BEFB-003B00BB0042}" done="0">
+  <threadedComment ref="F56" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{003F00CD-0090-45F5-BEFB-003B00BB0042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F57" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005E0063-004F-4D56-9B30-00CE00600070}" done="0">
+  <threadedComment ref="F57" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005E0063-004F-4D56-9B30-00CE00600070}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F58" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{002800EB-00B6-44DF-BEDF-00B300EB0001}" done="0">
+  <threadedComment ref="F58" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{002800EB-00B6-44DF-BEDF-00B300EB0001}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F59" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00C40096-0089-4182-B76B-00BB006D0082}" done="0">
+  <threadedComment ref="F59" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00C40096-0089-4182-B76B-00BB006D0082}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F60" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D20078-00B2-4562-AD8B-00E500D20044}" done="0">
+  <threadedComment ref="F60" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D20078-00B2-4562-AD8B-00E500D20044}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F7" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009600C6-000D-4695-AD6A-00AA00460012}" done="0">
+  <threadedComment ref="F7" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009600C6-000D-4695-AD6A-00AA00460012}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F61" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00B200FF-00D5-4A30-9BF7-00EA007A00F8}" done="0">
+  <threadedComment ref="F61" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00B200FF-00D5-4A30-9BF7-00EA007A00F8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F62" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00880089-0011-4F44-8646-007B00BB0042}" done="0">
+  <threadedComment ref="F62" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00880089-0011-4F44-8646-007B00BB0042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F63" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00320017-0039-4020-A31A-00C1006E00E3}" done="0">
+  <threadedComment ref="F63" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00320017-0039-4020-A31A-00C1006E00E3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F64" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00C700AA-0061-48CF-AC77-009B00C1007F}" done="0">
+  <threadedComment ref="F64" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00C700AA-0061-48CF-AC77-009B00C1007F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F65" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00AC00BD-009E-4F69-9DA5-009F009400DB}" done="0">
+  <threadedComment ref="F65" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00AC00BD-009E-4F69-9DA5-009F009400DB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F66" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{002D0025-00FA-484A-B277-007100380059}" done="0">
+  <threadedComment ref="F66" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{002D0025-00FA-484A-B277-007100380059}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F67" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009E00BC-008A-421F-8CD1-007300E60069}" done="0">
+  <threadedComment ref="F67" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009E00BC-008A-421F-8CD1-007300E60069}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F68" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009400E2-005D-42B8-AEAC-00B20057004C}" done="0">
+  <threadedComment ref="F68" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009400E2-005D-42B8-AEAC-00B20057004C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F69" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00790007-005D-4620-A635-009F008100F1}" done="0">
+  <threadedComment ref="F69" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00790007-005D-4620-A635-009F008100F1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F70" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00DB000D-003C-4972-A55A-001700780095}" done="0">
+  <threadedComment ref="F70" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00DB000D-003C-4972-A55A-001700780095}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F8" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005600E1-0021-450A-A907-006500800023}" done="0">
+  <threadedComment ref="F8" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005600E1-0021-450A-A907-006500800023}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F71" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E200C4-0054-45F0-869E-007100930078}" done="0">
+  <threadedComment ref="F71" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E200C4-0054-45F0-869E-007100930078}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F72" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0056006F-0044-41C1-9237-003D006400D5}" done="0">
+  <threadedComment ref="F72" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0056006F-0044-41C1-9237-003D006400D5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F73" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E5000A-0043-45C2-AB43-0036008600BC}" done="0">
+  <threadedComment ref="F73" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E5000A-0043-45C2-AB43-0036008600BC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F74" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00080024-0009-4C90-9AA6-0028006F00C3}" done="0">
+  <threadedComment ref="F74" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00080024-0009-4C90-9AA6-0028006F00C3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F75" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00BF006F-00FD-40E9-BF62-00380095009C}" done="0">
+  <threadedComment ref="F75" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00BF006F-00FD-40E9-BF62-00380095009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F76" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00AC0078-0023-42F0-896E-00B400AC0061}" done="0">
+  <threadedComment ref="F76" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00AC0078-0023-42F0-896E-00B400AC0061}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F77" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00B40051-00E4-4EF1-AC80-00DA00AE00A9}" done="0">
+  <threadedComment ref="F77" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00B40051-00E4-4EF1-AC80-00DA00AE00A9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F78" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{001F00EB-00A6-4182-93A2-008200790053}" done="0">
+  <threadedComment ref="F78" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{001F00EB-00A6-4182-93A2-008200790053}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F79" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{008200E4-001B-4421-88B8-00AC0024003B}" done="0">
+  <threadedComment ref="F79" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{008200E4-001B-4421-88B8-00AC0024003B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F80" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00650063-001C-47BC-8F07-00A4009800C7}" done="0">
+  <threadedComment ref="F80" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00650063-001C-47BC-8F07-00A4009800C7}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F9" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00750071-0023-4422-9A66-00D1003D00CB}" done="0">
+  <threadedComment ref="F9" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00750071-0023-4422-9A66-00D1003D00CB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F81" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D4003E-0044-4199-9D3C-005900F3009C}" done="0">
+  <threadedComment ref="F81" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D4003E-0044-4199-9D3C-005900F3009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F82" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00CC000B-00DD-4305-8A0B-00F900EA0068}" done="0">
+  <threadedComment ref="F82" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00CC000B-00DD-4305-8A0B-00F900EA0068}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F83" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00970097-00E6-43CC-8851-008300AF0076}" done="0">
+  <threadedComment ref="F83" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00970097-00E6-43CC-8851-008300AF0076}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F84" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{002800BB-00C4-478C-BCF0-005300690023}" done="0">
+  <threadedComment ref="F84" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{002800BB-00C4-478C-BCF0-005300690023}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F85" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00C10025-0085-4258-BBAF-0047001400B7}" done="0">
+  <threadedComment ref="F85" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00C10025-0085-4258-BBAF-0047001400B7}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F86" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00720040-0056-4BFC-BE0B-004A001E006F}" done="0">
+  <threadedComment ref="F86" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00720040-0056-4BFC-BE0B-004A001E006F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F87" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00CD0068-003B-48A9-B257-00A400C30005}" done="0">
+  <threadedComment ref="F87" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00CD0068-003B-48A9-B257-00A400C30005}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F88" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00380059-00CD-4680-903F-001200BC00A4}" done="0">
+  <threadedComment ref="F88" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00380059-00CD-4680-903F-001200BC00A4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F89" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009500FB-00AD-4626-8417-008800A000E1}" done="0">
+  <threadedComment ref="F89" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009500FB-00AD-4626-8417-008800A000E1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F90" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00A1003A-004A-469B-ACBF-000A004500CC}" done="0">
+  <threadedComment ref="F90" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00A1003A-004A-469B-ACBF-000A004500CC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F10" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00BE0084-00DB-4A19-AD4C-007200DE000E}" done="0">
+  <threadedComment ref="F10" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00BE0084-00DB-4A19-AD4C-007200DE000E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F91" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0046004F-0047-4C64-87E5-00EE00970097}" done="0">
+  <threadedComment ref="F91" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0046004F-0047-4C64-87E5-00EE00970097}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F92" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005100A3-007B-4685-8AC8-008000D800E8}" done="0">
+  <threadedComment ref="F92" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005100A3-007B-4685-8AC8-008000D800E8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F93" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{000600FD-0053-45F8-A391-001900AD00C0}" done="0">
+  <threadedComment ref="F93" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{000600FD-0053-45F8-A391-001900AD00C0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F94" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E10009-0042-404A-9F0C-00BD006F0031}" done="0">
+  <threadedComment ref="F94" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E10009-0042-404A-9F0C-00BD006F0031}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F95" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00270083-0048-4D3F-9E3F-00F900F700D9}" done="0">
+  <threadedComment ref="F95" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00270083-0048-4D3F-9E3F-00F900F700D9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F96" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{003F00F7-00D8-427E-9913-003500030020}" done="0">
+  <threadedComment ref="F96" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{003F00F7-00D8-427E-9913-003500030020}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F97" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00960084-0098-4664-BC96-009B00110086}" done="0">
+  <threadedComment ref="F97" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00960084-0098-4664-BC96-009B00110086}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F98" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005C0033-00EA-4983-B8DA-00E100410007}" done="0">
+  <threadedComment ref="F98" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005C0033-00EA-4983-B8DA-00E100410007}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F99" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00950047-001D-4E75-8932-009A002C00E1}" done="0">
+  <threadedComment ref="F99" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00950047-001D-4E75-8932-009A002C00E1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F100" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00DB00DE-0033-4655-BFAD-003B007C0021}" done="0">
+  <threadedComment ref="F100" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00DB00DE-0033-4655-BFAD-003B007C0021}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
@@ -6514,516 +6638,516 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F11" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0019003E-00DD-4011-9D56-005900790044}" done="0">
+  <threadedComment ref="F11" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0019003E-00DD-4011-9D56-005900790044}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F101" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00EB00FE-009E-4709-904D-006B001F001E}" done="0">
+  <threadedComment ref="F101" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00EB00FE-009E-4709-904D-006B001F001E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F102" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D700D5-0053-4DB6-9621-000B009800CB}" done="0">
+  <threadedComment ref="F102" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D700D5-0053-4DB6-9621-000B009800CB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F103" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{008800FF-0055-4844-ACC2-0076001100CF}" done="0">
+  <threadedComment ref="F103" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{008800FF-0055-4844-ACC2-0076001100CF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F104" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005400F9-006F-4035-AAB7-0030005800CE}" done="0">
+  <threadedComment ref="F104" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005400F9-006F-4035-AAB7-0030005800CE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F105" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00CD0083-00F4-4E02-AC89-00F60064008E}" done="0">
+  <threadedComment ref="F105" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00CD0083-00F4-4E02-AC89-00F60064008E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F12" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00B1001A-00E3-40E1-9E1D-000D008E008D}" done="0">
+  <threadedComment ref="F12" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00B1001A-00E3-40E1-9E1D-000D008E008D}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F13" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00B400C0-00D5-40E5-8A1A-00D5009000F4}" done="0">
+  <threadedComment ref="F13" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00B400C0-00D5-40E5-8A1A-00D5009000F4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F14" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00EE00B7-008D-485F-AA06-009400F0002D}" done="0">
+  <threadedComment ref="F14" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00EE00B7-008D-485F-AA06-009400F0002D}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F15" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{002E00C1-0009-4AA1-A21E-008600AD00F1}" done="0">
+  <threadedComment ref="F15" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{002E00C1-0009-4AA1-A21E-008600AD00F1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F16" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00A5002A-008B-4DB1-9909-007100CE0097}" done="0">
+  <threadedComment ref="F16" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00A5002A-008B-4DB1-9909-007100CE0097}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F17" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{000200B5-009D-4FD4-8618-00DD00FF001C}" done="0">
+  <threadedComment ref="F17" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{000200B5-009D-4FD4-8618-00DD00FF001C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F18" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00C700DB-001C-43D6-B0B8-00650049008E}" done="0">
+  <threadedComment ref="F18" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00C700DB-001C-43D6-B0B8-00650049008E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F19" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00020099-007C-4D6A-AB89-00BB006100C9}" done="0">
+  <threadedComment ref="F19" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00020099-007C-4D6A-AB89-00BB006100C9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F20" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00B200A1-00A5-4B96-8E58-007B000A004A}" done="0">
+  <threadedComment ref="F20" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00B200A1-00A5-4B96-8E58-007B000A004A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F21" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00AA007B-0069-441C-B70A-00B3007F00A4}" done="0">
+  <threadedComment ref="F21" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00AA007B-0069-441C-B70A-00B3007F00A4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F22" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00C50050-0073-40FC-9B5F-009800E000B2}" done="0">
+  <threadedComment ref="F22" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00C50050-0073-40FC-9B5F-009800E000B2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F23" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D20041-00C8-4C87-93B6-002F000B00D5}" done="0">
+  <threadedComment ref="F23" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D20041-00C8-4C87-93B6-002F000B00D5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F24" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0006001B-006F-4061-88D4-00CE00BC00D3}" done="0">
+  <threadedComment ref="F24" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0006001B-006F-4061-88D4-00CE00BC00D3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F25" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00EA00B5-00FA-4937-A378-007F00CE00EE}" done="0">
+  <threadedComment ref="F25" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00EA00B5-00FA-4937-A378-007F00CE00EE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F26" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0096009B-00C3-4BC1-BF79-0073004D00DA}" done="0">
+  <threadedComment ref="F26" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0096009B-00C3-4BC1-BF79-0073004D00DA}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F27" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00660028-0017-4593-8105-00D500CA00CF}" done="0">
+  <threadedComment ref="F27" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00660028-0017-4593-8105-00D500CA00CF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F28" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0054003B-00EA-4C66-B79C-00CF00F600D3}" done="0">
+  <threadedComment ref="F28" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0054003B-00EA-4C66-B79C-00CF00F600D3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F29" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{008E00DA-0015-49B4-A1FF-005F00BA00B8}" done="0">
+  <threadedComment ref="F29" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{008E00DA-0015-49B4-A1FF-005F00BA00B8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F30" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00DF00B9-00FF-4510-8F78-0064004D0062}" done="0">
+  <threadedComment ref="F30" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00DF00B9-00FF-4510-8F78-0064004D0062}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="E4" personId="{CBF40502-6F10-8A56-5BE4-6C2863344525}" id="{007900C2-005E-48A6-8CBD-0036008F00C9}" done="0">
+  <threadedComment ref="E4" personId="{9C138838-7C3A-442B-AC2C-640F2A8A35C3}" id="{007900C2-005E-48A6-8CBD-0036008F00C9}" done="0">
     <text xml:space="preserve">isi dengan jumlah piksel yang Anda inginkan untuk tiap milimeter
 </text>
   </threadedComment>
-  <threadedComment ref="F4" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0034000F-00E9-4A7B-BC67-00AE00910055}" done="0">
+  <threadedComment ref="F4" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0034000F-00E9-4A7B-BC67-00AE00910055}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F31" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E600E5-00FE-4E84-9545-0024006F00A3}" done="0">
+  <threadedComment ref="F31" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E600E5-00FE-4E84-9545-0024006F00A3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F32" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0012003B-00C3-4448-86A4-000A0049004B}" done="0">
+  <threadedComment ref="F32" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0012003B-00C3-4448-86A4-000A0049004B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F33" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00240072-0031-4FCF-8345-006E00710052}" done="0">
+  <threadedComment ref="F33" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00240072-0031-4FCF-8345-006E00710052}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F34" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00AD0072-00EF-4B0A-904A-00DF002000C2}" done="0">
+  <threadedComment ref="F34" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00AD0072-00EF-4B0A-904A-00DF002000C2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F35" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00DF00C8-00EA-4D94-8C52-00050096005E}" done="0">
+  <threadedComment ref="F35" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00DF00C8-00EA-4D94-8C52-00050096005E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F36" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E8008E-0075-4E96-BD3B-003A00D20034}" done="0">
+  <threadedComment ref="F36" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E8008E-0075-4E96-BD3B-003A00D20034}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F37" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00F000DA-0053-4C2E-B776-00E100FD00E6}" done="0">
+  <threadedComment ref="F37" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00F000DA-0053-4C2E-B776-00E100FD00E6}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F38" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0007002B-00A0-47A9-A420-002E00BA0073}" done="0">
+  <threadedComment ref="F38" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0007002B-00A0-47A9-A420-002E00BA0073}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F39" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{004E00A9-00B1-451A-A379-00E900300036}" done="0">
+  <threadedComment ref="F39" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{004E00A9-00B1-451A-A379-00E900300036}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F40" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00400002-0059-4D59-A276-00CB00E40084}" done="0">
+  <threadedComment ref="F40" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00400002-0059-4D59-A276-00CB00E40084}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F5" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00AA0075-00D0-4936-8B93-00F600E30056}" done="0">
+  <threadedComment ref="F5" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00AA0075-00D0-4936-8B93-00F600E30056}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F41" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{007A003A-0052-4D44-BE5F-002700A3008A}" done="0">
+  <threadedComment ref="F41" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{007A003A-0052-4D44-BE5F-002700A3008A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F42" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005900EB-00EE-41D5-BBC7-004500230082}" done="0">
+  <threadedComment ref="F42" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005900EB-00EE-41D5-BBC7-004500230082}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F43" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0066006C-0075-4910-9BBE-007300B600D2}" done="0">
+  <threadedComment ref="F43" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0066006C-0075-4910-9BBE-007300B600D2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F44" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00BD0039-0060-4A32-A1FA-00EB00620059}" done="0">
+  <threadedComment ref="F44" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00BD0039-0060-4A32-A1FA-00EB00620059}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F45" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{003600C2-002B-4BB3-94AF-00F000610003}" done="0">
+  <threadedComment ref="F45" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{003600C2-002B-4BB3-94AF-00F000610003}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F46" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00C8007C-00BE-4CF5-A05E-00D30007004E}" done="0">
+  <threadedComment ref="F46" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00C8007C-00BE-4CF5-A05E-00D30007004E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F47" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00BE00EB-0060-4465-86B7-00F400EF0075}" done="0">
+  <threadedComment ref="F47" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00BE00EB-0060-4465-86B7-00F400EF0075}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F48" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{003A00B1-0087-4036-9277-004D00D600C2}" done="0">
+  <threadedComment ref="F48" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{003A00B1-0087-4036-9277-004D00D600C2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F49" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{001B00D1-0043-47CD-B36D-008100A200E8}" done="0">
+  <threadedComment ref="F49" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{001B00D1-0043-47CD-B36D-008100A200E8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F50" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D80008-00BB-4263-8E96-003F00A4004A}" done="0">
+  <threadedComment ref="F50" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D80008-00BB-4263-8E96-003F00A4004A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F6" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{001E00CE-0048-475C-8F03-005D00FC00AB}" done="0">
+  <threadedComment ref="F6" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{001E00CE-0048-475C-8F03-005D00FC00AB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F51" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{008A008F-00C4-42A2-9BB4-0012001B001F}" done="0">
+  <threadedComment ref="F51" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{008A008F-00C4-42A2-9BB4-0012001B001F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F52" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009F004E-00F7-4254-A488-002600110066}" done="0">
+  <threadedComment ref="F52" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009F004E-00F7-4254-A488-002600110066}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F53" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00F400D7-00E7-4B49-837A-00DF008D009C}" done="0">
+  <threadedComment ref="F53" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00F400D7-00E7-4B49-837A-00DF008D009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F54" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009B005D-00D2-427C-969A-0004003400E3}" done="0">
+  <threadedComment ref="F54" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009B005D-00D2-427C-969A-0004003400E3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F55" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0099001A-0080-4833-A44C-00F1006F00ED}" done="0">
+  <threadedComment ref="F55" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0099001A-0080-4833-A44C-00F1006F00ED}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F56" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D40085-001B-4138-9210-00CC00400091}" done="0">
+  <threadedComment ref="F56" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D40085-001B-4138-9210-00CC00400091}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F57" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{002E00E5-00AA-4A4B-885A-00D3006400A8}" done="0">
+  <threadedComment ref="F57" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{002E00E5-00AA-4A4B-885A-00D3006400A8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F58" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00A900F6-00CA-4FBB-A637-006D00E900DE}" done="0">
+  <threadedComment ref="F58" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00A900F6-00CA-4FBB-A637-006D00E900DE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F59" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00F90006-0053-4D67-A51B-003900E70039}" done="0">
+  <threadedComment ref="F59" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00F90006-0053-4D67-A51B-003900E70039}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F60" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009600A0-0064-49EE-9A88-00DF00D30094}" done="0">
+  <threadedComment ref="F60" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009600A0-0064-49EE-9A88-00DF00D30094}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F7" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00FB0041-006D-481D-B14B-0088007300C8}" done="0">
+  <threadedComment ref="F7" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00FB0041-006D-481D-B14B-0088007300C8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F61" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00B100BB-004B-4978-8955-005500AE0057}" done="0">
+  <threadedComment ref="F61" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00B100BB-004B-4978-8955-005500AE0057}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F62" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00DC0093-0025-4048-A61E-001E00F40032}" done="0">
+  <threadedComment ref="F62" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00DC0093-0025-4048-A61E-001E00F40032}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F63" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009E007C-0048-45D6-A57A-00A8007200F8}" done="0">
+  <threadedComment ref="F63" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009E007C-0048-45D6-A57A-00A8007200F8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F64" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00C900D3-00F2-4872-AAF9-00B1000400BB}" done="0">
+  <threadedComment ref="F64" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00C900D3-00F2-4872-AAF9-00B1000400BB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F65" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00A600C9-0097-4674-BC98-00DB002800A0}" done="0">
+  <threadedComment ref="F65" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00A600C9-0097-4674-BC98-00DB002800A0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F66" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{000500AF-00D3-450D-A721-004000E8008B}" done="0">
+  <threadedComment ref="F66" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{000500AF-00D3-450D-A721-004000E8008B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F67" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005A00B9-0067-4B9F-8A50-00EB00570045}" done="0">
+  <threadedComment ref="F67" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005A00B9-0067-4B9F-8A50-00EB00570045}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F68" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00FC00A7-0005-495C-9302-0032006A006C}" done="0">
+  <threadedComment ref="F68" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00FC00A7-0005-495C-9302-0032006A006C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F69" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00A50048-00DE-4A19-8C0A-00140082002E}" done="0">
+  <threadedComment ref="F69" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00A50048-00DE-4A19-8C0A-00140082002E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F70" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00A200D8-0028-455C-8EBD-0078008900C6}" done="0">
+  <threadedComment ref="F70" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00A200D8-0028-455C-8EBD-0078008900C6}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F8" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00960079-0077-4F2A-82A2-00BD00C3007F}" done="0">
+  <threadedComment ref="F8" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00960079-0077-4F2A-82A2-00BD00C3007F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F71" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00DF003A-001B-4DB1-9E42-007400AC00E1}" done="0">
+  <threadedComment ref="F71" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00DF003A-001B-4DB1-9E42-007400AC00E1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F72" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00F3005C-00CA-4F2D-B387-0081004F009E}" done="0">
+  <threadedComment ref="F72" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00F3005C-00CA-4F2D-B387-0081004F009E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F73" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{007C0051-009E-4FFD-B2F5-00C600D50053}" done="0">
+  <threadedComment ref="F73" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{007C0051-009E-4FFD-B2F5-00C600D50053}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F74" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00670022-0015-4186-BA4E-009B000F0061}" done="0">
+  <threadedComment ref="F74" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00670022-0015-4186-BA4E-009B000F0061}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F75" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00500052-00E0-4AB2-9BBE-00A5009600C1}" done="0">
+  <threadedComment ref="F75" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00500052-00E0-4AB2-9BBE-00A5009600C1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F76" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00F0004F-0064-499D-801C-000700D3002F}" done="0">
+  <threadedComment ref="F76" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00F0004F-0064-499D-801C-000700D3002F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F77" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{001400B2-00F1-4DB3-9DE7-00A000150039}" done="0">
+  <threadedComment ref="F77" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{001400B2-00F1-4DB3-9DE7-00A000150039}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F78" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{002400EE-00C1-4E63-80AA-009F004E0000}" done="0">
+  <threadedComment ref="F78" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{002400EE-00C1-4E63-80AA-009F004E0000}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F79" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00A2005A-00E8-4C73-BE0C-009600930058}" done="0">
+  <threadedComment ref="F79" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00A2005A-00E8-4C73-BE0C-009600930058}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F80" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00FE004A-004D-4DC5-9616-00FE006100BC}" done="0">
+  <threadedComment ref="F80" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00FE004A-004D-4DC5-9616-00FE006100BC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F9" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00DC0029-00E7-42DB-B9C1-003400EA0062}" done="0">
+  <threadedComment ref="F9" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00DC0029-00E7-42DB-B9C1-003400EA0062}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F81" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00E200BC-0050-488A-B834-006200C90035}" done="0">
+  <threadedComment ref="F81" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E200BC-0050-488A-B834-006200C90035}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F82" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00F700FA-0046-463B-90CC-00EC005200E4}" done="0">
+  <threadedComment ref="F82" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00F700FA-0046-463B-90CC-00EC005200E4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F83" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00A8006C-009A-4446-8DF2-005000F800A8}" done="0">
+  <threadedComment ref="F83" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00A8006C-009A-4446-8DF2-005000F800A8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F84" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00BC003C-00E7-4887-9335-00BE00A00084}" done="0">
+  <threadedComment ref="F84" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00BC003C-00E7-4887-9335-00BE00A00084}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F85" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D3001D-0010-45EF-BB8A-0054009E00B0}" done="0">
+  <threadedComment ref="F85" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D3001D-0010-45EF-BB8A-0054009E00B0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F86" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00F80095-0024-4050-BFE8-002A000A0063}" done="0">
+  <threadedComment ref="F86" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00F80095-0024-4050-BFE8-002A000A0063}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F87" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0004000B-00D2-4380-8028-006600E5001D}" done="0">
+  <threadedComment ref="F87" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0004000B-00D2-4380-8028-006600E5001D}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F88" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{006100B6-00A0-44B1-954A-006400C90072}" done="0">
+  <threadedComment ref="F88" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{006100B6-00A0-44B1-954A-006400C90072}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F89" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{007E0001-00BA-4A1B-BFEA-009C000B003F}" done="0">
+  <threadedComment ref="F89" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{007E0001-00BA-4A1B-BFEA-009C000B003F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F90" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{006D000D-00B1-4850-80B6-001C002B00C4}" done="0">
+  <threadedComment ref="F90" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{006D000D-00B1-4850-80B6-001C002B00C4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F10" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00B7001B-00DB-4B45-809D-00D000730097}" done="0">
+  <threadedComment ref="F10" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00B7001B-00DB-4B45-809D-00D000730097}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F91" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{005F00B7-0068-4E20-B708-00B1008000A5}" done="0">
+  <threadedComment ref="F91" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005F00B7-0068-4E20-B708-00B1008000A5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F92" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00D2000D-008E-4F0E-889B-008D00540073}" done="0">
+  <threadedComment ref="F92" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D2000D-008E-4F0E-889B-008D00540073}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F93" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00720077-00F3-41DB-80E4-00E6002900BA}" done="0">
+  <threadedComment ref="F93" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00720077-00F3-41DB-80E4-00E6002900BA}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F94" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00C70063-00A4-4E22-8B1D-008900470066}" done="0">
+  <threadedComment ref="F94" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00C70063-00A4-4E22-8B1D-008900470066}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F95" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00EF00A4-00D5-4A7C-AA4A-001D00140024}" done="0">
+  <threadedComment ref="F95" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00EF00A4-00D5-4A7C-AA4A-001D00140024}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F96" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{007A0009-008B-48C0-98F5-007E00320029}" done="0">
+  <threadedComment ref="F96" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{007A0009-008B-48C0-98F5-007E00320029}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F97" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{00490001-00FB-48E3-A81C-008400EF00B4}" done="0">
+  <threadedComment ref="F97" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00490001-00FB-48E3-A81C-008400EF00B4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F98" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{0053002C-0058-412F-A5E0-00F5008A0042}" done="0">
+  <threadedComment ref="F98" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0053002C-0058-412F-A5E0-00F5008A0042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F99" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{004800D8-003D-401F-B7E7-0098004A006C}" done="0">
+  <threadedComment ref="F99" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{004800D8-003D-401F-B7E7-0098004A006C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F100" personId="{3FB90659-BB62-1D56-9C03-D6D748EDC255}" id="{009600AA-0088-47E1-85DE-007F0056006F}" done="0">
+  <threadedComment ref="F100" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009600AA-0088-47E1-85DE-007F0056006F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
@@ -18292,7 +18416,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{00DD006E-0049-4BDB-B16A-00FA0061000C}">
+          <x14:cfRule type="expression" priority="3" id="{0031002D-00BA-428F-B3BC-0096005D009C}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -18309,7 +18433,7 @@
           <xm:sqref>J4:J105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{007700D0-0090-482A-ACF7-005D00DA00ED}">
+          <x14:cfRule type="expression" priority="2" id="{002300E1-0054-48B7-A786-001600C500F7}">
             <xm:f>$F4=2</xm:f>
             <x14:dxf>
               <font>
@@ -18326,7 +18450,7 @@
           <xm:sqref>K4:M105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{005100FD-0006-4E53-89D7-00C100700037}">
+          <x14:cfRule type="expression" priority="1" id="{00560043-00FF-42A7-AC1E-009F005F00AC}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -18346,25 +18470,25 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
-        <x14:dataValidation xr:uid="{0026002D-0079-4D1A-96E7-007A00B9001F}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009B00C0-00EC-42FF-BA19-00B7009D0003}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>AF4:AR105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005E0093-0037-4B71-834A-00C9002700DA}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0007000A-0039-4E10-8854-000C00560049}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>768</xm:f>
           </x14:formula1>
           <xm:sqref>B4 D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B700B2-002D-4F80-8E62-005C00F00011}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{002000D9-00D3-4874-AD8F-00F2002000FE}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1024</xm:f>
           </x14:formula1>
           <xm:sqref>A4 C4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00990042-002F-4B7A-B1C2-00320073009D}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007B002F-0026-4E77-B129-00E300780032}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -18373,19 +18497,19 @@
           </x14:formula2>
           <xm:sqref>F4:F105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00100029-00E5-4F35-8595-00B800BC00E9}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{001B005F-00B3-4FD2-BB32-00F200E600C4}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND(F4=2,J4&gt;0)</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003B00DB-0059-4F29-AC8E-00C600F2000C}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A30021-00FE-42A5-B81A-00F4006B0009}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND($F4=1,K4&gt;=0,K4&lt;256)</xm:f>
           </x14:formula1>
           <xm:sqref>K4:M105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00020080-0029-4665-BB8B-007600380049}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{001900B3-0033-47E7-9EF6-00590013001E}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
@@ -22627,7 +22751,9 @@
       <c r="C36" s="58"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
-      <c r="F36" s="49"/>
+      <c r="F36" s="49">
+        <v>1</v>
+      </c>
       <c r="G36" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -22636,22 +22762,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I36" s="42"/>
+      <c r="I36" s="42" t="s">
+        <v>54</v>
+      </c>
       <c r="J36" s="43"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="45" t="str">
+      <c r="K36" s="38">
+        <v>127</v>
+      </c>
+      <c r="L36" s="38">
+        <v>127</v>
+      </c>
+      <c r="M36" s="43">
+        <v>127</v>
+      </c>
+      <c r="N36" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="O36" s="45" t="str">
+        <v>0.49803921568627452</v>
+      </c>
+      <c r="O36" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="P36" s="46" t="str">
+        <v>0.49803921568627452</v>
+      </c>
+      <c r="P36" s="46">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0.49803921568627452</v>
       </c>
       <c r="Q36" s="47"/>
       <c r="R36" s="48"/>
@@ -22725,7 +22859,7 @@
       </c>
       <c r="AS36" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_ktk_ats_furnace = {0.5,0.5,0.5};</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
@@ -22734,7 +22868,9 @@
       <c r="C37" s="58"/>
       <c r="D37" s="58"/>
       <c r="E37" s="58"/>
-      <c r="F37" s="49"/>
+      <c r="F37" s="49">
+        <v>2</v>
+      </c>
       <c r="G37" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -22743,8 +22879,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I37" s="42"/>
-      <c r="J37" s="43"/>
+      <c r="I37" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" s="43">
+        <v>4</v>
+      </c>
       <c r="K37" s="38"/>
       <c r="L37" s="38"/>
       <c r="M37" s="43"/>
@@ -22760,51 +22900,67 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="43"/>
+      <c r="Q37" s="47">
+        <v>90</v>
+      </c>
+      <c r="R37" s="48">
+        <v>0</v>
+      </c>
+      <c r="S37" s="49">
+        <v>115</v>
+      </c>
+      <c r="T37" s="43">
+        <v>0</v>
+      </c>
+      <c r="U37" s="50">
+        <v>115</v>
+      </c>
+      <c r="V37" s="48">
+        <v>12.5</v>
+      </c>
+      <c r="W37" s="49">
+        <v>90</v>
+      </c>
+      <c r="X37" s="43">
+        <v>12.5</v>
+      </c>
       <c r="Y37" s="50"/>
       <c r="Z37" s="48"/>
       <c r="AA37" s="49"/>
       <c r="AB37" s="43"/>
       <c r="AC37" s="50"/>
       <c r="AD37" s="51"/>
-      <c r="AE37" s="52" t="str">
+      <c r="AE37" s="52">
         <f t="shared" ref="AE37:AM100" si="50">IF(Q37="","",Q37*$E$4)</f>
-        <v/>
-      </c>
-      <c r="AF37" s="53" t="str">
+        <v>360</v>
+      </c>
+      <c r="AF37" s="53">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AG37" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="54">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AH37" s="55" t="str">
+        <v>460</v>
+      </c>
+      <c r="AH37" s="55">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI37" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="52">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AJ37" s="53" t="str">
+        <v>460</v>
+      </c>
+      <c r="AJ37" s="53">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AK37" s="54" t="str">
+        <v>50</v>
+      </c>
+      <c r="AK37" s="54">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AL37" s="55" t="str">
+        <v>360</v>
+      </c>
+      <c r="AL37" s="55">
         <f t="shared" si="49"/>
-        <v/>
+        <v>50</v>
       </c>
       <c r="AM37" s="52" t="str">
         <f t="shared" si="49"/>
@@ -22832,7 +22988,7 @@
       </c>
       <c r="AS37" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  ktk_bwh_furnace [4] = {{360.,0.},{460.,0.},{460.,50.},{360.,50.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
@@ -22841,7 +22997,9 @@
       <c r="C38" s="58"/>
       <c r="D38" s="58"/>
       <c r="E38" s="58"/>
-      <c r="F38" s="49"/>
+      <c r="F38" s="49">
+        <v>1</v>
+      </c>
       <c r="G38" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -22850,22 +23008,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I38" s="42"/>
+      <c r="I38" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="J38" s="43"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="45" t="str">
+      <c r="K38" s="38">
+        <v>89</v>
+      </c>
+      <c r="L38" s="38">
+        <v>89</v>
+      </c>
+      <c r="M38" s="43">
+        <v>89</v>
+      </c>
+      <c r="N38" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="O38" s="45" t="str">
+        <v>0.34901960784313724</v>
+      </c>
+      <c r="O38" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="P38" s="46" t="str">
+        <v>0.34901960784313724</v>
+      </c>
+      <c r="P38" s="46">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0.34901960784313724</v>
       </c>
       <c r="Q38" s="47"/>
       <c r="R38" s="48"/>
@@ -22939,7 +23105,7 @@
       </c>
       <c r="AS38" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_ktk_bwh_furnace = {0.30000000000000004,0.30000000000000004,0.30000000000000004};</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
@@ -22948,7 +23114,9 @@
       <c r="C39" s="58"/>
       <c r="D39" s="58"/>
       <c r="E39" s="58"/>
-      <c r="F39" s="49"/>
+      <c r="F39" s="49">
+        <v>2</v>
+      </c>
       <c r="G39" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -22957,8 +23125,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I39" s="42"/>
-      <c r="J39" s="43"/>
+      <c r="I39" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="43">
+        <v>1</v>
+      </c>
       <c r="K39" s="38"/>
       <c r="L39" s="38"/>
       <c r="M39" s="43"/>
@@ -22974,8 +23146,12 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="48"/>
+      <c r="Q39" s="47">
+        <v>112.5</v>
+      </c>
+      <c r="R39" s="48">
+        <v>12.5</v>
+      </c>
       <c r="S39" s="49"/>
       <c r="T39" s="43"/>
       <c r="U39" s="50"/>
@@ -22988,13 +23164,13 @@
       <c r="AB39" s="43"/>
       <c r="AC39" s="50"/>
       <c r="AD39" s="51"/>
-      <c r="AE39" s="52" t="str">
+      <c r="AE39" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF39" s="53" t="str">
+        <v>450</v>
+      </c>
+      <c r="AF39" s="53">
         <f t="shared" si="49"/>
-        <v/>
+        <v>50</v>
       </c>
       <c r="AG39" s="54" t="str">
         <f t="shared" si="49"/>
@@ -23046,7 +23222,7 @@
       </c>
       <c r="AS39" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  stglkr1_furnace [1] = {{450.,50.},{.,.},{.,.},{.,.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
@@ -23055,7 +23231,9 @@
       <c r="C40" s="58"/>
       <c r="D40" s="58"/>
       <c r="E40" s="58"/>
-      <c r="F40" s="49"/>
+      <c r="F40" s="49">
+        <v>1</v>
+      </c>
       <c r="G40" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -23064,22 +23242,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I40" s="42"/>
+      <c r="I40" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="J40" s="43"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="45" t="str">
+      <c r="K40" s="38">
+        <v>0</v>
+      </c>
+      <c r="L40" s="38">
+        <v>0</v>
+      </c>
+      <c r="M40" s="43">
+        <v>0</v>
+      </c>
+      <c r="N40" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="O40" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="O40" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="P40" s="46" t="str">
+        <v>0</v>
+      </c>
+      <c r="P40" s="46">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="Q40" s="47"/>
       <c r="R40" s="48"/>
@@ -23153,7 +23339,7 @@
       </c>
       <c r="AS40" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_stglkr1_furnace = {0,0,0};</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
@@ -23162,7 +23348,9 @@
       <c r="C41" s="58"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
-      <c r="F41" s="49"/>
+      <c r="F41" s="49">
+        <v>2</v>
+      </c>
       <c r="G41" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -23171,8 +23359,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I41" s="42"/>
-      <c r="J41" s="43"/>
+      <c r="I41" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="J41" s="43">
+        <v>1</v>
+      </c>
       <c r="K41" s="38"/>
       <c r="L41" s="38"/>
       <c r="M41" s="43"/>
@@ -23188,8 +23380,12 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="48"/>
+      <c r="Q41" s="47">
+        <v>112.5</v>
+      </c>
+      <c r="R41" s="48">
+        <v>0</v>
+      </c>
       <c r="S41" s="49"/>
       <c r="T41" s="43"/>
       <c r="U41" s="50"/>
@@ -23202,13 +23398,13 @@
       <c r="AB41" s="43"/>
       <c r="AC41" s="50"/>
       <c r="AD41" s="51"/>
-      <c r="AE41" s="52" t="str">
+      <c r="AE41" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF41" s="53" t="str">
+        <v>450</v>
+      </c>
+      <c r="AF41" s="53">
         <f t="shared" si="49"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AG41" s="54" t="str">
         <f t="shared" si="49"/>
@@ -23260,7 +23456,7 @@
       </c>
       <c r="AS41" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  stglkr2_furnace [1] = {{450.,0.},{.,.},{.,.},{.,.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
@@ -23269,7 +23465,9 @@
       <c r="C42" s="58"/>
       <c r="D42" s="58"/>
       <c r="E42" s="58"/>
-      <c r="F42" s="49"/>
+      <c r="F42" s="49">
+        <v>1</v>
+      </c>
       <c r="G42" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -23278,22 +23476,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I42" s="42"/>
+      <c r="I42" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="J42" s="43"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="45" t="str">
+      <c r="K42" s="38">
+        <v>255</v>
+      </c>
+      <c r="L42" s="38">
+        <v>30</v>
+      </c>
+      <c r="M42" s="43">
+        <v>0</v>
+      </c>
+      <c r="N42" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="O42" s="45" t="str">
+        <v>1</v>
+      </c>
+      <c r="O42" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="P42" s="46" t="str">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="P42" s="46">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="Q42" s="47"/>
       <c r="R42" s="48"/>
@@ -23367,7 +23573,7 @@
       </c>
       <c r="AS42" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_stglkr2_furnace = {1,0.1,0};</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
@@ -23376,7 +23582,9 @@
       <c r="C43" s="58"/>
       <c r="D43" s="58"/>
       <c r="E43" s="58"/>
-      <c r="F43" s="49"/>
+      <c r="F43" s="49">
+        <v>2</v>
+      </c>
       <c r="G43" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -23385,8 +23593,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="43"/>
+      <c r="I43" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="J43" s="43">
+        <v>4</v>
+      </c>
       <c r="K43" s="38"/>
       <c r="L43" s="38"/>
       <c r="M43" s="43"/>
@@ -23402,51 +23614,67 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="49"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="50"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="49"/>
-      <c r="X43" s="43"/>
+      <c r="Q43" s="47">
+        <v>125</v>
+      </c>
+      <c r="R43" s="48">
+        <v>0</v>
+      </c>
+      <c r="S43" s="49">
+        <v>165</v>
+      </c>
+      <c r="T43" s="43">
+        <v>0</v>
+      </c>
+      <c r="U43" s="50">
+        <v>165</v>
+      </c>
+      <c r="V43" s="48">
+        <v>10</v>
+      </c>
+      <c r="W43" s="49">
+        <v>125</v>
+      </c>
+      <c r="X43" s="43">
+        <v>10</v>
+      </c>
       <c r="Y43" s="50"/>
       <c r="Z43" s="48"/>
       <c r="AA43" s="49"/>
       <c r="AB43" s="43"/>
       <c r="AC43" s="50"/>
       <c r="AD43" s="51"/>
-      <c r="AE43" s="52" t="str">
+      <c r="AE43" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF43" s="53" t="str">
+        <v>500</v>
+      </c>
+      <c r="AF43" s="53">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AG43" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="54">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AH43" s="55" t="str">
+        <v>660</v>
+      </c>
+      <c r="AH43" s="55">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI43" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="52">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AJ43" s="53" t="str">
+        <v>660</v>
+      </c>
+      <c r="AJ43" s="53">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AK43" s="54" t="str">
+        <v>40</v>
+      </c>
+      <c r="AK43" s="54">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AL43" s="55" t="str">
+        <v>500</v>
+      </c>
+      <c r="AL43" s="55">
         <f t="shared" si="49"/>
-        <v/>
+        <v>40</v>
       </c>
       <c r="AM43" s="52" t="str">
         <f t="shared" si="49"/>
@@ -23474,7 +23702,7 @@
       </c>
       <c r="AS43" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  ktk_bwh_chest [4] = {{500.,0.},{660.,0.},{660.,40.},{500.,40.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
@@ -23483,7 +23711,9 @@
       <c r="C44" s="58"/>
       <c r="D44" s="58"/>
       <c r="E44" s="58"/>
-      <c r="F44" s="49"/>
+      <c r="F44" s="49">
+        <v>1</v>
+      </c>
       <c r="G44" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -23492,22 +23722,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I44" s="42"/>
+      <c r="I44" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="J44" s="43"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="45" t="str">
+      <c r="K44" s="38">
+        <v>204</v>
+      </c>
+      <c r="L44" s="38">
+        <v>135</v>
+      </c>
+      <c r="M44" s="43">
+        <v>6</v>
+      </c>
+      <c r="N44" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="O44" s="45" t="str">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="O44" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="P44" s="46" t="str">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="P44" s="46">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0.023529411764705882</v>
       </c>
       <c r="Q44" s="47"/>
       <c r="R44" s="48"/>
@@ -23581,7 +23819,7 @@
       </c>
       <c r="AS44" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_ktk_bwh_chest = {0.8,0.5,0};</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
@@ -23590,7 +23828,9 @@
       <c r="C45" s="58"/>
       <c r="D45" s="58"/>
       <c r="E45" s="58"/>
-      <c r="F45" s="49"/>
+      <c r="F45" s="49">
+        <v>2</v>
+      </c>
       <c r="G45" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -23599,8 +23839,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I45" s="42"/>
-      <c r="J45" s="43"/>
+      <c r="I45" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="J45" s="43">
+        <v>4</v>
+      </c>
       <c r="K45" s="38"/>
       <c r="L45" s="38"/>
       <c r="M45" s="43"/>
@@ -23616,51 +23860,67 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="48"/>
-      <c r="S45" s="49"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="50"/>
-      <c r="V45" s="48"/>
-      <c r="W45" s="49"/>
-      <c r="X45" s="43"/>
+      <c r="Q45" s="47">
+        <v>125</v>
+      </c>
+      <c r="R45" s="48">
+        <v>10</v>
+      </c>
+      <c r="S45" s="49">
+        <v>165</v>
+      </c>
+      <c r="T45" s="43">
+        <v>10</v>
+      </c>
+      <c r="U45" s="50">
+        <v>165</v>
+      </c>
+      <c r="V45" s="48">
+        <v>15</v>
+      </c>
+      <c r="W45" s="49">
+        <v>125</v>
+      </c>
+      <c r="X45" s="43">
+        <v>15</v>
+      </c>
       <c r="Y45" s="50"/>
       <c r="Z45" s="48"/>
       <c r="AA45" s="49"/>
       <c r="AB45" s="43"/>
       <c r="AC45" s="50"/>
       <c r="AD45" s="51"/>
-      <c r="AE45" s="52" t="str">
+      <c r="AE45" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF45" s="53" t="str">
+        <v>500</v>
+      </c>
+      <c r="AF45" s="53">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AG45" s="54" t="str">
+        <v>40</v>
+      </c>
+      <c r="AG45" s="54">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AH45" s="55" t="str">
+        <v>660</v>
+      </c>
+      <c r="AH45" s="55">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI45" s="52" t="str">
+        <v>40</v>
+      </c>
+      <c r="AI45" s="52">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AJ45" s="53" t="str">
+        <v>660</v>
+      </c>
+      <c r="AJ45" s="53">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AK45" s="54" t="str">
+        <v>60</v>
+      </c>
+      <c r="AK45" s="54">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AL45" s="55" t="str">
+        <v>500</v>
+      </c>
+      <c r="AL45" s="55">
         <f t="shared" si="49"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="AM45" s="52" t="str">
         <f t="shared" si="49"/>
@@ -23688,7 +23948,7 @@
       </c>
       <c r="AS45" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  ktk_atas_chest [4] = {{500.,40.},{660.,40.},{660.,60.},{500.,60.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1">
@@ -23697,7 +23957,9 @@
       <c r="C46" s="58"/>
       <c r="D46" s="58"/>
       <c r="E46" s="58"/>
-      <c r="F46" s="49"/>
+      <c r="F46" s="49">
+        <v>1</v>
+      </c>
       <c r="G46" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -23706,22 +23968,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I46" s="42"/>
+      <c r="I46" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="J46" s="43"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="45" t="str">
+      <c r="K46" s="38">
+        <v>168</v>
+      </c>
+      <c r="L46" s="38">
+        <v>112</v>
+      </c>
+      <c r="M46" s="43">
+        <v>9</v>
+      </c>
+      <c r="N46" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="O46" s="45" t="str">
+        <v>0.6588235294117647</v>
+      </c>
+      <c r="O46" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="P46" s="46" t="str">
+        <v>0.4392156862745098</v>
+      </c>
+      <c r="P46" s="46">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0.035294117647058823</v>
       </c>
       <c r="Q46" s="47"/>
       <c r="R46" s="48"/>
@@ -23795,7 +24065,7 @@
       </c>
       <c r="AS46" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_ktk_atas_chest = {0.7000000000000001,0.4,0};</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
@@ -23804,7 +24074,9 @@
       <c r="C47" s="58"/>
       <c r="D47" s="58"/>
       <c r="E47" s="58"/>
-      <c r="F47" s="49"/>
+      <c r="F47" s="49">
+        <v>2</v>
+      </c>
       <c r="G47" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -23813,8 +24085,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I47" s="42"/>
-      <c r="J47" s="43"/>
+      <c r="I47" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" s="43">
+        <v>4</v>
+      </c>
       <c r="K47" s="38"/>
       <c r="L47" s="38"/>
       <c r="M47" s="43"/>
@@ -23830,51 +24106,67 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="50"/>
-      <c r="V47" s="48"/>
-      <c r="W47" s="49"/>
-      <c r="X47" s="43"/>
+      <c r="Q47" s="47">
+        <v>142.5</v>
+      </c>
+      <c r="R47" s="48">
+        <v>5.5</v>
+      </c>
+      <c r="S47" s="50">
+        <v>146.5</v>
+      </c>
+      <c r="T47" s="50">
+        <v>5.5</v>
+      </c>
+      <c r="U47" s="50">
+        <v>146.5</v>
+      </c>
+      <c r="V47" s="48">
+        <v>15</v>
+      </c>
+      <c r="W47" s="50">
+        <v>142.5</v>
+      </c>
+      <c r="X47" s="43">
+        <v>15</v>
+      </c>
       <c r="Y47" s="50"/>
       <c r="Z47" s="48"/>
       <c r="AA47" s="49"/>
       <c r="AB47" s="43"/>
       <c r="AC47" s="50"/>
       <c r="AD47" s="51"/>
-      <c r="AE47" s="52" t="str">
+      <c r="AE47" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF47" s="53" t="str">
+        <v>570</v>
+      </c>
+      <c r="AF47" s="53">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AG47" s="54" t="str">
+        <v>22</v>
+      </c>
+      <c r="AG47" s="54">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AH47" s="55" t="str">
+        <v>586</v>
+      </c>
+      <c r="AH47" s="55">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI47" s="52" t="str">
+        <v>22</v>
+      </c>
+      <c r="AI47" s="52">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AJ47" s="53" t="str">
+        <v>586</v>
+      </c>
+      <c r="AJ47" s="53">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AK47" s="54" t="str">
+        <v>60</v>
+      </c>
+      <c r="AK47" s="54">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AL47" s="55" t="str">
+        <v>570</v>
+      </c>
+      <c r="AL47" s="55">
         <f t="shared" si="49"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="AM47" s="52" t="str">
         <f t="shared" si="49"/>
@@ -23902,7 +24194,7 @@
       </c>
       <c r="AS47" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  ktk_kunci_chest [4] = {{570.,22.},{586.,22.},{586.,60.},{570.,60.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1">
@@ -23911,7 +24203,9 @@
       <c r="C48" s="58"/>
       <c r="D48" s="58"/>
       <c r="E48" s="58"/>
-      <c r="F48" s="49"/>
+      <c r="F48" s="49">
+        <v>1</v>
+      </c>
       <c r="G48" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -23920,22 +24214,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I48" s="42"/>
+      <c r="I48" s="42" t="s">
+        <v>66</v>
+      </c>
       <c r="J48" s="43"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="45" t="str">
+      <c r="K48" s="38">
+        <v>222</v>
+      </c>
+      <c r="L48" s="38">
+        <v>218</v>
+      </c>
+      <c r="M48" s="43">
+        <v>196</v>
+      </c>
+      <c r="N48" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="O48" s="45" t="str">
+        <v>0.87058823529411766</v>
+      </c>
+      <c r="O48" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="P48" s="46" t="str">
+        <v>0.85490196078431369</v>
+      </c>
+      <c r="P48" s="46">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0.7686274509803922</v>
       </c>
       <c r="Q48" s="47"/>
       <c r="R48" s="48"/>
@@ -24009,7 +24311,7 @@
       </c>
       <c r="AS48" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_ktk_kunci_chest = {0.9,0.9,0.8};</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1">
@@ -24018,7 +24320,9 @@
       <c r="C49" s="58"/>
       <c r="D49" s="58"/>
       <c r="E49" s="58"/>
-      <c r="F49" s="49"/>
+      <c r="F49" s="49">
+        <v>2</v>
+      </c>
       <c r="G49" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -24027,7 +24331,9 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I49" s="42"/>
+      <c r="I49" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="J49" s="43"/>
       <c r="K49" s="38"/>
       <c r="L49" s="38"/>
@@ -24044,51 +24350,67 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="48"/>
-      <c r="S49" s="49"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="50"/>
-      <c r="V49" s="48"/>
-      <c r="W49" s="49"/>
-      <c r="X49" s="43"/>
+      <c r="Q49" s="47">
+        <v>125</v>
+      </c>
+      <c r="R49" s="48">
+        <v>20</v>
+      </c>
+      <c r="S49" s="49">
+        <v>165</v>
+      </c>
+      <c r="T49" s="43">
+        <v>20</v>
+      </c>
+      <c r="U49" s="50">
+        <v>165</v>
+      </c>
+      <c r="V49" s="48">
+        <v>30</v>
+      </c>
+      <c r="W49" s="49">
+        <v>125</v>
+      </c>
+      <c r="X49" s="43">
+        <v>30</v>
+      </c>
       <c r="Y49" s="50"/>
       <c r="Z49" s="48"/>
       <c r="AA49" s="49"/>
       <c r="AB49" s="43"/>
       <c r="AC49" s="50"/>
       <c r="AD49" s="51"/>
-      <c r="AE49" s="52" t="str">
+      <c r="AE49" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF49" s="53" t="str">
+        <v>500</v>
+      </c>
+      <c r="AF49" s="53">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AG49" s="54" t="str">
+        <v>80</v>
+      </c>
+      <c r="AG49" s="54">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AH49" s="55" t="str">
+        <v>660</v>
+      </c>
+      <c r="AH49" s="55">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI49" s="52" t="str">
+        <v>80</v>
+      </c>
+      <c r="AI49" s="52">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AJ49" s="53" t="str">
+        <v>660</v>
+      </c>
+      <c r="AJ49" s="53">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AK49" s="54" t="str">
+        <v>120</v>
+      </c>
+      <c r="AK49" s="54">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AL49" s="55" t="str">
+        <v>500</v>
+      </c>
+      <c r="AL49" s="55">
         <f t="shared" si="49"/>
-        <v/>
+        <v>120</v>
       </c>
       <c r="AM49" s="52" t="str">
         <f t="shared" si="49"/>
@@ -24116,7 +24438,7 @@
       </c>
       <c r="AS49" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  ktk_bwh_chest [] = {{500.,80.},{660.,80.},{660.,120.},{500.,120.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1">
@@ -24125,7 +24447,9 @@
       <c r="C50" s="58"/>
       <c r="D50" s="58"/>
       <c r="E50" s="58"/>
-      <c r="F50" s="49"/>
+      <c r="F50" s="49">
+        <v>1</v>
+      </c>
       <c r="G50" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -24134,22 +24458,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I50" s="42"/>
+      <c r="I50" s="42" t="s">
+        <v>67</v>
+      </c>
       <c r="J50" s="43"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="45" t="str">
+      <c r="K50" s="38">
+        <v>204</v>
+      </c>
+      <c r="L50" s="38">
+        <v>135</v>
+      </c>
+      <c r="M50" s="43">
+        <v>6</v>
+      </c>
+      <c r="N50" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="O50" s="45" t="str">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="O50" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="P50" s="46" t="str">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="P50" s="46">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0.023529411764705882</v>
       </c>
       <c r="Q50" s="47"/>
       <c r="R50" s="48"/>
@@ -24223,7 +24555,7 @@
       </c>
       <c r="AS50" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_ktk_bwh_chest2 = {0.8,0.5,0};</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1">
@@ -24232,7 +24564,9 @@
       <c r="C51" s="58"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
-      <c r="F51" s="49"/>
+      <c r="F51" s="49">
+        <v>2</v>
+      </c>
       <c r="G51" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -24241,7 +24575,9 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I51" s="42"/>
+      <c r="I51" s="42" t="s">
+        <v>68</v>
+      </c>
       <c r="J51" s="43"/>
       <c r="K51" s="38"/>
       <c r="L51" s="38"/>
@@ -24258,51 +24594,69 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q51" s="47"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="49"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="50"/>
-      <c r="V51" s="48"/>
-      <c r="W51" s="49"/>
-      <c r="X51" s="43"/>
+      <c r="Q51" s="60">
+        <v>125</v>
+      </c>
+      <c r="R51" s="61">
+        <v>25.5</v>
+      </c>
+      <c r="S51" s="49">
+        <v>165</v>
+      </c>
+      <c r="T51" s="61">
+        <v>25.5</v>
+      </c>
+      <c r="U51" s="50">
+        <v>165</v>
+      </c>
+      <c r="V51" s="61">
+        <f>V47+20</f>
+        <v>35</v>
+      </c>
+      <c r="W51" s="49">
+        <v>125</v>
+      </c>
+      <c r="X51" s="62">
+        <f>X47+20</f>
+        <v>35</v>
+      </c>
       <c r="Y51" s="50"/>
       <c r="Z51" s="48"/>
       <c r="AA51" s="49"/>
       <c r="AB51" s="43"/>
       <c r="AC51" s="50"/>
       <c r="AD51" s="51"/>
-      <c r="AE51" s="52" t="str">
+      <c r="AE51" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF51" s="53" t="str">
+        <v>500</v>
+      </c>
+      <c r="AF51" s="53">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AG51" s="54" t="str">
+        <v>102</v>
+      </c>
+      <c r="AG51" s="54">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AH51" s="55" t="str">
+        <v>660</v>
+      </c>
+      <c r="AH51" s="55">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI51" s="52" t="str">
+        <v>102</v>
+      </c>
+      <c r="AI51" s="52">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AJ51" s="53" t="str">
+        <v>660</v>
+      </c>
+      <c r="AJ51" s="53">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AK51" s="54" t="str">
+        <v>140</v>
+      </c>
+      <c r="AK51" s="54">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AL51" s="55" t="str">
+        <v>500</v>
+      </c>
+      <c r="AL51" s="55">
         <f t="shared" si="49"/>
-        <v/>
+        <v>140</v>
       </c>
       <c r="AM51" s="52" t="str">
         <f t="shared" si="49"/>
@@ -24330,7 +24684,7 @@
       </c>
       <c r="AS51" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  ktk_atas_chest2 [] = {{500.,102.},{660.,102.},{660.,140.},{500.,140.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1">
@@ -24339,7 +24693,9 @@
       <c r="C52" s="58"/>
       <c r="D52" s="58"/>
       <c r="E52" s="58"/>
-      <c r="F52" s="49"/>
+      <c r="F52" s="49">
+        <v>1</v>
+      </c>
       <c r="G52" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -24348,22 +24704,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I52" s="42"/>
+      <c r="I52" s="42" t="s">
+        <v>69</v>
+      </c>
       <c r="J52" s="43"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="45" t="str">
+      <c r="K52" s="38">
+        <v>168</v>
+      </c>
+      <c r="L52" s="38">
+        <v>112</v>
+      </c>
+      <c r="M52" s="43">
+        <v>9</v>
+      </c>
+      <c r="N52" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="O52" s="45" t="str">
+        <v>0.6588235294117647</v>
+      </c>
+      <c r="O52" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="P52" s="46" t="str">
+        <v>0.4392156862745098</v>
+      </c>
+      <c r="P52" s="46">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0.035294117647058823</v>
       </c>
       <c r="Q52" s="47"/>
       <c r="R52" s="48"/>
@@ -24437,7 +24801,7 @@
       </c>
       <c r="AS52" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_ktk_atas_chest2 = {0.7000000000000001,0.4,0};</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1">
@@ -24446,7 +24810,9 @@
       <c r="C53" s="58"/>
       <c r="D53" s="58"/>
       <c r="E53" s="58"/>
-      <c r="F53" s="49"/>
+      <c r="F53" s="49">
+        <v>2</v>
+      </c>
       <c r="G53" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -24455,7 +24821,9 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I53" s="42"/>
+      <c r="I53" s="42" t="s">
+        <v>70</v>
+      </c>
       <c r="J53" s="43"/>
       <c r="K53" s="38"/>
       <c r="L53" s="38"/>
@@ -24472,51 +24840,67 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="48"/>
-      <c r="S53" s="49"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="50"/>
-      <c r="V53" s="48"/>
-      <c r="W53" s="49"/>
-      <c r="X53" s="43"/>
+      <c r="Q53" s="47">
+        <v>142.5</v>
+      </c>
+      <c r="R53" s="48">
+        <v>25.5</v>
+      </c>
+      <c r="S53" s="49">
+        <v>146.5</v>
+      </c>
+      <c r="T53" s="43">
+        <v>25.5</v>
+      </c>
+      <c r="U53" s="50">
+        <v>146.5</v>
+      </c>
+      <c r="V53" s="48">
+        <v>35</v>
+      </c>
+      <c r="W53" s="49">
+        <v>142.5</v>
+      </c>
+      <c r="X53" s="43">
+        <v>35</v>
+      </c>
       <c r="Y53" s="50"/>
       <c r="Z53" s="48"/>
       <c r="AA53" s="49"/>
       <c r="AB53" s="43"/>
       <c r="AC53" s="50"/>
       <c r="AD53" s="51"/>
-      <c r="AE53" s="52" t="str">
+      <c r="AE53" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF53" s="53" t="str">
+        <v>570</v>
+      </c>
+      <c r="AF53" s="53">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AG53" s="54" t="str">
+        <v>102</v>
+      </c>
+      <c r="AG53" s="54">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AH53" s="55" t="str">
+        <v>586</v>
+      </c>
+      <c r="AH53" s="55">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI53" s="52" t="str">
+        <v>102</v>
+      </c>
+      <c r="AI53" s="52">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AJ53" s="53" t="str">
+        <v>586</v>
+      </c>
+      <c r="AJ53" s="53">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AK53" s="54" t="str">
+        <v>140</v>
+      </c>
+      <c r="AK53" s="54">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AL53" s="55" t="str">
+        <v>570</v>
+      </c>
+      <c r="AL53" s="55">
         <f t="shared" si="49"/>
-        <v/>
+        <v>140</v>
       </c>
       <c r="AM53" s="52" t="str">
         <f t="shared" si="49"/>
@@ -24544,7 +24928,7 @@
       </c>
       <c r="AS53" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  ktk_kunci_chest2 [] = {{570.,102.},{586.,102.},{586.,140.},{570.,140.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
@@ -24553,7 +24937,9 @@
       <c r="C54" s="58"/>
       <c r="D54" s="58"/>
       <c r="E54" s="58"/>
-      <c r="F54" s="49"/>
+      <c r="F54" s="49">
+        <v>1</v>
+      </c>
       <c r="G54" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -24562,22 +24948,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I54" s="42"/>
+      <c r="I54" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="J54" s="43"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="45" t="str">
+      <c r="K54" s="38">
+        <v>222</v>
+      </c>
+      <c r="L54" s="38">
+        <v>218</v>
+      </c>
+      <c r="M54" s="43">
+        <v>196</v>
+      </c>
+      <c r="N54" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="O54" s="45" t="str">
+        <v>0.87058823529411766</v>
+      </c>
+      <c r="O54" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="P54" s="46" t="str">
+        <v>0.85490196078431369</v>
+      </c>
+      <c r="P54" s="46">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0.7686274509803922</v>
       </c>
       <c r="Q54" s="47"/>
       <c r="R54" s="48"/>
@@ -24651,7 +25045,7 @@
       </c>
       <c r="AS54" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_ktk_kunci_chest2 = {0.9,0.9,0.8};</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1">
@@ -24660,7 +25054,9 @@
       <c r="C55" s="58"/>
       <c r="D55" s="58"/>
       <c r="E55" s="58"/>
-      <c r="F55" s="49"/>
+      <c r="F55" s="49">
+        <v>2</v>
+      </c>
       <c r="G55" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -24669,8 +25065,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I55" s="42"/>
-      <c r="J55" s="43"/>
+      <c r="I55" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="J55" s="43">
+        <v>4</v>
+      </c>
       <c r="K55" s="38"/>
       <c r="L55" s="38"/>
       <c r="M55" s="43"/>
@@ -24686,51 +25086,67 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q55" s="47"/>
-      <c r="R55" s="48"/>
-      <c r="S55" s="49"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="50"/>
-      <c r="V55" s="48"/>
-      <c r="W55" s="49"/>
-      <c r="X55" s="43"/>
+      <c r="Q55" s="47">
+        <v>165</v>
+      </c>
+      <c r="R55" s="48">
+        <v>70</v>
+      </c>
+      <c r="S55" s="49">
+        <v>195</v>
+      </c>
+      <c r="T55" s="43">
+        <v>70</v>
+      </c>
+      <c r="U55" s="50">
+        <v>195</v>
+      </c>
+      <c r="V55" s="48">
+        <v>100</v>
+      </c>
+      <c r="W55" s="49">
+        <v>170</v>
+      </c>
+      <c r="X55" s="43">
+        <v>100</v>
+      </c>
       <c r="Y55" s="50"/>
       <c r="Z55" s="48"/>
       <c r="AA55" s="49"/>
       <c r="AB55" s="43"/>
       <c r="AC55" s="50"/>
       <c r="AD55" s="51"/>
-      <c r="AE55" s="52" t="str">
+      <c r="AE55" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF55" s="53" t="str">
+        <v>660</v>
+      </c>
+      <c r="AF55" s="53">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AG55" s="54" t="str">
+        <v>280</v>
+      </c>
+      <c r="AG55" s="54">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AH55" s="55" t="str">
+        <v>780</v>
+      </c>
+      <c r="AH55" s="55">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AI55" s="52" t="str">
+        <v>280</v>
+      </c>
+      <c r="AI55" s="52">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AJ55" s="53" t="str">
+        <v>780</v>
+      </c>
+      <c r="AJ55" s="53">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AK55" s="54" t="str">
+        <v>400</v>
+      </c>
+      <c r="AK55" s="54">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="AL55" s="55" t="str">
+        <v>680</v>
+      </c>
+      <c r="AL55" s="55">
         <f t="shared" si="49"/>
-        <v/>
+        <v>400</v>
       </c>
       <c r="AM55" s="52" t="str">
         <f t="shared" si="49"/>
@@ -24758,7 +25174,7 @@
       </c>
       <c r="AS55" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  ktk_jendela [4] = {{660.,280.},{780.,280.},{780.,400.},{680.,400.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1">
@@ -24767,7 +25183,9 @@
       <c r="C56" s="58"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
-      <c r="F56" s="49"/>
+      <c r="F56" s="49">
+        <v>1</v>
+      </c>
       <c r="G56" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -24776,22 +25194,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I56" s="42"/>
+      <c r="I56" s="42" t="s">
+        <v>73</v>
+      </c>
       <c r="J56" s="43"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="45" t="str">
+      <c r="K56" s="38">
+        <v>242</v>
+      </c>
+      <c r="L56" s="38">
+        <v>242</v>
+      </c>
+      <c r="M56" s="43">
+        <v>242</v>
+      </c>
+      <c r="N56" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="O56" s="45" t="str">
+        <v>0.94901960784313721</v>
+      </c>
+      <c r="O56" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="P56" s="46" t="str">
+        <v>0.94901960784313721</v>
+      </c>
+      <c r="P56" s="46">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0.94901960784313721</v>
       </c>
       <c r="Q56" s="47"/>
       <c r="R56" s="48"/>
@@ -24865,7 +25291,7 @@
       </c>
       <c r="AS56" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_ktk_jendela = {0.9,0.9,0.9};</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1">
@@ -24874,7 +25300,9 @@
       <c r="C57" s="58"/>
       <c r="D57" s="58"/>
       <c r="E57" s="58"/>
-      <c r="F57" s="49"/>
+      <c r="F57" s="49">
+        <v>2</v>
+      </c>
       <c r="G57" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -24883,8 +25311,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I57" s="42"/>
-      <c r="J57" s="43"/>
+      <c r="I57" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="J57" s="43">
+        <v>2</v>
+      </c>
       <c r="K57" s="38"/>
       <c r="L57" s="38"/>
       <c r="M57" s="43"/>
@@ -24900,10 +25332,18 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q57" s="47"/>
-      <c r="R57" s="48"/>
-      <c r="S57" s="49"/>
-      <c r="T57" s="43"/>
+      <c r="Q57" s="47">
+        <v>175</v>
+      </c>
+      <c r="R57" s="48">
+        <v>95</v>
+      </c>
+      <c r="S57" s="49">
+        <v>170</v>
+      </c>
+      <c r="T57" s="43">
+        <v>90</v>
+      </c>
       <c r="U57" s="50"/>
       <c r="V57" s="48"/>
       <c r="W57" s="49"/>
@@ -24914,21 +25354,21 @@
       <c r="AB57" s="43"/>
       <c r="AC57" s="50"/>
       <c r="AD57" s="51"/>
-      <c r="AE57" s="52" t="str">
+      <c r="AE57" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF57" s="53" t="str">
+        <v>700</v>
+      </c>
+      <c r="AF57" s="53">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AG57" s="54" t="str">
+        <v>380</v>
+      </c>
+      <c r="AG57" s="54">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AH57" s="55" t="str">
+        <v>680</v>
+      </c>
+      <c r="AH57" s="55">
         <f t="shared" si="50"/>
-        <v/>
+        <v>360</v>
       </c>
       <c r="AI57" s="52" t="str">
         <f t="shared" si="50"/>
@@ -24972,7 +25412,7 @@
       </c>
       <c r="AS57" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  gris_jendela1 [2] = {{700.,380.},{680.,360.},{.,.},{.,.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1">
@@ -24981,7 +25421,9 @@
       <c r="C58" s="58"/>
       <c r="D58" s="58"/>
       <c r="E58" s="58"/>
-      <c r="F58" s="49"/>
+      <c r="F58" s="49">
+        <v>2</v>
+      </c>
       <c r="G58" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -24990,8 +25432,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I58" s="42"/>
-      <c r="J58" s="43"/>
+      <c r="I58" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="J58" s="43">
+        <v>2</v>
+      </c>
       <c r="K58" s="38"/>
       <c r="L58" s="38"/>
       <c r="M58" s="43"/>
@@ -25007,10 +25453,18 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q58" s="47"/>
-      <c r="R58" s="48"/>
-      <c r="S58" s="49"/>
-      <c r="T58" s="43"/>
+      <c r="Q58" s="47">
+        <v>190</v>
+      </c>
+      <c r="R58" s="48">
+        <v>95</v>
+      </c>
+      <c r="S58" s="49">
+        <v>185</v>
+      </c>
+      <c r="T58" s="43">
+        <v>90</v>
+      </c>
       <c r="U58" s="50"/>
       <c r="V58" s="48"/>
       <c r="W58" s="49"/>
@@ -25021,21 +25475,21 @@
       <c r="AB58" s="43"/>
       <c r="AC58" s="50"/>
       <c r="AD58" s="51"/>
-      <c r="AE58" s="52" t="str">
+      <c r="AE58" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF58" s="53" t="str">
+        <v>760</v>
+      </c>
+      <c r="AF58" s="53">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AG58" s="54" t="str">
+        <v>380</v>
+      </c>
+      <c r="AG58" s="54">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AH58" s="55" t="str">
+        <v>740</v>
+      </c>
+      <c r="AH58" s="55">
         <f t="shared" si="50"/>
-        <v/>
+        <v>360</v>
       </c>
       <c r="AI58" s="52" t="str">
         <f t="shared" si="50"/>
@@ -25079,7 +25533,7 @@
       </c>
       <c r="AS58" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  gris_jendela2 [2] = {{760.,380.},{740.,360.},{.,.},{.,.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1">
@@ -25088,7 +25542,9 @@
       <c r="C59" s="58"/>
       <c r="D59" s="58"/>
       <c r="E59" s="58"/>
-      <c r="F59" s="49"/>
+      <c r="F59" s="49">
+        <v>2</v>
+      </c>
       <c r="G59" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -25097,8 +25553,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I59" s="42"/>
-      <c r="J59" s="43"/>
+      <c r="I59" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="J59" s="43">
+        <v>2</v>
+      </c>
       <c r="K59" s="38"/>
       <c r="L59" s="38"/>
       <c r="M59" s="43"/>
@@ -25114,10 +25574,18 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q59" s="47"/>
-      <c r="R59" s="48"/>
-      <c r="S59" s="49"/>
-      <c r="T59" s="43"/>
+      <c r="Q59" s="47">
+        <v>175</v>
+      </c>
+      <c r="R59" s="50">
+        <v>85</v>
+      </c>
+      <c r="S59" s="49">
+        <v>170</v>
+      </c>
+      <c r="T59" s="43">
+        <v>80</v>
+      </c>
       <c r="U59" s="50"/>
       <c r="V59" s="48"/>
       <c r="W59" s="49"/>
@@ -25128,21 +25596,21 @@
       <c r="AB59" s="43"/>
       <c r="AC59" s="50"/>
       <c r="AD59" s="51"/>
-      <c r="AE59" s="52" t="str">
+      <c r="AE59" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF59" s="53" t="str">
+        <v>700</v>
+      </c>
+      <c r="AF59" s="53">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AG59" s="54" t="str">
+        <v>340</v>
+      </c>
+      <c r="AG59" s="54">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AH59" s="55" t="str">
+        <v>680</v>
+      </c>
+      <c r="AH59" s="55">
         <f t="shared" si="50"/>
-        <v/>
+        <v>320</v>
       </c>
       <c r="AI59" s="52" t="str">
         <f t="shared" si="50"/>
@@ -25186,7 +25654,7 @@
       </c>
       <c r="AS59" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  gris_jendela3 [2] = {{700.,340.},{680.,320.},{.,.},{.,.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1">
@@ -25195,7 +25663,9 @@
       <c r="C60" s="58"/>
       <c r="D60" s="58"/>
       <c r="E60" s="58"/>
-      <c r="F60" s="49"/>
+      <c r="F60" s="49">
+        <v>2</v>
+      </c>
       <c r="G60" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -25204,8 +25674,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I60" s="42"/>
-      <c r="J60" s="43"/>
+      <c r="I60" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="J60" s="43">
+        <v>2</v>
+      </c>
       <c r="K60" s="38"/>
       <c r="L60" s="38"/>
       <c r="M60" s="43"/>
@@ -25221,10 +25695,18 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q60" s="47"/>
-      <c r="R60" s="48"/>
-      <c r="S60" s="49"/>
-      <c r="T60" s="43"/>
+      <c r="Q60" s="60">
+        <v>190</v>
+      </c>
+      <c r="R60" s="48">
+        <v>85</v>
+      </c>
+      <c r="S60" s="49">
+        <v>185</v>
+      </c>
+      <c r="T60" s="43">
+        <v>80</v>
+      </c>
       <c r="U60" s="50"/>
       <c r="V60" s="48"/>
       <c r="W60" s="49"/>
@@ -25235,21 +25717,21 @@
       <c r="AB60" s="43"/>
       <c r="AC60" s="50"/>
       <c r="AD60" s="51"/>
-      <c r="AE60" s="52" t="str">
+      <c r="AE60" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF60" s="53" t="str">
+        <v>760</v>
+      </c>
+      <c r="AF60" s="53">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AG60" s="54" t="str">
+        <v>340</v>
+      </c>
+      <c r="AG60" s="54">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AH60" s="55" t="str">
+        <v>740</v>
+      </c>
+      <c r="AH60" s="55">
         <f t="shared" si="50"/>
-        <v/>
+        <v>320</v>
       </c>
       <c r="AI60" s="52" t="str">
         <f t="shared" si="50"/>
@@ -25293,7 +25775,7 @@
       </c>
       <c r="AS60" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  gris_jendela4 [2] = {{760.,340.},{740.,320.},{.,.},{.,.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1">
@@ -25302,7 +25784,9 @@
       <c r="C61" s="58"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
-      <c r="F61" s="49"/>
+      <c r="F61" s="49">
+        <v>2</v>
+      </c>
       <c r="G61" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -25311,8 +25795,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I61" s="42"/>
-      <c r="J61" s="43"/>
+      <c r="I61" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="J61" s="43">
+        <v>4</v>
+      </c>
       <c r="K61" s="38"/>
       <c r="L61" s="38"/>
       <c r="M61" s="43"/>
@@ -25328,51 +25816,67 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q61" s="47"/>
-      <c r="R61" s="48"/>
-      <c r="S61" s="49"/>
-      <c r="T61" s="43"/>
-      <c r="U61" s="50"/>
-      <c r="V61" s="48"/>
-      <c r="W61" s="49"/>
-      <c r="X61" s="43"/>
+      <c r="Q61" s="47">
+        <v>170</v>
+      </c>
+      <c r="R61" s="48">
+        <v>25</v>
+      </c>
+      <c r="S61" s="49">
+        <v>210</v>
+      </c>
+      <c r="T61" s="43">
+        <v>25</v>
+      </c>
+      <c r="U61" s="50">
+        <v>210</v>
+      </c>
+      <c r="V61" s="48">
+        <v>32.5</v>
+      </c>
+      <c r="W61" s="50">
+        <v>170</v>
+      </c>
+      <c r="X61" s="48">
+        <v>32.5</v>
+      </c>
       <c r="Y61" s="50"/>
       <c r="Z61" s="48"/>
       <c r="AA61" s="49"/>
       <c r="AB61" s="43"/>
       <c r="AC61" s="50"/>
       <c r="AD61" s="51"/>
-      <c r="AE61" s="52" t="str">
+      <c r="AE61" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF61" s="53" t="str">
+        <v>680</v>
+      </c>
+      <c r="AF61" s="53">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AG61" s="54" t="str">
+        <v>100</v>
+      </c>
+      <c r="AG61" s="54">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AH61" s="55" t="str">
+        <v>840</v>
+      </c>
+      <c r="AH61" s="55">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AI61" s="52" t="str">
+        <v>100</v>
+      </c>
+      <c r="AI61" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ61" s="53" t="str">
+        <v>840</v>
+      </c>
+      <c r="AJ61" s="53">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AK61" s="54" t="str">
+        <v>130</v>
+      </c>
+      <c r="AK61" s="54">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AL61" s="55" t="str">
+        <v>680</v>
+      </c>
+      <c r="AL61" s="55">
         <f t="shared" si="50"/>
-        <v/>
+        <v>130</v>
       </c>
       <c r="AM61" s="52" t="str">
         <f t="shared" si="50"/>
@@ -25400,7 +25904,7 @@
       </c>
       <c r="AS61" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  ktk_kasur_mrh [4] = {{680.,100.},{840.,100.},{840.,130.},{680.,130.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1">
@@ -25409,7 +25913,9 @@
       <c r="C62" s="58"/>
       <c r="D62" s="58"/>
       <c r="E62" s="58"/>
-      <c r="F62" s="49"/>
+      <c r="F62" s="49">
+        <v>1</v>
+      </c>
       <c r="G62" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -25418,22 +25924,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I62" s="42"/>
+      <c r="I62" s="42" t="s">
+        <v>79</v>
+      </c>
       <c r="J62" s="43"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="43"/>
-      <c r="N62" s="45" t="str">
+      <c r="K62" s="38">
+        <v>255</v>
+      </c>
+      <c r="L62" s="38">
+        <v>0</v>
+      </c>
+      <c r="M62" s="43">
+        <v>0</v>
+      </c>
+      <c r="N62" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="O62" s="45" t="str">
+        <v>1</v>
+      </c>
+      <c r="O62" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="P62" s="46" t="str">
+        <v>0</v>
+      </c>
+      <c r="P62" s="46">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="Q62" s="47"/>
       <c r="R62" s="48"/>
@@ -25507,7 +26021,7 @@
       </c>
       <c r="AS62" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_ktk_kasur_mrh = {1,0,0};</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1">
@@ -25516,7 +26030,9 @@
       <c r="C63" s="58"/>
       <c r="D63" s="58"/>
       <c r="E63" s="58"/>
-      <c r="F63" s="49"/>
+      <c r="F63" s="49">
+        <v>2</v>
+      </c>
       <c r="G63" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -25525,8 +26041,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I63" s="42"/>
-      <c r="J63" s="43"/>
+      <c r="I63" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="J63" s="43">
+        <v>4</v>
+      </c>
       <c r="K63" s="38"/>
       <c r="L63" s="38"/>
       <c r="M63" s="43"/>
@@ -25542,51 +26062,67 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q63" s="47"/>
-      <c r="R63" s="48"/>
-      <c r="S63" s="49"/>
-      <c r="T63" s="43"/>
-      <c r="U63" s="50"/>
-      <c r="V63" s="48"/>
-      <c r="W63" s="49"/>
-      <c r="X63" s="43"/>
+      <c r="Q63" s="47">
+        <v>210</v>
+      </c>
+      <c r="R63" s="48">
+        <v>25</v>
+      </c>
+      <c r="S63" s="49">
+        <v>230</v>
+      </c>
+      <c r="T63" s="43">
+        <v>25</v>
+      </c>
+      <c r="U63" s="50">
+        <v>230</v>
+      </c>
+      <c r="V63" s="48">
+        <v>32.5</v>
+      </c>
+      <c r="W63" s="49">
+        <v>210</v>
+      </c>
+      <c r="X63" s="48">
+        <v>32.5</v>
+      </c>
       <c r="Y63" s="50"/>
       <c r="Z63" s="48"/>
       <c r="AA63" s="49"/>
       <c r="AB63" s="43"/>
       <c r="AC63" s="50"/>
       <c r="AD63" s="51"/>
-      <c r="AE63" s="52" t="str">
+      <c r="AE63" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF63" s="53" t="str">
+        <v>840</v>
+      </c>
+      <c r="AF63" s="53">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AG63" s="54" t="str">
+        <v>100</v>
+      </c>
+      <c r="AG63" s="54">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AH63" s="55" t="str">
+        <v>920</v>
+      </c>
+      <c r="AH63" s="55">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AI63" s="52" t="str">
+        <v>100</v>
+      </c>
+      <c r="AI63" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ63" s="53" t="str">
+        <v>920</v>
+      </c>
+      <c r="AJ63" s="53">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AK63" s="54" t="str">
+        <v>130</v>
+      </c>
+      <c r="AK63" s="54">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AL63" s="55" t="str">
+        <v>840</v>
+      </c>
+      <c r="AL63" s="55">
         <f t="shared" si="50"/>
-        <v/>
+        <v>130</v>
       </c>
       <c r="AM63" s="52" t="str">
         <f t="shared" si="50"/>
@@ -25614,7 +26150,7 @@
       </c>
       <c r="AS63" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  ktk_kasur_putih [4] = {{840.,100.},{920.,100.},{920.,130.},{840.,130.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1">
@@ -25623,7 +26159,9 @@
       <c r="C64" s="58"/>
       <c r="D64" s="58"/>
       <c r="E64" s="58"/>
-      <c r="F64" s="49"/>
+      <c r="F64" s="49">
+        <v>1</v>
+      </c>
       <c r="G64" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -25632,22 +26170,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I64" s="42"/>
+      <c r="I64" s="42" t="s">
+        <v>81</v>
+      </c>
       <c r="J64" s="43"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="45" t="str">
+      <c r="K64" s="38">
+        <v>242</v>
+      </c>
+      <c r="L64" s="38">
+        <v>242</v>
+      </c>
+      <c r="M64" s="43">
+        <v>242</v>
+      </c>
+      <c r="N64" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="O64" s="45" t="str">
+        <v>0.94901960784313721</v>
+      </c>
+      <c r="O64" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="P64" s="46" t="str">
+        <v>0.94901960784313721</v>
+      </c>
+      <c r="P64" s="46">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0.94901960784313721</v>
       </c>
       <c r="Q64" s="47"/>
       <c r="R64" s="48"/>
@@ -25721,7 +26267,7 @@
       </c>
       <c r="AS64" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_ktk_kasur_putih = {0.9,0.9,0.9};</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1">
@@ -25730,7 +26276,9 @@
       <c r="C65" s="58"/>
       <c r="D65" s="58"/>
       <c r="E65" s="58"/>
-      <c r="F65" s="49"/>
+      <c r="F65" s="49">
+        <v>2</v>
+      </c>
       <c r="G65" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -25739,8 +26287,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I65" s="42"/>
-      <c r="J65" s="43"/>
+      <c r="I65" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="J65" s="43">
+        <v>4</v>
+      </c>
       <c r="K65" s="38"/>
       <c r="L65" s="38"/>
       <c r="M65" s="43"/>
@@ -25756,51 +26308,67 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q65" s="47"/>
-      <c r="R65" s="48"/>
-      <c r="S65" s="49"/>
-      <c r="T65" s="43"/>
-      <c r="U65" s="50"/>
-      <c r="V65" s="48"/>
-      <c r="W65" s="49"/>
-      <c r="X65" s="43"/>
+      <c r="Q65" s="47">
+        <v>215</v>
+      </c>
+      <c r="R65" s="48">
+        <v>32.5</v>
+      </c>
+      <c r="S65" s="49">
+        <v>230</v>
+      </c>
+      <c r="T65" s="43">
+        <v>32.5</v>
+      </c>
+      <c r="U65" s="50">
+        <v>230</v>
+      </c>
+      <c r="V65" s="48">
+        <v>40</v>
+      </c>
+      <c r="W65" s="49">
+        <v>215</v>
+      </c>
+      <c r="X65" s="48">
+        <v>40</v>
+      </c>
       <c r="Y65" s="50"/>
       <c r="Z65" s="48"/>
       <c r="AA65" s="49"/>
       <c r="AB65" s="43"/>
       <c r="AC65" s="50"/>
       <c r="AD65" s="51"/>
-      <c r="AE65" s="52" t="str">
+      <c r="AE65" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF65" s="53" t="str">
+        <v>860</v>
+      </c>
+      <c r="AF65" s="53">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AG65" s="54" t="str">
+        <v>130</v>
+      </c>
+      <c r="AG65" s="54">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AH65" s="55" t="str">
+        <v>920</v>
+      </c>
+      <c r="AH65" s="55">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AI65" s="52" t="str">
+        <v>130</v>
+      </c>
+      <c r="AI65" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ65" s="53" t="str">
+        <v>920</v>
+      </c>
+      <c r="AJ65" s="53">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AK65" s="54" t="str">
+        <v>160</v>
+      </c>
+      <c r="AK65" s="54">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AL65" s="55" t="str">
+        <v>860</v>
+      </c>
+      <c r="AL65" s="55">
         <f t="shared" si="50"/>
-        <v/>
+        <v>160</v>
       </c>
       <c r="AM65" s="52" t="str">
         <f t="shared" si="50"/>
@@ -25828,7 +26396,7 @@
       </c>
       <c r="AS65" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  ktk_bntl_putih [4] = {{860.,130.},{920.,130.},{920.,160.},{860.,160.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1">
@@ -25837,7 +26405,9 @@
       <c r="C66" s="58"/>
       <c r="D66" s="58"/>
       <c r="E66" s="58"/>
-      <c r="F66" s="49"/>
+      <c r="F66" s="49">
+        <v>1</v>
+      </c>
       <c r="G66" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -25846,22 +26416,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I66" s="42"/>
+      <c r="I66" s="42" t="s">
+        <v>83</v>
+      </c>
       <c r="J66" s="43"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="45" t="str">
+      <c r="K66" s="38">
+        <v>242</v>
+      </c>
+      <c r="L66" s="38">
+        <v>242</v>
+      </c>
+      <c r="M66" s="43">
+        <v>242</v>
+      </c>
+      <c r="N66" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="O66" s="45" t="str">
+        <v>0.94901960784313721</v>
+      </c>
+      <c r="O66" s="45">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="P66" s="46" t="str">
+        <v>0.94901960784313721</v>
+      </c>
+      <c r="P66" s="46">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0.94901960784313721</v>
       </c>
       <c r="Q66" s="47"/>
       <c r="R66" s="48"/>
@@ -25935,7 +26513,7 @@
       </c>
       <c r="AS66" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_ktk_bntl_putih = {0.9,0.9,0.9};</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1">
@@ -25944,7 +26522,9 @@
       <c r="C67" s="58"/>
       <c r="D67" s="58"/>
       <c r="E67" s="58"/>
-      <c r="F67" s="49"/>
+      <c r="F67" s="49">
+        <v>2</v>
+      </c>
       <c r="G67" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -25953,8 +26533,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I67" s="42"/>
-      <c r="J67" s="43"/>
+      <c r="I67" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="J67" s="43">
+        <v>4</v>
+      </c>
       <c r="K67" s="38"/>
       <c r="L67" s="38"/>
       <c r="M67" s="43"/>
@@ -25970,51 +26554,67 @@
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q67" s="47"/>
-      <c r="R67" s="48"/>
-      <c r="S67" s="49"/>
-      <c r="T67" s="43"/>
-      <c r="U67" s="50"/>
-      <c r="V67" s="48"/>
-      <c r="W67" s="49"/>
-      <c r="X67" s="43"/>
+      <c r="Q67" s="47">
+        <v>170</v>
+      </c>
+      <c r="R67" s="48">
+        <v>0</v>
+      </c>
+      <c r="S67" s="49">
+        <v>173</v>
+      </c>
+      <c r="T67" s="49">
+        <v>0</v>
+      </c>
+      <c r="U67" s="49">
+        <v>173</v>
+      </c>
+      <c r="V67" s="48">
+        <v>25</v>
+      </c>
+      <c r="W67" s="49">
+        <v>170</v>
+      </c>
+      <c r="X67" s="43">
+        <v>25</v>
+      </c>
       <c r="Y67" s="50"/>
       <c r="Z67" s="48"/>
       <c r="AA67" s="49"/>
       <c r="AB67" s="43"/>
       <c r="AC67" s="50"/>
       <c r="AD67" s="51"/>
-      <c r="AE67" s="52" t="str">
+      <c r="AE67" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF67" s="53" t="str">
+        <v>680</v>
+      </c>
+      <c r="AF67" s="53">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AG67" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="54">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AH67" s="55" t="str">
+        <v>692</v>
+      </c>
+      <c r="AH67" s="55">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AI67" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ67" s="53" t="str">
+        <v>692</v>
+      </c>
+      <c r="AJ67" s="53">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AK67" s="54" t="str">
+        <v>100</v>
+      </c>
+      <c r="AK67" s="54">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AL67" s="55" t="str">
+        <v>680</v>
+      </c>
+      <c r="AL67" s="55">
         <f t="shared" si="50"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AM67" s="52" t="str">
         <f t="shared" si="50"/>
@@ -26042,7 +26642,7 @@
       </c>
       <c r="AS67" s="57" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  ktk_kki_kasur1 [4] = {{680.,0.},{692.,0.},{692.,100.},{680.,100.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1">
@@ -26051,7 +26651,9 @@
       <c r="C68" s="58"/>
       <c r="D68" s="58"/>
       <c r="E68" s="58"/>
-      <c r="F68" s="49"/>
+      <c r="F68" s="49">
+        <v>1</v>
+      </c>
       <c r="G68" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -26060,22 +26662,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I68" s="42"/>
+      <c r="I68" s="42" t="s">
+        <v>85</v>
+      </c>
       <c r="J68" s="43"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="45" t="str">
+      <c r="K68" s="38">
+        <v>204</v>
+      </c>
+      <c r="L68" s="38">
+        <v>135</v>
+      </c>
+      <c r="M68" s="43">
+        <v>6</v>
+      </c>
+      <c r="N68" s="45">
         <f t="shared" ref="N68:P105" si="52">IF(K68="","",K68/255)</f>
-        <v/>
-      </c>
-      <c r="O68" s="45" t="str">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="O68" s="45">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="P68" s="46" t="str">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="P68" s="46">
         <f t="shared" si="52"/>
-        <v/>
+        <v>0.023529411764705882</v>
       </c>
       <c r="Q68" s="47"/>
       <c r="R68" s="48"/>
@@ -26149,7 +26759,7 @@
       </c>
       <c r="AS68" s="57" t="str">
         <f t="shared" ref="AS68:AS105" si="53">IF(F68=1,IF(OR(K68="",L68="",M68=""),"",CONCATENATE(G68," ",I68," = {",ROUND(N68,1),",",ROUND(O68,1),",",ROUND(P68,1),"};")),IF(F68=2,CONCATENATE(H68,"  ",I68," [",J68,"] = {{",AE68,".,",AF68,".},{",AG68,".,",AH68,".},{",AI68,".,",AJ68,".},{",AK68,".,",AL68,".},{",AM68,".,",AN68,".},{",AO68,".,",AP68,".},{",AQ68,".,",AR68,".}};"),""))</f>
-        <v/>
+        <v xml:space="preserve">Color_t w_ktk_kki_kasur1 = {0.8,0.5,0};</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1">
@@ -26158,7 +26768,9 @@
       <c r="C69" s="58"/>
       <c r="D69" s="58"/>
       <c r="E69" s="58"/>
-      <c r="F69" s="49"/>
+      <c r="F69" s="49">
+        <v>2</v>
+      </c>
       <c r="G69" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -26167,8 +26779,12 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I69" s="42"/>
-      <c r="J69" s="43"/>
+      <c r="I69" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="J69" s="43">
+        <v>4</v>
+      </c>
       <c r="K69" s="38"/>
       <c r="L69" s="38"/>
       <c r="M69" s="43"/>
@@ -26184,51 +26800,67 @@
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="Q69" s="47"/>
-      <c r="R69" s="48"/>
-      <c r="S69" s="49"/>
-      <c r="T69" s="43"/>
-      <c r="U69" s="50"/>
-      <c r="V69" s="48"/>
-      <c r="W69" s="49"/>
-      <c r="X69" s="43"/>
+      <c r="Q69" s="47">
+        <v>172</v>
+      </c>
+      <c r="R69" s="48">
+        <v>0</v>
+      </c>
+      <c r="S69" s="49">
+        <v>176</v>
+      </c>
+      <c r="T69" s="43">
+        <v>0</v>
+      </c>
+      <c r="U69" s="63">
+        <v>176</v>
+      </c>
+      <c r="V69" s="48">
+        <v>25</v>
+      </c>
+      <c r="W69" s="49">
+        <v>172</v>
+      </c>
+      <c r="X69" s="43">
+        <v>25</v>
+      </c>
       <c r="Y69" s="50"/>
       <c r="Z69" s="48"/>
       <c r="AA69" s="49"/>
       <c r="AB69" s="43"/>
       <c r="AC69" s="50"/>
       <c r="AD69" s="51"/>
-      <c r="AE69" s="52" t="str">
+      <c r="AE69" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF69" s="53" t="str">
+        <v>688</v>
+      </c>
+      <c r="AF69" s="53">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AG69" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="54">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AH69" s="55" t="str">
+        <v>704</v>
+      </c>
+      <c r="AH69" s="55">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AI69" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ69" s="53" t="str">
+        <v>704</v>
+      </c>
+      <c r="AJ69" s="53">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AK69" s="54" t="str">
+        <v>100</v>
+      </c>
+      <c r="AK69" s="54">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AL69" s="55" t="str">
+        <v>688</v>
+      </c>
+      <c r="AL69" s="55">
         <f t="shared" si="50"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AM69" s="52" t="str">
         <f t="shared" si="50"/>
@@ -26256,7 +26888,7 @@
       </c>
       <c r="AS69" s="57" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  ktk_kki_kasur2 [4] = {{688.,0.},{704.,0.},{704.,100.},{688.,100.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1">
@@ -26265,7 +26897,9 @@
       <c r="C70" s="58"/>
       <c r="D70" s="58"/>
       <c r="E70" s="58"/>
-      <c r="F70" s="49"/>
+      <c r="F70" s="49">
+        <v>1</v>
+      </c>
       <c r="G70" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -26274,22 +26908,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I70" s="42"/>
+      <c r="I70" s="42" t="s">
+        <v>87</v>
+      </c>
       <c r="J70" s="43"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="45" t="str">
+      <c r="K70" s="38">
+        <v>168</v>
+      </c>
+      <c r="L70" s="38">
+        <v>112</v>
+      </c>
+      <c r="M70" s="43">
+        <v>9</v>
+      </c>
+      <c r="N70" s="45">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O70" s="45" t="str">
+        <v>0.6588235294117647</v>
+      </c>
+      <c r="O70" s="45">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="P70" s="46" t="str">
+        <v>0.4392156862745098</v>
+      </c>
+      <c r="P70" s="46">
         <f t="shared" si="52"/>
-        <v/>
+        <v>0.035294117647058823</v>
       </c>
       <c r="Q70" s="47"/>
       <c r="R70" s="48"/>
@@ -26363,7 +27005,7 @@
       </c>
       <c r="AS70" s="57" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_ktk_kki_kasur2 = {0.7000000000000001,0.4,0};</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1">
@@ -26372,7 +27014,9 @@
       <c r="C71" s="58"/>
       <c r="D71" s="58"/>
       <c r="E71" s="58"/>
-      <c r="F71" s="49"/>
+      <c r="F71" s="49">
+        <v>2</v>
+      </c>
       <c r="G71" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -26381,7 +27025,9 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I71" s="42"/>
+      <c r="I71" s="42" t="s">
+        <v>88</v>
+      </c>
       <c r="J71" s="43"/>
       <c r="K71" s="38"/>
       <c r="L71" s="38"/>
@@ -26398,51 +27044,67 @@
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="Q71" s="47"/>
-      <c r="R71" s="48"/>
-      <c r="S71" s="49"/>
-      <c r="T71" s="43"/>
-      <c r="U71" s="50"/>
-      <c r="V71" s="48"/>
-      <c r="W71" s="49"/>
-      <c r="X71" s="43"/>
+      <c r="Q71" s="47">
+        <v>226</v>
+      </c>
+      <c r="R71" s="48">
+        <v>0</v>
+      </c>
+      <c r="S71" s="49">
+        <v>229</v>
+      </c>
+      <c r="T71" s="43">
+        <v>0</v>
+      </c>
+      <c r="U71" s="63">
+        <v>226</v>
+      </c>
+      <c r="V71" s="48">
+        <v>25</v>
+      </c>
+      <c r="W71" s="49">
+        <v>229</v>
+      </c>
+      <c r="X71" s="43">
+        <v>25</v>
+      </c>
       <c r="Y71" s="50"/>
       <c r="Z71" s="48"/>
       <c r="AA71" s="49"/>
       <c r="AB71" s="43"/>
       <c r="AC71" s="50"/>
       <c r="AD71" s="51"/>
-      <c r="AE71" s="52" t="str">
+      <c r="AE71" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF71" s="53" t="str">
+        <v>904</v>
+      </c>
+      <c r="AF71" s="53">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AG71" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="54">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AH71" s="55" t="str">
+        <v>916</v>
+      </c>
+      <c r="AH71" s="55">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AI71" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI71" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ71" s="53" t="str">
+        <v>904</v>
+      </c>
+      <c r="AJ71" s="53">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AK71" s="54" t="str">
+        <v>100</v>
+      </c>
+      <c r="AK71" s="54">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AL71" s="55" t="str">
+        <v>916</v>
+      </c>
+      <c r="AL71" s="55">
         <f t="shared" si="50"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AM71" s="52" t="str">
         <f t="shared" si="50"/>
@@ -26470,7 +27132,7 @@
       </c>
       <c r="AS71" s="57" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  ktk_kki_kasur3 [] = {{904.,0.},{916.,0.},{904.,100.},{916.,100.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1">
@@ -26479,7 +27141,9 @@
       <c r="C72" s="58"/>
       <c r="D72" s="58"/>
       <c r="E72" s="58"/>
-      <c r="F72" s="49"/>
+      <c r="F72" s="49">
+        <v>1</v>
+      </c>
       <c r="G72" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -26488,22 +27152,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I72" s="42"/>
+      <c r="I72" s="42" t="s">
+        <v>89</v>
+      </c>
       <c r="J72" s="43"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="45" t="str">
+      <c r="K72" s="38">
+        <v>204</v>
+      </c>
+      <c r="L72" s="38">
+        <v>135</v>
+      </c>
+      <c r="M72" s="43">
+        <v>6</v>
+      </c>
+      <c r="N72" s="45">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O72" s="45" t="str">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="O72" s="45">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="P72" s="46" t="str">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="P72" s="46">
         <f t="shared" si="52"/>
-        <v/>
+        <v>0.023529411764705882</v>
       </c>
       <c r="Q72" s="47"/>
       <c r="R72" s="48"/>
@@ -26577,7 +27249,7 @@
       </c>
       <c r="AS72" s="57" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_ktk_kki_kasur3 = {0.8,0.5,0};</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1">
@@ -26586,7 +27258,9 @@
       <c r="C73" s="58"/>
       <c r="D73" s="58"/>
       <c r="E73" s="58"/>
-      <c r="F73" s="49"/>
+      <c r="F73" s="49">
+        <v>2</v>
+      </c>
       <c r="G73" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -26595,7 +27269,9 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I73" s="42"/>
+      <c r="I73" s="42" t="s">
+        <v>90</v>
+      </c>
       <c r="J73" s="43"/>
       <c r="K73" s="38"/>
       <c r="L73" s="38"/>
@@ -26612,51 +27288,67 @@
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="Q73" s="47"/>
-      <c r="R73" s="48"/>
-      <c r="S73" s="49"/>
-      <c r="T73" s="43"/>
-      <c r="U73" s="50"/>
-      <c r="V73" s="48"/>
-      <c r="W73" s="49"/>
-      <c r="X73" s="43"/>
+      <c r="Q73" s="47">
+        <v>227</v>
+      </c>
+      <c r="R73" s="48">
+        <v>0</v>
+      </c>
+      <c r="S73" s="49">
+        <v>230</v>
+      </c>
+      <c r="T73" s="43">
+        <v>0</v>
+      </c>
+      <c r="U73" s="50">
+        <v>227</v>
+      </c>
+      <c r="V73" s="48">
+        <v>25</v>
+      </c>
+      <c r="W73" s="49">
+        <v>230</v>
+      </c>
+      <c r="X73" s="43">
+        <v>25</v>
+      </c>
       <c r="Y73" s="50"/>
       <c r="Z73" s="48"/>
       <c r="AA73" s="49"/>
       <c r="AB73" s="43"/>
       <c r="AC73" s="50"/>
       <c r="AD73" s="51"/>
-      <c r="AE73" s="52" t="str">
+      <c r="AE73" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AF73" s="53" t="str">
+        <v>908</v>
+      </c>
+      <c r="AF73" s="53">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AG73" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="54">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AH73" s="55" t="str">
+        <v>920</v>
+      </c>
+      <c r="AH73" s="55">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AI73" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI73" s="52">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ73" s="53" t="str">
+        <v>908</v>
+      </c>
+      <c r="AJ73" s="53">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AK73" s="54" t="str">
+        <v>100</v>
+      </c>
+      <c r="AK73" s="54">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AL73" s="55" t="str">
+        <v>920</v>
+      </c>
+      <c r="AL73" s="55">
         <f t="shared" si="50"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AM73" s="52" t="str">
         <f t="shared" si="50"/>
@@ -26684,7 +27376,7 @@
       </c>
       <c r="AS73" s="57" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v xml:space="preserve">Point2D_t  ktk_kki_kasur4 [] = {{908.,0.},{920.,0.},{908.,100.},{920.,100.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1">
@@ -26693,7 +27385,9 @@
       <c r="C74" s="58"/>
       <c r="D74" s="58"/>
       <c r="E74" s="58"/>
-      <c r="F74" s="49"/>
+      <c r="F74" s="49">
+        <v>1</v>
+      </c>
       <c r="G74" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -26702,22 +27396,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I74" s="42"/>
+      <c r="I74" s="42" t="s">
+        <v>91</v>
+      </c>
       <c r="J74" s="43"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="45" t="str">
+      <c r="K74" s="38">
+        <v>168</v>
+      </c>
+      <c r="L74" s="38">
+        <v>112</v>
+      </c>
+      <c r="M74" s="43">
+        <v>9</v>
+      </c>
+      <c r="N74" s="45">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O74" s="45" t="str">
+        <v>0.6588235294117647</v>
+      </c>
+      <c r="O74" s="45">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="P74" s="46" t="str">
+        <v>0.4392156862745098</v>
+      </c>
+      <c r="P74" s="46">
         <f t="shared" si="52"/>
-        <v/>
+        <v>0.035294117647058823</v>
       </c>
       <c r="Q74" s="47"/>
       <c r="R74" s="48"/>
@@ -26791,7 +27493,7 @@
       </c>
       <c r="AS74" s="57" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v xml:space="preserve">Color_t w_ktk_kki_kasur4 = {0.7000000000000001,0.4,0};</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1">
@@ -30144,8 +30846,8 @@
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AQ2:AR2"/>
   </mergeCells>
-  <dataValidations count="9" disablePrompts="0">
-    <dataValidation sqref="N4:P105 I4:I13 I20 I22 I24:I25 I28:I29 I31 I33 I35:I105" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+  <dataValidations count="43" disablePrompts="0">
+    <dataValidation sqref="N4:P105 I4:I13 I20 I22 I24:I25 I28:I29 I31 I33 I35 I37 I39 I43 I47 I55 I61 I63 I67 I75:I105" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I14:I19" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I21" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I23" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
@@ -30154,6 +30856,48 @@
     <dataValidation sqref="I30" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I32" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I34" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I36" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I38" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I41" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I40" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I42" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I44" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I45" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I46" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I48" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="Q51" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <formula1>#REF!=2</formula1>
+    </dataValidation>
+    <dataValidation sqref="S51" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <formula1>#REF!=2</formula1>
+    </dataValidation>
+    <dataValidation sqref="U51" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <formula1>#REF!=2</formula1>
+    </dataValidation>
+    <dataValidation sqref="W51" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <formula1>#REF!=2</formula1>
+    </dataValidation>
+    <dataValidation sqref="I49 I53" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I50" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I51" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I52" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I54" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I56" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I57" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I58" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I59" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I60" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I62" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I64" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I65" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I66" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I68" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I69" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I70" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I71" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I72" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I73" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I74" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
   </dataValidations>
   <printOptions headings="0" gridLines="0" horizontalCentered="1"/>
   <pageMargins left="0.19685039370078738" right="0.19685039370078738" top="0.39370078740157477" bottom="0.39370078740157477" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -30164,7 +30908,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{00CB00AF-0035-4CE2-ACD1-00F300B3009C}">
+          <x14:cfRule type="expression" priority="3" id="{0081009E-0022-43BD-B24A-00F3009700AB}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30181,7 +30925,7 @@
           <xm:sqref>J4:J29 J31:J105 J31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{00590037-00F8-484C-BBBF-00CE006700F1}">
+          <x14:cfRule type="expression" priority="2" id="{004D00F7-00A4-4A43-B105-004500900009}">
             <xm:f>$F4=2</xm:f>
             <x14:dxf>
               <font>
@@ -30198,7 +30942,7 @@
           <xm:sqref>K4:M105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{009F004F-00B2-4C56-8751-00D600FD00EA}">
+          <x14:cfRule type="expression" priority="1" id="{00070058-0088-40E9-BF53-006700EB000F}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30212,10 +30956,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>Q4:AD105</xm:sqref>
+          <xm:sqref>Q4:AD50 Y51:AD51 Q52:AD105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{008B0051-00E8-41EE-8479-006800C500EA}">
+          <x14:cfRule type="expression" priority="1" id="{0090009C-004E-4CE4-BAEF-009A00B1009C}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30232,7 +30976,7 @@
           <xm:sqref>Q31:X31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{006C0049-0051-4F7A-82F9-00A10045009B}">
+          <x14:cfRule type="expression" priority="1" id="{00BB0024-0051-45B2-B303-00B3008F00E5}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30249,7 +30993,7 @@
           <xm:sqref>Q33:T33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00FA005E-00CA-4810-A1E3-0093001800B8}">
+          <x14:cfRule type="expression" priority="1" id="{001C0072-008D-4A0D-B40F-0096006900E1}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30266,7 +31010,7 @@
           <xm:sqref>U33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00D000BC-005D-49E6-A1DD-000E003400C7}">
+          <x14:cfRule type="expression" priority="1" id="{00FD0069-0029-4661-97D6-00D100D90078}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30282,56 +31026,464 @@
           </x14:cfRule>
           <xm:sqref>U33</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{0036004F-001D-4651-AE29-0080000300DA}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>Q41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00340019-00FD-4553-9CFD-00D9000200AC}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>S47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00B6008F-00CB-4D3D-87BA-005900B00066}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>T47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00640003-0080-4E89-9C66-0017006000A4}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{004D000C-0072-46A1-A606-002300840084}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{004800FB-00C5-48E2-B174-00AC00E50074}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>W47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00C50069-004A-4020-A5CA-00BB00550075}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>Q51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00850098-00CE-4B01-8A11-00CB008000AB}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>S51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00A10041-0066-472D-A8EA-005A00BB0052}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00280075-0064-46B2-8AD5-006800ED004B}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>W51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{0026009E-0044-4F7B-BF42-00DB003000B9}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>Q59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{008A004A-00F3-4B38-8318-005A006900C4}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>S59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{0057007D-00BF-4E0B-BD35-007E00A500AE}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>Q60:T60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00030086-00FA-444A-AAA7-008400E600AC}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>W61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{006A00CB-007B-45A5-B85A-00DC0061002A}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>X61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00C700A7-007A-4519-93EC-002F002600E4}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>V63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00900081-0021-4BE4-9BB0-00A30025001F}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>X63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{002A0054-0075-4B00-8B3C-00EE00060007}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>X63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{009000E6-009B-40AB-A5B5-00D0003000D6}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>X65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00AE00A2-0053-4A8F-A244-00AC001500C1}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U67</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{006D00EC-005A-4166-A496-00D900450078}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U69:X69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{0026008B-0012-4950-A0AC-00BE00DB0060}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U71:X71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00B8007E-0088-45F6-91A2-00A2005B0043}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U73:X73</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00F700DC-0034-4E7E-A271-0092002B009E}">
+            <xm:f>$F4=1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor theme="1"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U73:X73</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00A8009C-0071-450C-894D-001F00240023}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="30" disablePrompts="0">
+        <x14:dataValidation xr:uid="{0070004E-0040-440F-B0E4-005300B5007A}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q4:AD30 Y31:AD31 Q32:AD32 V33:AD33 Q34:AD105</xm:sqref>
+          <xm:sqref>Q4:AD30 Y31:AD31 Q32:AD32 V33:AD33 Q34:AD40 R41:AD41 Q42:AD46 Q47:R47 V47 X47:AD47 Q48:AD50 Y51:AD51 Q52:AD58 R59 T59:AD59 U60:AD60 Q61:V61 Y61:AD61 Q62:AD62 Q63:U63 W63 Y63:AD63 Q64:AD64 Q65:W65 Y65:AD65 Q66:AD66 Q67:T67 V67:AD67 Q68:AD68 Q69:T69 Y69:AD69 Q70:AD70 Q71:T71 Y71:AD71 Q72:AD72 Q73:T73 Y73:AD73 Q74:AD105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0047009C-006F-408F-B8B9-0026003E00B6}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00620091-005B-4F1F-AE2A-00D0000C001B}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND($F4=1,K4&gt;=0,K4&lt;256)</xm:f>
           </x14:formula1>
           <xm:sqref>K4:M8 K10:M10 K12:M20 K22:M105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C00092-00AA-46F9-B0E7-004C002F0087}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005A0065-00CF-4ABC-9D3F-0050003400B6}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND(F4=2,J4&gt;0)</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J29 J31 J32:J105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00210096-0099-48FE-A12C-00DD00A000DF}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A6006F-0064-402C-B54B-008800F700FA}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>2</xm:f>
           </x14:formula2>
-          <xm:sqref>F4:F13 F20:F105</xm:sqref>
+          <xm:sqref>F4:F13 F20:F60 F63:F105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DC0072-00CF-4826-B065-003200B500BD}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{001E0098-00D4-4E03-B596-008600C30019}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1024</xm:f>
           </x14:formula1>
           <xm:sqref>A4 C4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008F00E3-00A9-4307-B307-000D0098000D}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007B0062-001A-43C4-9267-0089006900E1}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>768</xm:f>
           </x14:formula1>
           <xm:sqref>B4 D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B90093-00B8-40DA-8DD7-0026003000D9}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007B0065-008D-4881-8240-002800B2004E}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>AF4:AR105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C70078-0015-4F0A-9BCA-007F00700059}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006A0056-0063-4F51-86C6-00F400ED0084}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -30340,23 +31492,143 @@
           </x14:formula2>
           <xm:sqref>F14:F19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008600CD-0003-4D79-AE9D-009100AA00CA}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00920047-002B-4FB1-8B9D-009300DD0026}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F5=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q31:X31</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005D0032-0006-4584-9B81-002200DA009B}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003900D4-00F4-42EB-ACF3-009200D00094}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F8=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q33:T33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006A00CA-00C2-4611-B697-002F00580036}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000D00A4-00AA-4F89-85FB-004400FC00A7}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F8=2</xm:f>
           </x14:formula1>
           <xm:sqref>U33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00220053-0014-48FB-B429-00BE00980097}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F6=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q41</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00A60035-0093-4312-BF57-004B00E600F1}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F4=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>S47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00630088-00D3-4CBC-9591-00FF00C80063}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F4=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>T47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{000E0066-0030-4A76-9BCF-008C00CC00CF}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F4=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>U47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{002A00E5-004A-4838-92CA-00F7002400C8}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F4=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>W47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{002700E9-0002-40C4-8541-00CD00310031}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F6=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q59</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{008C00EA-00FE-4FBC-860A-007600E900CA}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F6=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>S59</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{006E004F-004A-46A6-A395-00E4007600CA}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F6=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q60:T60</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00C100D1-0017-4790-893D-00320046006E}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F4=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>W61</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{006B0034-00EE-40A0-B934-0004009E0048}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F4=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>X61</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{0072001F-00DC-44A8-9BBF-00F200AA00D7}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>2</xm:f>
+          </x14:formula2>
+          <xm:sqref>F61</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00BD0068-0002-494E-A787-00B300040053}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>2</xm:f>
+          </x14:formula2>
+          <xm:sqref>F62</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00FA009A-0035-4FB1-804A-0064009A0048}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F6=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>V63</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{006400DE-003A-468D-A137-0006009F00D3}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F6=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>X63</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{000000FF-0017-45AD-850B-00F700D000E4}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F4=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>X65</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00FD0026-0061-46B5-A299-00F900B2001B}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F4=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>U67</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{009200A7-0071-41BF-8EC2-00D6008A00FB}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F4=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>U69:X69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00CC0001-00E4-45E8-A628-000600AD0010}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F4=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>U71:X71</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{002A0062-0058-440F-BB53-005900F800B5}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>$F6=2</xm:f>
+          </x14:formula1>
+          <xm:sqref>U73:X73</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Template KOORDINAT.xlsx
+++ b/Template KOORDINAT.xlsx
@@ -5620,8 +5620,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="poltek" id="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}"/>
-  <person displayName="Neny" id="{9C138838-7C3A-442B-AC2C-640F2A8A35C3}"/>
+  <person displayName="poltek" id="{4D33DE20-2BA8-1266-C079-666A0381B99B}"/>
+  <person displayName="Neny" id="{EF6F0644-9FBB-98BC-F9D3-661FA3A312E2}"/>
 </personList>
 </file>
 
@@ -6119,516 +6119,516 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F11" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{002500E1-00B8-415B-B628-00BC00C1008B}" done="0">
+  <threadedComment ref="F11" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{002500E1-00B8-415B-B628-00BC00C1008B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F101" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E800CE-007E-426B-B7E5-007C0091000C}" done="0">
+  <threadedComment ref="F101" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E800CE-007E-426B-B7E5-007C0091000C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F102" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E000F6-00AF-4CED-A227-008A00F2001C}" done="0">
+  <threadedComment ref="F102" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E000F6-00AF-4CED-A227-008A00F2001C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F103" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{003D0069-00A4-4EB2-9FF8-00C900CF008C}" done="0">
+  <threadedComment ref="F103" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{003D0069-00A4-4EB2-9FF8-00C900CF008C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F104" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E900E6-0010-43DD-BD1C-002F00250065}" done="0">
+  <threadedComment ref="F104" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E900E6-0010-43DD-BD1C-002F00250065}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F105" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00FE00F5-001D-42E1-AB80-004F006300A1}" done="0">
+  <threadedComment ref="F105" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00FE00F5-001D-42E1-AB80-004F006300A1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F12" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00BB00DD-0073-4E2E-8E5F-007C007F0010}" done="0">
+  <threadedComment ref="F12" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00BB00DD-0073-4E2E-8E5F-007C007F0010}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F13" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00B00031-00C9-4E4A-A3B5-006000A60042}" done="0">
+  <threadedComment ref="F13" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00B00031-00C9-4E4A-A3B5-006000A60042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F14" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{001200B5-0057-4871-9B75-0071006000EE}" done="0">
+  <threadedComment ref="F14" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{001200B5-0057-4871-9B75-0071006000EE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F15" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0032009A-0014-4A22-A6AB-001F000500BA}" done="0">
+  <threadedComment ref="F15" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0032009A-0014-4A22-A6AB-001F000500BA}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F16" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00CC007D-000D-4589-9961-003000160093}" done="0">
+  <threadedComment ref="F16" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00CC007D-000D-4589-9961-003000160093}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F17" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009400AE-00F2-4CA6-B8A9-00C000DD00B4}" done="0">
+  <threadedComment ref="F17" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009400AE-00F2-4CA6-B8A9-00C000DD00B4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F18" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{003100D6-0016-4C77-B58E-0060001F0052}" done="0">
+  <threadedComment ref="F18" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{003100D6-0016-4C77-B58E-0060001F0052}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F19" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009D0070-0067-450A-847F-00CD00F5001B}" done="0">
+  <threadedComment ref="F19" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009D0070-0067-450A-847F-00CD00F5001B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F20" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{006100D3-00DC-44AD-B91D-005F00A0007E}" done="0">
+  <threadedComment ref="F20" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{006100D3-00DC-44AD-B91D-005F00A0007E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F21" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D800F4-000E-4F86-A2C7-0060009400B9}" done="0">
+  <threadedComment ref="F21" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D800F4-000E-4F86-A2C7-0060009400B9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F22" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{008500D6-0072-416A-8A43-009C0054002E}" done="0">
+  <threadedComment ref="F22" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{008500D6-0072-416A-8A43-009C0054002E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F23" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0089000F-0033-470B-91DC-00C300A40067}" done="0">
+  <threadedComment ref="F23" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0089000F-0033-470B-91DC-00C300A40067}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F24" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{000400E2-0064-464B-8D0F-0091006E00D3}" done="0">
+  <threadedComment ref="F24" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{000400E2-0064-464B-8D0F-0091006E00D3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F25" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{007E0057-0058-4C50-ABEF-0064004200F8}" done="0">
+  <threadedComment ref="F25" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{007E0057-0058-4C50-ABEF-0064004200F8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F26" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00CC009C-00FA-4C65-A1BB-002300F300AC}" done="0">
+  <threadedComment ref="F26" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00CC009C-00FA-4C65-A1BB-002300F300AC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F27" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00650033-004D-4692-A5AE-003E005F009E}" done="0">
+  <threadedComment ref="F27" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00650033-004D-4692-A5AE-003E005F009E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F28" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0021000B-00C8-4428-929E-00E600C400BB}" done="0">
+  <threadedComment ref="F28" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0021000B-00C8-4428-929E-00E600C400BB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F29" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{007300D9-00F6-41C7-A088-009F006F000A}" done="0">
+  <threadedComment ref="F29" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{007300D9-00F6-41C7-A088-009F006F000A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F30" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0094001B-0027-40F6-BD3E-008A00FC00E9}" done="0">
+  <threadedComment ref="F30" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0094001B-0027-40F6-BD3E-008A00FC00E9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="E4" personId="{9C138838-7C3A-442B-AC2C-640F2A8A35C3}" id="{0061007E-0071-4BA6-9081-003E00590086}" done="0">
+  <threadedComment ref="E4" personId="{EF6F0644-9FBB-98BC-F9D3-661FA3A312E2}" id="{0061007E-0071-4BA6-9081-003E00590086}" done="0">
     <text xml:space="preserve">isi dengan jumlah piksel yang Anda inginkan untuk tiap milimeter
 </text>
   </threadedComment>
-  <threadedComment ref="F4" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0036007E-0073-472C-A977-006800640035}" done="0">
+  <threadedComment ref="F4" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0036007E-0073-472C-A977-006800640035}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F31" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00FE001C-006A-4714-A502-0091001E00E2}" done="0">
+  <threadedComment ref="F31" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00FE001C-006A-4714-A502-0091001E00E2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F32" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005400F1-0067-41CE-AAFA-004C00A70066}" done="0">
+  <threadedComment ref="F32" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005400F1-0067-41CE-AAFA-004C00A70066}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F33" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D500C8-00EC-4DA0-B06B-006D002F00C0}" done="0">
+  <threadedComment ref="F33" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D500C8-00EC-4DA0-B06B-006D002F00C0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F34" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{008500B3-00B1-44A3-BB57-003300300050}" done="0">
+  <threadedComment ref="F34" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{008500B3-00B1-44A3-BB57-003300300050}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F35" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{001500E2-004A-47AE-BD1F-002E004400CF}" done="0">
+  <threadedComment ref="F35" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{001500E2-004A-47AE-BD1F-002E004400CF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F36" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00560014-0063-4696-B651-0072002E00F1}" done="0">
+  <threadedComment ref="F36" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00560014-0063-4696-B651-0072002E00F1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F37" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00BE0009-0085-4D6D-8376-00BD00810093}" done="0">
+  <threadedComment ref="F37" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00BE0009-0085-4D6D-8376-00BD00810093}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F38" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00BD00DD-00EE-44ED-85E2-003B003C00B5}" done="0">
+  <threadedComment ref="F38" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00BD00DD-00EE-44ED-85E2-003B003C00B5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F39" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{004700F6-0083-4255-BBDD-00A1000B0033}" done="0">
+  <threadedComment ref="F39" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{004700F6-0083-4255-BBDD-00A1000B0033}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F40" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005F009E-001A-40CC-8D4D-0006006800B1}" done="0">
+  <threadedComment ref="F40" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005F009E-001A-40CC-8D4D-0006006800B1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F5" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009500C7-009B-4EE0-AEF2-0092005B009C}" done="0">
+  <threadedComment ref="F5" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009500C7-009B-4EE0-AEF2-0092005B009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F41" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00240082-00CA-42F1-9880-00ED000200D7}" done="0">
+  <threadedComment ref="F41" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00240082-00CA-42F1-9880-00ED000200D7}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F42" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00570071-00FC-4DA6-A267-0005002300D5}" done="0">
+  <threadedComment ref="F42" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00570071-00FC-4DA6-A267-0005002300D5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F43" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{002E008F-003D-4C92-B908-009F00780064}" done="0">
+  <threadedComment ref="F43" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{002E008F-003D-4C92-B908-009F00780064}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F44" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0095000D-00FF-46BD-930B-003800220098}" done="0">
+  <threadedComment ref="F44" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0095000D-00FF-46BD-930B-003800220098}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F45" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00990017-00DC-48C4-82D3-005A00FA0002}" done="0">
+  <threadedComment ref="F45" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00990017-00DC-48C4-82D3-005A00FA0002}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F46" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{007D00FC-0035-4218-96B1-00C3001C00FF}" done="0">
+  <threadedComment ref="F46" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{007D00FC-0035-4218-96B1-00C3001C00FF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F47" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0070006E-003D-42D8-9D0E-00AD009B00AD}" done="0">
+  <threadedComment ref="F47" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0070006E-003D-42D8-9D0E-00AD009B00AD}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F48" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00A700B1-00F5-44A5-9B3A-00E800A6005F}" done="0">
+  <threadedComment ref="F48" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00A700B1-00F5-44A5-9B3A-00E800A6005F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F49" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E6004C-00B1-4CE7-A393-009A000B00EF}" done="0">
+  <threadedComment ref="F49" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E6004C-00B1-4CE7-A393-009A000B00EF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F50" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00F20063-0088-4645-82C4-008B001000CE}" done="0">
+  <threadedComment ref="F50" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00F20063-0088-4645-82C4-008B001000CE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F6" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00AD006C-009F-414E-A478-003100110023}" done="0">
+  <threadedComment ref="F6" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00AD006C-009F-414E-A478-003100110023}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F51" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{003A0092-007B-434A-8AE6-00C900550045}" done="0">
+  <threadedComment ref="F51" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{003A0092-007B-434A-8AE6-00C900550045}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F52" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00AC0054-003A-40DE-9700-00ED002D0086}" done="0">
+  <threadedComment ref="F52" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00AC0054-003A-40DE-9700-00ED002D0086}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F53" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{008B0081-00F6-4868-B8C9-009300E0004A}" done="0">
+  <threadedComment ref="F53" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{008B0081-00F6-4868-B8C9-009300E0004A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F54" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00970002-00F4-4452-BF03-008700B20007}" done="0">
+  <threadedComment ref="F54" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00970002-00F4-4452-BF03-008700B20007}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F55" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00CD00CD-0015-4B47-9901-008200CC0049}" done="0">
+  <threadedComment ref="F55" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00CD00CD-0015-4B47-9901-008200CC0049}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F56" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{003F00CD-0090-45F5-BEFB-003B00BB0042}" done="0">
+  <threadedComment ref="F56" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{003F00CD-0090-45F5-BEFB-003B00BB0042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F57" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005E0063-004F-4D56-9B30-00CE00600070}" done="0">
+  <threadedComment ref="F57" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005E0063-004F-4D56-9B30-00CE00600070}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F58" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{002800EB-00B6-44DF-BEDF-00B300EB0001}" done="0">
+  <threadedComment ref="F58" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{002800EB-00B6-44DF-BEDF-00B300EB0001}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F59" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00C40096-0089-4182-B76B-00BB006D0082}" done="0">
+  <threadedComment ref="F59" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00C40096-0089-4182-B76B-00BB006D0082}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F60" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D20078-00B2-4562-AD8B-00E500D20044}" done="0">
+  <threadedComment ref="F60" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D20078-00B2-4562-AD8B-00E500D20044}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F7" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009600C6-000D-4695-AD6A-00AA00460012}" done="0">
+  <threadedComment ref="F7" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009600C6-000D-4695-AD6A-00AA00460012}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F61" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00B200FF-00D5-4A30-9BF7-00EA007A00F8}" done="0">
+  <threadedComment ref="F61" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00B200FF-00D5-4A30-9BF7-00EA007A00F8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F62" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00880089-0011-4F44-8646-007B00BB0042}" done="0">
+  <threadedComment ref="F62" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00880089-0011-4F44-8646-007B00BB0042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F63" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00320017-0039-4020-A31A-00C1006E00E3}" done="0">
+  <threadedComment ref="F63" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00320017-0039-4020-A31A-00C1006E00E3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F64" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00C700AA-0061-48CF-AC77-009B00C1007F}" done="0">
+  <threadedComment ref="F64" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00C700AA-0061-48CF-AC77-009B00C1007F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F65" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00AC00BD-009E-4F69-9DA5-009F009400DB}" done="0">
+  <threadedComment ref="F65" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00AC00BD-009E-4F69-9DA5-009F009400DB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F66" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{002D0025-00FA-484A-B277-007100380059}" done="0">
+  <threadedComment ref="F66" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{002D0025-00FA-484A-B277-007100380059}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F67" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009E00BC-008A-421F-8CD1-007300E60069}" done="0">
+  <threadedComment ref="F67" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009E00BC-008A-421F-8CD1-007300E60069}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F68" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009400E2-005D-42B8-AEAC-00B20057004C}" done="0">
+  <threadedComment ref="F68" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009400E2-005D-42B8-AEAC-00B20057004C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F69" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00790007-005D-4620-A635-009F008100F1}" done="0">
+  <threadedComment ref="F69" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00790007-005D-4620-A635-009F008100F1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F70" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00DB000D-003C-4972-A55A-001700780095}" done="0">
+  <threadedComment ref="F70" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00DB000D-003C-4972-A55A-001700780095}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F8" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005600E1-0021-450A-A907-006500800023}" done="0">
+  <threadedComment ref="F8" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005600E1-0021-450A-A907-006500800023}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F71" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E200C4-0054-45F0-869E-007100930078}" done="0">
+  <threadedComment ref="F71" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E200C4-0054-45F0-869E-007100930078}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F72" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0056006F-0044-41C1-9237-003D006400D5}" done="0">
+  <threadedComment ref="F72" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0056006F-0044-41C1-9237-003D006400D5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F73" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E5000A-0043-45C2-AB43-0036008600BC}" done="0">
+  <threadedComment ref="F73" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E5000A-0043-45C2-AB43-0036008600BC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F74" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00080024-0009-4C90-9AA6-0028006F00C3}" done="0">
+  <threadedComment ref="F74" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00080024-0009-4C90-9AA6-0028006F00C3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F75" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00BF006F-00FD-40E9-BF62-00380095009C}" done="0">
+  <threadedComment ref="F75" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00BF006F-00FD-40E9-BF62-00380095009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F76" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00AC0078-0023-42F0-896E-00B400AC0061}" done="0">
+  <threadedComment ref="F76" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00AC0078-0023-42F0-896E-00B400AC0061}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F77" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00B40051-00E4-4EF1-AC80-00DA00AE00A9}" done="0">
+  <threadedComment ref="F77" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00B40051-00E4-4EF1-AC80-00DA00AE00A9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F78" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{001F00EB-00A6-4182-93A2-008200790053}" done="0">
+  <threadedComment ref="F78" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{001F00EB-00A6-4182-93A2-008200790053}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F79" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{008200E4-001B-4421-88B8-00AC0024003B}" done="0">
+  <threadedComment ref="F79" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{008200E4-001B-4421-88B8-00AC0024003B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F80" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00650063-001C-47BC-8F07-00A4009800C7}" done="0">
+  <threadedComment ref="F80" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00650063-001C-47BC-8F07-00A4009800C7}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F9" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00750071-0023-4422-9A66-00D1003D00CB}" done="0">
+  <threadedComment ref="F9" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00750071-0023-4422-9A66-00D1003D00CB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F81" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D4003E-0044-4199-9D3C-005900F3009C}" done="0">
+  <threadedComment ref="F81" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D4003E-0044-4199-9D3C-005900F3009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F82" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00CC000B-00DD-4305-8A0B-00F900EA0068}" done="0">
+  <threadedComment ref="F82" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00CC000B-00DD-4305-8A0B-00F900EA0068}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F83" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00970097-00E6-43CC-8851-008300AF0076}" done="0">
+  <threadedComment ref="F83" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00970097-00E6-43CC-8851-008300AF0076}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F84" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{002800BB-00C4-478C-BCF0-005300690023}" done="0">
+  <threadedComment ref="F84" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{002800BB-00C4-478C-BCF0-005300690023}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F85" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00C10025-0085-4258-BBAF-0047001400B7}" done="0">
+  <threadedComment ref="F85" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00C10025-0085-4258-BBAF-0047001400B7}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F86" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00720040-0056-4BFC-BE0B-004A001E006F}" done="0">
+  <threadedComment ref="F86" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00720040-0056-4BFC-BE0B-004A001E006F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F87" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00CD0068-003B-48A9-B257-00A400C30005}" done="0">
+  <threadedComment ref="F87" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00CD0068-003B-48A9-B257-00A400C30005}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F88" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00380059-00CD-4680-903F-001200BC00A4}" done="0">
+  <threadedComment ref="F88" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00380059-00CD-4680-903F-001200BC00A4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F89" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009500FB-00AD-4626-8417-008800A000E1}" done="0">
+  <threadedComment ref="F89" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009500FB-00AD-4626-8417-008800A000E1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F90" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00A1003A-004A-469B-ACBF-000A004500CC}" done="0">
+  <threadedComment ref="F90" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00A1003A-004A-469B-ACBF-000A004500CC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F10" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00BE0084-00DB-4A19-AD4C-007200DE000E}" done="0">
+  <threadedComment ref="F10" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00BE0084-00DB-4A19-AD4C-007200DE000E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F91" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0046004F-0047-4C64-87E5-00EE00970097}" done="0">
+  <threadedComment ref="F91" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0046004F-0047-4C64-87E5-00EE00970097}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F92" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005100A3-007B-4685-8AC8-008000D800E8}" done="0">
+  <threadedComment ref="F92" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005100A3-007B-4685-8AC8-008000D800E8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F93" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{000600FD-0053-45F8-A391-001900AD00C0}" done="0">
+  <threadedComment ref="F93" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{000600FD-0053-45F8-A391-001900AD00C0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F94" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E10009-0042-404A-9F0C-00BD006F0031}" done="0">
+  <threadedComment ref="F94" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E10009-0042-404A-9F0C-00BD006F0031}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F95" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00270083-0048-4D3F-9E3F-00F900F700D9}" done="0">
+  <threadedComment ref="F95" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00270083-0048-4D3F-9E3F-00F900F700D9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F96" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{003F00F7-00D8-427E-9913-003500030020}" done="0">
+  <threadedComment ref="F96" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{003F00F7-00D8-427E-9913-003500030020}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F97" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00960084-0098-4664-BC96-009B00110086}" done="0">
+  <threadedComment ref="F97" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00960084-0098-4664-BC96-009B00110086}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F98" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005C0033-00EA-4983-B8DA-00E100410007}" done="0">
+  <threadedComment ref="F98" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005C0033-00EA-4983-B8DA-00E100410007}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F99" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00950047-001D-4E75-8932-009A002C00E1}" done="0">
+  <threadedComment ref="F99" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00950047-001D-4E75-8932-009A002C00E1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F100" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00DB00DE-0033-4655-BFAD-003B007C0021}" done="0">
+  <threadedComment ref="F100" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00DB00DE-0033-4655-BFAD-003B007C0021}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
@@ -6638,516 +6638,516 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F11" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0019003E-00DD-4011-9D56-005900790044}" done="0">
+  <threadedComment ref="F11" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0019003E-00DD-4011-9D56-005900790044}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F101" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00EB00FE-009E-4709-904D-006B001F001E}" done="0">
+  <threadedComment ref="F101" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00EB00FE-009E-4709-904D-006B001F001E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F102" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D700D5-0053-4DB6-9621-000B009800CB}" done="0">
+  <threadedComment ref="F102" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D700D5-0053-4DB6-9621-000B009800CB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F103" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{008800FF-0055-4844-ACC2-0076001100CF}" done="0">
+  <threadedComment ref="F103" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{008800FF-0055-4844-ACC2-0076001100CF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F104" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005400F9-006F-4035-AAB7-0030005800CE}" done="0">
+  <threadedComment ref="F104" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005400F9-006F-4035-AAB7-0030005800CE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F105" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00CD0083-00F4-4E02-AC89-00F60064008E}" done="0">
+  <threadedComment ref="F105" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00CD0083-00F4-4E02-AC89-00F60064008E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F12" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00B1001A-00E3-40E1-9E1D-000D008E008D}" done="0">
+  <threadedComment ref="F12" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00B1001A-00E3-40E1-9E1D-000D008E008D}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F13" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00B400C0-00D5-40E5-8A1A-00D5009000F4}" done="0">
+  <threadedComment ref="F13" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00B400C0-00D5-40E5-8A1A-00D5009000F4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F14" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00EE00B7-008D-485F-AA06-009400F0002D}" done="0">
+  <threadedComment ref="F14" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00EE00B7-008D-485F-AA06-009400F0002D}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F15" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{002E00C1-0009-4AA1-A21E-008600AD00F1}" done="0">
+  <threadedComment ref="F15" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{002E00C1-0009-4AA1-A21E-008600AD00F1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F16" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00A5002A-008B-4DB1-9909-007100CE0097}" done="0">
+  <threadedComment ref="F16" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00A5002A-008B-4DB1-9909-007100CE0097}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F17" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{000200B5-009D-4FD4-8618-00DD00FF001C}" done="0">
+  <threadedComment ref="F17" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{000200B5-009D-4FD4-8618-00DD00FF001C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F18" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00C700DB-001C-43D6-B0B8-00650049008E}" done="0">
+  <threadedComment ref="F18" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00C700DB-001C-43D6-B0B8-00650049008E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F19" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00020099-007C-4D6A-AB89-00BB006100C9}" done="0">
+  <threadedComment ref="F19" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00020099-007C-4D6A-AB89-00BB006100C9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F20" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00B200A1-00A5-4B96-8E58-007B000A004A}" done="0">
+  <threadedComment ref="F20" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00B200A1-00A5-4B96-8E58-007B000A004A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F21" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00AA007B-0069-441C-B70A-00B3007F00A4}" done="0">
+  <threadedComment ref="F21" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00AA007B-0069-441C-B70A-00B3007F00A4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F22" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00C50050-0073-40FC-9B5F-009800E000B2}" done="0">
+  <threadedComment ref="F22" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00C50050-0073-40FC-9B5F-009800E000B2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F23" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D20041-00C8-4C87-93B6-002F000B00D5}" done="0">
+  <threadedComment ref="F23" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D20041-00C8-4C87-93B6-002F000B00D5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F24" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0006001B-006F-4061-88D4-00CE00BC00D3}" done="0">
+  <threadedComment ref="F24" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0006001B-006F-4061-88D4-00CE00BC00D3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F25" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00EA00B5-00FA-4937-A378-007F00CE00EE}" done="0">
+  <threadedComment ref="F25" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00EA00B5-00FA-4937-A378-007F00CE00EE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F26" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0096009B-00C3-4BC1-BF79-0073004D00DA}" done="0">
+  <threadedComment ref="F26" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0096009B-00C3-4BC1-BF79-0073004D00DA}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F27" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00660028-0017-4593-8105-00D500CA00CF}" done="0">
+  <threadedComment ref="F27" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00660028-0017-4593-8105-00D500CA00CF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F28" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0054003B-00EA-4C66-B79C-00CF00F600D3}" done="0">
+  <threadedComment ref="F28" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0054003B-00EA-4C66-B79C-00CF00F600D3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F29" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{008E00DA-0015-49B4-A1FF-005F00BA00B8}" done="0">
+  <threadedComment ref="F29" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{008E00DA-0015-49B4-A1FF-005F00BA00B8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F30" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00DF00B9-00FF-4510-8F78-0064004D0062}" done="0">
+  <threadedComment ref="F30" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00DF00B9-00FF-4510-8F78-0064004D0062}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="E4" personId="{9C138838-7C3A-442B-AC2C-640F2A8A35C3}" id="{007900C2-005E-48A6-8CBD-0036008F00C9}" done="0">
+  <threadedComment ref="E4" personId="{EF6F0644-9FBB-98BC-F9D3-661FA3A312E2}" id="{007900C2-005E-48A6-8CBD-0036008F00C9}" done="0">
     <text xml:space="preserve">isi dengan jumlah piksel yang Anda inginkan untuk tiap milimeter
 </text>
   </threadedComment>
-  <threadedComment ref="F4" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0034000F-00E9-4A7B-BC67-00AE00910055}" done="0">
+  <threadedComment ref="F4" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0034000F-00E9-4A7B-BC67-00AE00910055}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F31" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E600E5-00FE-4E84-9545-0024006F00A3}" done="0">
+  <threadedComment ref="F31" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E600E5-00FE-4E84-9545-0024006F00A3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F32" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0012003B-00C3-4448-86A4-000A0049004B}" done="0">
+  <threadedComment ref="F32" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0012003B-00C3-4448-86A4-000A0049004B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F33" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00240072-0031-4FCF-8345-006E00710052}" done="0">
+  <threadedComment ref="F33" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00240072-0031-4FCF-8345-006E00710052}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F34" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00AD0072-00EF-4B0A-904A-00DF002000C2}" done="0">
+  <threadedComment ref="F34" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00AD0072-00EF-4B0A-904A-00DF002000C2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F35" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00DF00C8-00EA-4D94-8C52-00050096005E}" done="0">
+  <threadedComment ref="F35" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00DF00C8-00EA-4D94-8C52-00050096005E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F36" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E8008E-0075-4E96-BD3B-003A00D20034}" done="0">
+  <threadedComment ref="F36" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E8008E-0075-4E96-BD3B-003A00D20034}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F37" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00F000DA-0053-4C2E-B776-00E100FD00E6}" done="0">
+  <threadedComment ref="F37" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00F000DA-0053-4C2E-B776-00E100FD00E6}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F38" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0007002B-00A0-47A9-A420-002E00BA0073}" done="0">
+  <threadedComment ref="F38" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0007002B-00A0-47A9-A420-002E00BA0073}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F39" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{004E00A9-00B1-451A-A379-00E900300036}" done="0">
+  <threadedComment ref="F39" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{004E00A9-00B1-451A-A379-00E900300036}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F40" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00400002-0059-4D59-A276-00CB00E40084}" done="0">
+  <threadedComment ref="F40" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00400002-0059-4D59-A276-00CB00E40084}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F5" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00AA0075-00D0-4936-8B93-00F600E30056}" done="0">
+  <threadedComment ref="F5" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00AA0075-00D0-4936-8B93-00F600E30056}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F41" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{007A003A-0052-4D44-BE5F-002700A3008A}" done="0">
+  <threadedComment ref="F41" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{007A003A-0052-4D44-BE5F-002700A3008A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F42" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005900EB-00EE-41D5-BBC7-004500230082}" done="0">
+  <threadedComment ref="F42" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005900EB-00EE-41D5-BBC7-004500230082}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F43" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0066006C-0075-4910-9BBE-007300B600D2}" done="0">
+  <threadedComment ref="F43" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0066006C-0075-4910-9BBE-007300B600D2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F44" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00BD0039-0060-4A32-A1FA-00EB00620059}" done="0">
+  <threadedComment ref="F44" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00BD0039-0060-4A32-A1FA-00EB00620059}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F45" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{003600C2-002B-4BB3-94AF-00F000610003}" done="0">
+  <threadedComment ref="F45" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{003600C2-002B-4BB3-94AF-00F000610003}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F46" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00C8007C-00BE-4CF5-A05E-00D30007004E}" done="0">
+  <threadedComment ref="F46" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00C8007C-00BE-4CF5-A05E-00D30007004E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F47" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00BE00EB-0060-4465-86B7-00F400EF0075}" done="0">
+  <threadedComment ref="F47" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00BE00EB-0060-4465-86B7-00F400EF0075}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F48" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{003A00B1-0087-4036-9277-004D00D600C2}" done="0">
+  <threadedComment ref="F48" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{003A00B1-0087-4036-9277-004D00D600C2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F49" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{001B00D1-0043-47CD-B36D-008100A200E8}" done="0">
+  <threadedComment ref="F49" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{001B00D1-0043-47CD-B36D-008100A200E8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F50" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D80008-00BB-4263-8E96-003F00A4004A}" done="0">
+  <threadedComment ref="F50" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D80008-00BB-4263-8E96-003F00A4004A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F6" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{001E00CE-0048-475C-8F03-005D00FC00AB}" done="0">
+  <threadedComment ref="F6" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{001E00CE-0048-475C-8F03-005D00FC00AB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F51" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{008A008F-00C4-42A2-9BB4-0012001B001F}" done="0">
+  <threadedComment ref="F51" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{008A008F-00C4-42A2-9BB4-0012001B001F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F52" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009F004E-00F7-4254-A488-002600110066}" done="0">
+  <threadedComment ref="F52" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009F004E-00F7-4254-A488-002600110066}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F53" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00F400D7-00E7-4B49-837A-00DF008D009C}" done="0">
+  <threadedComment ref="F53" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00F400D7-00E7-4B49-837A-00DF008D009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F54" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009B005D-00D2-427C-969A-0004003400E3}" done="0">
+  <threadedComment ref="F54" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009B005D-00D2-427C-969A-0004003400E3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F55" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0099001A-0080-4833-A44C-00F1006F00ED}" done="0">
+  <threadedComment ref="F55" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0099001A-0080-4833-A44C-00F1006F00ED}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F56" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D40085-001B-4138-9210-00CC00400091}" done="0">
+  <threadedComment ref="F56" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D40085-001B-4138-9210-00CC00400091}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F57" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{002E00E5-00AA-4A4B-885A-00D3006400A8}" done="0">
+  <threadedComment ref="F57" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{002E00E5-00AA-4A4B-885A-00D3006400A8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F58" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00A900F6-00CA-4FBB-A637-006D00E900DE}" done="0">
+  <threadedComment ref="F58" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00A900F6-00CA-4FBB-A637-006D00E900DE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F59" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00F90006-0053-4D67-A51B-003900E70039}" done="0">
+  <threadedComment ref="F59" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00F90006-0053-4D67-A51B-003900E70039}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F60" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009600A0-0064-49EE-9A88-00DF00D30094}" done="0">
+  <threadedComment ref="F60" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009600A0-0064-49EE-9A88-00DF00D30094}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F7" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00FB0041-006D-481D-B14B-0088007300C8}" done="0">
+  <threadedComment ref="F7" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00FB0041-006D-481D-B14B-0088007300C8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F61" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00B100BB-004B-4978-8955-005500AE0057}" done="0">
+  <threadedComment ref="F61" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00B100BB-004B-4978-8955-005500AE0057}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F62" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00DC0093-0025-4048-A61E-001E00F40032}" done="0">
+  <threadedComment ref="F62" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00DC0093-0025-4048-A61E-001E00F40032}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F63" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009E007C-0048-45D6-A57A-00A8007200F8}" done="0">
+  <threadedComment ref="F63" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009E007C-0048-45D6-A57A-00A8007200F8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F64" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00C900D3-00F2-4872-AAF9-00B1000400BB}" done="0">
+  <threadedComment ref="F64" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00C900D3-00F2-4872-AAF9-00B1000400BB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F65" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00A600C9-0097-4674-BC98-00DB002800A0}" done="0">
+  <threadedComment ref="F65" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00A600C9-0097-4674-BC98-00DB002800A0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F66" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{000500AF-00D3-450D-A721-004000E8008B}" done="0">
+  <threadedComment ref="F66" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{000500AF-00D3-450D-A721-004000E8008B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F67" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005A00B9-0067-4B9F-8A50-00EB00570045}" done="0">
+  <threadedComment ref="F67" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005A00B9-0067-4B9F-8A50-00EB00570045}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F68" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00FC00A7-0005-495C-9302-0032006A006C}" done="0">
+  <threadedComment ref="F68" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00FC00A7-0005-495C-9302-0032006A006C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F69" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00A50048-00DE-4A19-8C0A-00140082002E}" done="0">
+  <threadedComment ref="F69" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00A50048-00DE-4A19-8C0A-00140082002E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F70" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00A200D8-0028-455C-8EBD-0078008900C6}" done="0">
+  <threadedComment ref="F70" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00A200D8-0028-455C-8EBD-0078008900C6}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F8" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00960079-0077-4F2A-82A2-00BD00C3007F}" done="0">
+  <threadedComment ref="F8" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00960079-0077-4F2A-82A2-00BD00C3007F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F71" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00DF003A-001B-4DB1-9E42-007400AC00E1}" done="0">
+  <threadedComment ref="F71" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00DF003A-001B-4DB1-9E42-007400AC00E1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F72" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00F3005C-00CA-4F2D-B387-0081004F009E}" done="0">
+  <threadedComment ref="F72" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00F3005C-00CA-4F2D-B387-0081004F009E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F73" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{007C0051-009E-4FFD-B2F5-00C600D50053}" done="0">
+  <threadedComment ref="F73" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{007C0051-009E-4FFD-B2F5-00C600D50053}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F74" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00670022-0015-4186-BA4E-009B000F0061}" done="0">
+  <threadedComment ref="F74" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00670022-0015-4186-BA4E-009B000F0061}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F75" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00500052-00E0-4AB2-9BBE-00A5009600C1}" done="0">
+  <threadedComment ref="F75" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00500052-00E0-4AB2-9BBE-00A5009600C1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F76" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00F0004F-0064-499D-801C-000700D3002F}" done="0">
+  <threadedComment ref="F76" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00F0004F-0064-499D-801C-000700D3002F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F77" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{001400B2-00F1-4DB3-9DE7-00A000150039}" done="0">
+  <threadedComment ref="F77" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{001400B2-00F1-4DB3-9DE7-00A000150039}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F78" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{002400EE-00C1-4E63-80AA-009F004E0000}" done="0">
+  <threadedComment ref="F78" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{002400EE-00C1-4E63-80AA-009F004E0000}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F79" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00A2005A-00E8-4C73-BE0C-009600930058}" done="0">
+  <threadedComment ref="F79" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00A2005A-00E8-4C73-BE0C-009600930058}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F80" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00FE004A-004D-4DC5-9616-00FE006100BC}" done="0">
+  <threadedComment ref="F80" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00FE004A-004D-4DC5-9616-00FE006100BC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F9" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00DC0029-00E7-42DB-B9C1-003400EA0062}" done="0">
+  <threadedComment ref="F9" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00DC0029-00E7-42DB-B9C1-003400EA0062}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F81" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00E200BC-0050-488A-B834-006200C90035}" done="0">
+  <threadedComment ref="F81" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E200BC-0050-488A-B834-006200C90035}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F82" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00F700FA-0046-463B-90CC-00EC005200E4}" done="0">
+  <threadedComment ref="F82" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00F700FA-0046-463B-90CC-00EC005200E4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F83" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00A8006C-009A-4446-8DF2-005000F800A8}" done="0">
+  <threadedComment ref="F83" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00A8006C-009A-4446-8DF2-005000F800A8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F84" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00BC003C-00E7-4887-9335-00BE00A00084}" done="0">
+  <threadedComment ref="F84" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00BC003C-00E7-4887-9335-00BE00A00084}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F85" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D3001D-0010-45EF-BB8A-0054009E00B0}" done="0">
+  <threadedComment ref="F85" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D3001D-0010-45EF-BB8A-0054009E00B0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F86" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00F80095-0024-4050-BFE8-002A000A0063}" done="0">
+  <threadedComment ref="F86" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00F80095-0024-4050-BFE8-002A000A0063}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F87" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0004000B-00D2-4380-8028-006600E5001D}" done="0">
+  <threadedComment ref="F87" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0004000B-00D2-4380-8028-006600E5001D}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F88" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{006100B6-00A0-44B1-954A-006400C90072}" done="0">
+  <threadedComment ref="F88" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{006100B6-00A0-44B1-954A-006400C90072}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F89" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{007E0001-00BA-4A1B-BFEA-009C000B003F}" done="0">
+  <threadedComment ref="F89" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{007E0001-00BA-4A1B-BFEA-009C000B003F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F90" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{006D000D-00B1-4850-80B6-001C002B00C4}" done="0">
+  <threadedComment ref="F90" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{006D000D-00B1-4850-80B6-001C002B00C4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F10" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00B7001B-00DB-4B45-809D-00D000730097}" done="0">
+  <threadedComment ref="F10" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00B7001B-00DB-4B45-809D-00D000730097}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F91" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{005F00B7-0068-4E20-B708-00B1008000A5}" done="0">
+  <threadedComment ref="F91" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005F00B7-0068-4E20-B708-00B1008000A5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F92" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00D2000D-008E-4F0E-889B-008D00540073}" done="0">
+  <threadedComment ref="F92" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D2000D-008E-4F0E-889B-008D00540073}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F93" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00720077-00F3-41DB-80E4-00E6002900BA}" done="0">
+  <threadedComment ref="F93" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00720077-00F3-41DB-80E4-00E6002900BA}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F94" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00C70063-00A4-4E22-8B1D-008900470066}" done="0">
+  <threadedComment ref="F94" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00C70063-00A4-4E22-8B1D-008900470066}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F95" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00EF00A4-00D5-4A7C-AA4A-001D00140024}" done="0">
+  <threadedComment ref="F95" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00EF00A4-00D5-4A7C-AA4A-001D00140024}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F96" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{007A0009-008B-48C0-98F5-007E00320029}" done="0">
+  <threadedComment ref="F96" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{007A0009-008B-48C0-98F5-007E00320029}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F97" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{00490001-00FB-48E3-A81C-008400EF00B4}" done="0">
+  <threadedComment ref="F97" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00490001-00FB-48E3-A81C-008400EF00B4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F98" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{0053002C-0058-412F-A5E0-00F5008A0042}" done="0">
+  <threadedComment ref="F98" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0053002C-0058-412F-A5E0-00F5008A0042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F99" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{004800D8-003D-401F-B7E7-0098004A006C}" done="0">
+  <threadedComment ref="F99" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{004800D8-003D-401F-B7E7-0098004A006C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F100" personId="{D8930BD0-9A61-9EF2-5C50-2DBA4A2A9D12}" id="{009600AA-0088-47E1-85DE-007F0056006F}" done="0">
+  <threadedComment ref="F100" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009600AA-0088-47E1-85DE-007F0056006F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
@@ -18416,7 +18416,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{0031002D-00BA-428F-B3BC-0096005D009C}">
+          <x14:cfRule type="expression" priority="3" id="{00CA008E-0065-413A-85B7-002400F3006D}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -18433,7 +18433,7 @@
           <xm:sqref>J4:J105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{002300E1-0054-48B7-A786-001600C500F7}">
+          <x14:cfRule type="expression" priority="2" id="{00D000F1-00E9-4A91-B066-005500890097}">
             <xm:f>$F4=2</xm:f>
             <x14:dxf>
               <font>
@@ -18450,7 +18450,7 @@
           <xm:sqref>K4:M105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00560043-00FF-42A7-AC1E-009F005F00AC}">
+          <x14:cfRule type="expression" priority="1" id="{008300BC-0059-4EA7-80DB-00B5006D00B0}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -18470,25 +18470,25 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
-        <x14:dataValidation xr:uid="{009B00C0-00EC-42FF-BA19-00B7009D0003}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00750020-00C1-4A07-A97F-005500E200BA}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>AF4:AR105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0007000A-0039-4E10-8854-000C00560049}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004100B9-00DA-45AA-8E86-004C004400B5}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>768</xm:f>
           </x14:formula1>
           <xm:sqref>B4 D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002000D9-00D3-4874-AD8F-00F2002000FE}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A900C4-0034-4BF8-8545-0042000F0063}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1024</xm:f>
           </x14:formula1>
           <xm:sqref>A4 C4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007B002F-0026-4E77-B129-00E300780032}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008C00CB-00AF-4ED2-BFB0-00F3007900A1}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -18497,19 +18497,19 @@
           </x14:formula2>
           <xm:sqref>F4:F105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001B005F-00B3-4FD2-BB32-00F200E600C4}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0097000E-00AB-40E2-8FDC-008B00200091}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND(F4=2,J4&gt;0)</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A30021-00FE-42A5-B81A-00F4006B0009}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009700DB-0040-4034-A622-0086005A00F0}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND($F4=1,K4&gt;=0,K4&lt;256)</xm:f>
           </x14:formula1>
           <xm:sqref>K4:M105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001900B3-0033-47E7-9EF6-00590013001E}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F300F0-0050-4652-A371-008B001E004F}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
@@ -30908,7 +30908,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{0081009E-0022-43BD-B24A-00F3009700AB}">
+          <x14:cfRule type="expression" priority="3" id="{00250028-0007-4D93-8D76-003B00E400C9}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30925,7 +30925,7 @@
           <xm:sqref>J4:J29 J31:J105 J31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{004D00F7-00A4-4A43-B105-004500900009}">
+          <x14:cfRule type="expression" priority="2" id="{004F00A0-00CC-4C5F-A217-00BE00B30027}">
             <xm:f>$F4=2</xm:f>
             <x14:dxf>
               <font>
@@ -30942,7 +30942,7 @@
           <xm:sqref>K4:M105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00070058-0088-40E9-BF53-006700EB000F}">
+          <x14:cfRule type="expression" priority="1" id="{00B600F1-00C4-4467-870E-00E900270026}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30959,7 +30959,7 @@
           <xm:sqref>Q4:AD50 Y51:AD51 Q52:AD105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{0090009C-004E-4CE4-BAEF-009A00B1009C}">
+          <x14:cfRule type="expression" priority="1" id="{00960027-00EE-4BCC-966C-00FD007C00E2}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30976,7 +30976,7 @@
           <xm:sqref>Q31:X31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00BB0024-0051-45B2-B303-00B3008F00E5}">
+          <x14:cfRule type="expression" priority="1" id="{0091008A-005A-416A-8B1C-0032006300D2}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30993,7 +30993,7 @@
           <xm:sqref>Q33:T33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{001C0072-008D-4A0D-B40F-0096006900E1}">
+          <x14:cfRule type="expression" priority="1" id="{003A00BC-003B-4E14-B62D-009B0048000E}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31010,7 +31010,7 @@
           <xm:sqref>U33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00FD0069-0029-4661-97D6-00D100D90078}">
+          <x14:cfRule type="expression" priority="1" id="{004C007F-0085-4669-88FF-009400A50062}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31027,7 +31027,7 @@
           <xm:sqref>U33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{0036004F-001D-4651-AE29-0080000300DA}">
+          <x14:cfRule type="expression" priority="1" id="{003D0064-00A8-4F6B-BB63-0080007D0002}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31044,7 +31044,7 @@
           <xm:sqref>Q41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00340019-00FD-4553-9CFD-00D9000200AC}">
+          <x14:cfRule type="expression" priority="1" id="{00FF0006-002D-4DF1-84BF-00A20096000B}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31061,7 +31061,7 @@
           <xm:sqref>S47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00B6008F-00CB-4D3D-87BA-005900B00066}">
+          <x14:cfRule type="expression" priority="1" id="{003F00C4-0028-41DD-AD59-006C00A10075}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31078,7 +31078,7 @@
           <xm:sqref>T47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00640003-0080-4E89-9C66-0017006000A4}">
+          <x14:cfRule type="expression" priority="1" id="{00E00082-0088-46DE-9C8F-0009005900CD}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31095,7 +31095,7 @@
           <xm:sqref>U47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{004D000C-0072-46A1-A606-002300840084}">
+          <x14:cfRule type="expression" priority="1" id="{00B600AD-0013-4CAB-A650-00AF00030005}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31112,7 +31112,7 @@
           <xm:sqref>U47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{004800FB-00C5-48E2-B174-00AC00E50074}">
+          <x14:cfRule type="expression" priority="1" id="{00F2009A-0031-4E7D-A9DD-002B005000AA}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31129,7 +31129,7 @@
           <xm:sqref>W47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00C50069-004A-4020-A5CA-00BB00550075}">
+          <x14:cfRule type="expression" priority="1" id="{00FB00EF-0041-442E-A0FE-007C000600D3}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31146,7 +31146,7 @@
           <xm:sqref>Q51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00850098-00CE-4B01-8A11-00CB008000AB}">
+          <x14:cfRule type="expression" priority="1" id="{00860059-00B4-4581-AE6E-003100F8009A}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31163,7 +31163,7 @@
           <xm:sqref>S51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00A10041-0066-472D-A8EA-005A00BB0052}">
+          <x14:cfRule type="expression" priority="1" id="{00C50018-00A4-421B-8A37-00F7000800B7}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31180,7 +31180,7 @@
           <xm:sqref>U51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00280075-0064-46B2-8AD5-006800ED004B}">
+          <x14:cfRule type="expression" priority="1" id="{00470064-00FA-4574-A9AE-0060004300F4}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31197,7 +31197,7 @@
           <xm:sqref>W51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{0026009E-0044-4F7B-BF42-00DB003000B9}">
+          <x14:cfRule type="expression" priority="1" id="{00BB0029-00E7-4621-B6F6-00F700E00000}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31214,7 +31214,7 @@
           <xm:sqref>Q59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{008A004A-00F3-4B38-8318-005A006900C4}">
+          <x14:cfRule type="expression" priority="1" id="{00C600E7-008D-490F-A65E-0034005B00DF}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31231,7 +31231,7 @@
           <xm:sqref>S59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{0057007D-00BF-4E0B-BD35-007E00A500AE}">
+          <x14:cfRule type="expression" priority="1" id="{00770076-0040-4882-ADFF-002800DE0095}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31248,7 +31248,7 @@
           <xm:sqref>Q60:T60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00030086-00FA-444A-AAA7-008400E600AC}">
+          <x14:cfRule type="expression" priority="1" id="{00D1003F-004C-42D1-8E61-00E800D60083}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31265,7 +31265,7 @@
           <xm:sqref>W61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{006A00CB-007B-45A5-B85A-00DC0061002A}">
+          <x14:cfRule type="expression" priority="1" id="{00FD000A-0029-471D-8DFB-00000036002D}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31282,7 +31282,7 @@
           <xm:sqref>X61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00C700A7-007A-4519-93EC-002F002600E4}">
+          <x14:cfRule type="expression" priority="1" id="{00600059-0044-44CB-BFA2-005D003E0084}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31299,7 +31299,7 @@
           <xm:sqref>V63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00900081-0021-4BE4-9BB0-00A30025001F}">
+          <x14:cfRule type="expression" priority="1" id="{0044001C-0086-4BC1-989A-001000810022}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31316,7 +31316,7 @@
           <xm:sqref>X63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{002A0054-0075-4B00-8B3C-00EE00060007}">
+          <x14:cfRule type="expression" priority="1" id="{007E00FF-007B-4951-AAE7-003C0004005D}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31333,7 +31333,7 @@
           <xm:sqref>X63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{009000E6-009B-40AB-A5B5-00D0003000D6}">
+          <x14:cfRule type="expression" priority="1" id="{00AD00CC-00D6-4C29-B401-00CC00FF00B1}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31350,7 +31350,7 @@
           <xm:sqref>X65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00AE00A2-0053-4A8F-A244-00AC001500C1}">
+          <x14:cfRule type="expression" priority="1" id="{0090003F-009A-406E-8E1C-004100290014}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31367,7 +31367,7 @@
           <xm:sqref>U67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{006D00EC-005A-4166-A496-00D900450078}">
+          <x14:cfRule type="expression" priority="1" id="{00330022-0051-40D6-AF1C-00350050001C}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31384,7 +31384,7 @@
           <xm:sqref>U69:X69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{0026008B-0012-4950-A0AC-00BE00DB0060}">
+          <x14:cfRule type="expression" priority="1" id="{008A0025-0061-48D9-B5C9-0061005E0056}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31401,7 +31401,7 @@
           <xm:sqref>U71:X71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00B8007E-0088-45F6-91A2-00A2005B0043}">
+          <x14:cfRule type="expression" priority="1" id="{00DC0037-0025-48C8-AD40-005900F10060}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31418,7 +31418,7 @@
           <xm:sqref>U73:X73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00F700DC-0034-4E7E-A271-0092002B009E}">
+          <x14:cfRule type="expression" priority="1" id="{002E004D-00FB-4512-8D90-00BC0078004F}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31438,25 +31438,25 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="30" disablePrompts="0">
-        <x14:dataValidation xr:uid="{0070004E-0040-440F-B0E4-005300B5007A}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{002A0055-002E-44D4-950A-000C0083004B}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q4:AD30 Y31:AD31 Q32:AD32 V33:AD33 Q34:AD40 R41:AD41 Q42:AD46 Q47:R47 V47 X47:AD47 Q48:AD50 Y51:AD51 Q52:AD58 R59 T59:AD59 U60:AD60 Q61:V61 Y61:AD61 Q62:AD62 Q63:U63 W63 Y63:AD63 Q64:AD64 Q65:W65 Y65:AD65 Q66:AD66 Q67:T67 V67:AD67 Q68:AD68 Q69:T69 Y69:AD69 Q70:AD70 Q71:T71 Y71:AD71 Q72:AD72 Q73:T73 Y73:AD73 Q74:AD105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00620091-005B-4F1F-AE2A-00D0000C001B}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007800EF-00F6-4418-A6F9-00D100B7008C}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND($F4=1,K4&gt;=0,K4&lt;256)</xm:f>
           </x14:formula1>
           <xm:sqref>K4:M8 K10:M10 K12:M20 K22:M105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005A0065-00CF-4ABC-9D3F-0050003400B6}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00BD008C-0039-436E-94A5-0002004900E8}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND(F4=2,J4&gt;0)</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J29 J31 J32:J105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A6006F-0064-402C-B54B-008800F700FA}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008F00F2-00C8-4144-BE21-007A004800B1}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -31465,25 +31465,25 @@
           </x14:formula2>
           <xm:sqref>F4:F13 F20:F60 F63:F105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001E0098-00D4-4E03-B596-008600C30019}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B8004A-0007-4F2C-A019-00B100FE004B}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1024</xm:f>
           </x14:formula1>
           <xm:sqref>A4 C4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007B0062-001A-43C4-9267-0089006900E1}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00FA004E-000C-4A12-BE12-001D001B00BE}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>768</xm:f>
           </x14:formula1>
           <xm:sqref>B4 D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007B0065-008D-4881-8240-002800B2004E}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003A0081-0036-4689-B490-00AA00500055}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>AF4:AR105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006A0056-0063-4F51-86C6-00F400ED0084}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000F0052-00F0-4EC4-B468-00FE00FC007F}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -31492,85 +31492,85 @@
           </x14:formula2>
           <xm:sqref>F14:F19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00920047-002B-4FB1-8B9D-009300DD0026}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C900D2-0078-4A0B-8CA3-002E000400EE}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F5=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q31:X31</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003900D4-00F4-42EB-ACF3-009200D00094}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005100A0-00ED-44FB-8782-009F00EF0094}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F8=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q33:T33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000D00A4-00AA-4F89-85FB-004400FC00A7}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00FF0002-0096-4880-BCC0-0015004A003E}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F8=2</xm:f>
           </x14:formula1>
           <xm:sqref>U33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00220053-0014-48FB-B429-00BE00980097}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00DE0065-0015-47F0-8674-00C200000092}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A60035-0093-4312-BF57-004B00E600F1}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A000ED-00CA-430C-86DF-00F800940019}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>S47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00630088-00D3-4CBC-9591-00FF00C80063}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B70005-00E6-4279-A31C-0046008C00B9}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>T47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000E0066-0030-4A76-9BCF-008C00CC00CF}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004300B0-0081-4CB1-A053-007F001A0030}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>U47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002A00E5-004A-4838-92CA-00F7002400C8}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A1004F-00FF-4C88-808B-009A00730081}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>W47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002700E9-0002-40C4-8541-00CD00310031}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00CA0040-00B2-4611-9D9D-00C500470093}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008C00EA-00FE-4FBC-860A-007600E900CA}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009E006F-0084-486D-BF96-007E0087003E}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>S59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006E004F-004A-46A6-A395-00E4007600CA}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F00093-00FF-4D6F-8BBE-004F00EE009E}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q60:T60</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C100D1-0017-4790-893D-00320046006E}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C0009B-00B0-492C-96A4-0061002D0072}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>W61</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006B0034-00EE-40A0-B934-0004009E0048}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005000D2-00A0-4212-BC9E-0060006000F7}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>X61</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0072001F-00DC-44A8-9BBF-00F200AA00D7}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00730033-0077-44D4-9249-000800500027}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -31579,7 +31579,7 @@
           </x14:formula2>
           <xm:sqref>F61</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00BD0068-0002-494E-A787-00B300040053}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F400C4-0055-4281-9CE8-00C200820065}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -31588,43 +31588,43 @@
           </x14:formula2>
           <xm:sqref>F62</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FA009A-0035-4FB1-804A-0064009A0048}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00CC006F-008A-41D5-9F2B-00EE00250082}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>V63</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006400DE-003A-468D-A137-0006009F00D3}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0097004D-00A6-426F-8E16-00D400CF00EA}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>X63</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000000FF-0017-45AD-850B-00F700D000E4}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0031003E-005F-4CCC-BC42-002C005500F6}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>X65</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FD0026-0061-46B5-A299-00F900B2001B}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D80056-00C9-4656-A5D7-0005000000E1}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>U67</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009200A7-0071-41BF-8EC2-00D6008A00FB}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B9008F-00F6-47CF-9E3F-0087004500EE}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>U69:X69</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CC0001-00E4-45E8-A628-000600AD0010}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000000CC-0004-4209-8F75-00B6006300C5}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>U71:X71</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002A0062-0058-440F-BB53-005900F800B5}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00380057-0009-4B57-9682-00CB00F80059}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>

--- a/Template KOORDINAT.xlsx
+++ b/Template KOORDINAT.xlsx
@@ -4775,7 +4775,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>X-Desain</t>
   </si>
@@ -4847,61 +4847,49 @@
     <t>ktk_pintu</t>
   </si>
   <si>
-    <t>w_ktk_pintu</t>
+    <t>coklat_cerah</t>
   </si>
   <si>
     <t>lngkrn_ggng_pintu</t>
   </si>
   <si>
-    <t>w_lngkrn_ggng_pintu</t>
+    <t>putih_tulang</t>
   </si>
   <si>
     <t>ktk_ggng_obor1</t>
   </si>
   <si>
-    <t>w_ktk_ggng_obor1</t>
+    <t>coklat_gelap_bgt</t>
   </si>
   <si>
     <t>ktk_api1_obor1</t>
   </si>
   <si>
-    <t>w_api1_obor1</t>
+    <t>api_cerah</t>
   </si>
   <si>
     <t>ktk_api2_obor1</t>
   </si>
   <si>
-    <t>w_api2_obor1</t>
+    <t>api_menyala</t>
   </si>
   <si>
     <t>ktk_ggng_obor2</t>
   </si>
   <si>
-    <t>w_ktk_ggng_obor2</t>
-  </si>
-  <si>
     <t>ktk_api1_obor2</t>
-  </si>
-  <si>
-    <t>w_api1_obor2</t>
   </si>
   <si>
     <t>ktk_api2_obor2</t>
   </si>
   <si>
-    <t>w_api2_obor2</t>
-  </si>
-  <si>
     <t>ktk_crfting_tble</t>
-  </si>
-  <si>
-    <t>w_ktk_crfting_tble</t>
   </si>
   <si>
     <t>sgt_crfiting_tble</t>
   </si>
   <si>
-    <t>w_sgt_crfiting_tble</t>
+    <t>hitam</t>
   </si>
   <si>
     <t>line_crfting_tble</t>
@@ -4910,85 +4898,52 @@
     <t>ktk_palu</t>
   </si>
   <si>
-    <t>w_ktk_palu</t>
-  </si>
-  <si>
     <t>ktk_ggng_palu</t>
-  </si>
-  <si>
-    <t>w_ktk_ggng_palu</t>
   </si>
   <si>
     <t>ktk_ggng_gergaji</t>
   </si>
   <si>
-    <t>w_ktk_ggng_gergaji</t>
-  </si>
-  <si>
     <t>ktk_lbng_gergaji</t>
-  </si>
-  <si>
-    <t>w_ktk_lbng_gergaji</t>
   </si>
   <si>
     <t>sgt_gergaji</t>
   </si>
   <si>
-    <t>w_sgt_gergaji</t>
-  </si>
-  <si>
     <t>ktk_ats_furnace</t>
   </si>
   <si>
-    <t>w_ktk_ats_furnace</t>
+    <t>abu_muda</t>
   </si>
   <si>
     <t>ktk_bwh_furnace</t>
   </si>
   <si>
-    <t>w_ktk_bwh_furnace</t>
+    <t>abu_tua</t>
   </si>
   <si>
     <t>stglkr1_furnace</t>
   </si>
   <si>
-    <t>w_stglkr1_furnace</t>
-  </si>
-  <si>
     <t>stglkr2_furnace</t>
   </si>
   <si>
-    <t>w_stglkr2_furnace</t>
+    <t>oranye_menyala</t>
   </si>
   <si>
     <t>ktk_bwh_chest</t>
   </si>
   <si>
-    <t>w_ktk_bwh_chest</t>
-  </si>
-  <si>
     <t>ktk_atas_chest</t>
   </si>
   <si>
-    <t>w_ktk_atas_chest</t>
+    <t>coklat_gelap</t>
   </si>
   <si>
     <t>ktk_kunci_chest</t>
   </si>
   <si>
-    <t>w_ktk_kunci_chest</t>
-  </si>
-  <si>
-    <t>w_ktk_bwh_chest2</t>
-  </si>
-  <si>
     <t>ktk_atas_chest2</t>
-  </si>
-  <si>
-    <t>w_ktk_atas_chest2</t>
-  </si>
-  <si>
-    <t>ktk_kunci_chest2</t>
   </si>
   <si>
     <t>w_ktk_kunci_chest2</t>
@@ -4997,7 +4952,7 @@
     <t>ktk_jendela</t>
   </si>
   <si>
-    <t>w_ktk_jendela</t>
+    <t>putih</t>
   </si>
   <si>
     <t>gris_jendela1</t>
@@ -5015,43 +4970,25 @@
     <t>ktk_kasur_mrh</t>
   </si>
   <si>
-    <t>w_ktk_kasur_mrh</t>
+    <t>merah_menyala</t>
   </si>
   <si>
     <t>ktk_kasur_putih</t>
   </si>
   <si>
-    <t>w_ktk_kasur_putih</t>
-  </si>
-  <si>
     <t>ktk_bntl_putih</t>
-  </si>
-  <si>
-    <t>w_ktk_bntl_putih</t>
   </si>
   <si>
     <t>ktk_kki_kasur1</t>
   </si>
   <si>
-    <t>w_ktk_kki_kasur1</t>
-  </si>
-  <si>
     <t>ktk_kki_kasur2</t>
-  </si>
-  <si>
-    <t>w_ktk_kki_kasur2</t>
   </si>
   <si>
     <t>ktk_kki_kasur3</t>
   </si>
   <si>
-    <t>w_ktk_kki_kasur3</t>
-  </si>
-  <si>
     <t>ktk_kki_kasur4</t>
-  </si>
-  <si>
-    <t>w_ktk_kki_kasur4</t>
   </si>
 </sst>
 </file>
@@ -5620,8 +5557,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="poltek" id="{4D33DE20-2BA8-1266-C079-666A0381B99B}"/>
-  <person displayName="Neny" id="{EF6F0644-9FBB-98BC-F9D3-661FA3A312E2}"/>
+  <person displayName="poltek" id="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}"/>
+  <person displayName="Neny" id="{A7980FCD-D5B1-027F-FF83-6AE3503CE8DD}"/>
 </personList>
 </file>
 
@@ -6119,516 +6056,516 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F11" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{002500E1-00B8-415B-B628-00BC00C1008B}" done="0">
+  <threadedComment ref="F11" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{002500E1-00B8-415B-B628-00BC00C1008B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F101" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E800CE-007E-426B-B7E5-007C0091000C}" done="0">
+  <threadedComment ref="F101" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E800CE-007E-426B-B7E5-007C0091000C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F102" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E000F6-00AF-4CED-A227-008A00F2001C}" done="0">
+  <threadedComment ref="F102" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E000F6-00AF-4CED-A227-008A00F2001C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F103" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{003D0069-00A4-4EB2-9FF8-00C900CF008C}" done="0">
+  <threadedComment ref="F103" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{003D0069-00A4-4EB2-9FF8-00C900CF008C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F104" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E900E6-0010-43DD-BD1C-002F00250065}" done="0">
+  <threadedComment ref="F104" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E900E6-0010-43DD-BD1C-002F00250065}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F105" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00FE00F5-001D-42E1-AB80-004F006300A1}" done="0">
+  <threadedComment ref="F105" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00FE00F5-001D-42E1-AB80-004F006300A1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F12" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00BB00DD-0073-4E2E-8E5F-007C007F0010}" done="0">
+  <threadedComment ref="F12" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00BB00DD-0073-4E2E-8E5F-007C007F0010}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F13" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00B00031-00C9-4E4A-A3B5-006000A60042}" done="0">
+  <threadedComment ref="F13" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00B00031-00C9-4E4A-A3B5-006000A60042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F14" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{001200B5-0057-4871-9B75-0071006000EE}" done="0">
+  <threadedComment ref="F14" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{001200B5-0057-4871-9B75-0071006000EE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F15" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0032009A-0014-4A22-A6AB-001F000500BA}" done="0">
+  <threadedComment ref="F15" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0032009A-0014-4A22-A6AB-001F000500BA}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F16" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00CC007D-000D-4589-9961-003000160093}" done="0">
+  <threadedComment ref="F16" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00CC007D-000D-4589-9961-003000160093}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F17" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009400AE-00F2-4CA6-B8A9-00C000DD00B4}" done="0">
+  <threadedComment ref="F17" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009400AE-00F2-4CA6-B8A9-00C000DD00B4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F18" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{003100D6-0016-4C77-B58E-0060001F0052}" done="0">
+  <threadedComment ref="F18" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{003100D6-0016-4C77-B58E-0060001F0052}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F19" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009D0070-0067-450A-847F-00CD00F5001B}" done="0">
+  <threadedComment ref="F19" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009D0070-0067-450A-847F-00CD00F5001B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F20" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{006100D3-00DC-44AD-B91D-005F00A0007E}" done="0">
+  <threadedComment ref="F20" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{006100D3-00DC-44AD-B91D-005F00A0007E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F21" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D800F4-000E-4F86-A2C7-0060009400B9}" done="0">
+  <threadedComment ref="F21" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D800F4-000E-4F86-A2C7-0060009400B9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F22" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{008500D6-0072-416A-8A43-009C0054002E}" done="0">
+  <threadedComment ref="F22" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{008500D6-0072-416A-8A43-009C0054002E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F23" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0089000F-0033-470B-91DC-00C300A40067}" done="0">
+  <threadedComment ref="F23" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0089000F-0033-470B-91DC-00C300A40067}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F24" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{000400E2-0064-464B-8D0F-0091006E00D3}" done="0">
+  <threadedComment ref="F24" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{000400E2-0064-464B-8D0F-0091006E00D3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F25" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{007E0057-0058-4C50-ABEF-0064004200F8}" done="0">
+  <threadedComment ref="F25" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{007E0057-0058-4C50-ABEF-0064004200F8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F26" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00CC009C-00FA-4C65-A1BB-002300F300AC}" done="0">
+  <threadedComment ref="F26" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00CC009C-00FA-4C65-A1BB-002300F300AC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F27" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00650033-004D-4692-A5AE-003E005F009E}" done="0">
+  <threadedComment ref="F27" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00650033-004D-4692-A5AE-003E005F009E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F28" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0021000B-00C8-4428-929E-00E600C400BB}" done="0">
+  <threadedComment ref="F28" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0021000B-00C8-4428-929E-00E600C400BB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F29" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{007300D9-00F6-41C7-A088-009F006F000A}" done="0">
+  <threadedComment ref="F29" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{007300D9-00F6-41C7-A088-009F006F000A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F30" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0094001B-0027-40F6-BD3E-008A00FC00E9}" done="0">
+  <threadedComment ref="F30" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0094001B-0027-40F6-BD3E-008A00FC00E9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="E4" personId="{EF6F0644-9FBB-98BC-F9D3-661FA3A312E2}" id="{0061007E-0071-4BA6-9081-003E00590086}" done="0">
+  <threadedComment ref="E4" personId="{A7980FCD-D5B1-027F-FF83-6AE3503CE8DD}" id="{0061007E-0071-4BA6-9081-003E00590086}" done="0">
     <text xml:space="preserve">isi dengan jumlah piksel yang Anda inginkan untuk tiap milimeter
 </text>
   </threadedComment>
-  <threadedComment ref="F4" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0036007E-0073-472C-A977-006800640035}" done="0">
+  <threadedComment ref="F4" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0036007E-0073-472C-A977-006800640035}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F31" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00FE001C-006A-4714-A502-0091001E00E2}" done="0">
+  <threadedComment ref="F31" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00FE001C-006A-4714-A502-0091001E00E2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F32" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005400F1-0067-41CE-AAFA-004C00A70066}" done="0">
+  <threadedComment ref="F32" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005400F1-0067-41CE-AAFA-004C00A70066}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F33" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D500C8-00EC-4DA0-B06B-006D002F00C0}" done="0">
+  <threadedComment ref="F33" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D500C8-00EC-4DA0-B06B-006D002F00C0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F34" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{008500B3-00B1-44A3-BB57-003300300050}" done="0">
+  <threadedComment ref="F34" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{008500B3-00B1-44A3-BB57-003300300050}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F35" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{001500E2-004A-47AE-BD1F-002E004400CF}" done="0">
+  <threadedComment ref="F35" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{001500E2-004A-47AE-BD1F-002E004400CF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F36" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00560014-0063-4696-B651-0072002E00F1}" done="0">
+  <threadedComment ref="F36" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00560014-0063-4696-B651-0072002E00F1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F37" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00BE0009-0085-4D6D-8376-00BD00810093}" done="0">
+  <threadedComment ref="F37" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00BE0009-0085-4D6D-8376-00BD00810093}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F38" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00BD00DD-00EE-44ED-85E2-003B003C00B5}" done="0">
+  <threadedComment ref="F38" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00BD00DD-00EE-44ED-85E2-003B003C00B5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F39" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{004700F6-0083-4255-BBDD-00A1000B0033}" done="0">
+  <threadedComment ref="F39" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{004700F6-0083-4255-BBDD-00A1000B0033}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F40" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005F009E-001A-40CC-8D4D-0006006800B1}" done="0">
+  <threadedComment ref="F40" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005F009E-001A-40CC-8D4D-0006006800B1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F5" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009500C7-009B-4EE0-AEF2-0092005B009C}" done="0">
+  <threadedComment ref="F5" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009500C7-009B-4EE0-AEF2-0092005B009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F41" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00240082-00CA-42F1-9880-00ED000200D7}" done="0">
+  <threadedComment ref="F41" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00240082-00CA-42F1-9880-00ED000200D7}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F42" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00570071-00FC-4DA6-A267-0005002300D5}" done="0">
+  <threadedComment ref="F42" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00570071-00FC-4DA6-A267-0005002300D5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F43" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{002E008F-003D-4C92-B908-009F00780064}" done="0">
+  <threadedComment ref="F43" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{002E008F-003D-4C92-B908-009F00780064}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F44" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0095000D-00FF-46BD-930B-003800220098}" done="0">
+  <threadedComment ref="F44" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0095000D-00FF-46BD-930B-003800220098}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F45" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00990017-00DC-48C4-82D3-005A00FA0002}" done="0">
+  <threadedComment ref="F45" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00990017-00DC-48C4-82D3-005A00FA0002}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F46" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{007D00FC-0035-4218-96B1-00C3001C00FF}" done="0">
+  <threadedComment ref="F46" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{007D00FC-0035-4218-96B1-00C3001C00FF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F47" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0070006E-003D-42D8-9D0E-00AD009B00AD}" done="0">
+  <threadedComment ref="F47" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0070006E-003D-42D8-9D0E-00AD009B00AD}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F48" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00A700B1-00F5-44A5-9B3A-00E800A6005F}" done="0">
+  <threadedComment ref="F48" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00A700B1-00F5-44A5-9B3A-00E800A6005F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F49" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E6004C-00B1-4CE7-A393-009A000B00EF}" done="0">
+  <threadedComment ref="F49" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E6004C-00B1-4CE7-A393-009A000B00EF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F50" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00F20063-0088-4645-82C4-008B001000CE}" done="0">
+  <threadedComment ref="F50" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00F20063-0088-4645-82C4-008B001000CE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F6" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00AD006C-009F-414E-A478-003100110023}" done="0">
+  <threadedComment ref="F6" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00AD006C-009F-414E-A478-003100110023}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F51" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{003A0092-007B-434A-8AE6-00C900550045}" done="0">
+  <threadedComment ref="F51" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{003A0092-007B-434A-8AE6-00C900550045}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F52" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00AC0054-003A-40DE-9700-00ED002D0086}" done="0">
+  <threadedComment ref="F52" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00AC0054-003A-40DE-9700-00ED002D0086}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F53" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{008B0081-00F6-4868-B8C9-009300E0004A}" done="0">
+  <threadedComment ref="F53" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{008B0081-00F6-4868-B8C9-009300E0004A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F54" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00970002-00F4-4452-BF03-008700B20007}" done="0">
+  <threadedComment ref="F54" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00970002-00F4-4452-BF03-008700B20007}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F55" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00CD00CD-0015-4B47-9901-008200CC0049}" done="0">
+  <threadedComment ref="F55" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00CD00CD-0015-4B47-9901-008200CC0049}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F56" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{003F00CD-0090-45F5-BEFB-003B00BB0042}" done="0">
+  <threadedComment ref="F56" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{003F00CD-0090-45F5-BEFB-003B00BB0042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F57" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005E0063-004F-4D56-9B30-00CE00600070}" done="0">
+  <threadedComment ref="F57" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005E0063-004F-4D56-9B30-00CE00600070}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F58" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{002800EB-00B6-44DF-BEDF-00B300EB0001}" done="0">
+  <threadedComment ref="F58" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{002800EB-00B6-44DF-BEDF-00B300EB0001}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F59" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00C40096-0089-4182-B76B-00BB006D0082}" done="0">
+  <threadedComment ref="F59" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00C40096-0089-4182-B76B-00BB006D0082}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F60" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D20078-00B2-4562-AD8B-00E500D20044}" done="0">
+  <threadedComment ref="F60" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D20078-00B2-4562-AD8B-00E500D20044}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F7" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009600C6-000D-4695-AD6A-00AA00460012}" done="0">
+  <threadedComment ref="F7" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009600C6-000D-4695-AD6A-00AA00460012}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F61" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00B200FF-00D5-4A30-9BF7-00EA007A00F8}" done="0">
+  <threadedComment ref="F61" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00B200FF-00D5-4A30-9BF7-00EA007A00F8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F62" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00880089-0011-4F44-8646-007B00BB0042}" done="0">
+  <threadedComment ref="F62" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00880089-0011-4F44-8646-007B00BB0042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F63" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00320017-0039-4020-A31A-00C1006E00E3}" done="0">
+  <threadedComment ref="F63" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00320017-0039-4020-A31A-00C1006E00E3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F64" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00C700AA-0061-48CF-AC77-009B00C1007F}" done="0">
+  <threadedComment ref="F64" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00C700AA-0061-48CF-AC77-009B00C1007F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F65" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00AC00BD-009E-4F69-9DA5-009F009400DB}" done="0">
+  <threadedComment ref="F65" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00AC00BD-009E-4F69-9DA5-009F009400DB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F66" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{002D0025-00FA-484A-B277-007100380059}" done="0">
+  <threadedComment ref="F66" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{002D0025-00FA-484A-B277-007100380059}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F67" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009E00BC-008A-421F-8CD1-007300E60069}" done="0">
+  <threadedComment ref="F67" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009E00BC-008A-421F-8CD1-007300E60069}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F68" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009400E2-005D-42B8-AEAC-00B20057004C}" done="0">
+  <threadedComment ref="F68" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009400E2-005D-42B8-AEAC-00B20057004C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F69" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00790007-005D-4620-A635-009F008100F1}" done="0">
+  <threadedComment ref="F69" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00790007-005D-4620-A635-009F008100F1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F70" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00DB000D-003C-4972-A55A-001700780095}" done="0">
+  <threadedComment ref="F70" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00DB000D-003C-4972-A55A-001700780095}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F8" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005600E1-0021-450A-A907-006500800023}" done="0">
+  <threadedComment ref="F8" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005600E1-0021-450A-A907-006500800023}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F71" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E200C4-0054-45F0-869E-007100930078}" done="0">
+  <threadedComment ref="F71" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E200C4-0054-45F0-869E-007100930078}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F72" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0056006F-0044-41C1-9237-003D006400D5}" done="0">
+  <threadedComment ref="F72" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0056006F-0044-41C1-9237-003D006400D5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F73" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E5000A-0043-45C2-AB43-0036008600BC}" done="0">
+  <threadedComment ref="F73" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E5000A-0043-45C2-AB43-0036008600BC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F74" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00080024-0009-4C90-9AA6-0028006F00C3}" done="0">
+  <threadedComment ref="F74" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00080024-0009-4C90-9AA6-0028006F00C3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F75" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00BF006F-00FD-40E9-BF62-00380095009C}" done="0">
+  <threadedComment ref="F75" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00BF006F-00FD-40E9-BF62-00380095009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F76" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00AC0078-0023-42F0-896E-00B400AC0061}" done="0">
+  <threadedComment ref="F76" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00AC0078-0023-42F0-896E-00B400AC0061}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F77" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00B40051-00E4-4EF1-AC80-00DA00AE00A9}" done="0">
+  <threadedComment ref="F77" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00B40051-00E4-4EF1-AC80-00DA00AE00A9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F78" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{001F00EB-00A6-4182-93A2-008200790053}" done="0">
+  <threadedComment ref="F78" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{001F00EB-00A6-4182-93A2-008200790053}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F79" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{008200E4-001B-4421-88B8-00AC0024003B}" done="0">
+  <threadedComment ref="F79" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{008200E4-001B-4421-88B8-00AC0024003B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F80" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00650063-001C-47BC-8F07-00A4009800C7}" done="0">
+  <threadedComment ref="F80" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00650063-001C-47BC-8F07-00A4009800C7}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F9" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00750071-0023-4422-9A66-00D1003D00CB}" done="0">
+  <threadedComment ref="F9" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00750071-0023-4422-9A66-00D1003D00CB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F81" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D4003E-0044-4199-9D3C-005900F3009C}" done="0">
+  <threadedComment ref="F81" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D4003E-0044-4199-9D3C-005900F3009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F82" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00CC000B-00DD-4305-8A0B-00F900EA0068}" done="0">
+  <threadedComment ref="F82" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00CC000B-00DD-4305-8A0B-00F900EA0068}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F83" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00970097-00E6-43CC-8851-008300AF0076}" done="0">
+  <threadedComment ref="F83" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00970097-00E6-43CC-8851-008300AF0076}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F84" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{002800BB-00C4-478C-BCF0-005300690023}" done="0">
+  <threadedComment ref="F84" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{002800BB-00C4-478C-BCF0-005300690023}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F85" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00C10025-0085-4258-BBAF-0047001400B7}" done="0">
+  <threadedComment ref="F85" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00C10025-0085-4258-BBAF-0047001400B7}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F86" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00720040-0056-4BFC-BE0B-004A001E006F}" done="0">
+  <threadedComment ref="F86" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00720040-0056-4BFC-BE0B-004A001E006F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F87" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00CD0068-003B-48A9-B257-00A400C30005}" done="0">
+  <threadedComment ref="F87" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00CD0068-003B-48A9-B257-00A400C30005}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F88" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00380059-00CD-4680-903F-001200BC00A4}" done="0">
+  <threadedComment ref="F88" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00380059-00CD-4680-903F-001200BC00A4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F89" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009500FB-00AD-4626-8417-008800A000E1}" done="0">
+  <threadedComment ref="F89" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009500FB-00AD-4626-8417-008800A000E1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F90" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00A1003A-004A-469B-ACBF-000A004500CC}" done="0">
+  <threadedComment ref="F90" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00A1003A-004A-469B-ACBF-000A004500CC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F10" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00BE0084-00DB-4A19-AD4C-007200DE000E}" done="0">
+  <threadedComment ref="F10" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00BE0084-00DB-4A19-AD4C-007200DE000E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F91" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0046004F-0047-4C64-87E5-00EE00970097}" done="0">
+  <threadedComment ref="F91" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0046004F-0047-4C64-87E5-00EE00970097}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F92" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005100A3-007B-4685-8AC8-008000D800E8}" done="0">
+  <threadedComment ref="F92" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005100A3-007B-4685-8AC8-008000D800E8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F93" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{000600FD-0053-45F8-A391-001900AD00C0}" done="0">
+  <threadedComment ref="F93" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{000600FD-0053-45F8-A391-001900AD00C0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F94" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E10009-0042-404A-9F0C-00BD006F0031}" done="0">
+  <threadedComment ref="F94" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E10009-0042-404A-9F0C-00BD006F0031}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F95" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00270083-0048-4D3F-9E3F-00F900F700D9}" done="0">
+  <threadedComment ref="F95" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00270083-0048-4D3F-9E3F-00F900F700D9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F96" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{003F00F7-00D8-427E-9913-003500030020}" done="0">
+  <threadedComment ref="F96" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{003F00F7-00D8-427E-9913-003500030020}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F97" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00960084-0098-4664-BC96-009B00110086}" done="0">
+  <threadedComment ref="F97" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00960084-0098-4664-BC96-009B00110086}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F98" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005C0033-00EA-4983-B8DA-00E100410007}" done="0">
+  <threadedComment ref="F98" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005C0033-00EA-4983-B8DA-00E100410007}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F99" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00950047-001D-4E75-8932-009A002C00E1}" done="0">
+  <threadedComment ref="F99" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00950047-001D-4E75-8932-009A002C00E1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F100" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00DB00DE-0033-4655-BFAD-003B007C0021}" done="0">
+  <threadedComment ref="F100" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00DB00DE-0033-4655-BFAD-003B007C0021}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
@@ -6638,516 +6575,516 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F11" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0019003E-00DD-4011-9D56-005900790044}" done="0">
+  <threadedComment ref="F11" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0019003E-00DD-4011-9D56-005900790044}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F101" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00EB00FE-009E-4709-904D-006B001F001E}" done="0">
+  <threadedComment ref="F101" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00EB00FE-009E-4709-904D-006B001F001E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F102" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D700D5-0053-4DB6-9621-000B009800CB}" done="0">
+  <threadedComment ref="F102" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D700D5-0053-4DB6-9621-000B009800CB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F103" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{008800FF-0055-4844-ACC2-0076001100CF}" done="0">
+  <threadedComment ref="F103" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{008800FF-0055-4844-ACC2-0076001100CF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F104" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005400F9-006F-4035-AAB7-0030005800CE}" done="0">
+  <threadedComment ref="F104" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005400F9-006F-4035-AAB7-0030005800CE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F105" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00CD0083-00F4-4E02-AC89-00F60064008E}" done="0">
+  <threadedComment ref="F105" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00CD0083-00F4-4E02-AC89-00F60064008E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F12" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00B1001A-00E3-40E1-9E1D-000D008E008D}" done="0">
+  <threadedComment ref="F12" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00B1001A-00E3-40E1-9E1D-000D008E008D}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F13" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00B400C0-00D5-40E5-8A1A-00D5009000F4}" done="0">
+  <threadedComment ref="F13" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00B400C0-00D5-40E5-8A1A-00D5009000F4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F14" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00EE00B7-008D-485F-AA06-009400F0002D}" done="0">
+  <threadedComment ref="F14" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00EE00B7-008D-485F-AA06-009400F0002D}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F15" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{002E00C1-0009-4AA1-A21E-008600AD00F1}" done="0">
+  <threadedComment ref="F15" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{002E00C1-0009-4AA1-A21E-008600AD00F1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F16" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00A5002A-008B-4DB1-9909-007100CE0097}" done="0">
+  <threadedComment ref="F16" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00A5002A-008B-4DB1-9909-007100CE0097}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F17" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{000200B5-009D-4FD4-8618-00DD00FF001C}" done="0">
+  <threadedComment ref="F17" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{000200B5-009D-4FD4-8618-00DD00FF001C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F18" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00C700DB-001C-43D6-B0B8-00650049008E}" done="0">
+  <threadedComment ref="F18" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00C700DB-001C-43D6-B0B8-00650049008E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F19" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00020099-007C-4D6A-AB89-00BB006100C9}" done="0">
+  <threadedComment ref="F19" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00020099-007C-4D6A-AB89-00BB006100C9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F20" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00B200A1-00A5-4B96-8E58-007B000A004A}" done="0">
+  <threadedComment ref="F20" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00B200A1-00A5-4B96-8E58-007B000A004A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F21" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00AA007B-0069-441C-B70A-00B3007F00A4}" done="0">
+  <threadedComment ref="F21" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00AA007B-0069-441C-B70A-00B3007F00A4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F22" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00C50050-0073-40FC-9B5F-009800E000B2}" done="0">
+  <threadedComment ref="F22" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00C50050-0073-40FC-9B5F-009800E000B2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F23" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D20041-00C8-4C87-93B6-002F000B00D5}" done="0">
+  <threadedComment ref="F23" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D20041-00C8-4C87-93B6-002F000B00D5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F24" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0006001B-006F-4061-88D4-00CE00BC00D3}" done="0">
+  <threadedComment ref="F24" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0006001B-006F-4061-88D4-00CE00BC00D3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F25" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00EA00B5-00FA-4937-A378-007F00CE00EE}" done="0">
+  <threadedComment ref="F25" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00EA00B5-00FA-4937-A378-007F00CE00EE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F26" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0096009B-00C3-4BC1-BF79-0073004D00DA}" done="0">
+  <threadedComment ref="F26" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0096009B-00C3-4BC1-BF79-0073004D00DA}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F27" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00660028-0017-4593-8105-00D500CA00CF}" done="0">
+  <threadedComment ref="F27" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00660028-0017-4593-8105-00D500CA00CF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F28" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0054003B-00EA-4C66-B79C-00CF00F600D3}" done="0">
+  <threadedComment ref="F28" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0054003B-00EA-4C66-B79C-00CF00F600D3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F29" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{008E00DA-0015-49B4-A1FF-005F00BA00B8}" done="0">
+  <threadedComment ref="F29" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{008E00DA-0015-49B4-A1FF-005F00BA00B8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F30" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00DF00B9-00FF-4510-8F78-0064004D0062}" done="0">
+  <threadedComment ref="F30" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00DF00B9-00FF-4510-8F78-0064004D0062}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="E4" personId="{EF6F0644-9FBB-98BC-F9D3-661FA3A312E2}" id="{007900C2-005E-48A6-8CBD-0036008F00C9}" done="0">
+  <threadedComment ref="E4" personId="{A7980FCD-D5B1-027F-FF83-6AE3503CE8DD}" id="{007900C2-005E-48A6-8CBD-0036008F00C9}" done="0">
     <text xml:space="preserve">isi dengan jumlah piksel yang Anda inginkan untuk tiap milimeter
 </text>
   </threadedComment>
-  <threadedComment ref="F4" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0034000F-00E9-4A7B-BC67-00AE00910055}" done="0">
+  <threadedComment ref="F4" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0034000F-00E9-4A7B-BC67-00AE00910055}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F31" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E600E5-00FE-4E84-9545-0024006F00A3}" done="0">
+  <threadedComment ref="F31" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E600E5-00FE-4E84-9545-0024006F00A3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F32" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0012003B-00C3-4448-86A4-000A0049004B}" done="0">
+  <threadedComment ref="F32" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0012003B-00C3-4448-86A4-000A0049004B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F33" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00240072-0031-4FCF-8345-006E00710052}" done="0">
+  <threadedComment ref="F33" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00240072-0031-4FCF-8345-006E00710052}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F34" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00AD0072-00EF-4B0A-904A-00DF002000C2}" done="0">
+  <threadedComment ref="F34" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00AD0072-00EF-4B0A-904A-00DF002000C2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F35" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00DF00C8-00EA-4D94-8C52-00050096005E}" done="0">
+  <threadedComment ref="F35" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00DF00C8-00EA-4D94-8C52-00050096005E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F36" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E8008E-0075-4E96-BD3B-003A00D20034}" done="0">
+  <threadedComment ref="F36" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E8008E-0075-4E96-BD3B-003A00D20034}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F37" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00F000DA-0053-4C2E-B776-00E100FD00E6}" done="0">
+  <threadedComment ref="F37" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00F000DA-0053-4C2E-B776-00E100FD00E6}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F38" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0007002B-00A0-47A9-A420-002E00BA0073}" done="0">
+  <threadedComment ref="F38" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0007002B-00A0-47A9-A420-002E00BA0073}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F39" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{004E00A9-00B1-451A-A379-00E900300036}" done="0">
+  <threadedComment ref="F39" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{004E00A9-00B1-451A-A379-00E900300036}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F40" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00400002-0059-4D59-A276-00CB00E40084}" done="0">
+  <threadedComment ref="F40" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00400002-0059-4D59-A276-00CB00E40084}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F5" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00AA0075-00D0-4936-8B93-00F600E30056}" done="0">
+  <threadedComment ref="F5" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00AA0075-00D0-4936-8B93-00F600E30056}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F41" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{007A003A-0052-4D44-BE5F-002700A3008A}" done="0">
+  <threadedComment ref="F41" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{007A003A-0052-4D44-BE5F-002700A3008A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F42" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005900EB-00EE-41D5-BBC7-004500230082}" done="0">
+  <threadedComment ref="F42" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005900EB-00EE-41D5-BBC7-004500230082}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F43" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0066006C-0075-4910-9BBE-007300B600D2}" done="0">
+  <threadedComment ref="F43" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0066006C-0075-4910-9BBE-007300B600D2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F44" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00BD0039-0060-4A32-A1FA-00EB00620059}" done="0">
+  <threadedComment ref="F44" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00BD0039-0060-4A32-A1FA-00EB00620059}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F45" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{003600C2-002B-4BB3-94AF-00F000610003}" done="0">
+  <threadedComment ref="F45" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{003600C2-002B-4BB3-94AF-00F000610003}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F46" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00C8007C-00BE-4CF5-A05E-00D30007004E}" done="0">
+  <threadedComment ref="F46" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00C8007C-00BE-4CF5-A05E-00D30007004E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F47" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00BE00EB-0060-4465-86B7-00F400EF0075}" done="0">
+  <threadedComment ref="F47" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00BE00EB-0060-4465-86B7-00F400EF0075}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F48" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{003A00B1-0087-4036-9277-004D00D600C2}" done="0">
+  <threadedComment ref="F48" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{003A00B1-0087-4036-9277-004D00D600C2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F49" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{001B00D1-0043-47CD-B36D-008100A200E8}" done="0">
+  <threadedComment ref="F49" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{001B00D1-0043-47CD-B36D-008100A200E8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F50" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D80008-00BB-4263-8E96-003F00A4004A}" done="0">
+  <threadedComment ref="F50" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D80008-00BB-4263-8E96-003F00A4004A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F6" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{001E00CE-0048-475C-8F03-005D00FC00AB}" done="0">
+  <threadedComment ref="F6" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{001E00CE-0048-475C-8F03-005D00FC00AB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F51" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{008A008F-00C4-42A2-9BB4-0012001B001F}" done="0">
+  <threadedComment ref="F51" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{008A008F-00C4-42A2-9BB4-0012001B001F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F52" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009F004E-00F7-4254-A488-002600110066}" done="0">
+  <threadedComment ref="F52" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009F004E-00F7-4254-A488-002600110066}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F53" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00F400D7-00E7-4B49-837A-00DF008D009C}" done="0">
+  <threadedComment ref="F53" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00F400D7-00E7-4B49-837A-00DF008D009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F54" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009B005D-00D2-427C-969A-0004003400E3}" done="0">
+  <threadedComment ref="F54" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009B005D-00D2-427C-969A-0004003400E3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F55" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0099001A-0080-4833-A44C-00F1006F00ED}" done="0">
+  <threadedComment ref="F55" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0099001A-0080-4833-A44C-00F1006F00ED}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F56" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D40085-001B-4138-9210-00CC00400091}" done="0">
+  <threadedComment ref="F56" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D40085-001B-4138-9210-00CC00400091}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F57" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{002E00E5-00AA-4A4B-885A-00D3006400A8}" done="0">
+  <threadedComment ref="F57" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{002E00E5-00AA-4A4B-885A-00D3006400A8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F58" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00A900F6-00CA-4FBB-A637-006D00E900DE}" done="0">
+  <threadedComment ref="F58" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00A900F6-00CA-4FBB-A637-006D00E900DE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F59" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00F90006-0053-4D67-A51B-003900E70039}" done="0">
+  <threadedComment ref="F59" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00F90006-0053-4D67-A51B-003900E70039}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F60" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009600A0-0064-49EE-9A88-00DF00D30094}" done="0">
+  <threadedComment ref="F60" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009600A0-0064-49EE-9A88-00DF00D30094}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F7" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00FB0041-006D-481D-B14B-0088007300C8}" done="0">
+  <threadedComment ref="F7" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00FB0041-006D-481D-B14B-0088007300C8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F61" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00B100BB-004B-4978-8955-005500AE0057}" done="0">
+  <threadedComment ref="F61" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00B100BB-004B-4978-8955-005500AE0057}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F62" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00DC0093-0025-4048-A61E-001E00F40032}" done="0">
+  <threadedComment ref="F62" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00DC0093-0025-4048-A61E-001E00F40032}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F63" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009E007C-0048-45D6-A57A-00A8007200F8}" done="0">
+  <threadedComment ref="F63" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009E007C-0048-45D6-A57A-00A8007200F8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F64" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00C900D3-00F2-4872-AAF9-00B1000400BB}" done="0">
+  <threadedComment ref="F64" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00C900D3-00F2-4872-AAF9-00B1000400BB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F65" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00A600C9-0097-4674-BC98-00DB002800A0}" done="0">
+  <threadedComment ref="F65" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00A600C9-0097-4674-BC98-00DB002800A0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F66" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{000500AF-00D3-450D-A721-004000E8008B}" done="0">
+  <threadedComment ref="F66" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{000500AF-00D3-450D-A721-004000E8008B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F67" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005A00B9-0067-4B9F-8A50-00EB00570045}" done="0">
+  <threadedComment ref="F67" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005A00B9-0067-4B9F-8A50-00EB00570045}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F68" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00FC00A7-0005-495C-9302-0032006A006C}" done="0">
+  <threadedComment ref="F68" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00FC00A7-0005-495C-9302-0032006A006C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F69" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00A50048-00DE-4A19-8C0A-00140082002E}" done="0">
+  <threadedComment ref="F69" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00A50048-00DE-4A19-8C0A-00140082002E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F70" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00A200D8-0028-455C-8EBD-0078008900C6}" done="0">
+  <threadedComment ref="F70" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00A200D8-0028-455C-8EBD-0078008900C6}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F8" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00960079-0077-4F2A-82A2-00BD00C3007F}" done="0">
+  <threadedComment ref="F8" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00960079-0077-4F2A-82A2-00BD00C3007F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F71" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00DF003A-001B-4DB1-9E42-007400AC00E1}" done="0">
+  <threadedComment ref="F71" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00DF003A-001B-4DB1-9E42-007400AC00E1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F72" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00F3005C-00CA-4F2D-B387-0081004F009E}" done="0">
+  <threadedComment ref="F72" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00F3005C-00CA-4F2D-B387-0081004F009E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F73" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{007C0051-009E-4FFD-B2F5-00C600D50053}" done="0">
+  <threadedComment ref="F73" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{007C0051-009E-4FFD-B2F5-00C600D50053}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F74" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00670022-0015-4186-BA4E-009B000F0061}" done="0">
+  <threadedComment ref="F74" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00670022-0015-4186-BA4E-009B000F0061}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F75" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00500052-00E0-4AB2-9BBE-00A5009600C1}" done="0">
+  <threadedComment ref="F75" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00500052-00E0-4AB2-9BBE-00A5009600C1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F76" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00F0004F-0064-499D-801C-000700D3002F}" done="0">
+  <threadedComment ref="F76" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00F0004F-0064-499D-801C-000700D3002F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F77" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{001400B2-00F1-4DB3-9DE7-00A000150039}" done="0">
+  <threadedComment ref="F77" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{001400B2-00F1-4DB3-9DE7-00A000150039}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F78" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{002400EE-00C1-4E63-80AA-009F004E0000}" done="0">
+  <threadedComment ref="F78" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{002400EE-00C1-4E63-80AA-009F004E0000}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F79" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00A2005A-00E8-4C73-BE0C-009600930058}" done="0">
+  <threadedComment ref="F79" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00A2005A-00E8-4C73-BE0C-009600930058}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F80" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00FE004A-004D-4DC5-9616-00FE006100BC}" done="0">
+  <threadedComment ref="F80" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00FE004A-004D-4DC5-9616-00FE006100BC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F9" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00DC0029-00E7-42DB-B9C1-003400EA0062}" done="0">
+  <threadedComment ref="F9" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00DC0029-00E7-42DB-B9C1-003400EA0062}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F81" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00E200BC-0050-488A-B834-006200C90035}" done="0">
+  <threadedComment ref="F81" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E200BC-0050-488A-B834-006200C90035}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F82" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00F700FA-0046-463B-90CC-00EC005200E4}" done="0">
+  <threadedComment ref="F82" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00F700FA-0046-463B-90CC-00EC005200E4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F83" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00A8006C-009A-4446-8DF2-005000F800A8}" done="0">
+  <threadedComment ref="F83" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00A8006C-009A-4446-8DF2-005000F800A8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F84" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00BC003C-00E7-4887-9335-00BE00A00084}" done="0">
+  <threadedComment ref="F84" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00BC003C-00E7-4887-9335-00BE00A00084}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F85" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D3001D-0010-45EF-BB8A-0054009E00B0}" done="0">
+  <threadedComment ref="F85" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D3001D-0010-45EF-BB8A-0054009E00B0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F86" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00F80095-0024-4050-BFE8-002A000A0063}" done="0">
+  <threadedComment ref="F86" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00F80095-0024-4050-BFE8-002A000A0063}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F87" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0004000B-00D2-4380-8028-006600E5001D}" done="0">
+  <threadedComment ref="F87" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0004000B-00D2-4380-8028-006600E5001D}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F88" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{006100B6-00A0-44B1-954A-006400C90072}" done="0">
+  <threadedComment ref="F88" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{006100B6-00A0-44B1-954A-006400C90072}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F89" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{007E0001-00BA-4A1B-BFEA-009C000B003F}" done="0">
+  <threadedComment ref="F89" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{007E0001-00BA-4A1B-BFEA-009C000B003F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F90" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{006D000D-00B1-4850-80B6-001C002B00C4}" done="0">
+  <threadedComment ref="F90" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{006D000D-00B1-4850-80B6-001C002B00C4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F10" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00B7001B-00DB-4B45-809D-00D000730097}" done="0">
+  <threadedComment ref="F10" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00B7001B-00DB-4B45-809D-00D000730097}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F91" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{005F00B7-0068-4E20-B708-00B1008000A5}" done="0">
+  <threadedComment ref="F91" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005F00B7-0068-4E20-B708-00B1008000A5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F92" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00D2000D-008E-4F0E-889B-008D00540073}" done="0">
+  <threadedComment ref="F92" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D2000D-008E-4F0E-889B-008D00540073}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F93" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00720077-00F3-41DB-80E4-00E6002900BA}" done="0">
+  <threadedComment ref="F93" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00720077-00F3-41DB-80E4-00E6002900BA}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F94" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00C70063-00A4-4E22-8B1D-008900470066}" done="0">
+  <threadedComment ref="F94" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00C70063-00A4-4E22-8B1D-008900470066}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F95" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00EF00A4-00D5-4A7C-AA4A-001D00140024}" done="0">
+  <threadedComment ref="F95" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00EF00A4-00D5-4A7C-AA4A-001D00140024}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F96" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{007A0009-008B-48C0-98F5-007E00320029}" done="0">
+  <threadedComment ref="F96" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{007A0009-008B-48C0-98F5-007E00320029}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F97" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{00490001-00FB-48E3-A81C-008400EF00B4}" done="0">
+  <threadedComment ref="F97" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00490001-00FB-48E3-A81C-008400EF00B4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F98" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{0053002C-0058-412F-A5E0-00F5008A0042}" done="0">
+  <threadedComment ref="F98" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0053002C-0058-412F-A5E0-00F5008A0042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F99" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{004800D8-003D-401F-B7E7-0098004A006C}" done="0">
+  <threadedComment ref="F99" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{004800D8-003D-401F-B7E7-0098004A006C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F100" personId="{4D33DE20-2BA8-1266-C079-666A0381B99B}" id="{009600AA-0088-47E1-85DE-007F0056006F}" done="0">
+  <threadedComment ref="F100" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009600AA-0088-47E1-85DE-007F0056006F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
@@ -18416,7 +18353,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{00CA008E-0065-413A-85B7-002400F3006D}">
+          <x14:cfRule type="expression" priority="3" id="{0058001F-007E-4FBA-9451-00B00045008A}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -18433,7 +18370,7 @@
           <xm:sqref>J4:J105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{00D000F1-00E9-4A91-B066-005500890097}">
+          <x14:cfRule type="expression" priority="2" id="{00B000D4-006B-4EF0-ACA0-00A000FE00D2}">
             <xm:f>$F4=2</xm:f>
             <x14:dxf>
               <font>
@@ -18450,7 +18387,7 @@
           <xm:sqref>K4:M105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{008300BC-0059-4EA7-80DB-00B5006D00B0}">
+          <x14:cfRule type="expression" priority="1" id="{008C00A4-0075-4818-95EC-006500DB00F9}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -18470,25 +18407,25 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00750020-00C1-4A07-A97F-005500E200BA}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E40049-0005-425A-BB1F-00CB004800C4}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>AF4:AR105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004100B9-00DA-45AA-8E86-004C004400B5}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0049005D-005E-4F77-8F9F-003F00F9004A}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>768</xm:f>
           </x14:formula1>
           <xm:sqref>B4 D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A900C4-0034-4BF8-8545-0042000F0063}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006100FD-00F0-4368-AEE2-001C00FD005D}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1024</xm:f>
           </x14:formula1>
           <xm:sqref>A4 C4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008C00CB-00AF-4ED2-BFB0-00F3007900A1}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009C0070-00C8-41D8-A014-0024006300CB}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -18497,19 +18434,19 @@
           </x14:formula2>
           <xm:sqref>F4:F105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0097000E-00AB-40E2-8FDC-008B00200091}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008A004E-00EC-4340-BD91-00A3003B0010}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND(F4=2,J4&gt;0)</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009700DB-0040-4034-A622-0086005A00F0}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004900A5-00EB-4EEC-B227-008E008D00E5}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND($F4=1,K4&gt;=0,K4&lt;256)</xm:f>
           </x14:formula1>
           <xm:sqref>K4:M105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F300F0-0050-4652-A371-008B001E004F}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007C00B3-0093-49B1-B239-009600C100E9}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
@@ -19066,7 +19003,7 @@
       </c>
       <c r="AS5" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_ktk_pintu = {0.8,0.5,0};</v>
+        <v xml:space="preserve">Color_t coklat_cerah = {0.8,0.5,0};</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
@@ -19108,7 +19045,7 @@
         <v/>
       </c>
       <c r="Q6" s="47">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="R6" s="48">
         <v>35</v>
@@ -19127,7 +19064,7 @@
       <c r="AD6" s="51"/>
       <c r="AE6" s="52">
         <f t="shared" si="43"/>
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF6" s="53">
         <f t="shared" si="43"/>
@@ -19183,7 +19120,7 @@
       </c>
       <c r="AS6" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Point2D_t  lngkrn_ggng_pintu [1] = {{160.,140.},{.,.},{.,.},{.,.},{.,.},{.,.},{.,.}};</v>
+        <v xml:space="preserve">Point2D_t  lngkrn_ggng_pintu [1] = {{150.,140.},{.,.},{.,.},{.,.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
@@ -19300,7 +19237,7 @@
       </c>
       <c r="AS7" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_lngkrn_ggng_pintu = {0.9,0.9,0.8};</v>
+        <v xml:space="preserve">Color_t putih_tulang = {0.9,0.9,0.8};</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
@@ -19546,7 +19483,7 @@
       </c>
       <c r="AS9" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_ktk_ggng_obor1 = {0.30000000000000004,0.30000000000000004,0};</v>
+        <v xml:space="preserve">Color_t coklat_gelap_bgt = {0.30000000000000004,0.30000000000000004,0};</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
@@ -19591,13 +19528,13 @@
         <v>60</v>
       </c>
       <c r="R10" s="48">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="S10" s="49">
         <v>65</v>
       </c>
       <c r="T10" s="43">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="U10" s="50">
         <v>65</v>
@@ -19623,7 +19560,7 @@
       </c>
       <c r="AF10" s="53">
         <f t="shared" si="43"/>
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AG10" s="54">
         <f t="shared" si="44"/>
@@ -19631,7 +19568,7 @@
       </c>
       <c r="AH10" s="55">
         <f t="shared" si="44"/>
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AI10" s="52">
         <f t="shared" si="44"/>
@@ -19675,7 +19612,7 @@
       </c>
       <c r="AS10" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Point2D_t  ktk_api1_obor1 [4] = {{240.,260.},{260.,260.},{260.,292.},{240.,292.},{.,.},{.,.},{.,.}};</v>
+        <v xml:space="preserve">Point2D_t  ktk_api1_obor1 [4] = {{240.,280.},{260.,280.},{260.,292.},{240.,292.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -19792,7 +19729,7 @@
       </c>
       <c r="AS11" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_api1_obor1 = {1,1,0.7000000000000001};</v>
+        <v xml:space="preserve">Color_t api_cerah = {1,1,0.7000000000000001};</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
@@ -20038,7 +19975,7 @@
       </c>
       <c r="AS13" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_api2_obor1 = {1,0.8,0.2};</v>
+        <v xml:space="preserve">Color_t api_menyala = {1,0.8,0.2};</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
@@ -20188,7 +20125,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J15" s="43"/>
       <c r="K15" s="38">
@@ -20284,7 +20221,7 @@
       </c>
       <c r="AS15" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_ktk_ggng_obor2 = {0.30000000000000004,0.30000000000000004,0};</v>
+        <v xml:space="preserve">Color_t coklat_gelap_bgt = {0.30000000000000004,0.30000000000000004,0};</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
@@ -20305,7 +20242,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I16" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J16" s="43">
         <v>4</v>
@@ -20434,7 +20371,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J17" s="43"/>
       <c r="K17" s="38">
@@ -20530,7 +20467,7 @@
       </c>
       <c r="AS17" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_api1_obor2 = {1,1,0.7000000000000001};</v>
+        <v xml:space="preserve">Color_t api_cerah = {1,1,0.7000000000000001};</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
@@ -20551,7 +20488,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I18" s="42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J18" s="43">
         <v>4</v>
@@ -20680,7 +20617,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J19" s="43"/>
       <c r="K19" s="38">
@@ -20776,7 +20713,7 @@
       </c>
       <c r="AS19" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_api2_obor2 = {1,0.8,0.2};</v>
+        <v xml:space="preserve">Color_t api_menyala = {1,0.8,0.2};</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
@@ -20797,7 +20734,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J20" s="43">
         <v>4</v>
@@ -20926,7 +20863,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="J21" s="43"/>
       <c r="K21" s="38">
@@ -21022,7 +20959,7 @@
       </c>
       <c r="AS21" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_ktk_crfting_tble = {0.8,0.5,0};</v>
+        <v xml:space="preserve">Color_t coklat_cerah = {0.8,0.5,0};</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
@@ -21043,7 +20980,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J22" s="43">
         <v>3</v>
@@ -21168,7 +21105,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J23" s="43"/>
       <c r="K23" s="38">
@@ -21264,7 +21201,7 @@
       </c>
       <c r="AS23" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_sgt_crfiting_tble = {0,0,0};</v>
+        <v xml:space="preserve">Color_t hitam = {0,0,0};</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
@@ -21285,7 +21222,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J24" s="43">
         <v>2</v>
@@ -21406,7 +21343,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I25" s="42" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J25" s="43">
         <v>4</v>
@@ -21535,7 +21472,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I26" s="42" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="J26" s="43"/>
       <c r="K26" s="38">
@@ -21631,7 +21568,7 @@
       </c>
       <c r="AS26" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_ktk_palu = {0.9,0.9,0.8};</v>
+        <v xml:space="preserve">Color_t putih_tulang = {0.9,0.9,0.8};</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
@@ -21652,7 +21589,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I27" s="42" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J27" s="43">
         <v>4</v>
@@ -21679,13 +21616,13 @@
         <v>10</v>
       </c>
       <c r="S27" s="49">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T27" s="43">
         <v>10</v>
       </c>
       <c r="U27" s="50">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V27" s="48">
         <v>20</v>
@@ -21712,7 +21649,7 @@
       </c>
       <c r="AG27" s="54">
         <f t="shared" si="43"/>
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AH27" s="55">
         <f t="shared" si="43"/>
@@ -21720,7 +21657,7 @@
       </c>
       <c r="AI27" s="52">
         <f t="shared" si="43"/>
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AJ27" s="53">
         <f t="shared" si="43"/>
@@ -21760,7 +21697,7 @@
       </c>
       <c r="AS27" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Point2D_t  ktk_ggng_palu [4] = {{256.,40.},{268.,40.},{268.,80.},{256.,80.},{.,.},{.,.},{.,.}};</v>
+        <v xml:space="preserve">Point2D_t  ktk_ggng_palu [4] = {{256.,40.},{264.,40.},{264.,80.},{256.,80.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
@@ -21781,7 +21718,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I28" s="42" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J28" s="43"/>
       <c r="K28" s="38">
@@ -21877,7 +21814,7 @@
       </c>
       <c r="AS28" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_ktk_ggng_palu = {0.30000000000000004,0.30000000000000004,0};</v>
+        <v xml:space="preserve">Color_t coklat_gelap_bgt = {0.30000000000000004,0.30000000000000004,0};</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
@@ -21898,7 +21835,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I29" s="42" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J29" s="43">
         <v>4</v>
@@ -22027,7 +21964,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="38">
@@ -22144,7 +22081,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I31" s="42" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J31" s="43">
         <v>4</v>
@@ -22273,7 +22210,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I32" s="42" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="J32" s="43">
         <v>3</v>
@@ -22371,7 +22308,7 @@
       </c>
       <c r="AS32" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_ktk_lbng_gergaji = {0.8,0.5,0};</v>
+        <v xml:space="preserve">Color_t coklat_cerah = {0.8,0.5,0};</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
@@ -22392,7 +22329,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I33" s="42" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J33" s="43">
         <v>3</v>
@@ -22517,7 +22454,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I34" s="42" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="J34" s="43"/>
       <c r="K34" s="38">
@@ -22613,7 +22550,7 @@
       </c>
       <c r="AS34" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_sgt_gergaji = {0.9,0.9,0.8};</v>
+        <v xml:space="preserve">Color_t putih_tulang = {0.9,0.9,0.8};</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
@@ -22634,7 +22571,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I35" s="42" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J35" s="43">
         <v>4</v>
@@ -22763,7 +22700,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I36" s="42" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J36" s="43"/>
       <c r="K36" s="38">
@@ -22859,7 +22796,7 @@
       </c>
       <c r="AS36" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_ktk_ats_furnace = {0.5,0.5,0.5};</v>
+        <v xml:space="preserve">Color_t abu_muda = {0.5,0.5,0.5};</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
@@ -22880,7 +22817,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I37" s="42" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J37" s="43">
         <v>4</v>
@@ -23009,7 +22946,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I38" s="42" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J38" s="43"/>
       <c r="K38" s="38">
@@ -23105,7 +23042,7 @@
       </c>
       <c r="AS38" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_ktk_bwh_furnace = {0.30000000000000004,0.30000000000000004,0.30000000000000004};</v>
+        <v xml:space="preserve">Color_t abu_tua = {0.30000000000000004,0.30000000000000004,0.30000000000000004};</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
@@ -23126,7 +23063,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I39" s="42" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J39" s="43">
         <v>1</v>
@@ -23243,7 +23180,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I40" s="42" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="J40" s="43"/>
       <c r="K40" s="38">
@@ -23339,7 +23276,7 @@
       </c>
       <c r="AS40" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_stglkr1_furnace = {0,0,0};</v>
+        <v xml:space="preserve">Color_t hitam = {0,0,0};</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
@@ -23360,7 +23297,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I41" s="42" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="J41" s="43">
         <v>1</v>
@@ -23477,7 +23414,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I42" s="42" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J42" s="43"/>
       <c r="K42" s="38">
@@ -23573,7 +23510,7 @@
       </c>
       <c r="AS42" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_stglkr2_furnace = {1,0.1,0};</v>
+        <v xml:space="preserve">Color_t oranye_menyala = {1,0.1,0};</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
@@ -23594,7 +23531,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I43" s="42" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J43" s="43">
         <v>4</v>
@@ -23723,7 +23660,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I44" s="42" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="J44" s="43"/>
       <c r="K44" s="38">
@@ -23819,7 +23756,7 @@
       </c>
       <c r="AS44" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_ktk_bwh_chest = {0.8,0.5,0};</v>
+        <v xml:space="preserve">Color_t coklat_cerah = {0.8,0.5,0};</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
@@ -23840,7 +23777,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I45" s="42" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="J45" s="43">
         <v>4</v>
@@ -23969,7 +23906,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I46" s="42" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="J46" s="43"/>
       <c r="K46" s="38">
@@ -24065,7 +24002,7 @@
       </c>
       <c r="AS46" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_ktk_atas_chest = {0.7000000000000001,0.4,0};</v>
+        <v xml:space="preserve">Color_t coklat_gelap = {0.7000000000000001,0.4,0};</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
@@ -24086,7 +24023,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I47" s="42" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="J47" s="43">
         <v>4</v>
@@ -24215,7 +24152,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I48" s="42" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="J48" s="43"/>
       <c r="K48" s="38">
@@ -24311,7 +24248,7 @@
       </c>
       <c r="AS48" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_ktk_kunci_chest = {0.9,0.9,0.8};</v>
+        <v xml:space="preserve">Color_t putih_tulang = {0.9,0.9,0.8};</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1">
@@ -24332,7 +24269,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I49" s="42" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J49" s="43"/>
       <c r="K49" s="38"/>
@@ -24459,7 +24396,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I50" s="42" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="J50" s="43"/>
       <c r="K50" s="38">
@@ -24555,7 +24492,7 @@
       </c>
       <c r="AS50" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_ktk_bwh_chest2 = {0.8,0.5,0};</v>
+        <v xml:space="preserve">Color_t coklat_cerah = {0.8,0.5,0};</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1">
@@ -24576,7 +24513,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I51" s="42" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="J51" s="43"/>
       <c r="K51" s="38"/>
@@ -24705,7 +24642,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I52" s="42" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="J52" s="43"/>
       <c r="K52" s="38">
@@ -24801,7 +24738,7 @@
       </c>
       <c r="AS52" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_ktk_atas_chest2 = {0.7000000000000001,0.4,0};</v>
+        <v xml:space="preserve">Color_t coklat_gelap = {0.7000000000000001,0.4,0};</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1">
@@ -24822,7 +24759,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I53" s="42" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="J53" s="43"/>
       <c r="K53" s="38"/>
@@ -24928,7 +24865,7 @@
       </c>
       <c r="AS53" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Point2D_t  ktk_kunci_chest2 [] = {{570.,102.},{586.,102.},{586.,140.},{570.,140.},{.,.},{.,.},{.,.}};</v>
+        <v xml:space="preserve">Point2D_t  putih_tulang [] = {{570.,102.},{586.,102.},{586.,140.},{570.,140.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
@@ -24949,7 +24886,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I54" s="42" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="J54" s="43"/>
       <c r="K54" s="38">
@@ -25066,7 +25003,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I55" s="42" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J55" s="43">
         <v>4</v>
@@ -25195,7 +25132,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I56" s="42" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="J56" s="43"/>
       <c r="K56" s="38">
@@ -25291,7 +25228,7 @@
       </c>
       <c r="AS56" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_ktk_jendela = {0.9,0.9,0.9};</v>
+        <v xml:space="preserve">Color_t putih = {0.9,0.9,0.9};</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1">
@@ -25312,7 +25249,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I57" s="42" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="J57" s="43">
         <v>2</v>
@@ -25433,7 +25370,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I58" s="42" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="J58" s="43">
         <v>2</v>
@@ -25554,7 +25491,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I59" s="42" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J59" s="43">
         <v>2</v>
@@ -25675,7 +25612,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I60" s="42" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="J60" s="43">
         <v>2</v>
@@ -25796,7 +25733,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I61" s="42" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="J61" s="43">
         <v>4</v>
@@ -25925,7 +25862,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I62" s="42" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="J62" s="43"/>
       <c r="K62" s="38">
@@ -26021,7 +25958,7 @@
       </c>
       <c r="AS62" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_ktk_kasur_mrh = {1,0,0};</v>
+        <v xml:space="preserve">Color_t merah_menyala = {1,0,0};</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1">
@@ -26042,7 +25979,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I63" s="42" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J63" s="43">
         <v>4</v>
@@ -26171,7 +26108,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I64" s="42" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="J64" s="43"/>
       <c r="K64" s="38">
@@ -26267,7 +26204,7 @@
       </c>
       <c r="AS64" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_ktk_kasur_putih = {0.9,0.9,0.9};</v>
+        <v xml:space="preserve">Color_t putih = {0.9,0.9,0.9};</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1">
@@ -26288,7 +26225,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I65" s="42" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="J65" s="43">
         <v>4</v>
@@ -26417,7 +26354,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I66" s="42" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="J66" s="43"/>
       <c r="K66" s="38">
@@ -26513,7 +26450,7 @@
       </c>
       <c r="AS66" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_ktk_bntl_putih = {0.9,0.9,0.9};</v>
+        <v xml:space="preserve">Color_t putih = {0.9,0.9,0.9};</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1">
@@ -26534,7 +26471,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I67" s="42" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="J67" s="43">
         <v>4</v>
@@ -26663,7 +26600,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I68" s="42" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="J68" s="43"/>
       <c r="K68" s="38">
@@ -26759,7 +26696,7 @@
       </c>
       <c r="AS68" s="57" t="str">
         <f t="shared" ref="AS68:AS105" si="53">IF(F68=1,IF(OR(K68="",L68="",M68=""),"",CONCATENATE(G68," ",I68," = {",ROUND(N68,1),",",ROUND(O68,1),",",ROUND(P68,1),"};")),IF(F68=2,CONCATENATE(H68,"  ",I68," [",J68,"] = {{",AE68,".,",AF68,".},{",AG68,".,",AH68,".},{",AI68,".,",AJ68,".},{",AK68,".,",AL68,".},{",AM68,".,",AN68,".},{",AO68,".,",AP68,".},{",AQ68,".,",AR68,".}};"),""))</f>
-        <v xml:space="preserve">Color_t w_ktk_kki_kasur1 = {0.8,0.5,0};</v>
+        <v xml:space="preserve">Color_t coklat_cerah = {0.8,0.5,0};</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1">
@@ -26780,7 +26717,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I69" s="42" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="J69" s="43">
         <v>4</v>
@@ -26909,7 +26846,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I70" s="42" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="J70" s="43"/>
       <c r="K70" s="38">
@@ -27005,7 +26942,7 @@
       </c>
       <c r="AS70" s="57" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">Color_t w_ktk_kki_kasur2 = {0.7000000000000001,0.4,0};</v>
+        <v xml:space="preserve">Color_t coklat_gelap = {0.7000000000000001,0.4,0};</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1">
@@ -27026,7 +26963,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I71" s="42" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="J71" s="43"/>
       <c r="K71" s="38"/>
@@ -27153,7 +27090,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I72" s="42" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="J72" s="43"/>
       <c r="K72" s="38">
@@ -27249,7 +27186,7 @@
       </c>
       <c r="AS72" s="57" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">Color_t w_ktk_kki_kasur3 = {0.8,0.5,0};</v>
+        <v xml:space="preserve">Color_t coklat_cerah = {0.8,0.5,0};</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1">
@@ -27270,7 +27207,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I73" s="42" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="J73" s="43"/>
       <c r="K73" s="38"/>
@@ -27397,7 +27334,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I74" s="42" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="J74" s="43"/>
       <c r="K74" s="38">
@@ -27493,7 +27430,7 @@
       </c>
       <c r="AS74" s="57" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">Color_t w_ktk_kki_kasur4 = {0.7000000000000001,0.4,0};</v>
+        <v xml:space="preserve">Color_t coklat_gelap = {0.7000000000000001,0.4,0};</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1">
@@ -30846,16 +30783,11 @@
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AQ2:AR2"/>
   </mergeCells>
-  <dataValidations count="43" disablePrompts="0">
-    <dataValidation sqref="N4:P105 I4:I13 I20 I22 I24:I25 I28:I29 I31 I33 I35 I37 I39 I43 I47 I55 I61 I63 I67 I75:I105" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
-    <dataValidation sqref="I14:I19" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
-    <dataValidation sqref="I21" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
-    <dataValidation sqref="I23" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
-    <dataValidation sqref="I26" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+  <dataValidations count="48" disablePrompts="0">
+    <dataValidation sqref="N4:P105 I4:I12 I20 I22 I24:I25 I29 I31 I33 I35 I37 I39 I43 I47 I55 I61 I63 I67 I75:I105" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I14 I16 I18" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I27" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
-    <dataValidation sqref="I30" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I32" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
-    <dataValidation sqref="I34" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I36" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I38" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I41" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
@@ -30890,14 +30822,24 @@
     <dataValidation sqref="I62" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I64" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I65" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
-    <dataValidation sqref="I66" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I68" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I69" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I70" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I71" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I73" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I21" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I26" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I34" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I15" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I28" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I30" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I13" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I17" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I19" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I23" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I66" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I74" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I72" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
-    <dataValidation sqref="I73" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
-    <dataValidation sqref="I74" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
   </dataValidations>
   <printOptions headings="0" gridLines="0" horizontalCentered="1"/>
   <pageMargins left="0.19685039370078738" right="0.19685039370078738" top="0.39370078740157477" bottom="0.39370078740157477" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -30908,7 +30850,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{00250028-0007-4D93-8D76-003B00E400C9}">
+          <x14:cfRule type="expression" priority="3" id="{00AF006B-00D0-499F-99B5-006000D700F6}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30925,7 +30867,7 @@
           <xm:sqref>J4:J29 J31:J105 J31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{004F00A0-00CC-4C5F-A217-00BE00B30027}">
+          <x14:cfRule type="expression" priority="2" id="{00DF00D5-0067-45FA-B585-0019000E000B}">
             <xm:f>$F4=2</xm:f>
             <x14:dxf>
               <font>
@@ -30942,7 +30884,7 @@
           <xm:sqref>K4:M105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00B600F1-00C4-4467-870E-00E900270026}">
+          <x14:cfRule type="expression" priority="1" id="{00380029-00E0-434F-938D-003B006300F4}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30959,7 +30901,7 @@
           <xm:sqref>Q4:AD50 Y51:AD51 Q52:AD105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00960027-00EE-4BCC-966C-00FD007C00E2}">
+          <x14:cfRule type="expression" priority="1" id="{004900CE-003C-4C53-AEE0-008900BF00A1}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30976,7 +30918,7 @@
           <xm:sqref>Q31:X31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{0091008A-005A-416A-8B1C-0032006300D2}">
+          <x14:cfRule type="expression" priority="1" id="{00090061-0083-49FE-8F16-0018002E0013}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30993,7 +30935,7 @@
           <xm:sqref>Q33:T33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{003A00BC-003B-4E14-B62D-009B0048000E}">
+          <x14:cfRule type="expression" priority="1" id="{00D6006A-0029-41E1-8E2F-0054007A0091}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31010,7 +30952,7 @@
           <xm:sqref>U33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{004C007F-0085-4669-88FF-009400A50062}">
+          <x14:cfRule type="expression" priority="1" id="{00260014-00E0-4685-B6EE-00B600A5008D}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31027,7 +30969,7 @@
           <xm:sqref>U33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{003D0064-00A8-4F6B-BB63-0080007D0002}">
+          <x14:cfRule type="expression" priority="1" id="{00ED003C-0046-4BDA-89DF-0078009D009F}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31044,7 +30986,7 @@
           <xm:sqref>Q41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00FF0006-002D-4DF1-84BF-00A20096000B}">
+          <x14:cfRule type="expression" priority="1" id="{0068007D-0001-4ED7-8795-00A000540075}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31061,7 +31003,7 @@
           <xm:sqref>S47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{003F00C4-0028-41DD-AD59-006C00A10075}">
+          <x14:cfRule type="expression" priority="1" id="{00880033-005D-42FB-B107-00F300D1007C}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31078,7 +31020,7 @@
           <xm:sqref>T47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00E00082-0088-46DE-9C8F-0009005900CD}">
+          <x14:cfRule type="expression" priority="1" id="{006900AD-0078-4ACA-8B44-006400EA0002}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31095,7 +31037,7 @@
           <xm:sqref>U47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00B600AD-0013-4CAB-A650-00AF00030005}">
+          <x14:cfRule type="expression" priority="1" id="{00E000DD-0098-4A6B-8E98-005C00250015}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31112,7 +31054,7 @@
           <xm:sqref>U47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00F2009A-0031-4E7D-A9DD-002B005000AA}">
+          <x14:cfRule type="expression" priority="1" id="{00FA002B-00D1-457E-9DA2-0054007D00EC}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31129,7 +31071,7 @@
           <xm:sqref>W47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00FB00EF-0041-442E-A0FE-007C000600D3}">
+          <x14:cfRule type="expression" priority="1" id="{007D0025-008B-497B-9B86-0058001E00A2}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31146,7 +31088,7 @@
           <xm:sqref>Q51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00860059-00B4-4581-AE6E-003100F8009A}">
+          <x14:cfRule type="expression" priority="1" id="{001700A9-00B1-4401-87B4-000400890075}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31163,7 +31105,7 @@
           <xm:sqref>S51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00C50018-00A4-421B-8A37-00F7000800B7}">
+          <x14:cfRule type="expression" priority="1" id="{00890022-00E3-499D-8E30-0006000500D6}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31180,7 +31122,7 @@
           <xm:sqref>U51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00470064-00FA-4574-A9AE-0060004300F4}">
+          <x14:cfRule type="expression" priority="1" id="{00E900D9-0077-4747-A531-004C00760060}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31197,7 +31139,7 @@
           <xm:sqref>W51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00BB0029-00E7-4621-B6F6-00F700E00000}">
+          <x14:cfRule type="expression" priority="1" id="{0032008D-00AC-4ABD-9EA9-008700310095}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31214,7 +31156,7 @@
           <xm:sqref>Q59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00C600E7-008D-490F-A65E-0034005B00DF}">
+          <x14:cfRule type="expression" priority="1" id="{0018004E-001B-4242-ADAE-007200910036}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31231,7 +31173,7 @@
           <xm:sqref>S59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00770076-0040-4882-ADFF-002800DE0095}">
+          <x14:cfRule type="expression" priority="1" id="{00990046-007B-4638-8AD4-005900550020}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31248,7 +31190,7 @@
           <xm:sqref>Q60:T60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00D1003F-004C-42D1-8E61-00E800D60083}">
+          <x14:cfRule type="expression" priority="1" id="{009E0022-0051-4B09-8DF4-0078009200F1}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31265,7 +31207,7 @@
           <xm:sqref>W61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00FD000A-0029-471D-8DFB-00000036002D}">
+          <x14:cfRule type="expression" priority="1" id="{008B0072-003B-4955-9D75-00AE00A90083}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31282,7 +31224,7 @@
           <xm:sqref>X61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00600059-0044-44CB-BFA2-005D003E0084}">
+          <x14:cfRule type="expression" priority="1" id="{001F0026-0011-4AFF-9CCC-00C300E400CC}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31299,7 +31241,7 @@
           <xm:sqref>V63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{0044001C-0086-4BC1-989A-001000810022}">
+          <x14:cfRule type="expression" priority="1" id="{00EC0038-0022-42FB-985D-00DC007F0066}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31316,7 +31258,7 @@
           <xm:sqref>X63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{007E00FF-007B-4951-AAE7-003C0004005D}">
+          <x14:cfRule type="expression" priority="1" id="{0084005B-0047-4A01-9186-002500B000B4}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31333,7 +31275,7 @@
           <xm:sqref>X63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00AD00CC-00D6-4C29-B401-00CC00FF00B1}">
+          <x14:cfRule type="expression" priority="1" id="{001000D1-0037-4944-96B0-00C4000900F0}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31350,7 +31292,7 @@
           <xm:sqref>X65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{0090003F-009A-406E-8E1C-004100290014}">
+          <x14:cfRule type="expression" priority="1" id="{000C003A-0044-48A5-B3A4-001E0094001B}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31367,7 +31309,7 @@
           <xm:sqref>U67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00330022-0051-40D6-AF1C-00350050001C}">
+          <x14:cfRule type="expression" priority="1" id="{00EE00AB-00E3-4539-96BD-00AB001700C4}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31384,7 +31326,7 @@
           <xm:sqref>U69:X69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{008A0025-0061-48D9-B5C9-0061005E0056}">
+          <x14:cfRule type="expression" priority="1" id="{00070019-0007-4C17-A4EE-00AB00D00093}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31401,7 +31343,7 @@
           <xm:sqref>U71:X71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00DC0037-0025-48C8-AD40-005900F10060}">
+          <x14:cfRule type="expression" priority="1" id="{00300065-001E-4E14-B4EF-004D00DD0010}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31418,7 +31360,7 @@
           <xm:sqref>U73:X73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{002E004D-00FB-4512-8D90-00BC0078004F}">
+          <x14:cfRule type="expression" priority="1" id="{008C0063-0085-4DC8-BD82-004B008400B2}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31438,25 +31380,25 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="30" disablePrompts="0">
-        <x14:dataValidation xr:uid="{002A0055-002E-44D4-950A-000C0083004B}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008400C4-00F7-4FF1-830C-004B000E009C}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q4:AD30 Y31:AD31 Q32:AD32 V33:AD33 Q34:AD40 R41:AD41 Q42:AD46 Q47:R47 V47 X47:AD47 Q48:AD50 Y51:AD51 Q52:AD58 R59 T59:AD59 U60:AD60 Q61:V61 Y61:AD61 Q62:AD62 Q63:U63 W63 Y63:AD63 Q64:AD64 Q65:W65 Y65:AD65 Q66:AD66 Q67:T67 V67:AD67 Q68:AD68 Q69:T69 Y69:AD69 Q70:AD70 Q71:T71 Y71:AD71 Q72:AD72 Q73:T73 Y73:AD73 Q74:AD105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007800EF-00F6-4418-A6F9-00D100B7008C}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008700E6-0032-4876-933A-0019006F00C7}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND($F4=1,K4&gt;=0,K4&lt;256)</xm:f>
           </x14:formula1>
           <xm:sqref>K4:M8 K10:M10 K12:M20 K22:M105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00BD008C-0039-436E-94A5-0002004900E8}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00030054-0041-4051-9D70-00DC0033000F}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND(F4=2,J4&gt;0)</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J29 J31 J32:J105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008F00F2-00C8-4144-BE21-007A004800B1}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C1001A-00BE-4224-846C-005B009F00C5}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -31465,25 +31407,25 @@
           </x14:formula2>
           <xm:sqref>F4:F13 F20:F60 F63:F105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B8004A-0007-4F2C-A019-00B100FE004B}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00240043-005B-475D-8E24-0097006600CD}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1024</xm:f>
           </x14:formula1>
           <xm:sqref>A4 C4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FA004E-000C-4A12-BE12-001D001B00BE}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009D00C8-00EA-4E8E-8BCA-0003005C00CA}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>768</xm:f>
           </x14:formula1>
           <xm:sqref>B4 D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003A0081-0036-4689-B490-00AA00500055}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00AB0072-0015-4DE5-953F-00C100A4001D}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>AF4:AR105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000F0052-00F0-4EC4-B468-00FE00FC007F}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0059009A-0053-428C-9E78-003900CD00B4}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -31492,85 +31434,85 @@
           </x14:formula2>
           <xm:sqref>F14:F19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C900D2-0078-4A0B-8CA3-002E000400EE}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0056003B-005A-4B8C-8C93-0017003100B9}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F5=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q31:X31</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005100A0-00ED-44FB-8782-009F00EF0094}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004600E2-005F-4A28-A641-0097003E00B6}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F8=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q33:T33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FF0002-0096-4880-BCC0-0015004A003E}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006D0094-0027-43B9-91DF-00B500A30003}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F8=2</xm:f>
           </x14:formula1>
           <xm:sqref>U33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DE0065-0015-47F0-8674-00C200000092}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00DA00DA-00E0-4020-B589-004600CD00F5}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A000ED-00CA-430C-86DF-00F800940019}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000200F4-002B-4D4C-A482-00F000F10011}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>S47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B70005-00E6-4279-A31C-0046008C00B9}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00EE00D8-0029-47EB-AA7A-0047008B006A}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>T47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004300B0-0081-4CB1-A053-007F001A0030}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00AA00F3-006B-4DB5-8994-00D7008D00CC}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>U47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A1004F-00FF-4C88-808B-009A00730081}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{002B0033-0005-441A-8003-002B00390038}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>W47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CA0040-00B2-4611-9D9D-00C500470093}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B90045-00BD-4A4F-A79A-00C9002300F6}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009E006F-0084-486D-BF96-007E0087003E}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00810022-0024-44B5-BCBA-004B008C0048}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>S59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F00093-00FF-4D6F-8BBE-004F00EE009E}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009D0010-00FA-4465-9179-000700F900B1}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q60:T60</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C0009B-00B0-492C-96A4-0061002D0072}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00370079-0029-4940-BBA6-00F6003B0033}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>W61</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005000D2-00A0-4212-BC9E-0060006000F7}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00470055-00BE-45FF-A72B-00790042004D}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>X61</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00730033-0077-44D4-9249-000800500027}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00760081-009D-4CC4-8891-007B00A0004A}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -31579,7 +31521,7 @@
           </x14:formula2>
           <xm:sqref>F61</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F400C4-0055-4281-9CE8-00C200820065}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B50099-00ED-4182-AE0A-00DC00880096}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -31588,43 +31530,43 @@
           </x14:formula2>
           <xm:sqref>F62</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CC006F-008A-41D5-9F2B-00EE00250082}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000600A0-007C-49B9-96DF-0003008F0028}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>V63</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0097004D-00A6-426F-8E16-00D400CF00EA}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00220004-00F7-43D8-9F6C-00A2001900BE}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>X63</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0031003E-005F-4CCC-BC42-002C005500F6}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B300D2-00A3-4D1C-9023-0022007F0097}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>X65</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D80056-00C9-4656-A5D7-0005000000E1}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C40062-0047-489B-ACF4-00AE00AE002B}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>U67</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B9008F-00F6-47CF-9E3F-0087004500EE}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009F0096-00CD-40E1-8D11-002D006500D7}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>U69:X69</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000000CC-0004-4209-8F75-00B6006300C5}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C600E1-0061-4B2F-AB66-005C003800E6}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>U71:X71</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00380057-0009-4B57-9682-00CB00F80059}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D100B0-00F4-4BA6-8030-0022000300E0}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>

--- a/Template KOORDINAT.xlsx
+++ b/Template KOORDINAT.xlsx
@@ -4775,7 +4775,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>X-Desain</t>
   </si>
@@ -4943,10 +4943,13 @@
     <t>ktk_kunci_chest</t>
   </si>
   <si>
+    <t>ktk_bwh_chest2</t>
+  </si>
+  <si>
     <t>ktk_atas_chest2</t>
   </si>
   <si>
-    <t>w_ktk_kunci_chest2</t>
+    <t>ktk_kunci_chest2</t>
   </si>
   <si>
     <t>ktk_jendela</t>
@@ -5557,8 +5560,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="poltek" id="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}"/>
-  <person displayName="Neny" id="{A7980FCD-D5B1-027F-FF83-6AE3503CE8DD}"/>
+  <person displayName="poltek" id="{173D1780-D085-D07A-C966-4EEA65435AB2}"/>
+  <person displayName="Neny" id="{32B810E5-130F-77B6-7376-BAC8934697FC}"/>
 </personList>
 </file>
 
@@ -6056,516 +6059,516 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F11" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{002500E1-00B8-415B-B628-00BC00C1008B}" done="0">
+  <threadedComment ref="F11" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{002500E1-00B8-415B-B628-00BC00C1008B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F101" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E800CE-007E-426B-B7E5-007C0091000C}" done="0">
+  <threadedComment ref="F101" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E800CE-007E-426B-B7E5-007C0091000C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F102" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E000F6-00AF-4CED-A227-008A00F2001C}" done="0">
+  <threadedComment ref="F102" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E000F6-00AF-4CED-A227-008A00F2001C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F103" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{003D0069-00A4-4EB2-9FF8-00C900CF008C}" done="0">
+  <threadedComment ref="F103" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{003D0069-00A4-4EB2-9FF8-00C900CF008C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F104" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E900E6-0010-43DD-BD1C-002F00250065}" done="0">
+  <threadedComment ref="F104" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E900E6-0010-43DD-BD1C-002F00250065}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F105" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00FE00F5-001D-42E1-AB80-004F006300A1}" done="0">
+  <threadedComment ref="F105" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00FE00F5-001D-42E1-AB80-004F006300A1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F12" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00BB00DD-0073-4E2E-8E5F-007C007F0010}" done="0">
+  <threadedComment ref="F12" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00BB00DD-0073-4E2E-8E5F-007C007F0010}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F13" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00B00031-00C9-4E4A-A3B5-006000A60042}" done="0">
+  <threadedComment ref="F13" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00B00031-00C9-4E4A-A3B5-006000A60042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F14" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{001200B5-0057-4871-9B75-0071006000EE}" done="0">
+  <threadedComment ref="F14" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{001200B5-0057-4871-9B75-0071006000EE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F15" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0032009A-0014-4A22-A6AB-001F000500BA}" done="0">
+  <threadedComment ref="F15" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0032009A-0014-4A22-A6AB-001F000500BA}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F16" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00CC007D-000D-4589-9961-003000160093}" done="0">
+  <threadedComment ref="F16" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00CC007D-000D-4589-9961-003000160093}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F17" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009400AE-00F2-4CA6-B8A9-00C000DD00B4}" done="0">
+  <threadedComment ref="F17" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009400AE-00F2-4CA6-B8A9-00C000DD00B4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F18" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{003100D6-0016-4C77-B58E-0060001F0052}" done="0">
+  <threadedComment ref="F18" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{003100D6-0016-4C77-B58E-0060001F0052}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F19" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009D0070-0067-450A-847F-00CD00F5001B}" done="0">
+  <threadedComment ref="F19" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009D0070-0067-450A-847F-00CD00F5001B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F20" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{006100D3-00DC-44AD-B91D-005F00A0007E}" done="0">
+  <threadedComment ref="F20" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{006100D3-00DC-44AD-B91D-005F00A0007E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F21" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D800F4-000E-4F86-A2C7-0060009400B9}" done="0">
+  <threadedComment ref="F21" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D800F4-000E-4F86-A2C7-0060009400B9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F22" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{008500D6-0072-416A-8A43-009C0054002E}" done="0">
+  <threadedComment ref="F22" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{008500D6-0072-416A-8A43-009C0054002E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F23" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0089000F-0033-470B-91DC-00C300A40067}" done="0">
+  <threadedComment ref="F23" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0089000F-0033-470B-91DC-00C300A40067}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F24" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{000400E2-0064-464B-8D0F-0091006E00D3}" done="0">
+  <threadedComment ref="F24" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{000400E2-0064-464B-8D0F-0091006E00D3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F25" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{007E0057-0058-4C50-ABEF-0064004200F8}" done="0">
+  <threadedComment ref="F25" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{007E0057-0058-4C50-ABEF-0064004200F8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F26" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00CC009C-00FA-4C65-A1BB-002300F300AC}" done="0">
+  <threadedComment ref="F26" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00CC009C-00FA-4C65-A1BB-002300F300AC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F27" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00650033-004D-4692-A5AE-003E005F009E}" done="0">
+  <threadedComment ref="F27" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00650033-004D-4692-A5AE-003E005F009E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F28" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0021000B-00C8-4428-929E-00E600C400BB}" done="0">
+  <threadedComment ref="F28" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0021000B-00C8-4428-929E-00E600C400BB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F29" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{007300D9-00F6-41C7-A088-009F006F000A}" done="0">
+  <threadedComment ref="F29" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{007300D9-00F6-41C7-A088-009F006F000A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F30" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0094001B-0027-40F6-BD3E-008A00FC00E9}" done="0">
+  <threadedComment ref="F30" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0094001B-0027-40F6-BD3E-008A00FC00E9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="E4" personId="{A7980FCD-D5B1-027F-FF83-6AE3503CE8DD}" id="{0061007E-0071-4BA6-9081-003E00590086}" done="0">
+  <threadedComment ref="E4" personId="{32B810E5-130F-77B6-7376-BAC8934697FC}" id="{0061007E-0071-4BA6-9081-003E00590086}" done="0">
     <text xml:space="preserve">isi dengan jumlah piksel yang Anda inginkan untuk tiap milimeter
 </text>
   </threadedComment>
-  <threadedComment ref="F4" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0036007E-0073-472C-A977-006800640035}" done="0">
+  <threadedComment ref="F4" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0036007E-0073-472C-A977-006800640035}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F31" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00FE001C-006A-4714-A502-0091001E00E2}" done="0">
+  <threadedComment ref="F31" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00FE001C-006A-4714-A502-0091001E00E2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F32" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005400F1-0067-41CE-AAFA-004C00A70066}" done="0">
+  <threadedComment ref="F32" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005400F1-0067-41CE-AAFA-004C00A70066}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F33" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D500C8-00EC-4DA0-B06B-006D002F00C0}" done="0">
+  <threadedComment ref="F33" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D500C8-00EC-4DA0-B06B-006D002F00C0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F34" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{008500B3-00B1-44A3-BB57-003300300050}" done="0">
+  <threadedComment ref="F34" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{008500B3-00B1-44A3-BB57-003300300050}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F35" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{001500E2-004A-47AE-BD1F-002E004400CF}" done="0">
+  <threadedComment ref="F35" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{001500E2-004A-47AE-BD1F-002E004400CF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F36" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00560014-0063-4696-B651-0072002E00F1}" done="0">
+  <threadedComment ref="F36" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00560014-0063-4696-B651-0072002E00F1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F37" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00BE0009-0085-4D6D-8376-00BD00810093}" done="0">
+  <threadedComment ref="F37" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00BE0009-0085-4D6D-8376-00BD00810093}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F38" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00BD00DD-00EE-44ED-85E2-003B003C00B5}" done="0">
+  <threadedComment ref="F38" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00BD00DD-00EE-44ED-85E2-003B003C00B5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F39" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{004700F6-0083-4255-BBDD-00A1000B0033}" done="0">
+  <threadedComment ref="F39" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{004700F6-0083-4255-BBDD-00A1000B0033}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F40" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005F009E-001A-40CC-8D4D-0006006800B1}" done="0">
+  <threadedComment ref="F40" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005F009E-001A-40CC-8D4D-0006006800B1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F5" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009500C7-009B-4EE0-AEF2-0092005B009C}" done="0">
+  <threadedComment ref="F5" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009500C7-009B-4EE0-AEF2-0092005B009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F41" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00240082-00CA-42F1-9880-00ED000200D7}" done="0">
+  <threadedComment ref="F41" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00240082-00CA-42F1-9880-00ED000200D7}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F42" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00570071-00FC-4DA6-A267-0005002300D5}" done="0">
+  <threadedComment ref="F42" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00570071-00FC-4DA6-A267-0005002300D5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F43" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{002E008F-003D-4C92-B908-009F00780064}" done="0">
+  <threadedComment ref="F43" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{002E008F-003D-4C92-B908-009F00780064}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F44" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0095000D-00FF-46BD-930B-003800220098}" done="0">
+  <threadedComment ref="F44" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0095000D-00FF-46BD-930B-003800220098}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F45" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00990017-00DC-48C4-82D3-005A00FA0002}" done="0">
+  <threadedComment ref="F45" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00990017-00DC-48C4-82D3-005A00FA0002}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F46" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{007D00FC-0035-4218-96B1-00C3001C00FF}" done="0">
+  <threadedComment ref="F46" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{007D00FC-0035-4218-96B1-00C3001C00FF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F47" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0070006E-003D-42D8-9D0E-00AD009B00AD}" done="0">
+  <threadedComment ref="F47" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0070006E-003D-42D8-9D0E-00AD009B00AD}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F48" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00A700B1-00F5-44A5-9B3A-00E800A6005F}" done="0">
+  <threadedComment ref="F48" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00A700B1-00F5-44A5-9B3A-00E800A6005F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F49" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E6004C-00B1-4CE7-A393-009A000B00EF}" done="0">
+  <threadedComment ref="F49" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E6004C-00B1-4CE7-A393-009A000B00EF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F50" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00F20063-0088-4645-82C4-008B001000CE}" done="0">
+  <threadedComment ref="F50" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00F20063-0088-4645-82C4-008B001000CE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F6" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00AD006C-009F-414E-A478-003100110023}" done="0">
+  <threadedComment ref="F6" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00AD006C-009F-414E-A478-003100110023}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F51" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{003A0092-007B-434A-8AE6-00C900550045}" done="0">
+  <threadedComment ref="F51" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{003A0092-007B-434A-8AE6-00C900550045}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F52" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00AC0054-003A-40DE-9700-00ED002D0086}" done="0">
+  <threadedComment ref="F52" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00AC0054-003A-40DE-9700-00ED002D0086}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F53" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{008B0081-00F6-4868-B8C9-009300E0004A}" done="0">
+  <threadedComment ref="F53" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{008B0081-00F6-4868-B8C9-009300E0004A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F54" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00970002-00F4-4452-BF03-008700B20007}" done="0">
+  <threadedComment ref="F54" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00970002-00F4-4452-BF03-008700B20007}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F55" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00CD00CD-0015-4B47-9901-008200CC0049}" done="0">
+  <threadedComment ref="F55" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00CD00CD-0015-4B47-9901-008200CC0049}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F56" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{003F00CD-0090-45F5-BEFB-003B00BB0042}" done="0">
+  <threadedComment ref="F56" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{003F00CD-0090-45F5-BEFB-003B00BB0042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F57" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005E0063-004F-4D56-9B30-00CE00600070}" done="0">
+  <threadedComment ref="F57" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005E0063-004F-4D56-9B30-00CE00600070}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F58" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{002800EB-00B6-44DF-BEDF-00B300EB0001}" done="0">
+  <threadedComment ref="F58" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{002800EB-00B6-44DF-BEDF-00B300EB0001}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F59" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00C40096-0089-4182-B76B-00BB006D0082}" done="0">
+  <threadedComment ref="F59" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00C40096-0089-4182-B76B-00BB006D0082}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F60" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D20078-00B2-4562-AD8B-00E500D20044}" done="0">
+  <threadedComment ref="F60" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D20078-00B2-4562-AD8B-00E500D20044}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F7" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009600C6-000D-4695-AD6A-00AA00460012}" done="0">
+  <threadedComment ref="F7" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009600C6-000D-4695-AD6A-00AA00460012}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F61" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00B200FF-00D5-4A30-9BF7-00EA007A00F8}" done="0">
+  <threadedComment ref="F61" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00B200FF-00D5-4A30-9BF7-00EA007A00F8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F62" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00880089-0011-4F44-8646-007B00BB0042}" done="0">
+  <threadedComment ref="F62" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00880089-0011-4F44-8646-007B00BB0042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F63" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00320017-0039-4020-A31A-00C1006E00E3}" done="0">
+  <threadedComment ref="F63" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00320017-0039-4020-A31A-00C1006E00E3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F64" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00C700AA-0061-48CF-AC77-009B00C1007F}" done="0">
+  <threadedComment ref="F64" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00C700AA-0061-48CF-AC77-009B00C1007F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F65" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00AC00BD-009E-4F69-9DA5-009F009400DB}" done="0">
+  <threadedComment ref="F65" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00AC00BD-009E-4F69-9DA5-009F009400DB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F66" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{002D0025-00FA-484A-B277-007100380059}" done="0">
+  <threadedComment ref="F66" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{002D0025-00FA-484A-B277-007100380059}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F67" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009E00BC-008A-421F-8CD1-007300E60069}" done="0">
+  <threadedComment ref="F67" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009E00BC-008A-421F-8CD1-007300E60069}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F68" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009400E2-005D-42B8-AEAC-00B20057004C}" done="0">
+  <threadedComment ref="F68" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009400E2-005D-42B8-AEAC-00B20057004C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F69" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00790007-005D-4620-A635-009F008100F1}" done="0">
+  <threadedComment ref="F69" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00790007-005D-4620-A635-009F008100F1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F70" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00DB000D-003C-4972-A55A-001700780095}" done="0">
+  <threadedComment ref="F70" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00DB000D-003C-4972-A55A-001700780095}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F8" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005600E1-0021-450A-A907-006500800023}" done="0">
+  <threadedComment ref="F8" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005600E1-0021-450A-A907-006500800023}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F71" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E200C4-0054-45F0-869E-007100930078}" done="0">
+  <threadedComment ref="F71" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E200C4-0054-45F0-869E-007100930078}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F72" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0056006F-0044-41C1-9237-003D006400D5}" done="0">
+  <threadedComment ref="F72" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0056006F-0044-41C1-9237-003D006400D5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F73" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E5000A-0043-45C2-AB43-0036008600BC}" done="0">
+  <threadedComment ref="F73" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E5000A-0043-45C2-AB43-0036008600BC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F74" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00080024-0009-4C90-9AA6-0028006F00C3}" done="0">
+  <threadedComment ref="F74" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00080024-0009-4C90-9AA6-0028006F00C3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F75" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00BF006F-00FD-40E9-BF62-00380095009C}" done="0">
+  <threadedComment ref="F75" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00BF006F-00FD-40E9-BF62-00380095009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F76" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00AC0078-0023-42F0-896E-00B400AC0061}" done="0">
+  <threadedComment ref="F76" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00AC0078-0023-42F0-896E-00B400AC0061}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F77" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00B40051-00E4-4EF1-AC80-00DA00AE00A9}" done="0">
+  <threadedComment ref="F77" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00B40051-00E4-4EF1-AC80-00DA00AE00A9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F78" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{001F00EB-00A6-4182-93A2-008200790053}" done="0">
+  <threadedComment ref="F78" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{001F00EB-00A6-4182-93A2-008200790053}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F79" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{008200E4-001B-4421-88B8-00AC0024003B}" done="0">
+  <threadedComment ref="F79" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{008200E4-001B-4421-88B8-00AC0024003B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F80" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00650063-001C-47BC-8F07-00A4009800C7}" done="0">
+  <threadedComment ref="F80" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00650063-001C-47BC-8F07-00A4009800C7}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F9" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00750071-0023-4422-9A66-00D1003D00CB}" done="0">
+  <threadedComment ref="F9" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00750071-0023-4422-9A66-00D1003D00CB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F81" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D4003E-0044-4199-9D3C-005900F3009C}" done="0">
+  <threadedComment ref="F81" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D4003E-0044-4199-9D3C-005900F3009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F82" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00CC000B-00DD-4305-8A0B-00F900EA0068}" done="0">
+  <threadedComment ref="F82" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00CC000B-00DD-4305-8A0B-00F900EA0068}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F83" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00970097-00E6-43CC-8851-008300AF0076}" done="0">
+  <threadedComment ref="F83" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00970097-00E6-43CC-8851-008300AF0076}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F84" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{002800BB-00C4-478C-BCF0-005300690023}" done="0">
+  <threadedComment ref="F84" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{002800BB-00C4-478C-BCF0-005300690023}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F85" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00C10025-0085-4258-BBAF-0047001400B7}" done="0">
+  <threadedComment ref="F85" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00C10025-0085-4258-BBAF-0047001400B7}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F86" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00720040-0056-4BFC-BE0B-004A001E006F}" done="0">
+  <threadedComment ref="F86" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00720040-0056-4BFC-BE0B-004A001E006F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F87" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00CD0068-003B-48A9-B257-00A400C30005}" done="0">
+  <threadedComment ref="F87" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00CD0068-003B-48A9-B257-00A400C30005}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F88" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00380059-00CD-4680-903F-001200BC00A4}" done="0">
+  <threadedComment ref="F88" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00380059-00CD-4680-903F-001200BC00A4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F89" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009500FB-00AD-4626-8417-008800A000E1}" done="0">
+  <threadedComment ref="F89" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009500FB-00AD-4626-8417-008800A000E1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F90" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00A1003A-004A-469B-ACBF-000A004500CC}" done="0">
+  <threadedComment ref="F90" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00A1003A-004A-469B-ACBF-000A004500CC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F10" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00BE0084-00DB-4A19-AD4C-007200DE000E}" done="0">
+  <threadedComment ref="F10" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00BE0084-00DB-4A19-AD4C-007200DE000E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F91" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0046004F-0047-4C64-87E5-00EE00970097}" done="0">
+  <threadedComment ref="F91" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0046004F-0047-4C64-87E5-00EE00970097}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F92" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005100A3-007B-4685-8AC8-008000D800E8}" done="0">
+  <threadedComment ref="F92" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005100A3-007B-4685-8AC8-008000D800E8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F93" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{000600FD-0053-45F8-A391-001900AD00C0}" done="0">
+  <threadedComment ref="F93" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{000600FD-0053-45F8-A391-001900AD00C0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F94" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E10009-0042-404A-9F0C-00BD006F0031}" done="0">
+  <threadedComment ref="F94" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E10009-0042-404A-9F0C-00BD006F0031}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F95" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00270083-0048-4D3F-9E3F-00F900F700D9}" done="0">
+  <threadedComment ref="F95" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00270083-0048-4D3F-9E3F-00F900F700D9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F96" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{003F00F7-00D8-427E-9913-003500030020}" done="0">
+  <threadedComment ref="F96" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{003F00F7-00D8-427E-9913-003500030020}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F97" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00960084-0098-4664-BC96-009B00110086}" done="0">
+  <threadedComment ref="F97" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00960084-0098-4664-BC96-009B00110086}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F98" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005C0033-00EA-4983-B8DA-00E100410007}" done="0">
+  <threadedComment ref="F98" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005C0033-00EA-4983-B8DA-00E100410007}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F99" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00950047-001D-4E75-8932-009A002C00E1}" done="0">
+  <threadedComment ref="F99" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00950047-001D-4E75-8932-009A002C00E1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F100" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00DB00DE-0033-4655-BFAD-003B007C0021}" done="0">
+  <threadedComment ref="F100" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00DB00DE-0033-4655-BFAD-003B007C0021}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
@@ -6575,516 +6578,516 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F11" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0019003E-00DD-4011-9D56-005900790044}" done="0">
+  <threadedComment ref="F11" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0019003E-00DD-4011-9D56-005900790044}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F101" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00EB00FE-009E-4709-904D-006B001F001E}" done="0">
+  <threadedComment ref="F101" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00EB00FE-009E-4709-904D-006B001F001E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F102" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D700D5-0053-4DB6-9621-000B009800CB}" done="0">
+  <threadedComment ref="F102" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D700D5-0053-4DB6-9621-000B009800CB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F103" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{008800FF-0055-4844-ACC2-0076001100CF}" done="0">
+  <threadedComment ref="F103" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{008800FF-0055-4844-ACC2-0076001100CF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F104" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005400F9-006F-4035-AAB7-0030005800CE}" done="0">
+  <threadedComment ref="F104" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005400F9-006F-4035-AAB7-0030005800CE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F105" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00CD0083-00F4-4E02-AC89-00F60064008E}" done="0">
+  <threadedComment ref="F105" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00CD0083-00F4-4E02-AC89-00F60064008E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F12" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00B1001A-00E3-40E1-9E1D-000D008E008D}" done="0">
+  <threadedComment ref="F12" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00B1001A-00E3-40E1-9E1D-000D008E008D}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F13" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00B400C0-00D5-40E5-8A1A-00D5009000F4}" done="0">
+  <threadedComment ref="F13" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00B400C0-00D5-40E5-8A1A-00D5009000F4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F14" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00EE00B7-008D-485F-AA06-009400F0002D}" done="0">
+  <threadedComment ref="F14" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00EE00B7-008D-485F-AA06-009400F0002D}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F15" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{002E00C1-0009-4AA1-A21E-008600AD00F1}" done="0">
+  <threadedComment ref="F15" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{002E00C1-0009-4AA1-A21E-008600AD00F1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F16" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00A5002A-008B-4DB1-9909-007100CE0097}" done="0">
+  <threadedComment ref="F16" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00A5002A-008B-4DB1-9909-007100CE0097}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F17" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{000200B5-009D-4FD4-8618-00DD00FF001C}" done="0">
+  <threadedComment ref="F17" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{000200B5-009D-4FD4-8618-00DD00FF001C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F18" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00C700DB-001C-43D6-B0B8-00650049008E}" done="0">
+  <threadedComment ref="F18" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00C700DB-001C-43D6-B0B8-00650049008E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F19" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00020099-007C-4D6A-AB89-00BB006100C9}" done="0">
+  <threadedComment ref="F19" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00020099-007C-4D6A-AB89-00BB006100C9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F20" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00B200A1-00A5-4B96-8E58-007B000A004A}" done="0">
+  <threadedComment ref="F20" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00B200A1-00A5-4B96-8E58-007B000A004A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F21" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00AA007B-0069-441C-B70A-00B3007F00A4}" done="0">
+  <threadedComment ref="F21" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00AA007B-0069-441C-B70A-00B3007F00A4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F22" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00C50050-0073-40FC-9B5F-009800E000B2}" done="0">
+  <threadedComment ref="F22" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00C50050-0073-40FC-9B5F-009800E000B2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F23" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D20041-00C8-4C87-93B6-002F000B00D5}" done="0">
+  <threadedComment ref="F23" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D20041-00C8-4C87-93B6-002F000B00D5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F24" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0006001B-006F-4061-88D4-00CE00BC00D3}" done="0">
+  <threadedComment ref="F24" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0006001B-006F-4061-88D4-00CE00BC00D3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F25" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00EA00B5-00FA-4937-A378-007F00CE00EE}" done="0">
+  <threadedComment ref="F25" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00EA00B5-00FA-4937-A378-007F00CE00EE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F26" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0096009B-00C3-4BC1-BF79-0073004D00DA}" done="0">
+  <threadedComment ref="F26" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0096009B-00C3-4BC1-BF79-0073004D00DA}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F27" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00660028-0017-4593-8105-00D500CA00CF}" done="0">
+  <threadedComment ref="F27" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00660028-0017-4593-8105-00D500CA00CF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F28" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0054003B-00EA-4C66-B79C-00CF00F600D3}" done="0">
+  <threadedComment ref="F28" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0054003B-00EA-4C66-B79C-00CF00F600D3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F29" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{008E00DA-0015-49B4-A1FF-005F00BA00B8}" done="0">
+  <threadedComment ref="F29" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{008E00DA-0015-49B4-A1FF-005F00BA00B8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F30" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00DF00B9-00FF-4510-8F78-0064004D0062}" done="0">
+  <threadedComment ref="F30" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00DF00B9-00FF-4510-8F78-0064004D0062}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="E4" personId="{A7980FCD-D5B1-027F-FF83-6AE3503CE8DD}" id="{007900C2-005E-48A6-8CBD-0036008F00C9}" done="0">
+  <threadedComment ref="E4" personId="{32B810E5-130F-77B6-7376-BAC8934697FC}" id="{007900C2-005E-48A6-8CBD-0036008F00C9}" done="0">
     <text xml:space="preserve">isi dengan jumlah piksel yang Anda inginkan untuk tiap milimeter
 </text>
   </threadedComment>
-  <threadedComment ref="F4" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0034000F-00E9-4A7B-BC67-00AE00910055}" done="0">
+  <threadedComment ref="F4" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0034000F-00E9-4A7B-BC67-00AE00910055}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F31" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E600E5-00FE-4E84-9545-0024006F00A3}" done="0">
+  <threadedComment ref="F31" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E600E5-00FE-4E84-9545-0024006F00A3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F32" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0012003B-00C3-4448-86A4-000A0049004B}" done="0">
+  <threadedComment ref="F32" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0012003B-00C3-4448-86A4-000A0049004B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F33" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00240072-0031-4FCF-8345-006E00710052}" done="0">
+  <threadedComment ref="F33" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00240072-0031-4FCF-8345-006E00710052}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F34" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00AD0072-00EF-4B0A-904A-00DF002000C2}" done="0">
+  <threadedComment ref="F34" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00AD0072-00EF-4B0A-904A-00DF002000C2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F35" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00DF00C8-00EA-4D94-8C52-00050096005E}" done="0">
+  <threadedComment ref="F35" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00DF00C8-00EA-4D94-8C52-00050096005E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F36" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E8008E-0075-4E96-BD3B-003A00D20034}" done="0">
+  <threadedComment ref="F36" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E8008E-0075-4E96-BD3B-003A00D20034}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F37" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00F000DA-0053-4C2E-B776-00E100FD00E6}" done="0">
+  <threadedComment ref="F37" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00F000DA-0053-4C2E-B776-00E100FD00E6}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F38" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0007002B-00A0-47A9-A420-002E00BA0073}" done="0">
+  <threadedComment ref="F38" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0007002B-00A0-47A9-A420-002E00BA0073}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F39" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{004E00A9-00B1-451A-A379-00E900300036}" done="0">
+  <threadedComment ref="F39" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{004E00A9-00B1-451A-A379-00E900300036}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F40" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00400002-0059-4D59-A276-00CB00E40084}" done="0">
+  <threadedComment ref="F40" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00400002-0059-4D59-A276-00CB00E40084}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F5" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00AA0075-00D0-4936-8B93-00F600E30056}" done="0">
+  <threadedComment ref="F5" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00AA0075-00D0-4936-8B93-00F600E30056}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F41" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{007A003A-0052-4D44-BE5F-002700A3008A}" done="0">
+  <threadedComment ref="F41" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{007A003A-0052-4D44-BE5F-002700A3008A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F42" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005900EB-00EE-41D5-BBC7-004500230082}" done="0">
+  <threadedComment ref="F42" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005900EB-00EE-41D5-BBC7-004500230082}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F43" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0066006C-0075-4910-9BBE-007300B600D2}" done="0">
+  <threadedComment ref="F43" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0066006C-0075-4910-9BBE-007300B600D2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F44" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00BD0039-0060-4A32-A1FA-00EB00620059}" done="0">
+  <threadedComment ref="F44" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00BD0039-0060-4A32-A1FA-00EB00620059}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F45" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{003600C2-002B-4BB3-94AF-00F000610003}" done="0">
+  <threadedComment ref="F45" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{003600C2-002B-4BB3-94AF-00F000610003}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F46" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00C8007C-00BE-4CF5-A05E-00D30007004E}" done="0">
+  <threadedComment ref="F46" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00C8007C-00BE-4CF5-A05E-00D30007004E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F47" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00BE00EB-0060-4465-86B7-00F400EF0075}" done="0">
+  <threadedComment ref="F47" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00BE00EB-0060-4465-86B7-00F400EF0075}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F48" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{003A00B1-0087-4036-9277-004D00D600C2}" done="0">
+  <threadedComment ref="F48" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{003A00B1-0087-4036-9277-004D00D600C2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F49" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{001B00D1-0043-47CD-B36D-008100A200E8}" done="0">
+  <threadedComment ref="F49" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{001B00D1-0043-47CD-B36D-008100A200E8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F50" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D80008-00BB-4263-8E96-003F00A4004A}" done="0">
+  <threadedComment ref="F50" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D80008-00BB-4263-8E96-003F00A4004A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F6" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{001E00CE-0048-475C-8F03-005D00FC00AB}" done="0">
+  <threadedComment ref="F6" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{001E00CE-0048-475C-8F03-005D00FC00AB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F51" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{008A008F-00C4-42A2-9BB4-0012001B001F}" done="0">
+  <threadedComment ref="F51" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{008A008F-00C4-42A2-9BB4-0012001B001F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F52" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009F004E-00F7-4254-A488-002600110066}" done="0">
+  <threadedComment ref="F52" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009F004E-00F7-4254-A488-002600110066}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F53" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00F400D7-00E7-4B49-837A-00DF008D009C}" done="0">
+  <threadedComment ref="F53" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00F400D7-00E7-4B49-837A-00DF008D009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F54" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009B005D-00D2-427C-969A-0004003400E3}" done="0">
+  <threadedComment ref="F54" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009B005D-00D2-427C-969A-0004003400E3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F55" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0099001A-0080-4833-A44C-00F1006F00ED}" done="0">
+  <threadedComment ref="F55" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0099001A-0080-4833-A44C-00F1006F00ED}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F56" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D40085-001B-4138-9210-00CC00400091}" done="0">
+  <threadedComment ref="F56" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D40085-001B-4138-9210-00CC00400091}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F57" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{002E00E5-00AA-4A4B-885A-00D3006400A8}" done="0">
+  <threadedComment ref="F57" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{002E00E5-00AA-4A4B-885A-00D3006400A8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F58" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00A900F6-00CA-4FBB-A637-006D00E900DE}" done="0">
+  <threadedComment ref="F58" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00A900F6-00CA-4FBB-A637-006D00E900DE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F59" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00F90006-0053-4D67-A51B-003900E70039}" done="0">
+  <threadedComment ref="F59" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00F90006-0053-4D67-A51B-003900E70039}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F60" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009600A0-0064-49EE-9A88-00DF00D30094}" done="0">
+  <threadedComment ref="F60" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009600A0-0064-49EE-9A88-00DF00D30094}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F7" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00FB0041-006D-481D-B14B-0088007300C8}" done="0">
+  <threadedComment ref="F7" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00FB0041-006D-481D-B14B-0088007300C8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F61" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00B100BB-004B-4978-8955-005500AE0057}" done="0">
+  <threadedComment ref="F61" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00B100BB-004B-4978-8955-005500AE0057}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F62" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00DC0093-0025-4048-A61E-001E00F40032}" done="0">
+  <threadedComment ref="F62" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00DC0093-0025-4048-A61E-001E00F40032}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F63" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009E007C-0048-45D6-A57A-00A8007200F8}" done="0">
+  <threadedComment ref="F63" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009E007C-0048-45D6-A57A-00A8007200F8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F64" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00C900D3-00F2-4872-AAF9-00B1000400BB}" done="0">
+  <threadedComment ref="F64" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00C900D3-00F2-4872-AAF9-00B1000400BB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F65" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00A600C9-0097-4674-BC98-00DB002800A0}" done="0">
+  <threadedComment ref="F65" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00A600C9-0097-4674-BC98-00DB002800A0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F66" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{000500AF-00D3-450D-A721-004000E8008B}" done="0">
+  <threadedComment ref="F66" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{000500AF-00D3-450D-A721-004000E8008B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F67" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005A00B9-0067-4B9F-8A50-00EB00570045}" done="0">
+  <threadedComment ref="F67" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005A00B9-0067-4B9F-8A50-00EB00570045}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F68" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00FC00A7-0005-495C-9302-0032006A006C}" done="0">
+  <threadedComment ref="F68" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00FC00A7-0005-495C-9302-0032006A006C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F69" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00A50048-00DE-4A19-8C0A-00140082002E}" done="0">
+  <threadedComment ref="F69" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00A50048-00DE-4A19-8C0A-00140082002E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F70" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00A200D8-0028-455C-8EBD-0078008900C6}" done="0">
+  <threadedComment ref="F70" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00A200D8-0028-455C-8EBD-0078008900C6}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F8" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00960079-0077-4F2A-82A2-00BD00C3007F}" done="0">
+  <threadedComment ref="F8" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00960079-0077-4F2A-82A2-00BD00C3007F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F71" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00DF003A-001B-4DB1-9E42-007400AC00E1}" done="0">
+  <threadedComment ref="F71" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00DF003A-001B-4DB1-9E42-007400AC00E1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F72" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00F3005C-00CA-4F2D-B387-0081004F009E}" done="0">
+  <threadedComment ref="F72" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00F3005C-00CA-4F2D-B387-0081004F009E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F73" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{007C0051-009E-4FFD-B2F5-00C600D50053}" done="0">
+  <threadedComment ref="F73" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{007C0051-009E-4FFD-B2F5-00C600D50053}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F74" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00670022-0015-4186-BA4E-009B000F0061}" done="0">
+  <threadedComment ref="F74" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00670022-0015-4186-BA4E-009B000F0061}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F75" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00500052-00E0-4AB2-9BBE-00A5009600C1}" done="0">
+  <threadedComment ref="F75" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00500052-00E0-4AB2-9BBE-00A5009600C1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F76" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00F0004F-0064-499D-801C-000700D3002F}" done="0">
+  <threadedComment ref="F76" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00F0004F-0064-499D-801C-000700D3002F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F77" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{001400B2-00F1-4DB3-9DE7-00A000150039}" done="0">
+  <threadedComment ref="F77" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{001400B2-00F1-4DB3-9DE7-00A000150039}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F78" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{002400EE-00C1-4E63-80AA-009F004E0000}" done="0">
+  <threadedComment ref="F78" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{002400EE-00C1-4E63-80AA-009F004E0000}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F79" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00A2005A-00E8-4C73-BE0C-009600930058}" done="0">
+  <threadedComment ref="F79" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00A2005A-00E8-4C73-BE0C-009600930058}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F80" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00FE004A-004D-4DC5-9616-00FE006100BC}" done="0">
+  <threadedComment ref="F80" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00FE004A-004D-4DC5-9616-00FE006100BC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F9" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00DC0029-00E7-42DB-B9C1-003400EA0062}" done="0">
+  <threadedComment ref="F9" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00DC0029-00E7-42DB-B9C1-003400EA0062}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F81" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00E200BC-0050-488A-B834-006200C90035}" done="0">
+  <threadedComment ref="F81" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E200BC-0050-488A-B834-006200C90035}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F82" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00F700FA-0046-463B-90CC-00EC005200E4}" done="0">
+  <threadedComment ref="F82" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00F700FA-0046-463B-90CC-00EC005200E4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F83" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00A8006C-009A-4446-8DF2-005000F800A8}" done="0">
+  <threadedComment ref="F83" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00A8006C-009A-4446-8DF2-005000F800A8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F84" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00BC003C-00E7-4887-9335-00BE00A00084}" done="0">
+  <threadedComment ref="F84" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00BC003C-00E7-4887-9335-00BE00A00084}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F85" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D3001D-0010-45EF-BB8A-0054009E00B0}" done="0">
+  <threadedComment ref="F85" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D3001D-0010-45EF-BB8A-0054009E00B0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F86" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00F80095-0024-4050-BFE8-002A000A0063}" done="0">
+  <threadedComment ref="F86" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00F80095-0024-4050-BFE8-002A000A0063}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F87" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0004000B-00D2-4380-8028-006600E5001D}" done="0">
+  <threadedComment ref="F87" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0004000B-00D2-4380-8028-006600E5001D}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F88" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{006100B6-00A0-44B1-954A-006400C90072}" done="0">
+  <threadedComment ref="F88" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{006100B6-00A0-44B1-954A-006400C90072}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F89" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{007E0001-00BA-4A1B-BFEA-009C000B003F}" done="0">
+  <threadedComment ref="F89" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{007E0001-00BA-4A1B-BFEA-009C000B003F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F90" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{006D000D-00B1-4850-80B6-001C002B00C4}" done="0">
+  <threadedComment ref="F90" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{006D000D-00B1-4850-80B6-001C002B00C4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F10" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00B7001B-00DB-4B45-809D-00D000730097}" done="0">
+  <threadedComment ref="F10" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00B7001B-00DB-4B45-809D-00D000730097}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F91" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{005F00B7-0068-4E20-B708-00B1008000A5}" done="0">
+  <threadedComment ref="F91" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005F00B7-0068-4E20-B708-00B1008000A5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F92" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00D2000D-008E-4F0E-889B-008D00540073}" done="0">
+  <threadedComment ref="F92" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D2000D-008E-4F0E-889B-008D00540073}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F93" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00720077-00F3-41DB-80E4-00E6002900BA}" done="0">
+  <threadedComment ref="F93" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00720077-00F3-41DB-80E4-00E6002900BA}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F94" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00C70063-00A4-4E22-8B1D-008900470066}" done="0">
+  <threadedComment ref="F94" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00C70063-00A4-4E22-8B1D-008900470066}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F95" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00EF00A4-00D5-4A7C-AA4A-001D00140024}" done="0">
+  <threadedComment ref="F95" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00EF00A4-00D5-4A7C-AA4A-001D00140024}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F96" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{007A0009-008B-48C0-98F5-007E00320029}" done="0">
+  <threadedComment ref="F96" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{007A0009-008B-48C0-98F5-007E00320029}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F97" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{00490001-00FB-48E3-A81C-008400EF00B4}" done="0">
+  <threadedComment ref="F97" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00490001-00FB-48E3-A81C-008400EF00B4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F98" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{0053002C-0058-412F-A5E0-00F5008A0042}" done="0">
+  <threadedComment ref="F98" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0053002C-0058-412F-A5E0-00F5008A0042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F99" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{004800D8-003D-401F-B7E7-0098004A006C}" done="0">
+  <threadedComment ref="F99" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{004800D8-003D-401F-B7E7-0098004A006C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F100" personId="{48F801F5-A39B-FEA3-88E2-8AE7F7265A9F}" id="{009600AA-0088-47E1-85DE-007F0056006F}" done="0">
+  <threadedComment ref="F100" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009600AA-0088-47E1-85DE-007F0056006F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
@@ -18353,7 +18356,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{0058001F-007E-4FBA-9451-00B00045008A}">
+          <x14:cfRule type="expression" priority="3" id="{00110013-0094-48A8-AEF1-00C000D900EF}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -18370,7 +18373,7 @@
           <xm:sqref>J4:J105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{00B000D4-006B-4EF0-ACA0-00A000FE00D2}">
+          <x14:cfRule type="expression" priority="2" id="{00BB00F3-0083-4160-9D96-009A00BF0063}">
             <xm:f>$F4=2</xm:f>
             <x14:dxf>
               <font>
@@ -18387,7 +18390,7 @@
           <xm:sqref>K4:M105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{008C00A4-0075-4818-95EC-006500DB00F9}">
+          <x14:cfRule type="expression" priority="1" id="{0039005A-0019-4193-A44C-00150041005F}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -18407,25 +18410,25 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00E40049-0005-425A-BB1F-00CB004800C4}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{001F003E-006B-4930-B984-004100E40050}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>AF4:AR105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0049005D-005E-4F77-8F9F-003F00F9004A}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F500FE-0099-4792-A744-008600FE0044}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>768</xm:f>
           </x14:formula1>
           <xm:sqref>B4 D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006100FD-00F0-4368-AEE2-001C00FD005D}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007A0074-00EF-461B-8CF7-00FB00980058}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1024</xm:f>
           </x14:formula1>
           <xm:sqref>A4 C4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009C0070-00C8-41D8-A014-0024006300CB}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F300FD-002A-4CA3-A0AD-00CF00890030}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -18434,19 +18437,19 @@
           </x14:formula2>
           <xm:sqref>F4:F105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008A004E-00EC-4340-BD91-00A3003B0010}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00EE005E-0082-43AA-8E49-0044003E000E}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND(F4=2,J4&gt;0)</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004900A5-00EB-4EEC-B227-008E008D00E5}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D50008-00D9-4C7D-93C3-00DB00E40080}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND($F4=1,K4&gt;=0,K4&lt;256)</xm:f>
           </x14:formula1>
           <xm:sqref>K4:M105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007C00B3-0093-49B1-B239-009600C100E9}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00230007-0002-4EF2-AA6E-008E00030071}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
@@ -21370,13 +21373,13 @@
         <v>7.5</v>
       </c>
       <c r="S25" s="49">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T25" s="43">
         <v>7.5</v>
       </c>
       <c r="U25" s="50">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V25" s="48">
         <v>10</v>
@@ -21403,7 +21406,7 @@
       </c>
       <c r="AG25" s="54">
         <f t="shared" si="43"/>
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AH25" s="55">
         <f t="shared" si="43"/>
@@ -21411,7 +21414,7 @@
       </c>
       <c r="AI25" s="52">
         <f t="shared" si="43"/>
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AJ25" s="53">
         <f t="shared" si="43"/>
@@ -21451,7 +21454,7 @@
       </c>
       <c r="AS25" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Point2D_t  ktk_palu [4] = {{248.,30.},{268.,30.},{268.,40.},{248.,40.},{.,.},{.,.},{.,.}};</v>
+        <v xml:space="preserve">Point2D_t  ktk_palu [4] = {{248.,30.},{272.,30.},{272.,40.},{248.,40.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
@@ -24269,7 +24272,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I49" s="42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J49" s="43"/>
       <c r="K49" s="38"/>
@@ -24375,7 +24378,7 @@
       </c>
       <c r="AS49" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Point2D_t  ktk_bwh_chest [] = {{500.,80.},{660.,80.},{660.,120.},{500.,120.},{.,.},{.,.},{.,.}};</v>
+        <v xml:space="preserve">Point2D_t  ktk_bwh_chest2 [] = {{500.,80.},{660.,80.},{660.,120.},{500.,120.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1">
@@ -24513,7 +24516,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I51" s="42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J51" s="43"/>
       <c r="K51" s="38"/>
@@ -24535,13 +24538,13 @@
         <v>125</v>
       </c>
       <c r="R51" s="61">
-        <v>25.5</v>
+        <v>30</v>
       </c>
       <c r="S51" s="49">
         <v>165</v>
       </c>
       <c r="T51" s="61">
-        <v>25.5</v>
+        <v>30</v>
       </c>
       <c r="U51" s="50">
         <v>165</v>
@@ -24569,7 +24572,7 @@
       </c>
       <c r="AF51" s="53">
         <f t="shared" si="49"/>
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AG51" s="54">
         <f t="shared" si="49"/>
@@ -24577,7 +24580,7 @@
       </c>
       <c r="AH51" s="55">
         <f t="shared" si="49"/>
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AI51" s="52">
         <f t="shared" si="49"/>
@@ -24621,7 +24624,7 @@
       </c>
       <c r="AS51" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Point2D_t  ktk_atas_chest2 [] = {{500.,102.},{660.,102.},{660.,140.},{500.,140.},{.,.},{.,.},{.,.}};</v>
+        <v xml:space="preserve">Point2D_t  ktk_atas_chest2 [] = {{500.,120.},{660.,120.},{660.,140.},{500.,140.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1">
@@ -24759,7 +24762,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I53" s="42" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="J53" s="43"/>
       <c r="K53" s="38"/>
@@ -24865,7 +24868,7 @@
       </c>
       <c r="AS53" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Point2D_t  putih_tulang [] = {{570.,102.},{586.,102.},{586.,140.},{570.,140.},{.,.},{.,.},{.,.}};</v>
+        <v xml:space="preserve">Point2D_t  ktk_kunci_chest2 [] = {{570.,102.},{586.,102.},{586.,140.},{570.,140.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
@@ -24886,7 +24889,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I54" s="42" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="J54" s="43"/>
       <c r="K54" s="38">
@@ -24982,7 +24985,7 @@
       </c>
       <c r="AS54" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Color_t w_ktk_kunci_chest2 = {0.9,0.9,0.8};</v>
+        <v xml:space="preserve">Color_t putih_tulang = {0.9,0.9,0.8};</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1">
@@ -25003,7 +25006,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I55" s="42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J55" s="43">
         <v>4</v>
@@ -25042,7 +25045,7 @@
         <v>100</v>
       </c>
       <c r="W55" s="49">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="X55" s="43">
         <v>100</v>
@@ -25079,7 +25082,7 @@
       </c>
       <c r="AK55" s="54">
         <f t="shared" si="49"/>
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="AL55" s="55">
         <f t="shared" si="49"/>
@@ -25111,7 +25114,7 @@
       </c>
       <c r="AS55" s="57" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">Point2D_t  ktk_jendela [4] = {{660.,280.},{780.,280.},{780.,400.},{680.,400.},{.,.},{.,.},{.,.}};</v>
+        <v xml:space="preserve">Point2D_t  ktk_jendela [4] = {{660.,280.},{780.,280.},{780.,400.},{660.,400.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1">
@@ -25132,7 +25135,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I56" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J56" s="43"/>
       <c r="K56" s="38">
@@ -25249,7 +25252,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I57" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J57" s="43">
         <v>2</v>
@@ -25370,7 +25373,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I58" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J58" s="43">
         <v>2</v>
@@ -25491,7 +25494,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I59" s="42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J59" s="43">
         <v>2</v>
@@ -25612,7 +25615,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I60" s="42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J60" s="43">
         <v>2</v>
@@ -25733,7 +25736,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I61" s="42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J61" s="43">
         <v>4</v>
@@ -25862,7 +25865,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I62" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J62" s="43"/>
       <c r="K62" s="38">
@@ -25979,7 +25982,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I63" s="42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J63" s="43">
         <v>4</v>
@@ -26108,7 +26111,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I64" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J64" s="43"/>
       <c r="K64" s="38">
@@ -26225,7 +26228,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I65" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J65" s="43">
         <v>4</v>
@@ -26354,7 +26357,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I66" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J66" s="43"/>
       <c r="K66" s="38">
@@ -26471,7 +26474,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I67" s="42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J67" s="43">
         <v>4</v>
@@ -26717,7 +26720,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I69" s="42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J69" s="43">
         <v>4</v>
@@ -26963,7 +26966,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I71" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J71" s="43"/>
       <c r="K71" s="38"/>
@@ -27207,7 +27210,7 @@
         <v>Point2D_t</v>
       </c>
       <c r="I73" s="42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J73" s="43"/>
       <c r="K73" s="38"/>
@@ -30783,7 +30786,7 @@
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AQ2:AR2"/>
   </mergeCells>
-  <dataValidations count="48" disablePrompts="0">
+  <dataValidations count="49" disablePrompts="0">
     <dataValidation sqref="N4:P105 I4:I12 I20 I22 I24:I25 I29 I31 I33 I35 I37 I39 I43 I47 I55 I61 I63 I67 I75:I105" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I14 I16 I18" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I27" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
@@ -30809,11 +30812,10 @@
     <dataValidation sqref="W51" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
       <formula1>#REF!=2</formula1>
     </dataValidation>
-    <dataValidation sqref="I49 I53" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I49" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I50" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I51" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I52" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
-    <dataValidation sqref="I54" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I56" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I57" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I58" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
@@ -30840,6 +30842,8 @@
     <dataValidation sqref="I66" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I74" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
     <dataValidation sqref="I72" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I53" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
+    <dataValidation sqref="I54" type="none" allowBlank="1" error="harus bilangan bulat antara 0 - 7" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1"/>
   </dataValidations>
   <printOptions headings="0" gridLines="0" horizontalCentered="1"/>
   <pageMargins left="0.19685039370078738" right="0.19685039370078738" top="0.39370078740157477" bottom="0.39370078740157477" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -30850,7 +30854,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{00AF006B-00D0-499F-99B5-006000D700F6}">
+          <x14:cfRule type="expression" priority="3" id="{000F0022-00E4-4B01-987D-00E700D7008B}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30867,7 +30871,7 @@
           <xm:sqref>J4:J29 J31:J105 J31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{00DF00D5-0067-45FA-B585-0019000E000B}">
+          <x14:cfRule type="expression" priority="2" id="{006800BB-00AC-4CE8-BEB3-004E00660023}">
             <xm:f>$F4=2</xm:f>
             <x14:dxf>
               <font>
@@ -30884,7 +30888,7 @@
           <xm:sqref>K4:M105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00380029-00E0-434F-938D-003B006300F4}">
+          <x14:cfRule type="expression" priority="1" id="{00E100E2-0082-456F-A4A6-007A00960090}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30901,7 +30905,7 @@
           <xm:sqref>Q4:AD50 Y51:AD51 Q52:AD105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{004900CE-003C-4C53-AEE0-008900BF00A1}">
+          <x14:cfRule type="expression" priority="1" id="{00FE009B-0075-4672-A027-006E00700086}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30918,7 +30922,7 @@
           <xm:sqref>Q31:X31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00090061-0083-49FE-8F16-0018002E0013}">
+          <x14:cfRule type="expression" priority="1" id="{008A005D-004E-4F67-AACF-002C0082004C}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30935,7 +30939,7 @@
           <xm:sqref>Q33:T33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00D6006A-0029-41E1-8E2F-0054007A0091}">
+          <x14:cfRule type="expression" priority="1" id="{00E70004-0012-4F57-A9B1-005700AB00B4}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30952,7 +30956,7 @@
           <xm:sqref>U33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00260014-00E0-4685-B6EE-00B600A5008D}">
+          <x14:cfRule type="expression" priority="1" id="{008700F9-00D6-4501-A489-00F4007F00A9}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30969,7 +30973,7 @@
           <xm:sqref>U33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00ED003C-0046-4BDA-89DF-0078009D009F}">
+          <x14:cfRule type="expression" priority="1" id="{002900B7-009B-4CDD-9DC7-000000670047}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30986,7 +30990,7 @@
           <xm:sqref>Q41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{0068007D-0001-4ED7-8795-00A000540075}">
+          <x14:cfRule type="expression" priority="1" id="{00E7000F-00D4-4E32-879B-007700E4001E}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31003,7 +31007,7 @@
           <xm:sqref>S47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00880033-005D-42FB-B107-00F300D1007C}">
+          <x14:cfRule type="expression" priority="1" id="{002100BD-0088-4B78-B532-00830066007F}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31020,7 +31024,7 @@
           <xm:sqref>T47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{006900AD-0078-4ACA-8B44-006400EA0002}">
+          <x14:cfRule type="expression" priority="1" id="{00CE0090-0033-4A87-8D83-003A00B10007}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31037,7 +31041,7 @@
           <xm:sqref>U47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00E000DD-0098-4A6B-8E98-005C00250015}">
+          <x14:cfRule type="expression" priority="1" id="{004900A1-003F-492B-A7CD-00880090009B}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31054,7 +31058,7 @@
           <xm:sqref>U47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00FA002B-00D1-457E-9DA2-0054007D00EC}">
+          <x14:cfRule type="expression" priority="1" id="{006B003D-00DD-42EC-9C19-00CE00180023}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31071,7 +31075,7 @@
           <xm:sqref>W47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{007D0025-008B-497B-9B86-0058001E00A2}">
+          <x14:cfRule type="expression" priority="1" id="{004F00DD-00FE-4F48-BD1E-004100C00043}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31088,7 +31092,7 @@
           <xm:sqref>Q51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{001700A9-00B1-4401-87B4-000400890075}">
+          <x14:cfRule type="expression" priority="1" id="{00E60005-00E8-494B-BBEB-0058001700AF}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31105,7 +31109,7 @@
           <xm:sqref>S51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00890022-00E3-499D-8E30-0006000500D6}">
+          <x14:cfRule type="expression" priority="1" id="{00F000ED-00FF-4FCD-9981-005E008D0078}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31122,7 +31126,7 @@
           <xm:sqref>U51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00E900D9-0077-4747-A531-004C00760060}">
+          <x14:cfRule type="expression" priority="1" id="{00DC0070-0083-4699-8815-004600BB0018}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31139,7 +31143,7 @@
           <xm:sqref>W51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{0032008D-00AC-4ABD-9EA9-008700310095}">
+          <x14:cfRule type="expression" priority="1" id="{005F00DC-0076-41B0-B1A0-009800B10044}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31156,7 +31160,7 @@
           <xm:sqref>Q59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{0018004E-001B-4242-ADAE-007200910036}">
+          <x14:cfRule type="expression" priority="1" id="{009400BE-009C-401C-A5C1-00960034008D}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31173,7 +31177,7 @@
           <xm:sqref>S59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00990046-007B-4638-8AD4-005900550020}">
+          <x14:cfRule type="expression" priority="1" id="{003400E7-0024-491C-824F-0037001C0029}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31190,7 +31194,7 @@
           <xm:sqref>Q60:T60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{009E0022-0051-4B09-8DF4-0078009200F1}">
+          <x14:cfRule type="expression" priority="1" id="{00F50055-00A8-43B1-8E1A-0038002D00E0}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31207,7 +31211,7 @@
           <xm:sqref>W61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{008B0072-003B-4955-9D75-00AE00A90083}">
+          <x14:cfRule type="expression" priority="1" id="{00F10069-005D-4264-A72B-008100EE005A}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31224,7 +31228,7 @@
           <xm:sqref>X61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{001F0026-0011-4AFF-9CCC-00C300E400CC}">
+          <x14:cfRule type="expression" priority="1" id="{00C50041-0088-4A9C-937D-00CA00000091}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31241,7 +31245,7 @@
           <xm:sqref>V63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00EC0038-0022-42FB-985D-00DC007F0066}">
+          <x14:cfRule type="expression" priority="1" id="{007D00F5-00A3-449D-9BD2-00BC007900A5}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31258,7 +31262,7 @@
           <xm:sqref>X63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{0084005B-0047-4A01-9186-002500B000B4}">
+          <x14:cfRule type="expression" priority="1" id="{00300076-004C-47D6-B4F0-00F6002D00D0}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31275,7 +31279,7 @@
           <xm:sqref>X63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{001000D1-0037-4944-96B0-00C4000900F0}">
+          <x14:cfRule type="expression" priority="1" id="{00E7008F-00A3-4C55-A10F-003A00F8003A}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31292,7 +31296,7 @@
           <xm:sqref>X65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{000C003A-0044-48A5-B3A4-001E0094001B}">
+          <x14:cfRule type="expression" priority="1" id="{00870005-00D6-4CE2-8D66-0094005900A3}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31309,7 +31313,7 @@
           <xm:sqref>U67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00EE00AB-00E3-4539-96BD-00AB001700C4}">
+          <x14:cfRule type="expression" priority="1" id="{0034006A-003D-4664-8755-004800C1004F}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31326,7 +31330,7 @@
           <xm:sqref>U69:X69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00070019-0007-4C17-A4EE-00AB00D00093}">
+          <x14:cfRule type="expression" priority="1" id="{00E60070-002C-42AC-BAB9-00B60060006A}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31343,7 +31347,7 @@
           <xm:sqref>U71:X71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00300065-001E-4E14-B4EF-004D00DD0010}">
+          <x14:cfRule type="expression" priority="1" id="{00F10061-0014-454E-8E01-008400AA0024}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31360,7 +31364,7 @@
           <xm:sqref>U73:X73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{008C0063-0085-4DC8-BD82-004B008400B2}">
+          <x14:cfRule type="expression" priority="1" id="{001A00D6-0036-41CB-8C51-003100F5006D}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31380,25 +31384,25 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="30" disablePrompts="0">
-        <x14:dataValidation xr:uid="{008400C4-00F7-4FF1-830C-004B000E009C}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C6008F-0071-485B-A433-0007001E00F7}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q4:AD30 Y31:AD31 Q32:AD32 V33:AD33 Q34:AD40 R41:AD41 Q42:AD46 Q47:R47 V47 X47:AD47 Q48:AD50 Y51:AD51 Q52:AD58 R59 T59:AD59 U60:AD60 Q61:V61 Y61:AD61 Q62:AD62 Q63:U63 W63 Y63:AD63 Q64:AD64 Q65:W65 Y65:AD65 Q66:AD66 Q67:T67 V67:AD67 Q68:AD68 Q69:T69 Y69:AD69 Q70:AD70 Q71:T71 Y71:AD71 Q72:AD72 Q73:T73 Y73:AD73 Q74:AD105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008700E6-0032-4876-933A-0019006F00C7}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00960064-0077-4E72-A4CB-0006004500D1}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND($F4=1,K4&gt;=0,K4&lt;256)</xm:f>
           </x14:formula1>
           <xm:sqref>K4:M8 K10:M10 K12:M20 K22:M105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00030054-0041-4051-9D70-00DC0033000F}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006A0061-0071-46FD-AC64-001000E90021}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND(F4=2,J4&gt;0)</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J29 J31 J32:J105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C1001A-00BE-4224-846C-005B009F00C5}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00BF004D-0090-4EC8-AFDE-00BA00920067}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -31407,25 +31411,25 @@
           </x14:formula2>
           <xm:sqref>F4:F13 F20:F60 F63:F105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00240043-005B-475D-8E24-0097006600CD}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009600D0-00A9-4BC5-8F7C-001A005400AF}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1024</xm:f>
           </x14:formula1>
           <xm:sqref>A4 C4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009D00C8-00EA-4E8E-8BCA-0003005C00CA}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006F00F7-0079-4F4E-86CB-001400D700EF}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>768</xm:f>
           </x14:formula1>
           <xm:sqref>B4 D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00AB0072-0015-4DE5-953F-00C100A4001D}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E000C9-0040-4979-8585-00DF00080062}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>AF4:AR105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0059009A-0053-428C-9E78-003900CD00B4}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C30059-0060-4614-8BC0-0013008300D2}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -31434,85 +31438,85 @@
           </x14:formula2>
           <xm:sqref>F14:F19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0056003B-005A-4B8C-8C93-0017003100B9}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000B000F-009E-421C-9EBB-00CD007300B4}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F5=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q31:X31</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004600E2-005F-4A28-A641-0097003E00B6}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00FF0032-0064-429D-A192-006C00240075}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F8=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q33:T33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006D0094-0027-43B9-91DF-00B500A30003}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{002300C6-0027-4C51-A572-005E0011006C}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F8=2</xm:f>
           </x14:formula1>
           <xm:sqref>U33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DA00DA-00E0-4020-B589-004600CD00F5}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00ED0082-0016-4539-B125-00BD00D900AB}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000200F4-002B-4D4C-A482-00F000F10011}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006200B1-0075-45ED-929F-0066004F0089}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>S47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00EE00D8-0029-47EB-AA7A-0047008B006A}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00EE0035-0058-4C82-B2AD-0025001E0099}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>T47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00AA00F3-006B-4DB5-8994-00D7008D00CC}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006600DE-0099-42BB-A274-00D300930069}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>U47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002B0033-0005-441A-8003-002B00390038}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003C0098-00A7-46B2-813F-0025009C0072}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>W47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B90045-00BD-4A4F-A79A-00C9002300F6}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000D0046-0093-4D74-83F4-00E200FE00F6}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00810022-0024-44B5-BCBA-004B008C0048}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{002D0021-0079-48C4-B59F-0044006C00B1}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>S59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009D0010-00FA-4465-9179-000700F900B1}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0001002E-00C7-438E-8626-00E800F5000D}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q60:T60</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00370079-0029-4940-BBA6-00F6003B0033}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F00051-0045-48FA-863B-00AC00530063}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>W61</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00470055-00BE-45FF-A72B-00790042004D}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007800C5-001B-40C7-AF7A-00D400330043}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>X61</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00760081-009D-4CC4-8891-007B00A0004A}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008F0078-00CD-4D82-868A-00AC00090087}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -31521,7 +31525,7 @@
           </x14:formula2>
           <xm:sqref>F61</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B50099-00ED-4182-AE0A-00DC00880096}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008B0052-0085-4B28-9825-0057006100C2}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -31530,43 +31534,43 @@
           </x14:formula2>
           <xm:sqref>F62</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000600A0-007C-49B9-96DF-0003008F0028}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008700C3-00F2-4B43-AAAA-00A000FE00D8}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>V63</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00220004-00F7-43D8-9F6C-00A2001900BE}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00390065-0003-44B2-AE12-003E00970025}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>X63</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B300D2-00A3-4D1C-9023-0022007F0097}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A1001E-00FD-49DE-AA99-00840011000C}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>X65</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C40062-0047-489B-ACF4-00AE00AE002B}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D40011-0044-47FB-87A9-00F20076005E}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>U67</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009F0096-00CD-40E1-8D11-002D006500D7}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C9000D-0069-45A3-8B0C-00A600B10042}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>U69:X69</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C600E1-0061-4B2F-AB66-005C003800E6}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005B00ED-001A-444F-AA64-00B5004B0001}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>U71:X71</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D100B0-00F4-4BA6-8030-0022000300E0}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00CC00AB-0009-4B6E-AEBF-00EA0071002B}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>

--- a/Template KOORDINAT.xlsx
+++ b/Template KOORDINAT.xlsx
@@ -4775,7 +4775,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>X-Desain</t>
   </si>
@@ -4992,6 +4992,9 @@
   </si>
   <si>
     <t>ktk_kki_kasur4</t>
+  </si>
+  <si>
+    <t>biru_muda</t>
   </si>
 </sst>
 </file>
@@ -5560,8 +5563,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="poltek" id="{173D1780-D085-D07A-C966-4EEA65435AB2}"/>
-  <person displayName="Neny" id="{32B810E5-130F-77B6-7376-BAC8934697FC}"/>
+  <person displayName="poltek" id="{77281532-F6A3-1C2F-2B19-8DFC6F869179}"/>
+  <person displayName="Neny" id="{81DE8F3C-0BEB-0B95-4028-0D6EE868C9DE}"/>
 </personList>
 </file>
 
@@ -6059,516 +6062,516 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F11" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{002500E1-00B8-415B-B628-00BC00C1008B}" done="0">
+  <threadedComment ref="F11" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{002500E1-00B8-415B-B628-00BC00C1008B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F101" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E800CE-007E-426B-B7E5-007C0091000C}" done="0">
+  <threadedComment ref="F101" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00E800CE-007E-426B-B7E5-007C0091000C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F102" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E000F6-00AF-4CED-A227-008A00F2001C}" done="0">
+  <threadedComment ref="F102" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00E000F6-00AF-4CED-A227-008A00F2001C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F103" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{003D0069-00A4-4EB2-9FF8-00C900CF008C}" done="0">
+  <threadedComment ref="F103" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{003D0069-00A4-4EB2-9FF8-00C900CF008C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F104" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E900E6-0010-43DD-BD1C-002F00250065}" done="0">
+  <threadedComment ref="F104" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00E900E6-0010-43DD-BD1C-002F00250065}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F105" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00FE00F5-001D-42E1-AB80-004F006300A1}" done="0">
+  <threadedComment ref="F105" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00FE00F5-001D-42E1-AB80-004F006300A1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F12" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00BB00DD-0073-4E2E-8E5F-007C007F0010}" done="0">
+  <threadedComment ref="F12" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00BB00DD-0073-4E2E-8E5F-007C007F0010}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F13" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00B00031-00C9-4E4A-A3B5-006000A60042}" done="0">
+  <threadedComment ref="F13" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00B00031-00C9-4E4A-A3B5-006000A60042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F14" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{001200B5-0057-4871-9B75-0071006000EE}" done="0">
+  <threadedComment ref="F14" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{001200B5-0057-4871-9B75-0071006000EE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F15" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0032009A-0014-4A22-A6AB-001F000500BA}" done="0">
+  <threadedComment ref="F15" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0032009A-0014-4A22-A6AB-001F000500BA}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F16" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00CC007D-000D-4589-9961-003000160093}" done="0">
+  <threadedComment ref="F16" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00CC007D-000D-4589-9961-003000160093}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F17" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009400AE-00F2-4CA6-B8A9-00C000DD00B4}" done="0">
+  <threadedComment ref="F17" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{009400AE-00F2-4CA6-B8A9-00C000DD00B4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F18" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{003100D6-0016-4C77-B58E-0060001F0052}" done="0">
+  <threadedComment ref="F18" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{003100D6-0016-4C77-B58E-0060001F0052}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F19" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009D0070-0067-450A-847F-00CD00F5001B}" done="0">
+  <threadedComment ref="F19" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{009D0070-0067-450A-847F-00CD00F5001B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F20" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{006100D3-00DC-44AD-B91D-005F00A0007E}" done="0">
+  <threadedComment ref="F20" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{006100D3-00DC-44AD-B91D-005F00A0007E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F21" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D800F4-000E-4F86-A2C7-0060009400B9}" done="0">
+  <threadedComment ref="F21" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00D800F4-000E-4F86-A2C7-0060009400B9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F22" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{008500D6-0072-416A-8A43-009C0054002E}" done="0">
+  <threadedComment ref="F22" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{008500D6-0072-416A-8A43-009C0054002E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F23" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0089000F-0033-470B-91DC-00C300A40067}" done="0">
+  <threadedComment ref="F23" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0089000F-0033-470B-91DC-00C300A40067}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F24" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{000400E2-0064-464B-8D0F-0091006E00D3}" done="0">
+  <threadedComment ref="F24" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{000400E2-0064-464B-8D0F-0091006E00D3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F25" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{007E0057-0058-4C50-ABEF-0064004200F8}" done="0">
+  <threadedComment ref="F25" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{007E0057-0058-4C50-ABEF-0064004200F8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F26" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00CC009C-00FA-4C65-A1BB-002300F300AC}" done="0">
+  <threadedComment ref="F26" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00CC009C-00FA-4C65-A1BB-002300F300AC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F27" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00650033-004D-4692-A5AE-003E005F009E}" done="0">
+  <threadedComment ref="F27" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00650033-004D-4692-A5AE-003E005F009E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F28" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0021000B-00C8-4428-929E-00E600C400BB}" done="0">
+  <threadedComment ref="F28" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0021000B-00C8-4428-929E-00E600C400BB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F29" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{007300D9-00F6-41C7-A088-009F006F000A}" done="0">
+  <threadedComment ref="F29" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{007300D9-00F6-41C7-A088-009F006F000A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F30" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0094001B-0027-40F6-BD3E-008A00FC00E9}" done="0">
+  <threadedComment ref="F30" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0094001B-0027-40F6-BD3E-008A00FC00E9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="E4" personId="{32B810E5-130F-77B6-7376-BAC8934697FC}" id="{0061007E-0071-4BA6-9081-003E00590086}" done="0">
+  <threadedComment ref="E4" personId="{81DE8F3C-0BEB-0B95-4028-0D6EE868C9DE}" id="{0061007E-0071-4BA6-9081-003E00590086}" done="0">
     <text xml:space="preserve">isi dengan jumlah piksel yang Anda inginkan untuk tiap milimeter
 </text>
   </threadedComment>
-  <threadedComment ref="F4" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0036007E-0073-472C-A977-006800640035}" done="0">
+  <threadedComment ref="F4" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0036007E-0073-472C-A977-006800640035}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F31" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00FE001C-006A-4714-A502-0091001E00E2}" done="0">
+  <threadedComment ref="F31" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00FE001C-006A-4714-A502-0091001E00E2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F32" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005400F1-0067-41CE-AAFA-004C00A70066}" done="0">
+  <threadedComment ref="F32" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{005400F1-0067-41CE-AAFA-004C00A70066}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F33" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D500C8-00EC-4DA0-B06B-006D002F00C0}" done="0">
+  <threadedComment ref="F33" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00D500C8-00EC-4DA0-B06B-006D002F00C0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F34" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{008500B3-00B1-44A3-BB57-003300300050}" done="0">
+  <threadedComment ref="F34" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{008500B3-00B1-44A3-BB57-003300300050}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F35" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{001500E2-004A-47AE-BD1F-002E004400CF}" done="0">
+  <threadedComment ref="F35" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{001500E2-004A-47AE-BD1F-002E004400CF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F36" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00560014-0063-4696-B651-0072002E00F1}" done="0">
+  <threadedComment ref="F36" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00560014-0063-4696-B651-0072002E00F1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F37" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00BE0009-0085-4D6D-8376-00BD00810093}" done="0">
+  <threadedComment ref="F37" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00BE0009-0085-4D6D-8376-00BD00810093}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F38" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00BD00DD-00EE-44ED-85E2-003B003C00B5}" done="0">
+  <threadedComment ref="F38" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00BD00DD-00EE-44ED-85E2-003B003C00B5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F39" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{004700F6-0083-4255-BBDD-00A1000B0033}" done="0">
+  <threadedComment ref="F39" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{004700F6-0083-4255-BBDD-00A1000B0033}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F40" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005F009E-001A-40CC-8D4D-0006006800B1}" done="0">
+  <threadedComment ref="F40" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{005F009E-001A-40CC-8D4D-0006006800B1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F5" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009500C7-009B-4EE0-AEF2-0092005B009C}" done="0">
+  <threadedComment ref="F5" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{009500C7-009B-4EE0-AEF2-0092005B009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F41" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00240082-00CA-42F1-9880-00ED000200D7}" done="0">
+  <threadedComment ref="F41" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00240082-00CA-42F1-9880-00ED000200D7}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F42" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00570071-00FC-4DA6-A267-0005002300D5}" done="0">
+  <threadedComment ref="F42" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00570071-00FC-4DA6-A267-0005002300D5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F43" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{002E008F-003D-4C92-B908-009F00780064}" done="0">
+  <threadedComment ref="F43" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{002E008F-003D-4C92-B908-009F00780064}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F44" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0095000D-00FF-46BD-930B-003800220098}" done="0">
+  <threadedComment ref="F44" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0095000D-00FF-46BD-930B-003800220098}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F45" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00990017-00DC-48C4-82D3-005A00FA0002}" done="0">
+  <threadedComment ref="F45" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00990017-00DC-48C4-82D3-005A00FA0002}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F46" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{007D00FC-0035-4218-96B1-00C3001C00FF}" done="0">
+  <threadedComment ref="F46" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{007D00FC-0035-4218-96B1-00C3001C00FF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F47" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0070006E-003D-42D8-9D0E-00AD009B00AD}" done="0">
+  <threadedComment ref="F47" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0070006E-003D-42D8-9D0E-00AD009B00AD}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F48" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00A700B1-00F5-44A5-9B3A-00E800A6005F}" done="0">
+  <threadedComment ref="F48" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00A700B1-00F5-44A5-9B3A-00E800A6005F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F49" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E6004C-00B1-4CE7-A393-009A000B00EF}" done="0">
+  <threadedComment ref="F49" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00E6004C-00B1-4CE7-A393-009A000B00EF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F50" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00F20063-0088-4645-82C4-008B001000CE}" done="0">
+  <threadedComment ref="F50" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00F20063-0088-4645-82C4-008B001000CE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F6" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00AD006C-009F-414E-A478-003100110023}" done="0">
+  <threadedComment ref="F6" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00AD006C-009F-414E-A478-003100110023}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F51" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{003A0092-007B-434A-8AE6-00C900550045}" done="0">
+  <threadedComment ref="F51" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{003A0092-007B-434A-8AE6-00C900550045}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F52" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00AC0054-003A-40DE-9700-00ED002D0086}" done="0">
+  <threadedComment ref="F52" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00AC0054-003A-40DE-9700-00ED002D0086}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F53" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{008B0081-00F6-4868-B8C9-009300E0004A}" done="0">
+  <threadedComment ref="F53" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{008B0081-00F6-4868-B8C9-009300E0004A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F54" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00970002-00F4-4452-BF03-008700B20007}" done="0">
+  <threadedComment ref="F54" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00970002-00F4-4452-BF03-008700B20007}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F55" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00CD00CD-0015-4B47-9901-008200CC0049}" done="0">
+  <threadedComment ref="F55" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00CD00CD-0015-4B47-9901-008200CC0049}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F56" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{003F00CD-0090-45F5-BEFB-003B00BB0042}" done="0">
+  <threadedComment ref="F56" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{003F00CD-0090-45F5-BEFB-003B00BB0042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F57" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005E0063-004F-4D56-9B30-00CE00600070}" done="0">
+  <threadedComment ref="F57" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{005E0063-004F-4D56-9B30-00CE00600070}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F58" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{002800EB-00B6-44DF-BEDF-00B300EB0001}" done="0">
+  <threadedComment ref="F58" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{002800EB-00B6-44DF-BEDF-00B300EB0001}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F59" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00C40096-0089-4182-B76B-00BB006D0082}" done="0">
+  <threadedComment ref="F59" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00C40096-0089-4182-B76B-00BB006D0082}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F60" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D20078-00B2-4562-AD8B-00E500D20044}" done="0">
+  <threadedComment ref="F60" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00D20078-00B2-4562-AD8B-00E500D20044}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F7" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009600C6-000D-4695-AD6A-00AA00460012}" done="0">
+  <threadedComment ref="F7" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{009600C6-000D-4695-AD6A-00AA00460012}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F61" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00B200FF-00D5-4A30-9BF7-00EA007A00F8}" done="0">
+  <threadedComment ref="F61" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00B200FF-00D5-4A30-9BF7-00EA007A00F8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F62" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00880089-0011-4F44-8646-007B00BB0042}" done="0">
+  <threadedComment ref="F62" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00880089-0011-4F44-8646-007B00BB0042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F63" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00320017-0039-4020-A31A-00C1006E00E3}" done="0">
+  <threadedComment ref="F63" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00320017-0039-4020-A31A-00C1006E00E3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F64" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00C700AA-0061-48CF-AC77-009B00C1007F}" done="0">
+  <threadedComment ref="F64" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00C700AA-0061-48CF-AC77-009B00C1007F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F65" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00AC00BD-009E-4F69-9DA5-009F009400DB}" done="0">
+  <threadedComment ref="F65" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00AC00BD-009E-4F69-9DA5-009F009400DB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F66" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{002D0025-00FA-484A-B277-007100380059}" done="0">
+  <threadedComment ref="F66" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{002D0025-00FA-484A-B277-007100380059}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F67" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009E00BC-008A-421F-8CD1-007300E60069}" done="0">
+  <threadedComment ref="F67" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{009E00BC-008A-421F-8CD1-007300E60069}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F68" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009400E2-005D-42B8-AEAC-00B20057004C}" done="0">
+  <threadedComment ref="F68" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{009400E2-005D-42B8-AEAC-00B20057004C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F69" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00790007-005D-4620-A635-009F008100F1}" done="0">
+  <threadedComment ref="F69" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00790007-005D-4620-A635-009F008100F1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F70" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00DB000D-003C-4972-A55A-001700780095}" done="0">
+  <threadedComment ref="F70" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00DB000D-003C-4972-A55A-001700780095}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F8" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005600E1-0021-450A-A907-006500800023}" done="0">
+  <threadedComment ref="F8" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{005600E1-0021-450A-A907-006500800023}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F71" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E200C4-0054-45F0-869E-007100930078}" done="0">
+  <threadedComment ref="F71" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00E200C4-0054-45F0-869E-007100930078}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F72" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0056006F-0044-41C1-9237-003D006400D5}" done="0">
+  <threadedComment ref="F72" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0056006F-0044-41C1-9237-003D006400D5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F73" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E5000A-0043-45C2-AB43-0036008600BC}" done="0">
+  <threadedComment ref="F73" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00E5000A-0043-45C2-AB43-0036008600BC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F74" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00080024-0009-4C90-9AA6-0028006F00C3}" done="0">
+  <threadedComment ref="F74" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00080024-0009-4C90-9AA6-0028006F00C3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F75" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00BF006F-00FD-40E9-BF62-00380095009C}" done="0">
+  <threadedComment ref="F75" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00BF006F-00FD-40E9-BF62-00380095009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F76" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00AC0078-0023-42F0-896E-00B400AC0061}" done="0">
+  <threadedComment ref="F76" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00AC0078-0023-42F0-896E-00B400AC0061}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F77" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00B40051-00E4-4EF1-AC80-00DA00AE00A9}" done="0">
+  <threadedComment ref="F77" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00B40051-00E4-4EF1-AC80-00DA00AE00A9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F78" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{001F00EB-00A6-4182-93A2-008200790053}" done="0">
+  <threadedComment ref="F78" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{001F00EB-00A6-4182-93A2-008200790053}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F79" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{008200E4-001B-4421-88B8-00AC0024003B}" done="0">
+  <threadedComment ref="F79" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{008200E4-001B-4421-88B8-00AC0024003B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F80" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00650063-001C-47BC-8F07-00A4009800C7}" done="0">
+  <threadedComment ref="F80" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00650063-001C-47BC-8F07-00A4009800C7}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F9" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00750071-0023-4422-9A66-00D1003D00CB}" done="0">
+  <threadedComment ref="F9" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00750071-0023-4422-9A66-00D1003D00CB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F81" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D4003E-0044-4199-9D3C-005900F3009C}" done="0">
+  <threadedComment ref="F81" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00D4003E-0044-4199-9D3C-005900F3009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F82" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00CC000B-00DD-4305-8A0B-00F900EA0068}" done="0">
+  <threadedComment ref="F82" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00CC000B-00DD-4305-8A0B-00F900EA0068}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F83" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00970097-00E6-43CC-8851-008300AF0076}" done="0">
+  <threadedComment ref="F83" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00970097-00E6-43CC-8851-008300AF0076}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F84" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{002800BB-00C4-478C-BCF0-005300690023}" done="0">
+  <threadedComment ref="F84" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{002800BB-00C4-478C-BCF0-005300690023}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F85" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00C10025-0085-4258-BBAF-0047001400B7}" done="0">
+  <threadedComment ref="F85" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00C10025-0085-4258-BBAF-0047001400B7}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F86" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00720040-0056-4BFC-BE0B-004A001E006F}" done="0">
+  <threadedComment ref="F86" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00720040-0056-4BFC-BE0B-004A001E006F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F87" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00CD0068-003B-48A9-B257-00A400C30005}" done="0">
+  <threadedComment ref="F87" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00CD0068-003B-48A9-B257-00A400C30005}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F88" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00380059-00CD-4680-903F-001200BC00A4}" done="0">
+  <threadedComment ref="F88" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00380059-00CD-4680-903F-001200BC00A4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F89" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009500FB-00AD-4626-8417-008800A000E1}" done="0">
+  <threadedComment ref="F89" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{009500FB-00AD-4626-8417-008800A000E1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F90" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00A1003A-004A-469B-ACBF-000A004500CC}" done="0">
+  <threadedComment ref="F90" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00A1003A-004A-469B-ACBF-000A004500CC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F10" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00BE0084-00DB-4A19-AD4C-007200DE000E}" done="0">
+  <threadedComment ref="F10" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00BE0084-00DB-4A19-AD4C-007200DE000E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F91" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0046004F-0047-4C64-87E5-00EE00970097}" done="0">
+  <threadedComment ref="F91" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0046004F-0047-4C64-87E5-00EE00970097}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F92" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005100A3-007B-4685-8AC8-008000D800E8}" done="0">
+  <threadedComment ref="F92" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{005100A3-007B-4685-8AC8-008000D800E8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F93" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{000600FD-0053-45F8-A391-001900AD00C0}" done="0">
+  <threadedComment ref="F93" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{000600FD-0053-45F8-A391-001900AD00C0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F94" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E10009-0042-404A-9F0C-00BD006F0031}" done="0">
+  <threadedComment ref="F94" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00E10009-0042-404A-9F0C-00BD006F0031}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F95" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00270083-0048-4D3F-9E3F-00F900F700D9}" done="0">
+  <threadedComment ref="F95" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00270083-0048-4D3F-9E3F-00F900F700D9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F96" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{003F00F7-00D8-427E-9913-003500030020}" done="0">
+  <threadedComment ref="F96" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{003F00F7-00D8-427E-9913-003500030020}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F97" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00960084-0098-4664-BC96-009B00110086}" done="0">
+  <threadedComment ref="F97" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00960084-0098-4664-BC96-009B00110086}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F98" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005C0033-00EA-4983-B8DA-00E100410007}" done="0">
+  <threadedComment ref="F98" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{005C0033-00EA-4983-B8DA-00E100410007}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F99" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00950047-001D-4E75-8932-009A002C00E1}" done="0">
+  <threadedComment ref="F99" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00950047-001D-4E75-8932-009A002C00E1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F100" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00DB00DE-0033-4655-BFAD-003B007C0021}" done="0">
+  <threadedComment ref="F100" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00DB00DE-0033-4655-BFAD-003B007C0021}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
@@ -6578,516 +6581,516 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F11" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0019003E-00DD-4011-9D56-005900790044}" done="0">
+  <threadedComment ref="F11" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0019003E-00DD-4011-9D56-005900790044}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F101" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00EB00FE-009E-4709-904D-006B001F001E}" done="0">
+  <threadedComment ref="F101" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00EB00FE-009E-4709-904D-006B001F001E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F102" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D700D5-0053-4DB6-9621-000B009800CB}" done="0">
+  <threadedComment ref="F102" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00D700D5-0053-4DB6-9621-000B009800CB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F103" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{008800FF-0055-4844-ACC2-0076001100CF}" done="0">
+  <threadedComment ref="F103" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{008800FF-0055-4844-ACC2-0076001100CF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F104" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005400F9-006F-4035-AAB7-0030005800CE}" done="0">
+  <threadedComment ref="F104" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{005400F9-006F-4035-AAB7-0030005800CE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F105" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00CD0083-00F4-4E02-AC89-00F60064008E}" done="0">
+  <threadedComment ref="F105" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00CD0083-00F4-4E02-AC89-00F60064008E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F12" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00B1001A-00E3-40E1-9E1D-000D008E008D}" done="0">
+  <threadedComment ref="F12" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00B1001A-00E3-40E1-9E1D-000D008E008D}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F13" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00B400C0-00D5-40E5-8A1A-00D5009000F4}" done="0">
+  <threadedComment ref="F13" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00B400C0-00D5-40E5-8A1A-00D5009000F4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F14" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00EE00B7-008D-485F-AA06-009400F0002D}" done="0">
+  <threadedComment ref="F14" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00EE00B7-008D-485F-AA06-009400F0002D}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F15" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{002E00C1-0009-4AA1-A21E-008600AD00F1}" done="0">
+  <threadedComment ref="F15" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{002E00C1-0009-4AA1-A21E-008600AD00F1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F16" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00A5002A-008B-4DB1-9909-007100CE0097}" done="0">
+  <threadedComment ref="F16" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00A5002A-008B-4DB1-9909-007100CE0097}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F17" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{000200B5-009D-4FD4-8618-00DD00FF001C}" done="0">
+  <threadedComment ref="F17" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{000200B5-009D-4FD4-8618-00DD00FF001C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F18" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00C700DB-001C-43D6-B0B8-00650049008E}" done="0">
+  <threadedComment ref="F18" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00C700DB-001C-43D6-B0B8-00650049008E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F19" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00020099-007C-4D6A-AB89-00BB006100C9}" done="0">
+  <threadedComment ref="F19" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00020099-007C-4D6A-AB89-00BB006100C9}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F20" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00B200A1-00A5-4B96-8E58-007B000A004A}" done="0">
+  <threadedComment ref="F20" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00B200A1-00A5-4B96-8E58-007B000A004A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F21" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00AA007B-0069-441C-B70A-00B3007F00A4}" done="0">
+  <threadedComment ref="F21" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00AA007B-0069-441C-B70A-00B3007F00A4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F22" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00C50050-0073-40FC-9B5F-009800E000B2}" done="0">
+  <threadedComment ref="F22" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00C50050-0073-40FC-9B5F-009800E000B2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F23" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D20041-00C8-4C87-93B6-002F000B00D5}" done="0">
+  <threadedComment ref="F23" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00D20041-00C8-4C87-93B6-002F000B00D5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F24" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0006001B-006F-4061-88D4-00CE00BC00D3}" done="0">
+  <threadedComment ref="F24" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0006001B-006F-4061-88D4-00CE00BC00D3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F25" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00EA00B5-00FA-4937-A378-007F00CE00EE}" done="0">
+  <threadedComment ref="F25" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00EA00B5-00FA-4937-A378-007F00CE00EE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F26" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0096009B-00C3-4BC1-BF79-0073004D00DA}" done="0">
+  <threadedComment ref="F26" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0096009B-00C3-4BC1-BF79-0073004D00DA}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F27" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00660028-0017-4593-8105-00D500CA00CF}" done="0">
+  <threadedComment ref="F27" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00660028-0017-4593-8105-00D500CA00CF}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F28" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0054003B-00EA-4C66-B79C-00CF00F600D3}" done="0">
+  <threadedComment ref="F28" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0054003B-00EA-4C66-B79C-00CF00F600D3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F29" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{008E00DA-0015-49B4-A1FF-005F00BA00B8}" done="0">
+  <threadedComment ref="F29" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{008E00DA-0015-49B4-A1FF-005F00BA00B8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F30" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00DF00B9-00FF-4510-8F78-0064004D0062}" done="0">
+  <threadedComment ref="F30" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00DF00B9-00FF-4510-8F78-0064004D0062}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="E4" personId="{32B810E5-130F-77B6-7376-BAC8934697FC}" id="{007900C2-005E-48A6-8CBD-0036008F00C9}" done="0">
+  <threadedComment ref="E4" personId="{81DE8F3C-0BEB-0B95-4028-0D6EE868C9DE}" id="{007900C2-005E-48A6-8CBD-0036008F00C9}" done="0">
     <text xml:space="preserve">isi dengan jumlah piksel yang Anda inginkan untuk tiap milimeter
 </text>
   </threadedComment>
-  <threadedComment ref="F4" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0034000F-00E9-4A7B-BC67-00AE00910055}" done="0">
+  <threadedComment ref="F4" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0034000F-00E9-4A7B-BC67-00AE00910055}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F31" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E600E5-00FE-4E84-9545-0024006F00A3}" done="0">
+  <threadedComment ref="F31" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00E600E5-00FE-4E84-9545-0024006F00A3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F32" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0012003B-00C3-4448-86A4-000A0049004B}" done="0">
+  <threadedComment ref="F32" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0012003B-00C3-4448-86A4-000A0049004B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F33" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00240072-0031-4FCF-8345-006E00710052}" done="0">
+  <threadedComment ref="F33" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00240072-0031-4FCF-8345-006E00710052}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F34" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00AD0072-00EF-4B0A-904A-00DF002000C2}" done="0">
+  <threadedComment ref="F34" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00AD0072-00EF-4B0A-904A-00DF002000C2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F35" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00DF00C8-00EA-4D94-8C52-00050096005E}" done="0">
+  <threadedComment ref="F35" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00DF00C8-00EA-4D94-8C52-00050096005E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F36" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E8008E-0075-4E96-BD3B-003A00D20034}" done="0">
+  <threadedComment ref="F36" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00E8008E-0075-4E96-BD3B-003A00D20034}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F37" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00F000DA-0053-4C2E-B776-00E100FD00E6}" done="0">
+  <threadedComment ref="F37" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00F000DA-0053-4C2E-B776-00E100FD00E6}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F38" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0007002B-00A0-47A9-A420-002E00BA0073}" done="0">
+  <threadedComment ref="F38" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0007002B-00A0-47A9-A420-002E00BA0073}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F39" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{004E00A9-00B1-451A-A379-00E900300036}" done="0">
+  <threadedComment ref="F39" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{004E00A9-00B1-451A-A379-00E900300036}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F40" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00400002-0059-4D59-A276-00CB00E40084}" done="0">
+  <threadedComment ref="F40" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00400002-0059-4D59-A276-00CB00E40084}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F5" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00AA0075-00D0-4936-8B93-00F600E30056}" done="0">
+  <threadedComment ref="F5" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00AA0075-00D0-4936-8B93-00F600E30056}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F41" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{007A003A-0052-4D44-BE5F-002700A3008A}" done="0">
+  <threadedComment ref="F41" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{007A003A-0052-4D44-BE5F-002700A3008A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F42" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005900EB-00EE-41D5-BBC7-004500230082}" done="0">
+  <threadedComment ref="F42" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{005900EB-00EE-41D5-BBC7-004500230082}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F43" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0066006C-0075-4910-9BBE-007300B600D2}" done="0">
+  <threadedComment ref="F43" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0066006C-0075-4910-9BBE-007300B600D2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F44" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00BD0039-0060-4A32-A1FA-00EB00620059}" done="0">
+  <threadedComment ref="F44" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00BD0039-0060-4A32-A1FA-00EB00620059}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F45" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{003600C2-002B-4BB3-94AF-00F000610003}" done="0">
+  <threadedComment ref="F45" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{003600C2-002B-4BB3-94AF-00F000610003}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F46" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00C8007C-00BE-4CF5-A05E-00D30007004E}" done="0">
+  <threadedComment ref="F46" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00C8007C-00BE-4CF5-A05E-00D30007004E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F47" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00BE00EB-0060-4465-86B7-00F400EF0075}" done="0">
+  <threadedComment ref="F47" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00BE00EB-0060-4465-86B7-00F400EF0075}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F48" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{003A00B1-0087-4036-9277-004D00D600C2}" done="0">
+  <threadedComment ref="F48" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{003A00B1-0087-4036-9277-004D00D600C2}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F49" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{001B00D1-0043-47CD-B36D-008100A200E8}" done="0">
+  <threadedComment ref="F49" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{001B00D1-0043-47CD-B36D-008100A200E8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F50" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D80008-00BB-4263-8E96-003F00A4004A}" done="0">
+  <threadedComment ref="F50" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00D80008-00BB-4263-8E96-003F00A4004A}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F6" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{001E00CE-0048-475C-8F03-005D00FC00AB}" done="0">
+  <threadedComment ref="F6" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{001E00CE-0048-475C-8F03-005D00FC00AB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F51" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{008A008F-00C4-42A2-9BB4-0012001B001F}" done="0">
+  <threadedComment ref="F51" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{008A008F-00C4-42A2-9BB4-0012001B001F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F52" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009F004E-00F7-4254-A488-002600110066}" done="0">
+  <threadedComment ref="F52" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{009F004E-00F7-4254-A488-002600110066}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F53" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00F400D7-00E7-4B49-837A-00DF008D009C}" done="0">
+  <threadedComment ref="F53" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00F400D7-00E7-4B49-837A-00DF008D009C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F54" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009B005D-00D2-427C-969A-0004003400E3}" done="0">
+  <threadedComment ref="F54" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{009B005D-00D2-427C-969A-0004003400E3}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F55" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0099001A-0080-4833-A44C-00F1006F00ED}" done="0">
+  <threadedComment ref="F55" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0099001A-0080-4833-A44C-00F1006F00ED}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F56" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D40085-001B-4138-9210-00CC00400091}" done="0">
+  <threadedComment ref="F56" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00D40085-001B-4138-9210-00CC00400091}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F57" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{002E00E5-00AA-4A4B-885A-00D3006400A8}" done="0">
+  <threadedComment ref="F57" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{002E00E5-00AA-4A4B-885A-00D3006400A8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F58" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00A900F6-00CA-4FBB-A637-006D00E900DE}" done="0">
+  <threadedComment ref="F58" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00A900F6-00CA-4FBB-A637-006D00E900DE}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F59" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00F90006-0053-4D67-A51B-003900E70039}" done="0">
+  <threadedComment ref="F59" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00F90006-0053-4D67-A51B-003900E70039}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F60" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009600A0-0064-49EE-9A88-00DF00D30094}" done="0">
+  <threadedComment ref="F60" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{009600A0-0064-49EE-9A88-00DF00D30094}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F7" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00FB0041-006D-481D-B14B-0088007300C8}" done="0">
+  <threadedComment ref="F7" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00FB0041-006D-481D-B14B-0088007300C8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F61" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00B100BB-004B-4978-8955-005500AE0057}" done="0">
+  <threadedComment ref="F61" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00B100BB-004B-4978-8955-005500AE0057}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F62" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00DC0093-0025-4048-A61E-001E00F40032}" done="0">
+  <threadedComment ref="F62" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00DC0093-0025-4048-A61E-001E00F40032}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F63" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009E007C-0048-45D6-A57A-00A8007200F8}" done="0">
+  <threadedComment ref="F63" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{009E007C-0048-45D6-A57A-00A8007200F8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F64" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00C900D3-00F2-4872-AAF9-00B1000400BB}" done="0">
+  <threadedComment ref="F64" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00C900D3-00F2-4872-AAF9-00B1000400BB}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F65" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00A600C9-0097-4674-BC98-00DB002800A0}" done="0">
+  <threadedComment ref="F65" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00A600C9-0097-4674-BC98-00DB002800A0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F66" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{000500AF-00D3-450D-A721-004000E8008B}" done="0">
+  <threadedComment ref="F66" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{000500AF-00D3-450D-A721-004000E8008B}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F67" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005A00B9-0067-4B9F-8A50-00EB00570045}" done="0">
+  <threadedComment ref="F67" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{005A00B9-0067-4B9F-8A50-00EB00570045}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F68" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00FC00A7-0005-495C-9302-0032006A006C}" done="0">
+  <threadedComment ref="F68" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00FC00A7-0005-495C-9302-0032006A006C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F69" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00A50048-00DE-4A19-8C0A-00140082002E}" done="0">
+  <threadedComment ref="F69" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00A50048-00DE-4A19-8C0A-00140082002E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F70" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00A200D8-0028-455C-8EBD-0078008900C6}" done="0">
+  <threadedComment ref="F70" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00A200D8-0028-455C-8EBD-0078008900C6}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F8" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00960079-0077-4F2A-82A2-00BD00C3007F}" done="0">
+  <threadedComment ref="F8" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00960079-0077-4F2A-82A2-00BD00C3007F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F71" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00DF003A-001B-4DB1-9E42-007400AC00E1}" done="0">
+  <threadedComment ref="F71" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00DF003A-001B-4DB1-9E42-007400AC00E1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F72" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00F3005C-00CA-4F2D-B387-0081004F009E}" done="0">
+  <threadedComment ref="F72" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00F3005C-00CA-4F2D-B387-0081004F009E}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F73" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{007C0051-009E-4FFD-B2F5-00C600D50053}" done="0">
+  <threadedComment ref="F73" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{007C0051-009E-4FFD-B2F5-00C600D50053}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F74" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00670022-0015-4186-BA4E-009B000F0061}" done="0">
+  <threadedComment ref="F74" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00670022-0015-4186-BA4E-009B000F0061}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F75" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00500052-00E0-4AB2-9BBE-00A5009600C1}" done="0">
+  <threadedComment ref="F75" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00500052-00E0-4AB2-9BBE-00A5009600C1}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F76" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00F0004F-0064-499D-801C-000700D3002F}" done="0">
+  <threadedComment ref="F76" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00F0004F-0064-499D-801C-000700D3002F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F77" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{001400B2-00F1-4DB3-9DE7-00A000150039}" done="0">
+  <threadedComment ref="F77" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{001400B2-00F1-4DB3-9DE7-00A000150039}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F78" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{002400EE-00C1-4E63-80AA-009F004E0000}" done="0">
+  <threadedComment ref="F78" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{002400EE-00C1-4E63-80AA-009F004E0000}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F79" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00A2005A-00E8-4C73-BE0C-009600930058}" done="0">
+  <threadedComment ref="F79" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00A2005A-00E8-4C73-BE0C-009600930058}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F80" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00FE004A-004D-4DC5-9616-00FE006100BC}" done="0">
+  <threadedComment ref="F80" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00FE004A-004D-4DC5-9616-00FE006100BC}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F9" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00DC0029-00E7-42DB-B9C1-003400EA0062}" done="0">
+  <threadedComment ref="F9" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00DC0029-00E7-42DB-B9C1-003400EA0062}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F81" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00E200BC-0050-488A-B834-006200C90035}" done="0">
+  <threadedComment ref="F81" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00E200BC-0050-488A-B834-006200C90035}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F82" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00F700FA-0046-463B-90CC-00EC005200E4}" done="0">
+  <threadedComment ref="F82" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00F700FA-0046-463B-90CC-00EC005200E4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F83" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00A8006C-009A-4446-8DF2-005000F800A8}" done="0">
+  <threadedComment ref="F83" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00A8006C-009A-4446-8DF2-005000F800A8}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F84" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00BC003C-00E7-4887-9335-00BE00A00084}" done="0">
+  <threadedComment ref="F84" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00BC003C-00E7-4887-9335-00BE00A00084}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F85" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D3001D-0010-45EF-BB8A-0054009E00B0}" done="0">
+  <threadedComment ref="F85" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00D3001D-0010-45EF-BB8A-0054009E00B0}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F86" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00F80095-0024-4050-BFE8-002A000A0063}" done="0">
+  <threadedComment ref="F86" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00F80095-0024-4050-BFE8-002A000A0063}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F87" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0004000B-00D2-4380-8028-006600E5001D}" done="0">
+  <threadedComment ref="F87" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0004000B-00D2-4380-8028-006600E5001D}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F88" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{006100B6-00A0-44B1-954A-006400C90072}" done="0">
+  <threadedComment ref="F88" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{006100B6-00A0-44B1-954A-006400C90072}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F89" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{007E0001-00BA-4A1B-BFEA-009C000B003F}" done="0">
+  <threadedComment ref="F89" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{007E0001-00BA-4A1B-BFEA-009C000B003F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F90" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{006D000D-00B1-4850-80B6-001C002B00C4}" done="0">
+  <threadedComment ref="F90" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{006D000D-00B1-4850-80B6-001C002B00C4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F10" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00B7001B-00DB-4B45-809D-00D000730097}" done="0">
+  <threadedComment ref="F10" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00B7001B-00DB-4B45-809D-00D000730097}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F91" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{005F00B7-0068-4E20-B708-00B1008000A5}" done="0">
+  <threadedComment ref="F91" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{005F00B7-0068-4E20-B708-00B1008000A5}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F92" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00D2000D-008E-4F0E-889B-008D00540073}" done="0">
+  <threadedComment ref="F92" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00D2000D-008E-4F0E-889B-008D00540073}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F93" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00720077-00F3-41DB-80E4-00E6002900BA}" done="0">
+  <threadedComment ref="F93" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00720077-00F3-41DB-80E4-00E6002900BA}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F94" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00C70063-00A4-4E22-8B1D-008900470066}" done="0">
+  <threadedComment ref="F94" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00C70063-00A4-4E22-8B1D-008900470066}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F95" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00EF00A4-00D5-4A7C-AA4A-001D00140024}" done="0">
+  <threadedComment ref="F95" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00EF00A4-00D5-4A7C-AA4A-001D00140024}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F96" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{007A0009-008B-48C0-98F5-007E00320029}" done="0">
+  <threadedComment ref="F96" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{007A0009-008B-48C0-98F5-007E00320029}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F97" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{00490001-00FB-48E3-A81C-008400EF00B4}" done="0">
+  <threadedComment ref="F97" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{00490001-00FB-48E3-A81C-008400EF00B4}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F98" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{0053002C-0058-412F-A5E0-00F5008A0042}" done="0">
+  <threadedComment ref="F98" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{0053002C-0058-412F-A5E0-00F5008A0042}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F99" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{004800D8-003D-401F-B7E7-0098004A006C}" done="0">
+  <threadedComment ref="F99" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{004800D8-003D-401F-B7E7-0098004A006C}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
   </threadedComment>
-  <threadedComment ref="F100" personId="{173D1780-D085-D07A-C966-4EEA65435AB2}" id="{009600AA-0088-47E1-85DE-007F0056006F}" done="0">
+  <threadedComment ref="F100" personId="{77281532-F6A3-1C2F-2B19-8DFC6F869179}" id="{009600AA-0088-47E1-85DE-007F0056006F}" done="0">
     <text xml:space="preserve">1 = set RGB
 2 = set Koordinat
 </text>
@@ -18356,7 +18359,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{00110013-0094-48A8-AEF1-00C000D900EF}">
+          <x14:cfRule type="expression" priority="3" id="{000300CC-00BA-43E0-AD27-003B00310034}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -18373,7 +18376,7 @@
           <xm:sqref>J4:J105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{00BB00F3-0083-4160-9D96-009A00BF0063}">
+          <x14:cfRule type="expression" priority="2" id="{00E500EF-0014-4A0D-BEF9-00FE00CC0043}">
             <xm:f>$F4=2</xm:f>
             <x14:dxf>
               <font>
@@ -18390,7 +18393,7 @@
           <xm:sqref>K4:M105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{0039005A-0019-4193-A44C-00150041005F}">
+          <x14:cfRule type="expression" priority="1" id="{003E00C9-00B5-4C3E-9B8A-007700760030}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -18410,25 +18413,25 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
-        <x14:dataValidation xr:uid="{001F003E-006B-4930-B984-004100E40050}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C100DB-00D1-418D-8EE4-0060001D0086}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>AF4:AR105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F500FE-0099-4792-A744-008600FE0044}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{001300E6-0004-47D0-A3DD-003700160003}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>768</xm:f>
           </x14:formula1>
           <xm:sqref>B4 D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007A0074-00EF-461B-8CF7-00FB00980058}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{002800C3-00DD-42F8-BFA3-00EE00E400D0}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1024</xm:f>
           </x14:formula1>
           <xm:sqref>A4 C4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F300FD-002A-4CA3-A0AD-00CF00890030}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007500D1-00EF-4BEF-B3AA-0026003A0054}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -18437,19 +18440,19 @@
           </x14:formula2>
           <xm:sqref>F4:F105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00EE005E-0082-43AA-8E49-0044003E000E}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0006005A-00E9-4303-A69E-000E0031000C}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND(F4=2,J4&gt;0)</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D50008-00D9-4C7D-93C3-00DB00E40080}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006600E3-00CF-4F96-A967-00E9009200FF}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND($F4=1,K4&gt;=0,K4&lt;256)</xm:f>
           </x14:formula1>
           <xm:sqref>K4:M105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00230007-0002-4EF2-AA6E-008E00030071}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000300D5-0007-49AF-91D7-004400D100B4}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
@@ -26985,25 +26988,25 @@
         <v/>
       </c>
       <c r="Q71" s="47">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R71" s="48">
         <v>0</v>
       </c>
       <c r="S71" s="49">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T71" s="43">
         <v>0</v>
       </c>
       <c r="U71" s="63">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="V71" s="48">
         <v>25</v>
       </c>
       <c r="W71" s="49">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="X71" s="43">
         <v>25</v>
@@ -27016,7 +27019,7 @@
       <c r="AD71" s="51"/>
       <c r="AE71" s="52">
         <f t="shared" si="50"/>
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="AF71" s="53">
         <f t="shared" si="50"/>
@@ -27024,7 +27027,7 @@
       </c>
       <c r="AG71" s="54">
         <f t="shared" si="50"/>
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="AH71" s="55">
         <f t="shared" si="50"/>
@@ -27032,7 +27035,7 @@
       </c>
       <c r="AI71" s="52">
         <f t="shared" si="50"/>
-        <v>904</v>
+        <v>920</v>
       </c>
       <c r="AJ71" s="53">
         <f t="shared" si="50"/>
@@ -27040,7 +27043,7 @@
       </c>
       <c r="AK71" s="54">
         <f t="shared" si="50"/>
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="AL71" s="55">
         <f t="shared" si="50"/>
@@ -27072,7 +27075,7 @@
       </c>
       <c r="AS71" s="57" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">Point2D_t  ktk_kki_kasur3 [] = {{904.,0.},{916.,0.},{904.,100.},{916.,100.},{.,.},{.,.},{.,.}};</v>
+        <v xml:space="preserve">Point2D_t  ktk_kki_kasur3 [] = {{900.,0.},{920.,0.},{920.,100.},{900.,100.},{.,.},{.,.},{.,.}};</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1">
@@ -27442,7 +27445,9 @@
       <c r="C75" s="58"/>
       <c r="D75" s="58"/>
       <c r="E75" s="58"/>
-      <c r="F75" s="49"/>
+      <c r="F75" s="49">
+        <v>1</v>
+      </c>
       <c r="G75" s="39" t="str">
         <f t="shared" si="48"/>
         <v>Color_t</v>
@@ -27451,22 +27456,30 @@
         <f t="shared" si="48"/>
         <v>Point2D_t</v>
       </c>
-      <c r="I75" s="42"/>
+      <c r="I75" s="42" t="s">
+        <v>72</v>
+      </c>
       <c r="J75" s="43"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="45" t="str">
+      <c r="K75" s="38">
+        <v>86</v>
+      </c>
+      <c r="L75" s="38">
+        <v>142</v>
+      </c>
+      <c r="M75" s="43">
+        <v>212</v>
+      </c>
+      <c r="N75" s="45">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O75" s="45" t="str">
+        <v>0.33725490196078434</v>
+      </c>
+      <c r="O75" s="45">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="P75" s="46" t="str">
+        <v>0.55686274509803924</v>
+      </c>
+      <c r="P75" s="46">
         <f t="shared" si="52"/>
-        <v/>
+        <v>0.83137254901960789</v>
       </c>
       <c r="Q75" s="47"/>
       <c r="R75" s="48"/>
@@ -27540,7 +27553,7 @@
       </c>
       <c r="AS75" s="57" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v xml:space="preserve">Color_t biru_muda = {0.30000000000000004,0.6000000000000001,0.8};</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1">
@@ -30854,7 +30867,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{000F0022-00E4-4B01-987D-00E700D7008B}">
+          <x14:cfRule type="expression" priority="3" id="{00F700A5-0066-47EB-975C-009500FB0041}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30871,7 +30884,7 @@
           <xm:sqref>J4:J29 J31:J105 J31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{006800BB-00AC-4CE8-BEB3-004E00660023}">
+          <x14:cfRule type="expression" priority="2" id="{009C00A1-00EB-499D-885E-009100B30098}">
             <xm:f>$F4=2</xm:f>
             <x14:dxf>
               <font>
@@ -30888,7 +30901,7 @@
           <xm:sqref>K4:M105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00E100E2-0082-456F-A4A6-007A00960090}">
+          <x14:cfRule type="expression" priority="1" id="{000D007A-0050-4E59-AE12-006C008A007D}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30905,7 +30918,7 @@
           <xm:sqref>Q4:AD50 Y51:AD51 Q52:AD105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00FE009B-0075-4672-A027-006E00700086}">
+          <x14:cfRule type="expression" priority="1" id="{000600D3-008F-44C5-B5F8-00BA00BE0021}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30922,7 +30935,7 @@
           <xm:sqref>Q31:X31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{008A005D-004E-4F67-AACF-002C0082004C}">
+          <x14:cfRule type="expression" priority="1" id="{0067006D-00DB-44CF-AAAF-00360069008A}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30939,7 +30952,7 @@
           <xm:sqref>Q33:T33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00E70004-0012-4F57-A9B1-005700AB00B4}">
+          <x14:cfRule type="expression" priority="1" id="{006700C8-00A3-4EE9-917B-000200FE008E}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30956,7 +30969,7 @@
           <xm:sqref>U33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{008700F9-00D6-4501-A489-00F4007F00A9}">
+          <x14:cfRule type="expression" priority="1" id="{00A60094-00F4-4784-B31D-007A0034002D}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30973,7 +30986,7 @@
           <xm:sqref>U33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{002900B7-009B-4CDD-9DC7-000000670047}">
+          <x14:cfRule type="expression" priority="1" id="{0068007D-004A-4FDD-A1B7-0076004E00B2}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -30990,7 +31003,7 @@
           <xm:sqref>Q41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00E7000F-00D4-4E32-879B-007700E4001E}">
+          <x14:cfRule type="expression" priority="1" id="{001D00EA-004A-4A8E-BC4E-00DD00B300B3}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31007,7 +31020,7 @@
           <xm:sqref>S47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{002100BD-0088-4B78-B532-00830066007F}">
+          <x14:cfRule type="expression" priority="1" id="{00BD0099-0010-4390-B807-004800EC0048}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31024,7 +31037,7 @@
           <xm:sqref>T47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00CE0090-0033-4A87-8D83-003A00B10007}">
+          <x14:cfRule type="expression" priority="1" id="{00BA006F-00D9-4508-80B0-004400130045}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31041,7 +31054,7 @@
           <xm:sqref>U47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{004900A1-003F-492B-A7CD-00880090009B}">
+          <x14:cfRule type="expression" priority="1" id="{00E3006D-00AF-4230-8CE4-003200E60027}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31058,7 +31071,7 @@
           <xm:sqref>U47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{006B003D-00DD-42EC-9C19-00CE00180023}">
+          <x14:cfRule type="expression" priority="1" id="{00DD000E-004F-4A95-A014-0065004A0063}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31075,7 +31088,7 @@
           <xm:sqref>W47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{004F00DD-00FE-4F48-BD1E-004100C00043}">
+          <x14:cfRule type="expression" priority="1" id="{00AC0089-00A8-4067-B13C-000F0057003C}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31092,7 +31105,7 @@
           <xm:sqref>Q51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00E60005-00E8-494B-BBEB-0058001700AF}">
+          <x14:cfRule type="expression" priority="1" id="{00CE007E-00E5-42A7-931A-007600CE00BC}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31109,7 +31122,7 @@
           <xm:sqref>S51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00F000ED-00FF-4FCD-9981-005E008D0078}">
+          <x14:cfRule type="expression" priority="1" id="{00C300DE-0040-4E60-BD5C-00D300B000CB}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31126,7 +31139,7 @@
           <xm:sqref>U51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00DC0070-0083-4699-8815-004600BB0018}">
+          <x14:cfRule type="expression" priority="1" id="{00CF00FD-00C3-4D93-95FE-00B40044008B}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31143,7 +31156,7 @@
           <xm:sqref>W51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{005F00DC-0076-41B0-B1A0-009800B10044}">
+          <x14:cfRule type="expression" priority="1" id="{0071002E-0025-4FB5-89B5-009B000D001A}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31160,7 +31173,7 @@
           <xm:sqref>Q59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{009400BE-009C-401C-A5C1-00960034008D}">
+          <x14:cfRule type="expression" priority="1" id="{00550068-00B4-4989-8DF9-003500A400F3}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31177,7 +31190,7 @@
           <xm:sqref>S59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{003400E7-0024-491C-824F-0037001C0029}">
+          <x14:cfRule type="expression" priority="1" id="{00070087-002F-477C-9539-0050003C0064}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31194,7 +31207,7 @@
           <xm:sqref>Q60:T60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00F50055-00A8-43B1-8E1A-0038002D00E0}">
+          <x14:cfRule type="expression" priority="1" id="{001900D6-0025-4DFF-9BD2-0027003C0073}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31211,7 +31224,7 @@
           <xm:sqref>W61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00F10069-005D-4264-A72B-008100EE005A}">
+          <x14:cfRule type="expression" priority="1" id="{00890059-00C8-4E96-9D06-009A00710032}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31228,7 +31241,7 @@
           <xm:sqref>X61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00C50041-0088-4A9C-937D-00CA00000091}">
+          <x14:cfRule type="expression" priority="1" id="{00A7004B-008C-4842-AA29-0023008E006C}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31245,7 +31258,7 @@
           <xm:sqref>V63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{007D00F5-00A3-449D-9BD2-00BC007900A5}">
+          <x14:cfRule type="expression" priority="1" id="{003D004C-00F3-4CCA-B458-006B009B00C8}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31262,7 +31275,7 @@
           <xm:sqref>X63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00300076-004C-47D6-B4F0-00F6002D00D0}">
+          <x14:cfRule type="expression" priority="1" id="{00CA0047-001A-4598-B67F-00440073002F}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31279,7 +31292,7 @@
           <xm:sqref>X63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00E7008F-00A3-4C55-A10F-003A00F8003A}">
+          <x14:cfRule type="expression" priority="1" id="{001600AB-000B-42AA-8903-00B200E1008B}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31296,7 +31309,7 @@
           <xm:sqref>X65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00870005-00D6-4CE2-8D66-0094005900A3}">
+          <x14:cfRule type="expression" priority="1" id="{00230083-0057-4F5B-B4B0-000C00CF0099}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31313,7 +31326,7 @@
           <xm:sqref>U67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{0034006A-003D-4664-8755-004800C1004F}">
+          <x14:cfRule type="expression" priority="1" id="{001000FB-00B3-42E1-AB9A-006700EE00F3}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31330,7 +31343,7 @@
           <xm:sqref>U69:X69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00E60070-002C-42AC-BAB9-00B60060006A}">
+          <x14:cfRule type="expression" priority="1" id="{00E4008A-0085-4C59-ACC2-003E003F0027}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31347,7 +31360,7 @@
           <xm:sqref>U71:X71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00F10061-0014-454E-8E01-008400AA0024}">
+          <x14:cfRule type="expression" priority="1" id="{00E00027-00B2-4F47-853C-0006003C0067}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31364,7 +31377,7 @@
           <xm:sqref>U73:X73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{001A00D6-0036-41CB-8C51-003100F5006D}">
+          <x14:cfRule type="expression" priority="1" id="{007E00FF-003F-4A8B-A09F-00BC00340081}">
             <xm:f>$F4=1</xm:f>
             <x14:dxf>
               <font>
@@ -31384,25 +31397,25 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="30" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00C6008F-0071-485B-A433-0007001E00F7}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00410020-0037-411A-8AD6-003C0066002E}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q4:AD30 Y31:AD31 Q32:AD32 V33:AD33 Q34:AD40 R41:AD41 Q42:AD46 Q47:R47 V47 X47:AD47 Q48:AD50 Y51:AD51 Q52:AD58 R59 T59:AD59 U60:AD60 Q61:V61 Y61:AD61 Q62:AD62 Q63:U63 W63 Y63:AD63 Q64:AD64 Q65:W65 Y65:AD65 Q66:AD66 Q67:T67 V67:AD67 Q68:AD68 Q69:T69 Y69:AD69 Q70:AD70 Q71:T71 Y71:AD71 Q72:AD72 Q73:T73 Y73:AD73 Q74:AD105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00960064-0077-4E72-A4CB-0006004500D1}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004B00B3-008A-4AE4-9EFF-0000005E0076}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Isi dengan angka 0 - 255" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND($F4=1,K4&gt;=0,K4&lt;256)</xm:f>
           </x14:formula1>
           <xm:sqref>K4:M8 K10:M10 K12:M20 K22:M105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006A0061-0071-46FD-AC64-001000E90021}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00ED00EE-0083-406C-AF1C-005C00BA00C6}" type="custom" allowBlank="1" error="Angka tidak valid atau tidak boleh diisi" errorStyle="stop" errorTitle="ERROR" imeMode="noControl" operator="between" prompt="Diisi banyaknya titik" promptTitle="INFORMASI" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>AND(F4=2,J4&gt;0)</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J29 J31 J32:J105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00BF004D-0090-4EC8-AFDE-00BA00920067}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{001800C1-00C8-45EA-9966-00C900AA00B7}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -31411,25 +31424,25 @@
           </x14:formula2>
           <xm:sqref>F4:F13 F20:F60 F63:F105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009600D0-00A9-4BC5-8F7C-001A005400AF}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00AA0089-0047-4034-AD67-002700FD002E}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 1024" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1024</xm:f>
           </x14:formula1>
           <xm:sqref>A4 C4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006F00F7-0079-4F4E-86CB-001400D700EF}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00DB00D5-002D-4A14-B758-0079008A00A6}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= 768" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>768</xm:f>
           </x14:formula1>
           <xm:sqref>B4 D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E000C9-0040-4979-8585-00DF00080062}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006C0040-00D6-40B4-BFFA-00E8003100E7}" type="whole" allowBlank="1" error="harus bilangan bulat &lt;= LEBAR DESAIN" errorStyle="stop" imeMode="noControl" operator="lessThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>AF4:AR105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C30059-0060-4614-8BC0-0013008300D2}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00FF0083-0070-49D1-9BE4-00AF00090081}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -31438,85 +31451,85 @@
           </x14:formula2>
           <xm:sqref>F14:F19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000B000F-009E-421C-9EBB-00CD007300B4}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0098004D-00D1-45F2-8DF8-004800AA006E}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F5=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q31:X31</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FF0032-0064-429D-A192-006C00240075}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00DA004B-00F7-44F3-A8B6-002200C6005B}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F8=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q33:T33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002300C6-0027-4C51-A572-005E0011006C}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008B0048-006D-480A-B5C9-002D00330028}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F8=2</xm:f>
           </x14:formula1>
           <xm:sqref>U33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00ED0082-0016-4539-B125-00BD00D900AB}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D60047-0079-4068-A1A8-00F600F70076}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006200B1-0075-45ED-929F-0066004F0089}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00BC00AD-00C5-4360-A964-0078008F0023}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>S47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00EE0035-0058-4C82-B2AD-0025001E0099}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00EE005A-0077-40C6-BF4D-002C00CF008C}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>T47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006600DE-0099-42BB-A274-00D300930069}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006B003F-0013-4CF5-95C8-00CB008700AA}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>U47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003C0098-00A7-46B2-813F-0025009C0072}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D20049-00FA-43AE-B926-00B30035000B}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>W47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000D0046-0093-4D74-83F4-00E200FE00F6}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{001300A5-0095-4C87-8042-00E700C10089}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002D0021-0079-48C4-B59F-0044006C00B1}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F30019-00EC-4148-9CC5-009200D10064}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>S59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0001002E-00C7-438E-8626-00E800F5000D}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000300D4-00E7-47F8-9F69-00A700E40074}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>Q60:T60</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F00051-0045-48FA-863B-00AC00530063}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000A009D-00BF-4B81-87C8-00760087001C}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>W61</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007800C5-001B-40C7-AF7A-00D400330043}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007E001A-0099-4419-8405-00F400840080}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>X61</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008F0078-00CD-4D82-868A-00AC00090087}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000D00A6-00C2-4099-9AD1-00A900AD006B}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -31525,7 +31538,7 @@
           </x14:formula2>
           <xm:sqref>F61</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008B0052-0085-4B28-9825-0057006100C2}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005100A2-004B-4035-97D8-0076004E00A7}" type="whole" allowBlank="1" error="harus angka 1 atau 2" errorStyle="stop" errorTitle="Salah" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -31534,43 +31547,43 @@
           </x14:formula2>
           <xm:sqref>F62</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008700C3-00F2-4B43-AAAA-00A000FE00D8}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0057005E-00B9-4AD7-80BD-001C001800D2}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>V63</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00390065-0003-44B2-AE12-003E00970025}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005700D5-0079-4FEC-BF7F-005F0052003E}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
           <xm:sqref>X63</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A1001E-00FD-49DE-AA99-00840011000C}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E800CD-00B1-4341-AE5E-000A007E0026}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>X65</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D40011-0044-47FB-87A9-00F20076005E}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00610085-0029-408F-B0F4-0087004400FF}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>U67</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C9000D-0069-45A3-8B0C-00A600B10042}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0099006F-0014-455B-9CDC-00B500A20041}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>U69:X69</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005B00ED-001A-444F-AA64-00B5004B0001}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006E00A9-00C6-4C48-B984-00F100CE0066}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F4=2</xm:f>
           </x14:formula1>
           <xm:sqref>U71:X71</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CC00AB-0009-4B6E-AEBF-00EA0071002B}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0064006E-00FC-4765-93FB-002E00B40045}" type="custom" allowBlank="1" error="Tidak boleh diisi" errorStyle="stop" errorTitle="Error" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$F6=2</xm:f>
           </x14:formula1>
